--- a/Covid_19_Dataset_and_References/References/71.xlsx
+++ b/Covid_19_Dataset_and_References/References/71.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="206">
   <si>
     <t>Doi</t>
   </si>
@@ -892,6 +892,136 @@
   </si>
   <si>
     <t>[Ishan%Paranjpe%NULL%0,    Adam J%Russak%NULL%2,    Adam J%Russak%NULL%0,    Jessica K%De Freitas%NULL%1,    Anuradha%Lala%NULL%1,    Riccardo%Miotto%NULL%1,    Akhil%Vaid%NULL%1,    Kipp W%Johnson%NULL%1,    Matteo%Danieletto%NULL%1,    Eddye%Golden%NULL%1,    Dara%Meyer%NULL%1,    Manbir%Singh%NULL%1,    Sulaiman%Somani%NULL%1,    Arjun%Kapoor%NULL%1,    Ross%O'Hagan%NULL%1,    Sayan%Manna%NULL%1,    Udit%Nangia%NULL%1,    Suraj K%Jaladanki%NULL%1,    Paul%O’Reilly%NULL%2,    Paul%O’Reilly%NULL%0,    Laura M%Huckins%NULL%1,    Patricia%Glowe%NULL%1,    Arash%Kia%NULL%1,    Prem%Timsina%NULL%1,    Robert M%Freeman%NULL%1,    Matthew A%Levin%NULL%1,    Jeffrey%Jhang%NULL%1,    Adolfo%Firpo%NULL%1,    Patricia%Kovatch%NULL%1,    Joseph%Finkelstein%NULL%1,    Judith A%Aberg%NULL%1,    Emilia%Bagiella%NULL%1,    Carol R%Horowitz%NULL%1,    Barbara%Murphy%NULL%1,    Zahi A%Fayad%NULL%1,    Jagat%Narula%NULL%1,    Eric J%Nestler%NULL%1,    V%Fuster%NULL%1,    Carlos%Cordon-Cardo%NULL%1,    Dennis%Charney%NULL%1,    David L%Reich%NULL%1,    Allan%Just%NULL%1,    Erwin P%Bottinger%NULL%1,    Alexander W%Charney%NULL%1,    Benjamin S%Glicksberg%NULL%1,    Girish N%Nadkarni%NULL%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The average length of stay (LOS) in the intensive care unit (ICU_ALOS) is a helpful parameter summarizing critical bed occupancy.
+ During the outbreak of a novel virus, estimating early a reliable ICU_ALOS estimate of infected patients is critical to accurately parameterize models examining mitigation and preparedness scenarios.
+Methods
+id="Par2"&gt;Two estimation methods of ICU_ALOS were compared: the average LOS of already discharged patients at the date of estimation (DPE), and a standard parametric method used for analyzing time-to-event data which fits a given distribution to observed data and includes the censored stays of patients still treated in the ICU at the date of estimation (CPE).
+ Methods were compared on a series of all COVID-19 consecutive cases (n = 59) admitted in an ICU devoted to such patients.
+ At the last follow-up date, 99 days after the first admission, all patients but one had been discharged.
+ A simulation study investigated the generalizability of the methods' patterns.
+ CPE and DPE estimates were also compared to COVID-19 estimates reported to date.
+Results
+id="Par3"&gt;LOS ≥ 30 days concerned 14 out of the 59 patients (24%), including 8 of the 21 deaths observed.
+ Two months after the first admission, 38 (64%) patients had been discharged, with corresponding DPE and CPE estimates of ICU_ALOS (95% CI) at 13.0 days (10.4–15.6) and 23.1 days (18.1–29.7), respectively.
+ Series' true ICU_ALOS was greater than 21 days, well above reported estimates to date.
+Conclusions
+id="Par4"&gt;Discharges of short stays are more likely observed earlier during the course of an outbreak.
+ Cautious unbiased ICU_ALOS estimates suggest parameterizing a higher burden of ICU bed occupancy than that adopted to date in COVID-19 forecasting models.
+Funding
+id="Par5"&gt;Support by the National Natural Science Foundation of China (81900097 to Dr.
+ Zhou) and the Emergency Response Project of Hubei Science and Technology Department (2020FCA023 to Pr.
+ Zhao).
+</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,     Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,     Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,     Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,     Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,     Bruno%Riou%bruno.riou@aphp.fr%2,     Bruno%Riou%bruno.riou@aphp.fr%0,     Yan%Zhao%doctoryanzhao@whu.edu.cn%3,     Yan%Zhao%doctoryanzhao@whu.edu.cn%0,     Gilles%Hejblum%gilles.hejblum@inserm.fr%2,     Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The average length of stay (LOS) in the intensive care unit (ICU_ALOS) is a helpful parameter summarizing critical bed occupancy.
+ During the outbreak of a novel virus, estimating early a reliable ICU_ALOS estimate of infected patients is critical to accurately parameterize models examining mitigation and preparedness scenarios.
+Methods
+Two estimation methods of ICU_ALOS were compared: the average LOS of already discharged patients at the date of estimation (DPE), and a standard parametric method used for analyzing time-to-event data which fits a given distribution to observed data and includes the censored stays of patients still treated in the ICU at the date of estimation (CPE).
+ Methods were compared on a series of all COVID-19 consecutive cases (n = 59) admitted in an ICU devoted to such patients.
+ At the last follow-up date, 99 days after the first admission, all patients but one had been discharged.
+ A simulation study investigated the generalizability of the methods' patterns.
+ CPE and DPE estimates were also compared to COVID-19 estimates reported to date.
+Results
+id="Par3"&gt;LOS ≥ 30 days concerned 14 out of the 59 patients (24%), including 8 of the 21 deaths observed.
+ Two months after the first admission, 38 (64%) patients had been discharged, with corresponding DPE and CPE estimates of ICU_ALOS (95% CI) at 13.0 days (10.4–15.6) and 23.1 days (18.1–29.7), respectively.
+ Series' true ICU_ALOS was greater than 21 days, well above reported estimates to date.
+Conclusions
+id="Par4"&gt;Discharges of short stays are more likely observed earlier during the course of an outbreak.
+ Cautious unbiased ICU_ALOS estimates suggest parameterizing a higher burden of ICU bed occupancy than that adopted to date in COVID-19 forecasting models.
+Funding
+id="Par5"&gt;Support by the National Natural Science Foundation of China (81900097 to Dr.
+ Zhou) and the Emergency Response Project of Hubei Science and Technology Department (2020FCA023 to Pr.
+ Zhao).
+</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,      Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,      Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,      Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,      Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,      Bruno%Riou%bruno.riou@aphp.fr%2,      Bruno%Riou%bruno.riou@aphp.fr%0,      Yan%Zhao%doctoryanzhao@whu.edu.cn%2,      Yan%Zhao%doctoryanzhao@whu.edu.cn%0,      Gilles%Hejblum%gilles.hejblum@inserm.fr%2,      Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The average length of stay (LOS) in the intensive care unit (ICU_ALOS) is a helpful parameter summarizing critical bed occupancy.
+ During the outbreak of a novel virus, estimating early a reliable ICU_ALOS estimate of infected patients is critical to accurately parameterize models examining mitigation and preparedness scenarios.
+Methods
+Two estimation methods of ICU_ALOS were compared: the average LOS of already discharged patients at the date of estimation (DPE), and a standard parametric method used for analyzing time-to-event data which fits a given distribution to observed data and includes the censored stays of patients still treated in the ICU at the date of estimation (CPE).
+ Methods were compared on a series of all COVID-19 consecutive cases (n = 59) admitted in an ICU devoted to such patients.
+ At the last follow-up date, 99 days after the first admission, all patients but one had been discharged.
+ A simulation study investigated the generalizability of the methods' patterns.
+ CPE and DPE estimates were also compared to COVID-19 estimates reported to date.
+Results
+LOS ≥ 30 days concerned 14 out of the 59 patients (24%), including 8 of the 21 deaths observed.
+ Two months after the first admission, 38 (64%) patients had been discharged, with corresponding DPE and CPE estimates of ICU_ALOS (95% CI) at 13.0 days (10.4–15.6) and 23.1 days (18.1–29.7), respectively.
+ Series' true ICU_ALOS was greater than 21 days, well above reported estimates to date.
+Conclusions
+id="Par4"&gt;Discharges of short stays are more likely observed earlier during the course of an outbreak.
+ Cautious unbiased ICU_ALOS estimates suggest parameterizing a higher burden of ICU bed occupancy than that adopted to date in COVID-19 forecasting models.
+Funding
+id="Par5"&gt;Support by the National Natural Science Foundation of China (81900097 to Dr.
+ Zhou) and the Emergency Response Project of Hubei Science and Technology Department (2020FCA023 to Pr.
+ Zhao).
+</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,       Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,       Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,       Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,       Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,       Bruno%Riou%bruno.riou@aphp.fr%2,       Bruno%Riou%bruno.riou@aphp.fr%0,       Yan%Zhao%doctoryanzhao@whu.edu.cn%2,       Yan%Zhao%doctoryanzhao@whu.edu.cn%0,       Gilles%Hejblum%gilles.hejblum@inserm.fr%2,       Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The average length of stay (LOS) in the intensive care unit (ICU_ALOS) is a helpful parameter summarizing critical bed occupancy.
+ During the outbreak of a novel virus, estimating early a reliable ICU_ALOS estimate of infected patients is critical to accurately parameterize models examining mitigation and preparedness scenarios.
+Methods
+Two estimation methods of ICU_ALOS were compared: the average LOS of already discharged patients at the date of estimation (DPE), and a standard parametric method used for analyzing time-to-event data which fits a given distribution to observed data and includes the censored stays of patients still treated in the ICU at the date of estimation (CPE).
+ Methods were compared on a series of all COVID-19 consecutive cases (n = 59) admitted in an ICU devoted to such patients.
+ At the last follow-up date, 99 days after the first admission, all patients but one had been discharged.
+ A simulation study investigated the generalizability of the methods' patterns.
+ CPE and DPE estimates were also compared to COVID-19 estimates reported to date.
+Results
+LOS ≥ 30 days concerned 14 out of the 59 patients (24%), including 8 of the 21 deaths observed.
+ Two months after the first admission, 38 (64%) patients had been discharged, with corresponding DPE and CPE estimates of ICU_ALOS (95% CI) at 13.0 days (10.4–15.6) and 23.1 days (18.1–29.7), respectively.
+ Series' true ICU_ALOS was greater than 21 days, well above reported estimates to date.
+Conclusions
+Discharges of short stays are more likely observed earlier during the course of an outbreak.
+ Cautious unbiased ICU_ALOS estimates suggest parameterizing a higher burden of ICU bed occupancy than that adopted to date in COVID-19 forecasting models.
+Funding
+id="Par5"&gt;Support by the National Natural Science Foundation of China (81900097 to Dr.
+ Zhou) and the Emergency Response Project of Hubei Science and Technology Department (2020FCA023 to Pr.
+ Zhao).
+</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,        Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,        Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,        Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,        Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,        Bruno%Riou%bruno.riou@aphp.fr%2,        Bruno%Riou%bruno.riou@aphp.fr%0,        Yan%Zhao%doctoryanzhao@whu.edu.cn%2,        Yan%Zhao%doctoryanzhao@whu.edu.cn%0,        Gilles%Hejblum%gilles.hejblum@inserm.fr%2,        Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The average length of stay (LOS) in the intensive care unit (ICU_ALOS) is a helpful parameter summarizing critical bed occupancy.
+ During the outbreak of a novel virus, estimating early a reliable ICU_ALOS estimate of infected patients is critical to accurately parameterize models examining mitigation and preparedness scenarios.
+Methods
+Two estimation methods of ICU_ALOS were compared: the average LOS of already discharged patients at the date of estimation (DPE), and a standard parametric method used for analyzing time-to-event data which fits a given distribution to observed data and includes the censored stays of patients still treated in the ICU at the date of estimation (CPE).
+ Methods were compared on a series of all COVID-19 consecutive cases (n = 59) admitted in an ICU devoted to such patients.
+ At the last follow-up date, 99 days after the first admission, all patients but one had been discharged.
+ A simulation study investigated the generalizability of the methods' patterns.
+ CPE and DPE estimates were also compared to COVID-19 estimates reported to date.
+Results
+LOS ≥ 30 days concerned 14 out of the 59 patients (24%), including 8 of the 21 deaths observed.
+ Two months after the first admission, 38 (64%) patients had been discharged, with corresponding DPE and CPE estimates of ICU_ALOS (95% CI) at 13.0 days (10.4–15.6) and 23.1 days (18.1–29.7), respectively.
+ Series' true ICU_ALOS was greater than 21 days, well above reported estimates to date.
+Conclusions
+Discharges of short stays are more likely observed earlier during the course of an outbreak.
+ Cautious unbiased ICU_ALOS estimates suggest parameterizing a higher burden of ICU bed occupancy than that adopted to date in COVID-19 forecasting models.
+Funding
+Support by the National Natural Science Foundation of China (81900097 to Dr.
+ Zhou) and the Emergency Response Project of Hubei Science and Technology Department (2020FCA023 to Pr.
+ Zhao).
+</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,         Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,         Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,         Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,         Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,         Bruno%Riou%bruno.riou@aphp.fr%2,         Bruno%Riou%bruno.riou@aphp.fr%0,         Yan%Zhao%doctoryanzhao@whu.edu.cn%2,         Yan%Zhao%doctoryanzhao@whu.edu.cn%0,         Gilles%Hejblum%gilles.hejblum@inserm.fr%2,         Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
   </si>
 </sst>
 </file>
@@ -1257,10 +1387,10 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>

--- a/Covid_19_Dataset_and_References/References/71.xlsx
+++ b/Covid_19_Dataset_and_References/References/71.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="196">
   <si>
     <t>Doi</t>
   </si>
@@ -892,136 +892,6 @@
   </si>
   <si>
     <t>[Ishan%Paranjpe%NULL%0,    Adam J%Russak%NULL%2,    Adam J%Russak%NULL%0,    Jessica K%De Freitas%NULL%1,    Anuradha%Lala%NULL%1,    Riccardo%Miotto%NULL%1,    Akhil%Vaid%NULL%1,    Kipp W%Johnson%NULL%1,    Matteo%Danieletto%NULL%1,    Eddye%Golden%NULL%1,    Dara%Meyer%NULL%1,    Manbir%Singh%NULL%1,    Sulaiman%Somani%NULL%1,    Arjun%Kapoor%NULL%1,    Ross%O'Hagan%NULL%1,    Sayan%Manna%NULL%1,    Udit%Nangia%NULL%1,    Suraj K%Jaladanki%NULL%1,    Paul%O’Reilly%NULL%2,    Paul%O’Reilly%NULL%0,    Laura M%Huckins%NULL%1,    Patricia%Glowe%NULL%1,    Arash%Kia%NULL%1,    Prem%Timsina%NULL%1,    Robert M%Freeman%NULL%1,    Matthew A%Levin%NULL%1,    Jeffrey%Jhang%NULL%1,    Adolfo%Firpo%NULL%1,    Patricia%Kovatch%NULL%1,    Joseph%Finkelstein%NULL%1,    Judith A%Aberg%NULL%1,    Emilia%Bagiella%NULL%1,    Carol R%Horowitz%NULL%1,    Barbara%Murphy%NULL%1,    Zahi A%Fayad%NULL%1,    Jagat%Narula%NULL%1,    Eric J%Nestler%NULL%1,    V%Fuster%NULL%1,    Carlos%Cordon-Cardo%NULL%1,    Dennis%Charney%NULL%1,    David L%Reich%NULL%1,    Allan%Just%NULL%1,    Erwin P%Bottinger%NULL%1,    Alexander W%Charney%NULL%1,    Benjamin S%Glicksberg%NULL%1,    Girish N%Nadkarni%NULL%1,    NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The average length of stay (LOS) in the intensive care unit (ICU_ALOS) is a helpful parameter summarizing critical bed occupancy.
- During the outbreak of a novel virus, estimating early a reliable ICU_ALOS estimate of infected patients is critical to accurately parameterize models examining mitigation and preparedness scenarios.
-Methods
-id="Par2"&gt;Two estimation methods of ICU_ALOS were compared: the average LOS of already discharged patients at the date of estimation (DPE), and a standard parametric method used for analyzing time-to-event data which fits a given distribution to observed data and includes the censored stays of patients still treated in the ICU at the date of estimation (CPE).
- Methods were compared on a series of all COVID-19 consecutive cases (n = 59) admitted in an ICU devoted to such patients.
- At the last follow-up date, 99 days after the first admission, all patients but one had been discharged.
- A simulation study investigated the generalizability of the methods' patterns.
- CPE and DPE estimates were also compared to COVID-19 estimates reported to date.
-Results
-id="Par3"&gt;LOS ≥ 30 days concerned 14 out of the 59 patients (24%), including 8 of the 21 deaths observed.
- Two months after the first admission, 38 (64%) patients had been discharged, with corresponding DPE and CPE estimates of ICU_ALOS (95% CI) at 13.0 days (10.4–15.6) and 23.1 days (18.1–29.7), respectively.
- Series' true ICU_ALOS was greater than 21 days, well above reported estimates to date.
-Conclusions
-id="Par4"&gt;Discharges of short stays are more likely observed earlier during the course of an outbreak.
- Cautious unbiased ICU_ALOS estimates suggest parameterizing a higher burden of ICU bed occupancy than that adopted to date in COVID-19 forecasting models.
-Funding
-id="Par5"&gt;Support by the National Natural Science Foundation of China (81900097 to Dr.
- Zhou) and the Emergency Response Project of Hubei Science and Technology Department (2020FCA023 to Pr.
- Zhao).
-</t>
-  </si>
-  <si>
-    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,     Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,     Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,     Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,     Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,     Bruno%Riou%bruno.riou@aphp.fr%2,     Bruno%Riou%bruno.riou@aphp.fr%0,     Yan%Zhao%doctoryanzhao@whu.edu.cn%3,     Yan%Zhao%doctoryanzhao@whu.edu.cn%0,     Gilles%Hejblum%gilles.hejblum@inserm.fr%2,     Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The average length of stay (LOS) in the intensive care unit (ICU_ALOS) is a helpful parameter summarizing critical bed occupancy.
- During the outbreak of a novel virus, estimating early a reliable ICU_ALOS estimate of infected patients is critical to accurately parameterize models examining mitigation and preparedness scenarios.
-Methods
-Two estimation methods of ICU_ALOS were compared: the average LOS of already discharged patients at the date of estimation (DPE), and a standard parametric method used for analyzing time-to-event data which fits a given distribution to observed data and includes the censored stays of patients still treated in the ICU at the date of estimation (CPE).
- Methods were compared on a series of all COVID-19 consecutive cases (n = 59) admitted in an ICU devoted to such patients.
- At the last follow-up date, 99 days after the first admission, all patients but one had been discharged.
- A simulation study investigated the generalizability of the methods' patterns.
- CPE and DPE estimates were also compared to COVID-19 estimates reported to date.
-Results
-id="Par3"&gt;LOS ≥ 30 days concerned 14 out of the 59 patients (24%), including 8 of the 21 deaths observed.
- Two months after the first admission, 38 (64%) patients had been discharged, with corresponding DPE and CPE estimates of ICU_ALOS (95% CI) at 13.0 days (10.4–15.6) and 23.1 days (18.1–29.7), respectively.
- Series' true ICU_ALOS was greater than 21 days, well above reported estimates to date.
-Conclusions
-id="Par4"&gt;Discharges of short stays are more likely observed earlier during the course of an outbreak.
- Cautious unbiased ICU_ALOS estimates suggest parameterizing a higher burden of ICU bed occupancy than that adopted to date in COVID-19 forecasting models.
-Funding
-id="Par5"&gt;Support by the National Natural Science Foundation of China (81900097 to Dr.
- Zhou) and the Emergency Response Project of Hubei Science and Technology Department (2020FCA023 to Pr.
- Zhao).
-</t>
-  </si>
-  <si>
-    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,      Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,      Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,      Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,      Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,      Bruno%Riou%bruno.riou@aphp.fr%2,      Bruno%Riou%bruno.riou@aphp.fr%0,      Yan%Zhao%doctoryanzhao@whu.edu.cn%2,      Yan%Zhao%doctoryanzhao@whu.edu.cn%0,      Gilles%Hejblum%gilles.hejblum@inserm.fr%2,      Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The average length of stay (LOS) in the intensive care unit (ICU_ALOS) is a helpful parameter summarizing critical bed occupancy.
- During the outbreak of a novel virus, estimating early a reliable ICU_ALOS estimate of infected patients is critical to accurately parameterize models examining mitigation and preparedness scenarios.
-Methods
-Two estimation methods of ICU_ALOS were compared: the average LOS of already discharged patients at the date of estimation (DPE), and a standard parametric method used for analyzing time-to-event data which fits a given distribution to observed data and includes the censored stays of patients still treated in the ICU at the date of estimation (CPE).
- Methods were compared on a series of all COVID-19 consecutive cases (n = 59) admitted in an ICU devoted to such patients.
- At the last follow-up date, 99 days after the first admission, all patients but one had been discharged.
- A simulation study investigated the generalizability of the methods' patterns.
- CPE and DPE estimates were also compared to COVID-19 estimates reported to date.
-Results
-LOS ≥ 30 days concerned 14 out of the 59 patients (24%), including 8 of the 21 deaths observed.
- Two months after the first admission, 38 (64%) patients had been discharged, with corresponding DPE and CPE estimates of ICU_ALOS (95% CI) at 13.0 days (10.4–15.6) and 23.1 days (18.1–29.7), respectively.
- Series' true ICU_ALOS was greater than 21 days, well above reported estimates to date.
-Conclusions
-id="Par4"&gt;Discharges of short stays are more likely observed earlier during the course of an outbreak.
- Cautious unbiased ICU_ALOS estimates suggest parameterizing a higher burden of ICU bed occupancy than that adopted to date in COVID-19 forecasting models.
-Funding
-id="Par5"&gt;Support by the National Natural Science Foundation of China (81900097 to Dr.
- Zhou) and the Emergency Response Project of Hubei Science and Technology Department (2020FCA023 to Pr.
- Zhao).
-</t>
-  </si>
-  <si>
-    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,       Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,       Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,       Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,       Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,       Bruno%Riou%bruno.riou@aphp.fr%2,       Bruno%Riou%bruno.riou@aphp.fr%0,       Yan%Zhao%doctoryanzhao@whu.edu.cn%2,       Yan%Zhao%doctoryanzhao@whu.edu.cn%0,       Gilles%Hejblum%gilles.hejblum@inserm.fr%2,       Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The average length of stay (LOS) in the intensive care unit (ICU_ALOS) is a helpful parameter summarizing critical bed occupancy.
- During the outbreak of a novel virus, estimating early a reliable ICU_ALOS estimate of infected patients is critical to accurately parameterize models examining mitigation and preparedness scenarios.
-Methods
-Two estimation methods of ICU_ALOS were compared: the average LOS of already discharged patients at the date of estimation (DPE), and a standard parametric method used for analyzing time-to-event data which fits a given distribution to observed data and includes the censored stays of patients still treated in the ICU at the date of estimation (CPE).
- Methods were compared on a series of all COVID-19 consecutive cases (n = 59) admitted in an ICU devoted to such patients.
- At the last follow-up date, 99 days after the first admission, all patients but one had been discharged.
- A simulation study investigated the generalizability of the methods' patterns.
- CPE and DPE estimates were also compared to COVID-19 estimates reported to date.
-Results
-LOS ≥ 30 days concerned 14 out of the 59 patients (24%), including 8 of the 21 deaths observed.
- Two months after the first admission, 38 (64%) patients had been discharged, with corresponding DPE and CPE estimates of ICU_ALOS (95% CI) at 13.0 days (10.4–15.6) and 23.1 days (18.1–29.7), respectively.
- Series' true ICU_ALOS was greater than 21 days, well above reported estimates to date.
-Conclusions
-Discharges of short stays are more likely observed earlier during the course of an outbreak.
- Cautious unbiased ICU_ALOS estimates suggest parameterizing a higher burden of ICU bed occupancy than that adopted to date in COVID-19 forecasting models.
-Funding
-id="Par5"&gt;Support by the National Natural Science Foundation of China (81900097 to Dr.
- Zhou) and the Emergency Response Project of Hubei Science and Technology Department (2020FCA023 to Pr.
- Zhao).
-</t>
-  </si>
-  <si>
-    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,        Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,        Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,        Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,        Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,        Bruno%Riou%bruno.riou@aphp.fr%2,        Bruno%Riou%bruno.riou@aphp.fr%0,        Yan%Zhao%doctoryanzhao@whu.edu.cn%2,        Yan%Zhao%doctoryanzhao@whu.edu.cn%0,        Gilles%Hejblum%gilles.hejblum@inserm.fr%2,        Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The average length of stay (LOS) in the intensive care unit (ICU_ALOS) is a helpful parameter summarizing critical bed occupancy.
- During the outbreak of a novel virus, estimating early a reliable ICU_ALOS estimate of infected patients is critical to accurately parameterize models examining mitigation and preparedness scenarios.
-Methods
-Two estimation methods of ICU_ALOS were compared: the average LOS of already discharged patients at the date of estimation (DPE), and a standard parametric method used for analyzing time-to-event data which fits a given distribution to observed data and includes the censored stays of patients still treated in the ICU at the date of estimation (CPE).
- Methods were compared on a series of all COVID-19 consecutive cases (n = 59) admitted in an ICU devoted to such patients.
- At the last follow-up date, 99 days after the first admission, all patients but one had been discharged.
- A simulation study investigated the generalizability of the methods' patterns.
- CPE and DPE estimates were also compared to COVID-19 estimates reported to date.
-Results
-LOS ≥ 30 days concerned 14 out of the 59 patients (24%), including 8 of the 21 deaths observed.
- Two months after the first admission, 38 (64%) patients had been discharged, with corresponding DPE and CPE estimates of ICU_ALOS (95% CI) at 13.0 days (10.4–15.6) and 23.1 days (18.1–29.7), respectively.
- Series' true ICU_ALOS was greater than 21 days, well above reported estimates to date.
-Conclusions
-Discharges of short stays are more likely observed earlier during the course of an outbreak.
- Cautious unbiased ICU_ALOS estimates suggest parameterizing a higher burden of ICU bed occupancy than that adopted to date in COVID-19 forecasting models.
-Funding
-Support by the National Natural Science Foundation of China (81900097 to Dr.
- Zhou) and the Emergency Response Project of Hubei Science and Technology Department (2020FCA023 to Pr.
- Zhao).
-</t>
-  </si>
-  <si>
-    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,         Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,         Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,         Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,         Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,         Bruno%Riou%bruno.riou@aphp.fr%2,         Bruno%Riou%bruno.riou@aphp.fr%0,         Yan%Zhao%doctoryanzhao@whu.edu.cn%2,         Yan%Zhao%doctoryanzhao@whu.edu.cn%0,         Gilles%Hejblum%gilles.hejblum@inserm.fr%2,         Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
   </si>
 </sst>
 </file>
@@ -1387,10 +1257,10 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>

--- a/Covid_19_Dataset_and_References/References/71.xlsx
+++ b/Covid_19_Dataset_and_References/References/71.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="222">
   <si>
     <t>Doi</t>
   </si>
@@ -892,6 +892,84 @@
   </si>
   <si>
     <t>[Ishan%Paranjpe%NULL%0,    Adam J%Russak%NULL%2,    Adam J%Russak%NULL%0,    Jessica K%De Freitas%NULL%1,    Anuradha%Lala%NULL%1,    Riccardo%Miotto%NULL%1,    Akhil%Vaid%NULL%1,    Kipp W%Johnson%NULL%1,    Matteo%Danieletto%NULL%1,    Eddye%Golden%NULL%1,    Dara%Meyer%NULL%1,    Manbir%Singh%NULL%1,    Sulaiman%Somani%NULL%1,    Arjun%Kapoor%NULL%1,    Ross%O'Hagan%NULL%1,    Sayan%Manna%NULL%1,    Udit%Nangia%NULL%1,    Suraj K%Jaladanki%NULL%1,    Paul%O’Reilly%NULL%2,    Paul%O’Reilly%NULL%0,    Laura M%Huckins%NULL%1,    Patricia%Glowe%NULL%1,    Arash%Kia%NULL%1,    Prem%Timsina%NULL%1,    Robert M%Freeman%NULL%1,    Matthew A%Levin%NULL%1,    Jeffrey%Jhang%NULL%1,    Adolfo%Firpo%NULL%1,    Patricia%Kovatch%NULL%1,    Joseph%Finkelstein%NULL%1,    Judith A%Aberg%NULL%1,    Emilia%Bagiella%NULL%1,    Carol R%Horowitz%NULL%1,    Barbara%Murphy%NULL%1,    Zahi A%Fayad%NULL%1,    Jagat%Narula%NULL%1,    Eric J%Nestler%NULL%1,    V%Fuster%NULL%1,    Carlos%Cordon-Cardo%NULL%1,    Dennis%Charney%NULL%1,    David L%Reich%NULL%1,    Allan%Just%NULL%1,    Erwin P%Bottinger%NULL%1,    Alexander W%Charney%NULL%1,    Benjamin S%Glicksberg%NULL%1,    Girish N%Nadkarni%NULL%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,     Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,     Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,     Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,     Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,     Bruno%Riou%bruno.riou@aphp.fr%2,     Bruno%Riou%bruno.riou@aphp.fr%0,     Yan%Zhao%doctoryanzhao@whu.edu.cn%0,     Yan%Zhao%doctoryanzhao@whu.edu.cn%0,     Gilles%Hejblum%gilles.hejblum@inserm.fr%2,     Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,     Peiyun%Li%NULL%1,     Liang%Ma%NULL%1,     Hang%Liang%NULL%1,     Jie%Lei%NULL%0,     Wenqiang%Li%NULL%1,     Kun%Wang%NULL%1,     Yu%Song%NULL%1,     Shuai%Li%NULL%1,     Wei%Yang%NULL%1,     Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,      C.% Hong%null%1,      J.% Meng%null%1,      Z.% Wu%null%1,      P.% Zhou%null%1,      C.% Ye%null%1,      B.% Sun%null%1,      L. M.% Kucirka%null%1,      A. S.% Azman%null%1,      T.% Wang%null%0,      J.% Chen%null%1,      Z.% Wang%null%1,      L.% Liu%null%0,      J.% Lessler%null%1,      J. K.% Edwards%null%1,      T.% Ma%null%1,      G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,     Ting%Yu%NULL%0,     Ronghui%Du%NULL%0,     Guohui%Fan%NULL%0,     Ying%Liu%NULL%0,     Zhibo%Liu%NULL%0,     Jie%Xiang%NULL%0,     Yeming%Wang%NULL%0,     Bin%Song%NULL%0,     Xiaoying%Gu%NULL%0,     Lulu%Guan%NULL%0,     Yuan%Wei%NULL%0,     Hui%Li%NULL%0,     Xudong%Wu%NULL%0,     Jiuyang%Xu%NULL%0,     Shengjin%Tu%NULL%0,     Yi%Zhang%NULL%0,     Hua%Chen%NULL%0,     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,     Zhiheng%Xu%NULL%1,     Xuesong%Liu%NULL%1,     Lihua%Cai%NULL%1,     Haichong%Zheng%NULL%1,     Yongbo%Huang%NULL%1,     Lixin%Zhou%NULL%1,     Linxi%Huang%NULL%1,     Yun%Ling%NULL%0,     Liehua%Deng%NULL%1,     Jianwei%Li%NULL%1,     Sibei%Chen%NULL%1,     Dongdong%Liu%NULL%1,     Zhimin%Lin%NULL%1,     Liang%Zhou%NULL%1,     Weiqun%He%NULL%1,     Nanshan%Zhong%NULL%3,     Xiaoqing%Liu%NULL%3,     Yimin%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,     Li-jun%Sun%NULL%1,     Mi%Xu%NULL%1,     Jian%Pan%NULL%1,     Yun-tao%Zhang%NULL%1,     Xue-ling%Fang%NULL%1,     Qiang%Fang%NULL%1,     Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,     Li-Min%Liu%NULL%2,     Wen%Yin%NULL%0,     Wen%Wang%NULL%2,     Lu-Lu%Guan%NULL%2,     Ming-Li%Yuan%NULL%0,     Yu-Lei%Li%NULL%2,     Yi%Hu%NULL%0,     Xu-Yan%Li%NULL%2,     Bing%Sun%NULL%2,     Peng%Peng%NULL%8,     Huan-Zhong%Shi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,     Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,     Wenlin%Cheng%NULL%0,     Lei%Yu%NULL%0,     Ya-Kun%Liu%NULL%3,     Xiaoyong%Hu%NULL%3,     Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,     Zheng-yi%Ni%NULL%6,     Zheng-yi%Ni%NULL%0,     Yu%Hu%NULL%6,     Wen-hua%Liang%NULL%3,     Chun-quan%Ou%NULL%3,     Jian-xing%He%NULL%4,     Lei%Liu%NULL%0,     Hong%Shan%NULL%0,     Chun-liang%Lei%NULL%4,     David S.C.%Hui%NULL%2,     Bin%Du%NULL%2,     Lan-juan%Li%NULL%2,     Guang%Zeng%NULL%2,     Kwok-Yung%Yuen%NULL%0,     Ru-chong%Chen%NULL%4,     Chun-li%Tang%NULL%4,     Tao%Wang%NULL%9,     Ping-yan%Chen%NULL%3,     Jie%Xiang%NULL%0,     Shi-yue%Li%NULL%4,     Jin-lin%Wang%NULL%2,     Zi-jing%Liang%NULL%2,     Yi-xiang%Peng%NULL%4,     Li%Wei%NULL%6,     Yong%Liu%NULL%6,     Ya-hua%Hu%NULL%4,     Peng%Peng%NULL%0,     Jian-ming%Wang%NULL%4,     Ji-yang%Liu%NULL%4,     Zhong%Chen%NULL%6,     Gang%Li%NULL%7,     Zhi-jian%Zheng%NULL%4,     Shao-qin%Qiu%NULL%4,     Jie%Luo%NULL%6,     Chang-jiang%Ye%NULL%4,     Shao-yong%Zhu%NULL%4,     Nan-shan%Zhong%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,     Fang%Jiang%NULL%2,     Wating%Su%NULL%2,     Chang%Chen%NULL%2,     Jingli%Chen%NULL%2,     Wei%Mei%NULL%2,     Li-Ying%Zhan%NULL%2,     Yifan%Jia%NULL%2,     Liangqing%Zhang%NULL%2,     Danyong%Liu%NULL%2,     Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,     Zhengyuan%Xia%zyxia@hkucc.hku.hk%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,     Yuan%Yu%NULL%2,     Jiqian%Xu%NULL%2,     Huaqing%Shu%NULL%2,     Jia'an%Xia%NULL%0,     Hong%Liu%NULL%2,     Yongran%Wu%NULL%2,     Lu%Zhang%NULL%2,     Zhui%Yu%NULL%2,     Minghao%Fang%NULL%2,     Ting%Yu%NULL%0,     Yaxin%Wang%NULL%2,     Shangwen%Pan%NULL%2,     Xiaojing%Zou%NULL%2,     Shiying%Yuan%NULL%2,     You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,     Yeming%Wang%NULL%0,     Xingwang%Li%NULL%0,     Lili%Ren%NULL%0,     Jianping%Zhao%NULL%0,     Yi%Hu%NULL%0,     Li%Zhang%NULL%0,     Guohui%Fan%NULL%0,     Jiuyang%Xu%NULL%0,     Xiaoying%Gu%NULL%0,     Zhenshun%Cheng%NULL%0,     Ting%Yu%NULL%0,     Jiaan%Xia%NULL%0,     Yuan%Wei%NULL%0,     Wenjuan%Wu%NULL%0,     Xuelei%Xie%NULL%0,     Wen%Yin%NULL%0,     Hui%Li%NULL%0,     Min%Liu%NULL%0,     Yan%Xiao%NULL%0,     Hong%Gao%NULL%0,     Li%Guo%NULL%0,     Jungang%Xie%NULL%0,     Guangfa%Wang%NULL%0,     Rongmeng%Jiang%NULL%0,     Zhancheng%Gao%NULL%0,     Qi%Jin%NULL%0,     Jianwei%Wang%wangjw28@163.com%0,     Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,     Xiaofan%Lu%NULL%1,     Yongsheng%Li%NULL%2,     Yongsheng%Li%NULL%0,     Hui%Chen%NULL%0,     Taige%Chen%NULL%1,     Nan%Su%NULL%1,     Fang%Huang%NULL%1,     Jing%Zhou%NULL%0,     Bing%Zhang%NULL%1,     Fangrong%Yan%NULL%2,     Fangrong%Yan%NULL%0,     Jun%Wang%NULL%2,     Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,   Cabrini%Luca%coreGivesNoEmail%0,   Castelli%Antonio%coreGivesNoEmail%0,   Cecconi%Maurizio%coreGivesNoEmail%0,   Cereda%Danilo%coreGivesNoEmail%0,   Coluccello%Antonio%coreGivesNoEmail%0,   Foti%Giuseppe%coreGivesNoEmail%0,   Fumagalli%Roberto%coreGivesNoEmail%0,   Grasselli%Giacomo%coreGivesNoEmail%0,   Iotti%Giorgio%coreGivesNoEmail%0,   Latronico%Nicola%coreGivesNoEmail%0,   Lorini%Luca%coreGivesNoEmail%0,   Merler%Stefano%coreGivesNoEmail%0,   Natalini%Giuseppe%coreGivesNoEmail%0,   Pesenti%Antonio%coreGivesNoEmail%0,   Piatti%Alessandra%coreGivesNoEmail%0,   Ranieri%Marco Vito%coreGivesNoEmail%0,   Scandroglio%Anna Mara%coreGivesNoEmail%0,   Storti%Enrico%coreGivesNoEmail%0,   Zanella%Alberto%coreGivesNoEmail%0,   Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,     Mikael%Chetboun%NULL%1,     Julien%Poissy%NULL%1,     Violeta%Raverdy%NULL%1,     Jerome%Noulette%NULL%2,     Jerome%Noulette%NULL%0,     Alain%Duhamel%NULL%1,     Julien%Labreuche%NULL%1,     Daniel%Mathieu%NULL%2,     Francois%Pattou%francois.pattou@univ-lille.fr%1,     Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,     Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,     Robert%Caizzo%NULL%2,     Robert%Caizzo%NULL%0,     Morgan%Caplan%NULL%1,     Nicolas%Cousin%NULL%1,     Thibault%Duburcq%NULL%1,     Arthur%Durand%NULL%1,     Ahmed%El kalioubie%NULL%1,     Raphael%Favory%NULL%1,     Bruno%Garcia%NULL%1,     Patrick%Girardie%NULL%1,     Julien%Goutay%NULL%1,     Marion%Houard%NULL%1,     Emmanuelle%Jaillette%NULL%1,     Nicolas%Kostuj%NULL%1,     Geoffrey%Ledoux%NULL%1,     Daniel%Mathieu%NULL%0,     Anne Sophie%Moreau%NULL%1,     Christopher%Niles%NULL%1,     Saad%Nseir%NULL%1,     Thierry%Onimus%NULL%1,     Erika%Parmentier%NULL%1,     Sebastien%Préau%NULL%1,     Laurent%Robriquet%NULL%1,     Anahita%Rouze%NULL%1,     Sophie%Six%NULL%1,     Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,     Samuel L%Bruce%NULL%1,     Cody L%Slater%NULL%1,     Jonathan R%Tiao%NULL%1,     Matthew R%Baldwin%NULL%2,     R Graham%Barr%NULL%1,     Bernard P%Chang%NULL%1,     Katherine H%Chau%NULL%1,     Justin J%Choi%NULL%1,     Nicholas%Gavin%NULL%1,     Parag%Goyal%NULL%1,     Angela M%Mills%NULL%1,     Ashmi A%Patel%NULL%1,     Marie-Laure S%Romney%NULL%1,     Monika M%Safford%NULL%1,     Neil W%Schluger%NULL%1,     Soumitra%Sengupta%NULL%1,     Magdalena E%Sobieszczyk%NULL%1,     Jason E%Zucker%NULL%1,     Paul A%Asadourian%NULL%1,     Fletcher M%Bell%NULL%1,     Rebekah%Boyd%NULL%1,     Matthew F%Cohen%NULL%1,     MacAlistair I%Colquhoun%NULL%1,     Lucy A%Colville%NULL%1,     Joseph H%de Jonge%NULL%1,     Lyle B%Dershowitz%NULL%1,     Shirin A%Dey%NULL%1,     Katherine A%Eiseman%NULL%1,     Zachary P%Girvin%NULL%1,     Daniella T%Goni%NULL%1,     Amro A%Harb%NULL%1,     Nicholas%Herzik%NULL%1,     Sarah%Householder%NULL%1,     Lara E%Karaaslan%NULL%1,     Heather%Lee%NULL%1,     Evan%Lieberman%NULL%1,     Andrew%Ling%NULL%1,     Ree%Lu%NULL%1,     Arthur Y%Shou%NULL%1,     Alexander C%Sisti%NULL%1,     Zachary E%Snow%NULL%1,     Colin P%Sperring%NULL%1,     Yuqing%Xiong%NULL%1,     Henry W%Zhou%NULL%1,     Karthik%Natarajan%NULL%1,     George%Hripcsak%NULL%1,     Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,     Mark%Caridi-Scheible%NULL%1,     James M.%Blum%NULL%1,     Chad%Robichaux%NULL%1,     Colleen%Kraft%NULL%1,     Jesse T.%Jacob%NULL%1,     Craig S.%Jabaley%NULL%1,     David%Carpenter%NULL%1,     Roberta%Kaplow%NULL%1,     Alfonso C.%Hernandez-Romieu%NULL%1,     Max W.%Adelman%NULL%1,     Greg S.%Martin%NULL%1,     Craig M.%Coopersmith%NULL%1,     David J.%Murphy%NULL%1,     NULL%NULL%NULL%11,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,     Bijan J.%Ghassemieh%NULL%1,     Michelle%Nichols%NULL%1,     Richard%Kim%NULL%1,     Keith R.%Jerome%NULL%1,     Arun K.%Nalla%NULL%1,     Alexander L.%Greninger%NULL%1,     Sudhakar%Pipavath%NULL%1,     Mark M.%Wurfel%NULL%1,     Laura%Evans%NULL%1,     Patricia A.%Kritek%NULL%1,     T. Eoin%West%NULL%1,     Andrew%Luks%NULL%1,     Anthony%Gerbino%NULL%1,     Chris R.%Dale%NULL%1,     Jason D.%Goldman%NULL%1,     Shane%O’Mahony%NULL%1,     Carmen%Mikacenic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,   Becker%L.B.%coreGivesNoEmail%0,   Chelico%J.D.%coreGivesNoEmail%0,   Cohen%S.L.%coreGivesNoEmail%0,   Cookingham%J.%coreGivesNoEmail%0,   Coppa%K.%coreGivesNoEmail%0,   Crawford%J.M.%coreGivesNoEmail%0,   Davidson%K.W.%coreGivesNoEmail%0,   Diefenbach%M.A.%coreGivesNoEmail%0,   Dominello%A.J.%coreGivesNoEmail%0,   Duer-Hefele%J.%coreGivesNoEmail%0,   Falzon%L.%coreGivesNoEmail%0,   Gitlin%J.%coreGivesNoEmail%0,   Hajizadeh%N.%coreGivesNoEmail%0,   Harvin%T.G.%coreGivesNoEmail%0,   Hirsch%J.S.%coreGivesNoEmail%0,   Hirschwerk%D.A.%coreGivesNoEmail%0,   Kim%E.J.%coreGivesNoEmail%0,   Kozel%Z.M.%coreGivesNoEmail%0,   Marrast%L.M.%coreGivesNoEmail%0,   McGinn%T.%coreGivesNoEmail%0,   Mogavero%J.N.%coreGivesNoEmail%0,   Narasimhan%M.%coreGivesNoEmail%0,   Osorio%G.A.%coreGivesNoEmail%0,   Qiu%M.%coreGivesNoEmail%0,   Richardson%S.%coreGivesNoEmail%0,   Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,     Jehan%Alladina%NULL%2,     Jehan%Alladina%NULL%0,     Camille R.%Petri%NULL%2,     Camille R.%Petri%NULL%0,     Jason H.%Maley%NULL%2,     Jason H.%Maley%NULL%0,     Ari%Moskowitz%NULL%1,     Benjamin D.%Medoff%NULL%1,     Kathryn A.%Hibbert%NULL%2,     Kathryn A.%Hibbert%NULL%0,     B. Taylor%Thompson%NULL%1,     C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,     Adam J%Russak%NULL%2,     Adam J%Russak%NULL%0,     Jessica K%De Freitas%NULL%1,     Anuradha%Lala%NULL%1,     Riccardo%Miotto%NULL%1,     Akhil%Vaid%NULL%1,     Kipp W%Johnson%NULL%1,     Matteo%Danieletto%NULL%1,     Eddye%Golden%NULL%1,     Dara%Meyer%NULL%1,     Manbir%Singh%NULL%1,     Sulaiman%Somani%NULL%1,     Arjun%Kapoor%NULL%1,     Ross%O'Hagan%NULL%1,     Sayan%Manna%NULL%1,     Udit%Nangia%NULL%1,     Suraj K%Jaladanki%NULL%1,     Paul%O’Reilly%NULL%2,     Paul%O’Reilly%NULL%0,     Laura M%Huckins%NULL%1,     Patricia%Glowe%NULL%1,     Arash%Kia%NULL%1,     Prem%Timsina%NULL%1,     Robert M%Freeman%NULL%1,     Matthew A%Levin%NULL%1,     Jeffrey%Jhang%NULL%1,     Adolfo%Firpo%NULL%1,     Patricia%Kovatch%NULL%1,     Joseph%Finkelstein%NULL%1,     Judith A%Aberg%NULL%1,     Emilia%Bagiella%NULL%1,     Carol R%Horowitz%NULL%1,     Barbara%Murphy%NULL%1,     Zahi A%Fayad%NULL%1,     Jagat%Narula%NULL%1,     Eric J%Nestler%NULL%1,     V%Fuster%NULL%1,     Carlos%Cordon-Cardo%NULL%1,     Dennis%Charney%NULL%1,     David L%Reich%NULL%1,     Allan%Just%NULL%1,     Erwin P%Bottinger%NULL%1,     Alexander W%Charney%NULL%1,     Benjamin S%Glicksberg%NULL%1,     Girish N%Nadkarni%NULL%1,     NULL%NULL%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1245,6 +1323,9 @@
       <c r="H1" t="s">
         <v>42</v>
       </c>
+      <c r="I1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1260,7 +1341,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -1270,6 +1351,9 @@
       </c>
       <c r="H2" t="s">
         <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="3">
@@ -1286,7 +1370,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -1296,6 +1380,9 @@
       </c>
       <c r="H3" t="s">
         <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -1312,16 +1399,19 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="5">
@@ -1338,7 +1428,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -1348,6 +1438,9 @@
       </c>
       <c r="H5" t="s">
         <v>63</v>
+      </c>
+      <c r="I5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="6">
@@ -1364,7 +1457,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -1374,6 +1467,9 @@
       </c>
       <c r="H6" t="s">
         <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="7">
@@ -1390,7 +1486,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -1400,6 +1496,9 @@
       </c>
       <c r="H7" t="s">
         <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="8">
@@ -1416,7 +1515,7 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -1426,6 +1525,9 @@
       </c>
       <c r="H8" t="s">
         <v>78</v>
+      </c>
+      <c r="I8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="9">
@@ -1442,7 +1544,7 @@
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -1452,6 +1554,9 @@
       </c>
       <c r="H9" t="s">
         <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="10">
@@ -1468,7 +1573,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -1478,6 +1583,9 @@
       </c>
       <c r="H10" t="s">
         <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="11">
@@ -1494,7 +1602,7 @@
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="F11" t="s">
         <v>90</v>
@@ -1504,6 +1612,9 @@
       </c>
       <c r="H11" t="s">
         <v>91</v>
+      </c>
+      <c r="I11" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="12">
@@ -1520,7 +1631,7 @@
         <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -1530,6 +1641,9 @@
       </c>
       <c r="H12" t="s">
         <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1660,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -1556,6 +1670,9 @@
       </c>
       <c r="H13" t="s">
         <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="14">
@@ -1572,7 +1689,7 @@
         <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -1582,6 +1699,9 @@
       </c>
       <c r="H14" t="s">
         <v>63</v>
+      </c>
+      <c r="I14" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="15">
@@ -1598,16 +1718,19 @@
         <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
         <v>63</v>
+      </c>
+      <c r="I15" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="16">
@@ -1624,7 +1747,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -1634,6 +1757,9 @@
       </c>
       <c r="H16" t="s">
         <v>108</v>
+      </c>
+      <c r="I16" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="17">
@@ -1661,6 +1787,9 @@
       <c r="H17" t="s">
         <v>63</v>
       </c>
+      <c r="I17" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
@@ -1676,7 +1805,7 @@
         <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="F18" t="s">
         <v>112</v>
@@ -1686,6 +1815,9 @@
       </c>
       <c r="H18" t="s">
         <v>113</v>
+      </c>
+      <c r="I18" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="19">
@@ -1702,7 +1834,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -1712,6 +1844,9 @@
       </c>
       <c r="H19" t="s">
         <v>63</v>
+      </c>
+      <c r="I19" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="20">
@@ -1728,7 +1863,7 @@
         <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
@@ -1738,6 +1873,9 @@
       </c>
       <c r="H20" t="s">
         <v>63</v>
+      </c>
+      <c r="I20" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="21">
@@ -1765,6 +1903,9 @@
       <c r="H21" t="s">
         <v>63</v>
       </c>
+      <c r="I21" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
@@ -1780,16 +1921,19 @@
         <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
         <v>63</v>
+      </c>
+      <c r="I22" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="23">
@@ -1806,7 +1950,7 @@
         <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="F23" t="s">
         <v>124</v>
@@ -1816,6 +1960,9 @@
       </c>
       <c r="H23" t="s">
         <v>63</v>
+      </c>
+      <c r="I23" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="24">
@@ -1832,7 +1979,7 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="F24" t="s">
         <v>128</v>
@@ -1842,6 +1989,9 @@
       </c>
       <c r="H24" t="s">
         <v>129</v>
+      </c>
+      <c r="I24" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/71.xlsx
+++ b/Covid_19_Dataset_and_References/References/71.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="285">
   <si>
     <t>Doi</t>
   </si>
@@ -970,6 +970,195 @@
   </si>
   <si>
     <t>[Ishan%Paranjpe%NULL%0,     Adam J%Russak%NULL%2,     Adam J%Russak%NULL%0,     Jessica K%De Freitas%NULL%1,     Anuradha%Lala%NULL%1,     Riccardo%Miotto%NULL%1,     Akhil%Vaid%NULL%1,     Kipp W%Johnson%NULL%1,     Matteo%Danieletto%NULL%1,     Eddye%Golden%NULL%1,     Dara%Meyer%NULL%1,     Manbir%Singh%NULL%1,     Sulaiman%Somani%NULL%1,     Arjun%Kapoor%NULL%1,     Ross%O'Hagan%NULL%1,     Sayan%Manna%NULL%1,     Udit%Nangia%NULL%1,     Suraj K%Jaladanki%NULL%1,     Paul%O’Reilly%NULL%2,     Paul%O’Reilly%NULL%0,     Laura M%Huckins%NULL%1,     Patricia%Glowe%NULL%1,     Arash%Kia%NULL%1,     Prem%Timsina%NULL%1,     Robert M%Freeman%NULL%1,     Matthew A%Levin%NULL%1,     Jeffrey%Jhang%NULL%1,     Adolfo%Firpo%NULL%1,     Patricia%Kovatch%NULL%1,     Joseph%Finkelstein%NULL%1,     Judith A%Aberg%NULL%1,     Emilia%Bagiella%NULL%1,     Carol R%Horowitz%NULL%1,     Barbara%Murphy%NULL%1,     Zahi A%Fayad%NULL%1,     Jagat%Narula%NULL%1,     Eric J%Nestler%NULL%1,     V%Fuster%NULL%1,     Carlos%Cordon-Cardo%NULL%1,     Dennis%Charney%NULL%1,     David L%Reich%NULL%1,     Allan%Just%NULL%1,     Erwin P%Bottinger%NULL%1,     Alexander W%Charney%NULL%1,     Benjamin S%Glicksberg%NULL%1,     Girish N%Nadkarni%NULL%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,      Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,      Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,      Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,      Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,      Bruno%Riou%bruno.riou@aphp.fr%2,      Bruno%Riou%bruno.riou@aphp.fr%0,      Yan%Zhao%doctoryanzhao@whu.edu.cn%0,      Yan%Zhao%doctoryanzhao@whu.edu.cn%0,      Gilles%Hejblum%gilles.hejblum@inserm.fr%2,      Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,      Peiyun%Li%NULL%1,      Liang%Ma%NULL%1,      Hang%Liang%NULL%1,      Jie%Lei%NULL%0,      Wenqiang%Li%NULL%1,      Kun%Wang%NULL%0,      Yu%Song%NULL%1,      Shuai%Li%NULL%1,      Wei%Yang%NULL%1,      Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,       C.% Hong%null%1,       J.% Meng%null%1,       Z.% Wu%null%1,       P.% Zhou%null%1,       C.% Ye%null%1,       B.% Sun%null%1,       L. M.% Kucirka%null%1,       A. S.% Azman%null%1,       T.% Wang%null%0,       J.% Chen%null%1,       Z.% Wang%null%1,       L.% Liu%null%0,       J.% Lessler%null%1,       J. K.% Edwards%null%1,       T.% Ma%null%1,       G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,      Ting%Yu%NULL%0,      Ronghui%Du%NULL%0,      Guohui%Fan%NULL%0,      Ying%Liu%NULL%0,      Zhibo%Liu%NULL%0,      Jie%Xiang%NULL%0,      Yeming%Wang%NULL%0,      Bin%Song%NULL%0,      Xiaoying%Gu%NULL%0,      Lulu%Guan%NULL%0,      Yuan%Wei%NULL%0,      Hui%Li%NULL%0,      Xudong%Wu%NULL%0,      Jiuyang%Xu%NULL%0,      Shengjin%Tu%NULL%0,      Yi%Zhang%NULL%0,      Hua%Chen%NULL%0,      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,      Zhiheng%Xu%NULL%1,      Xuesong%Liu%NULL%1,      Lihua%Cai%NULL%1,      Haichong%Zheng%NULL%1,      Yongbo%Huang%NULL%1,      Lixin%Zhou%NULL%1,      Linxi%Huang%NULL%1,      Yun%Ling%NULL%0,      Liehua%Deng%NULL%1,      Jianwei%Li%NULL%1,      Sibei%Chen%NULL%1,      Dongdong%Liu%NULL%1,      Zhimin%Lin%NULL%1,      Liang%Zhou%NULL%1,      Weiqun%He%NULL%1,      Nanshan%Zhong%NULL%3,      Xiaoqing%Liu%NULL%3,      Yimin%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,      Li-jun%Sun%NULL%1,      Mi%Xu%NULL%1,      Jian%Pan%NULL%1,      Yun-tao%Zhang%NULL%1,      Xue-ling%Fang%NULL%1,      Qiang%Fang%NULL%1,      Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,      Li-Min%Liu%NULL%2,      Wen%Yin%NULL%0,      Wen%Wang%NULL%2,      Lu-Lu%Guan%NULL%2,      Ming-Li%Yuan%NULL%0,      Yu-Lei%Li%NULL%2,      Yi%Hu%NULL%0,      Xu-Yan%Li%NULL%2,      Bing%Sun%NULL%2,      Peng%Peng%NULL%8,      Huan-Zhong%Shi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,      Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,      Wenlin%Cheng%NULL%0,      Lei%Yu%NULL%0,      Ya-Kun%Liu%NULL%3,      Xiaoyong%Hu%NULL%3,      Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,      Zheng-yi%Ni%NULL%6,      Zheng-yi%Ni%NULL%0,      Yu%Hu%NULL%6,      Wen-hua%Liang%NULL%3,      Chun-quan%Ou%NULL%3,      Jian-xing%He%NULL%4,      Lei%Liu%NULL%0,      Hong%Shan%NULL%0,      Chun-liang%Lei%NULL%4,      David S.C.%Hui%NULL%2,      Bin%Du%NULL%2,      Lan-juan%Li%NULL%2,      Guang%Zeng%NULL%2,      Kwok-Yung%Yuen%NULL%0,      Ru-chong%Chen%NULL%4,      Chun-li%Tang%NULL%4,      Tao%Wang%NULL%0,      Ping-yan%Chen%NULL%3,      Jie%Xiang%NULL%0,      Shi-yue%Li%NULL%4,      Jin-lin%Wang%NULL%2,      Zi-jing%Liang%NULL%2,      Yi-xiang%Peng%NULL%4,      Li%Wei%NULL%6,      Yong%Liu%NULL%6,      Ya-hua%Hu%NULL%4,      Peng%Peng%NULL%0,      Jian-ming%Wang%NULL%4,      Ji-yang%Liu%NULL%4,      Zhong%Chen%NULL%6,      Gang%Li%NULL%7,      Zhi-jian%Zheng%NULL%4,      Shao-qin%Qiu%NULL%4,      Jie%Luo%NULL%6,      Chang-jiang%Ye%NULL%4,      Shao-yong%Zhu%NULL%4,      Nan-shan%Zhong%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,      Fang%Jiang%NULL%2,      Wating%Su%NULL%2,      Chang%Chen%NULL%2,      Jingli%Chen%NULL%2,      Wei%Mei%NULL%2,      Li-Ying%Zhan%NULL%2,      Yifan%Jia%NULL%2,      Liangqing%Zhang%NULL%2,      Danyong%Liu%NULL%2,      Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,      Zhengyuan%Xia%zyxia@hkucc.hku.hk%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,      Yuan%Yu%NULL%2,      Jiqian%Xu%NULL%2,      Huaqing%Shu%NULL%2,      Jia'an%Xia%NULL%0,      Hong%Liu%NULL%2,      Yongran%Wu%NULL%2,      Lu%Zhang%NULL%2,      Zhui%Yu%NULL%2,      Minghao%Fang%NULL%2,      Ting%Yu%NULL%0,      Yaxin%Wang%NULL%2,      Shangwen%Pan%NULL%2,      Xiaojing%Zou%NULL%2,      Shiying%Yuan%NULL%2,      You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,      Yeming%Wang%NULL%0,      Xingwang%Li%NULL%0,      Lili%Ren%NULL%0,      Jianping%Zhao%NULL%0,      Yi%Hu%NULL%0,      Li%Zhang%NULL%0,      Guohui%Fan%NULL%0,      Jiuyang%Xu%NULL%0,      Xiaoying%Gu%NULL%0,      Zhenshun%Cheng%NULL%0,      Ting%Yu%NULL%0,      Jiaan%Xia%NULL%0,      Yuan%Wei%NULL%0,      Wenjuan%Wu%NULL%0,      Xuelei%Xie%NULL%0,      Wen%Yin%NULL%0,      Hui%Li%NULL%0,      Min%Liu%NULL%0,      Yan%Xiao%NULL%0,      Hong%Gao%NULL%0,      Li%Guo%NULL%0,      Jungang%Xie%NULL%0,      Guangfa%Wang%NULL%0,      Rongmeng%Jiang%NULL%0,      Zhancheng%Gao%NULL%0,      Qi%Jin%NULL%0,      Jianwei%Wang%wangjw28@163.com%0,      Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,      Xiaofan%Lu%NULL%1,      Yongsheng%Li%NULL%2,      Yongsheng%Li%NULL%0,      Hui%Chen%NULL%0,      Taige%Chen%NULL%1,      Nan%Su%NULL%1,      Fang%Huang%NULL%1,      Jing%Zhou%NULL%0,      Bing%Zhang%NULL%1,      Fangrong%Yan%NULL%2,      Fangrong%Yan%NULL%0,      Jun%Wang%NULL%2,      Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,    Cabrini%Luca%coreGivesNoEmail%0,    Castelli%Antonio%coreGivesNoEmail%0,    Cecconi%Maurizio%coreGivesNoEmail%0,    Cereda%Danilo%coreGivesNoEmail%0,    Coluccello%Antonio%coreGivesNoEmail%0,    Foti%Giuseppe%coreGivesNoEmail%0,    Fumagalli%Roberto%coreGivesNoEmail%0,    Grasselli%Giacomo%coreGivesNoEmail%0,    Iotti%Giorgio%coreGivesNoEmail%0,    Latronico%Nicola%coreGivesNoEmail%0,    Lorini%Luca%coreGivesNoEmail%0,    Merler%Stefano%coreGivesNoEmail%0,    Natalini%Giuseppe%coreGivesNoEmail%0,    Pesenti%Antonio%coreGivesNoEmail%0,    Piatti%Alessandra%coreGivesNoEmail%0,    Ranieri%Marco Vito%coreGivesNoEmail%0,    Scandroglio%Anna Mara%coreGivesNoEmail%0,    Storti%Enrico%coreGivesNoEmail%0,    Zanella%Alberto%coreGivesNoEmail%0,    Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,      Mikael%Chetboun%NULL%1,      Julien%Poissy%NULL%1,      Violeta%Raverdy%NULL%1,      Jerome%Noulette%NULL%2,      Jerome%Noulette%NULL%0,      Alain%Duhamel%NULL%1,      Julien%Labreuche%NULL%1,      Daniel%Mathieu%NULL%2,      Francois%Pattou%francois.pattou@univ-lille.fr%1,      Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,      Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,      Robert%Caizzo%NULL%2,      Robert%Caizzo%NULL%0,      Morgan%Caplan%NULL%1,      Nicolas%Cousin%NULL%1,      Thibault%Duburcq%NULL%1,      Arthur%Durand%NULL%1,      Ahmed%El kalioubie%NULL%1,      Raphael%Favory%NULL%1,      Bruno%Garcia%NULL%1,      Patrick%Girardie%NULL%1,      Julien%Goutay%NULL%1,      Marion%Houard%NULL%1,      Emmanuelle%Jaillette%NULL%1,      Nicolas%Kostuj%NULL%1,      Geoffrey%Ledoux%NULL%1,      Daniel%Mathieu%NULL%0,      Anne Sophie%Moreau%NULL%1,      Christopher%Niles%NULL%1,      Saad%Nseir%NULL%1,      Thierry%Onimus%NULL%1,      Erika%Parmentier%NULL%1,      Sebastien%Préau%NULL%1,      Laurent%Robriquet%NULL%1,      Anahita%Rouze%NULL%1,      Sophie%Six%NULL%1,      Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,      Samuel L%Bruce%NULL%1,      Cody L%Slater%NULL%1,      Jonathan R%Tiao%NULL%1,      Matthew R%Baldwin%NULL%2,      R Graham%Barr%NULL%1,      Bernard P%Chang%NULL%1,      Katherine H%Chau%NULL%1,      Justin J%Choi%NULL%1,      Nicholas%Gavin%NULL%1,      Parag%Goyal%NULL%1,      Angela M%Mills%NULL%1,      Ashmi A%Patel%NULL%1,      Marie-Laure S%Romney%NULL%1,      Monika M%Safford%NULL%1,      Neil W%Schluger%NULL%1,      Soumitra%Sengupta%NULL%1,      Magdalena E%Sobieszczyk%NULL%1,      Jason E%Zucker%NULL%1,      Paul A%Asadourian%NULL%1,      Fletcher M%Bell%NULL%1,      Rebekah%Boyd%NULL%1,      Matthew F%Cohen%NULL%1,      MacAlistair I%Colquhoun%NULL%1,      Lucy A%Colville%NULL%1,      Joseph H%de Jonge%NULL%1,      Lyle B%Dershowitz%NULL%1,      Shirin A%Dey%NULL%1,      Katherine A%Eiseman%NULL%1,      Zachary P%Girvin%NULL%1,      Daniella T%Goni%NULL%1,      Amro A%Harb%NULL%1,      Nicholas%Herzik%NULL%1,      Sarah%Householder%NULL%1,      Lara E%Karaaslan%NULL%1,      Heather%Lee%NULL%1,      Evan%Lieberman%NULL%1,      Andrew%Ling%NULL%1,      Ree%Lu%NULL%1,      Arthur Y%Shou%NULL%1,      Alexander C%Sisti%NULL%1,      Zachary E%Snow%NULL%1,      Colin P%Sperring%NULL%1,      Yuqing%Xiong%NULL%1,      Henry W%Zhou%NULL%1,      Karthik%Natarajan%NULL%1,      George%Hripcsak%NULL%1,      Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,      Mark%Caridi-Scheible%NULL%1,      James M.%Blum%NULL%1,      Chad%Robichaux%NULL%1,      Colleen%Kraft%NULL%1,      Jesse T.%Jacob%NULL%1,      Craig S.%Jabaley%NULL%1,      David%Carpenter%NULL%1,      Roberta%Kaplow%NULL%1,      Alfonso C.%Hernandez-Romieu%NULL%1,      Max W.%Adelman%NULL%1,      Greg S.%Martin%NULL%1,      Craig M.%Coopersmith%NULL%1,      David J.%Murphy%NULL%1,      NULL%NULL%NULL%11,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,      Bijan J.%Ghassemieh%NULL%1,      Michelle%Nichols%NULL%1,      Richard%Kim%NULL%1,      Keith R.%Jerome%NULL%1,      Arun K.%Nalla%NULL%1,      Alexander L.%Greninger%NULL%1,      Sudhakar%Pipavath%NULL%1,      Mark M.%Wurfel%NULL%1,      Laura%Evans%NULL%1,      Patricia A.%Kritek%NULL%1,      T. Eoin%West%NULL%1,      Andrew%Luks%NULL%1,      Anthony%Gerbino%NULL%1,      Chris R.%Dale%NULL%1,      Jason D.%Goldman%NULL%1,      Shane%O’Mahony%NULL%1,      Carmen%Mikacenic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,    Becker%L.B.%coreGivesNoEmail%0,    Chelico%J.D.%coreGivesNoEmail%0,    Cohen%S.L.%coreGivesNoEmail%0,    Cookingham%J.%coreGivesNoEmail%0,    Coppa%K.%coreGivesNoEmail%0,    Crawford%J.M.%coreGivesNoEmail%0,    Davidson%K.W.%coreGivesNoEmail%0,    Diefenbach%M.A.%coreGivesNoEmail%0,    Dominello%A.J.%coreGivesNoEmail%0,    Duer-Hefele%J.%coreGivesNoEmail%0,    Falzon%L.%coreGivesNoEmail%0,    Gitlin%J.%coreGivesNoEmail%0,    Hajizadeh%N.%coreGivesNoEmail%0,    Harvin%T.G.%coreGivesNoEmail%0,    Hirsch%J.S.%coreGivesNoEmail%0,    Hirschwerk%D.A.%coreGivesNoEmail%0,    Kim%E.J.%coreGivesNoEmail%0,    Kozel%Z.M.%coreGivesNoEmail%0,    Marrast%L.M.%coreGivesNoEmail%0,    McGinn%T.%coreGivesNoEmail%0,    Mogavero%J.N.%coreGivesNoEmail%0,    Narasimhan%M.%coreGivesNoEmail%0,    Osorio%G.A.%coreGivesNoEmail%0,    Qiu%M.%coreGivesNoEmail%0,    Richardson%S.%coreGivesNoEmail%0,    Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,      Jehan%Alladina%NULL%2,      Jehan%Alladina%NULL%0,      Camille R.%Petri%NULL%2,      Camille R.%Petri%NULL%0,      Jason H.%Maley%NULL%2,      Jason H.%Maley%NULL%0,      Ari%Moskowitz%NULL%1,      Benjamin D.%Medoff%NULL%1,      Kathryn A.%Hibbert%NULL%2,      Kathryn A.%Hibbert%NULL%0,      B. Taylor%Thompson%NULL%1,      C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,      Adam J%Russak%NULL%2,      Adam J%Russak%NULL%0,      Jessica K%De Freitas%NULL%1,      Anuradha%Lala%NULL%1,      Riccardo%Miotto%NULL%1,      Akhil%Vaid%NULL%1,      Kipp W%Johnson%NULL%1,      Matteo%Danieletto%NULL%1,      Eddye%Golden%NULL%1,      Dara%Meyer%NULL%1,      Manbir%Singh%NULL%1,      Sulaiman%Somani%NULL%1,      Arjun%Kapoor%NULL%1,      Ross%O'Hagan%NULL%1,      Sayan%Manna%NULL%1,      Udit%Nangia%NULL%1,      Suraj K%Jaladanki%NULL%1,      Paul%O’Reilly%NULL%2,      Paul%O’Reilly%NULL%0,      Laura M%Huckins%NULL%1,      Patricia%Glowe%NULL%1,      Arash%Kia%NULL%1,      Prem%Timsina%NULL%1,      Robert M%Freeman%NULL%1,      Matthew A%Levin%NULL%1,      Jeffrey%Jhang%NULL%1,      Adolfo%Firpo%NULL%1,      Patricia%Kovatch%NULL%1,      Joseph%Finkelstein%NULL%1,      Judith A%Aberg%NULL%1,      Emilia%Bagiella%NULL%1,      Carol R%Horowitz%NULL%1,      Barbara%Murphy%NULL%1,      Zahi A%Fayad%NULL%1,      Jagat%Narula%NULL%1,      Eric J%Nestler%NULL%1,      V%Fuster%NULL%1,      Carlos%Cordon-Cardo%NULL%1,      Dennis%Charney%NULL%1,      David L%Reich%NULL%1,      Allan%Just%NULL%1,      Erwin P%Bottinger%NULL%1,      Alexander W%Charney%NULL%1,      Benjamin S%Glicksberg%NULL%1,      Girish N%Nadkarni%NULL%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,       Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,       Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,       Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,       Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,       Bruno%Riou%bruno.riou@aphp.fr%2,       Bruno%Riou%bruno.riou@aphp.fr%0,       Yan%Zhao%doctoryanzhao@whu.edu.cn%0,       Yan%Zhao%doctoryanzhao@whu.edu.cn%0,       Gilles%Hejblum%gilles.hejblum@inserm.fr%2,       Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,       Peiyun%Li%NULL%1,       Liang%Ma%NULL%1,       Hang%Liang%NULL%1,       Jie%Lei%NULL%0,       Wenqiang%Li%NULL%1,       Kun%Wang%NULL%0,       Yu%Song%NULL%1,       Shuai%Li%NULL%1,       Wei%Yang%NULL%1,       Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,        C.% Hong%null%1,        J.% Meng%null%1,        Z.% Wu%null%1,        P.% Zhou%null%1,        C.% Ye%null%1,        B.% Sun%null%1,        L. M.% Kucirka%null%1,        A. S.% Azman%null%1,        T.% Wang%null%0,        J.% Chen%null%1,        Z.% Wang%null%1,        L.% Liu%null%0,        J.% Lessler%null%1,        J. K.% Edwards%null%1,        T.% Ma%null%1,        G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,       Ting%Yu%NULL%0,       Ronghui%Du%NULL%0,       Guohui%Fan%NULL%0,       Ying%Liu%NULL%0,       Zhibo%Liu%NULL%0,       Jie%Xiang%NULL%0,       Yeming%Wang%NULL%0,       Bin%Song%NULL%0,       Xiaoying%Gu%NULL%0,       Lulu%Guan%NULL%0,       Yuan%Wei%NULL%0,       Hui%Li%NULL%0,       Xudong%Wu%NULL%0,       Jiuyang%Xu%NULL%0,       Shengjin%Tu%NULL%0,       Yi%Zhang%NULL%0,       Hua%Chen%NULL%0,       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,       Zhiheng%Xu%NULL%1,       Xuesong%Liu%NULL%1,       Lihua%Cai%NULL%1,       Haichong%Zheng%NULL%1,       Yongbo%Huang%NULL%1,       Lixin%Zhou%NULL%1,       Linxi%Huang%NULL%1,       Yun%Ling%NULL%0,       Liehua%Deng%NULL%1,       Jianwei%Li%NULL%1,       Sibei%Chen%NULL%1,       Dongdong%Liu%NULL%1,       Zhimin%Lin%NULL%1,       Liang%Zhou%NULL%1,       Weiqun%He%NULL%1,       Nanshan%Zhong%NULL%3,       Xiaoqing%Liu%NULL%3,       Yimin%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,       Li-jun%Sun%NULL%1,       Mi%Xu%NULL%1,       Jian%Pan%NULL%1,       Yun-tao%Zhang%NULL%1,       Xue-ling%Fang%NULL%1,       Qiang%Fang%NULL%1,       Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,       Li-Min%Liu%NULL%2,       Wen%Yin%NULL%0,       Wen%Wang%NULL%2,       Lu-Lu%Guan%NULL%2,       Ming-Li%Yuan%NULL%0,       Yu-Lei%Li%NULL%2,       Yi%Hu%NULL%0,       Xu-Yan%Li%NULL%2,       Bing%Sun%NULL%2,       Peng%Peng%NULL%8,       Huan-Zhong%Shi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,       Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,       Wenlin%Cheng%NULL%0,       Lei%Yu%NULL%0,       Ya-Kun%Liu%NULL%3,       Xiaoyong%Hu%NULL%3,       Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,       Zheng-yi%Ni%NULL%6,       Zheng-yi%Ni%NULL%0,       Yu%Hu%NULL%6,       Wen-hua%Liang%NULL%3,       Chun-quan%Ou%NULL%3,       Jian-xing%He%NULL%4,       Lei%Liu%NULL%0,       Hong%Shan%NULL%0,       Chun-liang%Lei%NULL%4,       David S.C.%Hui%NULL%2,       Bin%Du%NULL%2,       Lan-juan%Li%NULL%2,       Guang%Zeng%NULL%2,       Kwok-Yung%Yuen%NULL%0,       Ru-chong%Chen%NULL%4,       Chun-li%Tang%NULL%4,       Tao%Wang%NULL%0,       Ping-yan%Chen%NULL%3,       Jie%Xiang%NULL%0,       Shi-yue%Li%NULL%4,       Jin-lin%Wang%NULL%2,       Zi-jing%Liang%NULL%2,       Yi-xiang%Peng%NULL%4,       Li%Wei%NULL%6,       Yong%Liu%NULL%6,       Ya-hua%Hu%NULL%4,       Peng%Peng%NULL%0,       Jian-ming%Wang%NULL%4,       Ji-yang%Liu%NULL%4,       Zhong%Chen%NULL%6,       Gang%Li%NULL%7,       Zhi-jian%Zheng%NULL%4,       Shao-qin%Qiu%NULL%4,       Jie%Luo%NULL%6,       Chang-jiang%Ye%NULL%4,       Shao-yong%Zhu%NULL%4,       Nan-shan%Zhong%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,       Fang%Jiang%NULL%2,       Wating%Su%NULL%2,       Chang%Chen%NULL%2,       Jingli%Chen%NULL%2,       Wei%Mei%NULL%2,       Li-Ying%Zhan%NULL%2,       Yifan%Jia%NULL%2,       Liangqing%Zhang%NULL%2,       Danyong%Liu%NULL%2,       Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,       Zhengyuan%Xia%zyxia@hkucc.hku.hk%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,       Yuan%Yu%NULL%2,       Jiqian%Xu%NULL%2,       Huaqing%Shu%NULL%2,       Jia'an%Xia%NULL%0,       Hong%Liu%NULL%2,       Yongran%Wu%NULL%2,       Lu%Zhang%NULL%2,       Zhui%Yu%NULL%2,       Minghao%Fang%NULL%2,       Ting%Yu%NULL%0,       Yaxin%Wang%NULL%2,       Shangwen%Pan%NULL%2,       Xiaojing%Zou%NULL%2,       Shiying%Yuan%NULL%2,       You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,       Yeming%Wang%NULL%0,       Xingwang%Li%NULL%0,       Lili%Ren%NULL%0,       Jianping%Zhao%NULL%0,       Yi%Hu%NULL%0,       Li%Zhang%NULL%0,       Guohui%Fan%NULL%0,       Jiuyang%Xu%NULL%0,       Xiaoying%Gu%NULL%0,       Zhenshun%Cheng%NULL%0,       Ting%Yu%NULL%0,       Jiaan%Xia%NULL%0,       Yuan%Wei%NULL%0,       Wenjuan%Wu%NULL%0,       Xuelei%Xie%NULL%0,       Wen%Yin%NULL%0,       Hui%Li%NULL%0,       Min%Liu%NULL%0,       Yan%Xiao%NULL%0,       Hong%Gao%NULL%0,       Li%Guo%NULL%0,       Jungang%Xie%NULL%0,       Guangfa%Wang%NULL%0,       Rongmeng%Jiang%NULL%0,       Zhancheng%Gao%NULL%0,       Qi%Jin%NULL%0,       Jianwei%Wang%wangjw28@163.com%0,       Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,       Xiaofan%Lu%NULL%1,       Yongsheng%Li%NULL%2,       Yongsheng%Li%NULL%0,       Hui%Chen%NULL%0,       Taige%Chen%NULL%1,       Nan%Su%NULL%1,       Fang%Huang%NULL%1,       Jing%Zhou%NULL%0,       Bing%Zhang%NULL%1,       Fangrong%Yan%NULL%2,       Fangrong%Yan%NULL%0,       Jun%Wang%NULL%2,       Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,     Cabrini%Luca%coreGivesNoEmail%0,     Castelli%Antonio%coreGivesNoEmail%0,     Cecconi%Maurizio%coreGivesNoEmail%0,     Cereda%Danilo%coreGivesNoEmail%0,     Coluccello%Antonio%coreGivesNoEmail%0,     Foti%Giuseppe%coreGivesNoEmail%0,     Fumagalli%Roberto%coreGivesNoEmail%0,     Grasselli%Giacomo%coreGivesNoEmail%0,     Iotti%Giorgio%coreGivesNoEmail%0,     Latronico%Nicola%coreGivesNoEmail%0,     Lorini%Luca%coreGivesNoEmail%0,     Merler%Stefano%coreGivesNoEmail%0,     Natalini%Giuseppe%coreGivesNoEmail%0,     Pesenti%Antonio%coreGivesNoEmail%0,     Piatti%Alessandra%coreGivesNoEmail%0,     Ranieri%Marco Vito%coreGivesNoEmail%0,     Scandroglio%Anna Mara%coreGivesNoEmail%0,     Storti%Enrico%coreGivesNoEmail%0,     Zanella%Alberto%coreGivesNoEmail%0,     Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,       Mikael%Chetboun%NULL%1,       Julien%Poissy%NULL%1,       Violeta%Raverdy%NULL%1,       Jerome%Noulette%NULL%2,       Jerome%Noulette%NULL%0,       Alain%Duhamel%NULL%1,       Julien%Labreuche%NULL%1,       Daniel%Mathieu%NULL%2,       Francois%Pattou%francois.pattou@univ-lille.fr%1,       Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,       Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,       Robert%Caizzo%NULL%2,       Robert%Caizzo%NULL%0,       Morgan%Caplan%NULL%1,       Nicolas%Cousin%NULL%1,       Thibault%Duburcq%NULL%1,       Arthur%Durand%NULL%1,       Ahmed%El kalioubie%NULL%1,       Raphael%Favory%NULL%1,       Bruno%Garcia%NULL%1,       Patrick%Girardie%NULL%1,       Julien%Goutay%NULL%1,       Marion%Houard%NULL%1,       Emmanuelle%Jaillette%NULL%1,       Nicolas%Kostuj%NULL%1,       Geoffrey%Ledoux%NULL%1,       Daniel%Mathieu%NULL%0,       Anne Sophie%Moreau%NULL%1,       Christopher%Niles%NULL%1,       Saad%Nseir%NULL%1,       Thierry%Onimus%NULL%1,       Erika%Parmentier%NULL%1,       Sebastien%Préau%NULL%1,       Laurent%Robriquet%NULL%1,       Anahita%Rouze%NULL%1,       Sophie%Six%NULL%1,       Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,       Samuel L%Bruce%NULL%1,       Cody L%Slater%NULL%1,       Jonathan R%Tiao%NULL%1,       Matthew R%Baldwin%NULL%2,       R Graham%Barr%NULL%1,       Bernard P%Chang%NULL%1,       Katherine H%Chau%NULL%1,       Justin J%Choi%NULL%1,       Nicholas%Gavin%NULL%1,       Parag%Goyal%NULL%1,       Angela M%Mills%NULL%1,       Ashmi A%Patel%NULL%1,       Marie-Laure S%Romney%NULL%1,       Monika M%Safford%NULL%1,       Neil W%Schluger%NULL%1,       Soumitra%Sengupta%NULL%1,       Magdalena E%Sobieszczyk%NULL%1,       Jason E%Zucker%NULL%1,       Paul A%Asadourian%NULL%1,       Fletcher M%Bell%NULL%1,       Rebekah%Boyd%NULL%1,       Matthew F%Cohen%NULL%1,       MacAlistair I%Colquhoun%NULL%1,       Lucy A%Colville%NULL%1,       Joseph H%de Jonge%NULL%1,       Lyle B%Dershowitz%NULL%1,       Shirin A%Dey%NULL%1,       Katherine A%Eiseman%NULL%1,       Zachary P%Girvin%NULL%1,       Daniella T%Goni%NULL%1,       Amro A%Harb%NULL%1,       Nicholas%Herzik%NULL%1,       Sarah%Householder%NULL%1,       Lara E%Karaaslan%NULL%1,       Heather%Lee%NULL%1,       Evan%Lieberman%NULL%1,       Andrew%Ling%NULL%1,       Ree%Lu%NULL%1,       Arthur Y%Shou%NULL%1,       Alexander C%Sisti%NULL%1,       Zachary E%Snow%NULL%1,       Colin P%Sperring%NULL%1,       Yuqing%Xiong%NULL%1,       Henry W%Zhou%NULL%1,       Karthik%Natarajan%NULL%1,       George%Hripcsak%NULL%1,       Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,       Mark%Caridi-Scheible%NULL%1,       James M.%Blum%NULL%1,       Chad%Robichaux%NULL%1,       Colleen%Kraft%NULL%1,       Jesse T.%Jacob%NULL%1,       Craig S.%Jabaley%NULL%1,       David%Carpenter%NULL%1,       Roberta%Kaplow%NULL%1,       Alfonso C.%Hernandez-Romieu%NULL%1,       Max W.%Adelman%NULL%1,       Greg S.%Martin%NULL%1,       Craig M.%Coopersmith%NULL%1,       David J.%Murphy%NULL%1,       NULL%NULL%NULL%11,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,       Bijan J.%Ghassemieh%NULL%1,       Michelle%Nichols%NULL%1,       Richard%Kim%NULL%1,       Keith R.%Jerome%NULL%1,       Arun K.%Nalla%NULL%1,       Alexander L.%Greninger%NULL%1,       Sudhakar%Pipavath%NULL%1,       Mark M.%Wurfel%NULL%1,       Laura%Evans%NULL%1,       Patricia A.%Kritek%NULL%1,       T. Eoin%West%NULL%1,       Andrew%Luks%NULL%1,       Anthony%Gerbino%NULL%1,       Chris R.%Dale%NULL%1,       Jason D.%Goldman%NULL%1,       Shane%O’Mahony%NULL%1,       Carmen%Mikacenic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,     Becker%L.B.%coreGivesNoEmail%0,     Chelico%J.D.%coreGivesNoEmail%0,     Cohen%S.L.%coreGivesNoEmail%0,     Cookingham%J.%coreGivesNoEmail%0,     Coppa%K.%coreGivesNoEmail%0,     Crawford%J.M.%coreGivesNoEmail%0,     Davidson%K.W.%coreGivesNoEmail%0,     Diefenbach%M.A.%coreGivesNoEmail%0,     Dominello%A.J.%coreGivesNoEmail%0,     Duer-Hefele%J.%coreGivesNoEmail%0,     Falzon%L.%coreGivesNoEmail%0,     Gitlin%J.%coreGivesNoEmail%0,     Hajizadeh%N.%coreGivesNoEmail%0,     Harvin%T.G.%coreGivesNoEmail%0,     Hirsch%J.S.%coreGivesNoEmail%0,     Hirschwerk%D.A.%coreGivesNoEmail%0,     Kim%E.J.%coreGivesNoEmail%0,     Kozel%Z.M.%coreGivesNoEmail%0,     Marrast%L.M.%coreGivesNoEmail%0,     McGinn%T.%coreGivesNoEmail%0,     Mogavero%J.N.%coreGivesNoEmail%0,     Narasimhan%M.%coreGivesNoEmail%0,     Osorio%G.A.%coreGivesNoEmail%0,     Qiu%M.%coreGivesNoEmail%0,     Richardson%S.%coreGivesNoEmail%0,     Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,       Jehan%Alladina%NULL%2,       Jehan%Alladina%NULL%0,       Camille R.%Petri%NULL%2,       Camille R.%Petri%NULL%0,       Jason H.%Maley%NULL%2,       Jason H.%Maley%NULL%0,       Ari%Moskowitz%NULL%1,       Benjamin D.%Medoff%NULL%1,       Kathryn A.%Hibbert%NULL%2,       Kathryn A.%Hibbert%NULL%0,       B. Taylor%Thompson%NULL%1,       C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,       Adam J%Russak%NULL%2,       Adam J%Russak%NULL%0,       Jessica K%De Freitas%NULL%1,       Anuradha%Lala%NULL%1,       Riccardo%Miotto%NULL%1,       Akhil%Vaid%NULL%1,       Kipp W%Johnson%NULL%1,       Matteo%Danieletto%NULL%1,       Eddye%Golden%NULL%1,       Dara%Meyer%NULL%1,       Manbir%Singh%NULL%1,       Sulaiman%Somani%NULL%1,       Arjun%Kapoor%NULL%1,       Ross%O'Hagan%NULL%1,       Sayan%Manna%NULL%1,       Udit%Nangia%NULL%1,       Suraj K%Jaladanki%NULL%1,       Paul%O’Reilly%NULL%2,       Paul%O’Reilly%NULL%0,       Laura M%Huckins%NULL%1,       Patricia%Glowe%NULL%1,       Arash%Kia%NULL%1,       Prem%Timsina%NULL%1,       Robert M%Freeman%NULL%1,       Matthew A%Levin%NULL%1,       Jeffrey%Jhang%NULL%1,       Adolfo%Firpo%NULL%1,       Patricia%Kovatch%NULL%1,       Joseph%Finkelstein%NULL%1,       Judith A%Aberg%NULL%1,       Emilia%Bagiella%NULL%1,       Carol R%Horowitz%NULL%1,       Barbara%Murphy%NULL%1,       Zahi A%Fayad%NULL%1,       Jagat%Narula%NULL%1,       Eric J%Nestler%NULL%1,       V%Fuster%NULL%1,       Carlos%Cordon-Cardo%NULL%1,       Dennis%Charney%NULL%1,       David L%Reich%NULL%1,       Allan%Just%NULL%1,       Erwin P%Bottinger%NULL%1,       Alexander W%Charney%NULL%1,       Benjamin S%Glicksberg%NULL%1,       Girish N%Nadkarni%NULL%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,        Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,        Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,        Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,        Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,        Bruno%Riou%bruno.riou@aphp.fr%2,        Bruno%Riou%bruno.riou@aphp.fr%0,        Yan%Zhao%doctoryanzhao@whu.edu.cn%0,        Yan%Zhao%doctoryanzhao@whu.edu.cn%0,        Gilles%Hejblum%gilles.hejblum@inserm.fr%2,        Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,        Peiyun%Li%NULL%1,        Liang%Ma%NULL%1,        Hang%Liang%NULL%1,        Jie%Lei%NULL%0,        Wenqiang%Li%NULL%1,        Kun%Wang%NULL%0,        Yu%Song%NULL%1,        Shuai%Li%NULL%1,        Wei%Yang%NULL%1,        Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,         C.% Hong%null%1,         J.% Meng%null%1,         Z.% Wu%null%1,         P.% Zhou%null%1,         C.% Ye%null%1,         B.% Sun%null%1,         L. M.% Kucirka%null%1,         A. S.% Azman%null%1,         T.% Wang%null%0,         J.% Chen%null%1,         Z.% Wang%null%1,         L.% Liu%null%0,         J.% Lessler%null%1,         J. K.% Edwards%null%1,         T.% Ma%null%1,         G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,        Ting%Yu%NULL%0,        Ronghui%Du%NULL%0,        Guohui%Fan%NULL%0,        Ying%Liu%NULL%0,        Zhibo%Liu%NULL%0,        Jie%Xiang%NULL%0,        Yeming%Wang%NULL%0,        Bin%Song%NULL%0,        Xiaoying%Gu%NULL%0,        Lulu%Guan%NULL%0,        Yuan%Wei%NULL%0,        Hui%Li%NULL%0,        Xudong%Wu%NULL%0,        Jiuyang%Xu%NULL%0,        Shengjin%Tu%NULL%0,        Yi%Zhang%NULL%0,        Hua%Chen%NULL%0,        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,        Zhiheng%Xu%NULL%1,        Xuesong%Liu%NULL%1,        Lihua%Cai%NULL%1,        Haichong%Zheng%NULL%1,        Yongbo%Huang%NULL%1,        Lixin%Zhou%NULL%1,        Linxi%Huang%NULL%1,        Yun%Ling%NULL%0,        Liehua%Deng%NULL%1,        Jianwei%Li%NULL%1,        Sibei%Chen%NULL%1,        Dongdong%Liu%NULL%1,        Zhimin%Lin%NULL%1,        Liang%Zhou%NULL%1,        Weiqun%He%NULL%1,        Nanshan%Zhong%NULL%3,        Xiaoqing%Liu%NULL%3,        Yimin%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,        Li-jun%Sun%NULL%1,        Mi%Xu%NULL%1,        Jian%Pan%NULL%1,        Yun-tao%Zhang%NULL%1,        Xue-ling%Fang%NULL%1,        Qiang%Fang%NULL%1,        Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,        Li-Min%Liu%NULL%2,        Wen%Yin%NULL%0,        Wen%Wang%NULL%2,        Lu-Lu%Guan%NULL%2,        Ming-Li%Yuan%NULL%0,        Yu-Lei%Li%NULL%2,        Yi%Hu%NULL%0,        Xu-Yan%Li%NULL%2,        Bing%Sun%NULL%2,        Peng%Peng%NULL%8,        Huan-Zhong%Shi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,        Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,        Wenlin%Cheng%NULL%0,        Lei%Yu%NULL%0,        Ya-Kun%Liu%NULL%3,        Xiaoyong%Hu%NULL%3,        Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,        Zheng-yi%Ni%NULL%6,        Zheng-yi%Ni%NULL%0,        Yu%Hu%NULL%6,        Wen-hua%Liang%NULL%3,        Chun-quan%Ou%NULL%3,        Jian-xing%He%NULL%4,        Lei%Liu%NULL%0,        Hong%Shan%NULL%0,        Chun-liang%Lei%NULL%4,        David S.C.%Hui%NULL%2,        Bin%Du%NULL%2,        Lan-juan%Li%NULL%2,        Guang%Zeng%NULL%2,        Kwok-Yung%Yuen%NULL%0,        Ru-chong%Chen%NULL%4,        Chun-li%Tang%NULL%4,        Tao%Wang%NULL%0,        Ping-yan%Chen%NULL%3,        Jie%Xiang%NULL%0,        Shi-yue%Li%NULL%4,        Jin-lin%Wang%NULL%2,        Zi-jing%Liang%NULL%2,        Yi-xiang%Peng%NULL%4,        Li%Wei%NULL%6,        Yong%Liu%NULL%6,        Ya-hua%Hu%NULL%4,        Peng%Peng%NULL%0,        Jian-ming%Wang%NULL%4,        Ji-yang%Liu%NULL%4,        Zhong%Chen%NULL%6,        Gang%Li%NULL%7,        Zhi-jian%Zheng%NULL%4,        Shao-qin%Qiu%NULL%4,        Jie%Luo%NULL%6,        Chang-jiang%Ye%NULL%4,        Shao-yong%Zhu%NULL%4,        Nan-shan%Zhong%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,        Fang%Jiang%NULL%2,        Wating%Su%NULL%2,        Chang%Chen%NULL%2,        Jingli%Chen%NULL%2,        Wei%Mei%NULL%2,        Li-Ying%Zhan%NULL%2,        Yifan%Jia%NULL%2,        Liangqing%Zhang%NULL%2,        Danyong%Liu%NULL%2,        Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,        Zhengyuan%Xia%zyxia@hkucc.hku.hk%2]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,        Yuan%Yu%NULL%2,        Jiqian%Xu%NULL%2,        Huaqing%Shu%NULL%2,        Jia'an%Xia%NULL%0,        Hong%Liu%NULL%2,        Yongran%Wu%NULL%2,        Lu%Zhang%NULL%2,        Zhui%Yu%NULL%2,        Minghao%Fang%NULL%2,        Ting%Yu%NULL%0,        Yaxin%Wang%NULL%2,        Shangwen%Pan%NULL%2,        Xiaojing%Zou%NULL%2,        Shiying%Yuan%NULL%2,        You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,        Yeming%Wang%NULL%0,        Xingwang%Li%NULL%0,        Lili%Ren%NULL%0,        Jianping%Zhao%NULL%0,        Yi%Hu%NULL%0,        Li%Zhang%NULL%0,        Guohui%Fan%NULL%0,        Jiuyang%Xu%NULL%0,        Xiaoying%Gu%NULL%0,        Zhenshun%Cheng%NULL%0,        Ting%Yu%NULL%0,        Jiaan%Xia%NULL%0,        Yuan%Wei%NULL%0,        Wenjuan%Wu%NULL%0,        Xuelei%Xie%NULL%0,        Wen%Yin%NULL%0,        Hui%Li%NULL%0,        Min%Liu%NULL%0,        Yan%Xiao%NULL%0,        Hong%Gao%NULL%0,        Li%Guo%NULL%0,        Jungang%Xie%NULL%0,        Guangfa%Wang%NULL%0,        Rongmeng%Jiang%NULL%0,        Zhancheng%Gao%NULL%0,        Qi%Jin%NULL%0,        Jianwei%Wang%wangjw28@163.com%0,        Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,        Xiaofan%Lu%NULL%1,        Yongsheng%Li%NULL%2,        Yongsheng%Li%NULL%0,        Hui%Chen%NULL%0,        Taige%Chen%NULL%1,        Nan%Su%NULL%1,        Fang%Huang%NULL%1,        Jing%Zhou%NULL%0,        Bing%Zhang%NULL%1,        Fangrong%Yan%NULL%2,        Fangrong%Yan%NULL%0,        Jun%Wang%NULL%2,        Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,      Cabrini%Luca%coreGivesNoEmail%0,      Castelli%Antonio%coreGivesNoEmail%0,      Cecconi%Maurizio%coreGivesNoEmail%0,      Cereda%Danilo%coreGivesNoEmail%0,      Coluccello%Antonio%coreGivesNoEmail%0,      Foti%Giuseppe%coreGivesNoEmail%0,      Fumagalli%Roberto%coreGivesNoEmail%0,      Grasselli%Giacomo%coreGivesNoEmail%0,      Iotti%Giorgio%coreGivesNoEmail%0,      Latronico%Nicola%coreGivesNoEmail%0,      Lorini%Luca%coreGivesNoEmail%0,      Merler%Stefano%coreGivesNoEmail%0,      Natalini%Giuseppe%coreGivesNoEmail%0,      Pesenti%Antonio%coreGivesNoEmail%0,      Piatti%Alessandra%coreGivesNoEmail%0,      Ranieri%Marco Vito%coreGivesNoEmail%0,      Scandroglio%Anna Mara%coreGivesNoEmail%0,      Storti%Enrico%coreGivesNoEmail%0,      Zanella%Alberto%coreGivesNoEmail%0,      Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,        Mikael%Chetboun%NULL%1,        Julien%Poissy%NULL%1,        Violeta%Raverdy%NULL%1,        Jerome%Noulette%NULL%2,        Jerome%Noulette%NULL%0,        Alain%Duhamel%NULL%1,        Julien%Labreuche%NULL%1,        Daniel%Mathieu%NULL%2,        Francois%Pattou%francois.pattou@univ-lille.fr%1,        Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,        Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,        Robert%Caizzo%NULL%2,        Robert%Caizzo%NULL%0,        Morgan%Caplan%NULL%1,        Nicolas%Cousin%NULL%1,        Thibault%Duburcq%NULL%1,        Arthur%Durand%NULL%1,        Ahmed%El kalioubie%NULL%1,        Raphael%Favory%NULL%1,        Bruno%Garcia%NULL%1,        Patrick%Girardie%NULL%1,        Julien%Goutay%NULL%1,        Marion%Houard%NULL%1,        Emmanuelle%Jaillette%NULL%1,        Nicolas%Kostuj%NULL%1,        Geoffrey%Ledoux%NULL%1,        Daniel%Mathieu%NULL%0,        Anne Sophie%Moreau%NULL%1,        Christopher%Niles%NULL%1,        Saad%Nseir%NULL%1,        Thierry%Onimus%NULL%1,        Erika%Parmentier%NULL%1,        Sebastien%Préau%NULL%1,        Laurent%Robriquet%NULL%1,        Anahita%Rouze%NULL%1,        Sophie%Six%NULL%1,        Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,        Samuel L%Bruce%NULL%1,        Cody L%Slater%NULL%1,        Jonathan R%Tiao%NULL%1,        Matthew R%Baldwin%NULL%2,        R Graham%Barr%NULL%1,        Bernard P%Chang%NULL%1,        Katherine H%Chau%NULL%1,        Justin J%Choi%NULL%1,        Nicholas%Gavin%NULL%1,        Parag%Goyal%NULL%1,        Angela M%Mills%NULL%1,        Ashmi A%Patel%NULL%1,        Marie-Laure S%Romney%NULL%1,        Monika M%Safford%NULL%1,        Neil W%Schluger%NULL%1,        Soumitra%Sengupta%NULL%1,        Magdalena E%Sobieszczyk%NULL%1,        Jason E%Zucker%NULL%1,        Paul A%Asadourian%NULL%1,        Fletcher M%Bell%NULL%1,        Rebekah%Boyd%NULL%1,        Matthew F%Cohen%NULL%1,        MacAlistair I%Colquhoun%NULL%1,        Lucy A%Colville%NULL%1,        Joseph H%de Jonge%NULL%1,        Lyle B%Dershowitz%NULL%1,        Shirin A%Dey%NULL%1,        Katherine A%Eiseman%NULL%1,        Zachary P%Girvin%NULL%1,        Daniella T%Goni%NULL%1,        Amro A%Harb%NULL%1,        Nicholas%Herzik%NULL%1,        Sarah%Householder%NULL%1,        Lara E%Karaaslan%NULL%1,        Heather%Lee%NULL%1,        Evan%Lieberman%NULL%1,        Andrew%Ling%NULL%1,        Ree%Lu%NULL%1,        Arthur Y%Shou%NULL%1,        Alexander C%Sisti%NULL%1,        Zachary E%Snow%NULL%1,        Colin P%Sperring%NULL%1,        Yuqing%Xiong%NULL%1,        Henry W%Zhou%NULL%1,        Karthik%Natarajan%NULL%1,        George%Hripcsak%NULL%1,        Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,        Mark%Caridi-Scheible%NULL%1,        James M.%Blum%NULL%1,        Chad%Robichaux%NULL%1,        Colleen%Kraft%NULL%1,        Jesse T.%Jacob%NULL%1,        Craig S.%Jabaley%NULL%1,        David%Carpenter%NULL%1,        Roberta%Kaplow%NULL%1,        Alfonso C.%Hernandez-Romieu%NULL%1,        Max W.%Adelman%NULL%1,        Greg S.%Martin%NULL%1,        Craig M.%Coopersmith%NULL%1,        David J.%Murphy%NULL%1,        NULL%NULL%NULL%11,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,        Bijan J.%Ghassemieh%NULL%1,        Michelle%Nichols%NULL%1,        Richard%Kim%NULL%1,        Keith R.%Jerome%NULL%1,        Arun K.%Nalla%NULL%1,        Alexander L.%Greninger%NULL%1,        Sudhakar%Pipavath%NULL%1,        Mark M.%Wurfel%NULL%1,        Laura%Evans%NULL%1,        Patricia A.%Kritek%NULL%1,        T. Eoin%West%NULL%1,        Andrew%Luks%NULL%1,        Anthony%Gerbino%NULL%1,        Chris R.%Dale%NULL%1,        Jason D.%Goldman%NULL%1,        Shane%O’Mahony%NULL%1,        Carmen%Mikacenic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,      Becker%L.B.%coreGivesNoEmail%0,      Chelico%J.D.%coreGivesNoEmail%0,      Cohen%S.L.%coreGivesNoEmail%0,      Cookingham%J.%coreGivesNoEmail%0,      Coppa%K.%coreGivesNoEmail%0,      Crawford%J.M.%coreGivesNoEmail%0,      Davidson%K.W.%coreGivesNoEmail%0,      Diefenbach%M.A.%coreGivesNoEmail%0,      Dominello%A.J.%coreGivesNoEmail%0,      Duer-Hefele%J.%coreGivesNoEmail%0,      Falzon%L.%coreGivesNoEmail%0,      Gitlin%J.%coreGivesNoEmail%0,      Hajizadeh%N.%coreGivesNoEmail%0,      Harvin%T.G.%coreGivesNoEmail%0,      Hirsch%J.S.%coreGivesNoEmail%0,      Hirschwerk%D.A.%coreGivesNoEmail%0,      Kim%E.J.%coreGivesNoEmail%0,      Kozel%Z.M.%coreGivesNoEmail%0,      Marrast%L.M.%coreGivesNoEmail%0,      McGinn%T.%coreGivesNoEmail%0,      Mogavero%J.N.%coreGivesNoEmail%0,      Narasimhan%M.%coreGivesNoEmail%0,      Osorio%G.A.%coreGivesNoEmail%0,      Qiu%M.%coreGivesNoEmail%0,      Richardson%S.%coreGivesNoEmail%0,      Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,        Jehan%Alladina%NULL%2,        Jehan%Alladina%NULL%0,        Camille R.%Petri%NULL%2,        Camille R.%Petri%NULL%0,        Jason H.%Maley%NULL%2,        Jason H.%Maley%NULL%0,        Ari%Moskowitz%NULL%1,        Benjamin D.%Medoff%NULL%1,        Kathryn A.%Hibbert%NULL%2,        Kathryn A.%Hibbert%NULL%0,        B. Taylor%Thompson%NULL%1,        C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,        Adam J%Russak%NULL%2,        Adam J%Russak%NULL%0,        Jessica K%De Freitas%NULL%1,        Anuradha%Lala%NULL%1,        Riccardo%Miotto%NULL%1,        Akhil%Vaid%NULL%1,        Kipp W%Johnson%NULL%1,        Matteo%Danieletto%NULL%1,        Eddye%Golden%NULL%1,        Dara%Meyer%NULL%1,        Manbir%Singh%NULL%1,        Sulaiman%Somani%NULL%1,        Arjun%Kapoor%NULL%1,        Ross%O'Hagan%NULL%1,        Sayan%Manna%NULL%1,        Udit%Nangia%NULL%1,        Suraj K%Jaladanki%NULL%1,        Paul%O’Reilly%NULL%2,        Paul%O’Reilly%NULL%0,        Laura M%Huckins%NULL%1,        Patricia%Glowe%NULL%1,        Arash%Kia%NULL%1,        Prem%Timsina%NULL%1,        Robert M%Freeman%NULL%1,        Matthew A%Levin%NULL%1,        Jeffrey%Jhang%NULL%1,        Adolfo%Firpo%NULL%1,        Patricia%Kovatch%NULL%1,        Joseph%Finkelstein%NULL%1,        Judith A%Aberg%NULL%1,        Emilia%Bagiella%NULL%1,        Carol R%Horowitz%NULL%1,        Barbara%Murphy%NULL%1,        Zahi A%Fayad%NULL%1,        Jagat%Narula%NULL%1,        Eric J%Nestler%NULL%1,        V%Fuster%NULL%1,        Carlos%Cordon-Cardo%NULL%1,        Dennis%Charney%NULL%1,        David L%Reich%NULL%1,        Allan%Just%NULL%1,        Erwin P%Bottinger%NULL%1,        Alexander W%Charney%NULL%1,        Benjamin S%Glicksberg%NULL%1,        Girish N%Nadkarni%NULL%1,        NULL%NULL%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1530,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -1370,7 +1559,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -1399,7 +1588,7 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>266</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1428,7 +1617,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -1457,7 +1646,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -1486,7 +1675,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -1515,7 +1704,7 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -1544,7 +1733,7 @@
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -1573,7 +1762,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -1602,7 +1791,7 @@
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="F11" t="s">
         <v>90</v>
@@ -1631,7 +1820,7 @@
         <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -1660,7 +1849,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -1689,7 +1878,7 @@
         <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -1718,13 +1907,13 @@
         <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="H15" t="s">
         <v>63</v>
@@ -1747,7 +1936,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -1805,7 +1994,7 @@
         <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="F18" t="s">
         <v>112</v>
@@ -1834,7 +2023,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -1863,7 +2052,7 @@
         <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
@@ -1921,13 +2110,13 @@
         <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="H22" t="s">
         <v>63</v>
@@ -1950,7 +2139,7 @@
         <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
       <c r="F23" t="s">
         <v>124</v>
@@ -1979,7 +2168,7 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="F24" t="s">
         <v>128</v>

--- a/Covid_19_Dataset_and_References/References/71.xlsx
+++ b/Covid_19_Dataset_and_References/References/71.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="336">
   <si>
     <t>Doi</t>
   </si>
@@ -1159,6 +1159,159 @@
   </si>
   <si>
     <t>[Ishan%Paranjpe%NULL%0,        Adam J%Russak%NULL%2,        Adam J%Russak%NULL%0,        Jessica K%De Freitas%NULL%1,        Anuradha%Lala%NULL%1,        Riccardo%Miotto%NULL%1,        Akhil%Vaid%NULL%1,        Kipp W%Johnson%NULL%1,        Matteo%Danieletto%NULL%1,        Eddye%Golden%NULL%1,        Dara%Meyer%NULL%1,        Manbir%Singh%NULL%1,        Sulaiman%Somani%NULL%1,        Arjun%Kapoor%NULL%1,        Ross%O'Hagan%NULL%1,        Sayan%Manna%NULL%1,        Udit%Nangia%NULL%1,        Suraj K%Jaladanki%NULL%1,        Paul%O’Reilly%NULL%2,        Paul%O’Reilly%NULL%0,        Laura M%Huckins%NULL%1,        Patricia%Glowe%NULL%1,        Arash%Kia%NULL%1,        Prem%Timsina%NULL%1,        Robert M%Freeman%NULL%1,        Matthew A%Levin%NULL%1,        Jeffrey%Jhang%NULL%1,        Adolfo%Firpo%NULL%1,        Patricia%Kovatch%NULL%1,        Joseph%Finkelstein%NULL%1,        Judith A%Aberg%NULL%1,        Emilia%Bagiella%NULL%1,        Carol R%Horowitz%NULL%1,        Barbara%Murphy%NULL%1,        Zahi A%Fayad%NULL%1,        Jagat%Narula%NULL%1,        Eric J%Nestler%NULL%1,        V%Fuster%NULL%1,        Carlos%Cordon-Cardo%NULL%1,        Dennis%Charney%NULL%1,        David L%Reich%NULL%1,        Allan%Just%NULL%1,        Erwin P%Bottinger%NULL%1,        Alexander W%Charney%NULL%1,        Benjamin S%Glicksberg%NULL%1,        Girish N%Nadkarni%NULL%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,         Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,         Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,         Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,         Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,         Bruno%Riou%bruno.riou@aphp.fr%2,         Bruno%Riou%bruno.riou@aphp.fr%0,         Yan%Zhao%doctoryanzhao@whu.edu.cn%0,         Yan%Zhao%doctoryanzhao@whu.edu.cn%0,         Gilles%Hejblum%gilles.hejblum@inserm.fr%2,         Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,         Peiyun%Li%NULL%0,         Liang%Ma%NULL%0,         Hang%Liang%NULL%0,         Jie%Lei%NULL%0,         Wenqiang%Li%NULL%0,         Kun%Wang%NULL%0,         Yu%Song%NULL%0,         Shuai%Li%NULL%0,         Wei%Yang%NULL%0,         Cao%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,          C.% Hong%null%1,          J.% Meng%null%1,          Z.% Wu%null%1,          P.% Zhou%null%1,          C.% Ye%null%1,          B.% Sun%null%1,          L. M.% Kucirka%null%1,          A. S.% Azman%null%1,          T.% Wang%null%0,          J.% Chen%null%1,          Z.% Wang%null%1,          L.% Liu%null%0,          J.% Lessler%null%1,          J. K.% Edwards%null%1,          T.% Ma%null%1,          G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,         Ting%Yu%NULL%0,         Ronghui%Du%NULL%0,         Guohui%Fan%NULL%0,         Ying%Liu%NULL%0,         Zhibo%Liu%NULL%0,         Jie%Xiang%NULL%0,         Yeming%Wang%NULL%0,         Bin%Song%NULL%0,         Xiaoying%Gu%NULL%0,         Lulu%Guan%NULL%0,         Yuan%Wei%NULL%0,         Hui%Li%NULL%0,         Xudong%Wu%NULL%0,         Jiuyang%Xu%NULL%0,         Shengjin%Tu%NULL%0,         Yi%Zhang%NULL%0,         Hua%Chen%NULL%0,         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,         Zhiheng%Xu%NULL%1,         Xuesong%Liu%NULL%1,         Lihua%Cai%NULL%1,         Haichong%Zheng%NULL%1,         Yongbo%Huang%NULL%1,         Lixin%Zhou%NULL%1,         Linxi%Huang%NULL%1,         Yun%Ling%NULL%0,         Liehua%Deng%NULL%1,         Jianwei%Li%NULL%0,         Sibei%Chen%NULL%1,         Dongdong%Liu%NULL%1,         Zhimin%Lin%NULL%1,         Liang%Zhou%NULL%1,         Weiqun%He%NULL%1,         Nanshan%Zhong%NULL%0,         Xiaoqing%Liu%NULL%3,         Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,         Li-jun%Sun%NULL%1,         Mi%Xu%NULL%1,         Jian%Pan%NULL%1,         Yun-tao%Zhang%NULL%1,         Xue-ling%Fang%NULL%1,         Qiang%Fang%NULL%1,         Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,         Li-Min%Liu%NULL%2,         Wen%Yin%NULL%0,         Wen%Wang%NULL%0,         Lu-Lu%Guan%NULL%2,         Ming-Li%Yuan%NULL%0,         Yu-Lei%Li%NULL%2,         Yi%Hu%NULL%0,         Xu-Yan%Li%NULL%0,         Bing%Sun%NULL%2,         Peng%Peng%NULL%0,         Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,         Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,         Wenlin%Cheng%NULL%0,         Lei%Yu%NULL%0,         Ya-Kun%Liu%NULL%0,         Xiaoyong%Hu%NULL%0,         Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,         Zheng-yi%Ni%NULL%0,         Zheng-yi%Ni%NULL%0,         Yu%Hu%NULL%0,         Wen-hua%Liang%NULL%0,         Chun-quan%Ou%NULL%0,         Jian-xing%He%NULL%0,         Lei%Liu%NULL%0,         Hong%Shan%NULL%0,         Chun-liang%Lei%NULL%0,         David S.C.%Hui%NULL%0,         Bin%Du%NULL%0,         Lan-juan%Li%NULL%0,         Guang%Zeng%NULL%0,         Kwok-Yung%Yuen%NULL%0,         Ru-chong%Chen%NULL%0,         Chun-li%Tang%NULL%0,         Tao%Wang%NULL%0,         Ping-yan%Chen%NULL%0,         Jie%Xiang%NULL%0,         Shi-yue%Li%NULL%0,         Jin-lin%Wang%NULL%0,         Zi-jing%Liang%NULL%0,         Yi-xiang%Peng%NULL%0,         Li%Wei%NULL%0,         Yong%Liu%NULL%0,         Ya-hua%Hu%NULL%0,         Peng%Peng%NULL%0,         Jian-ming%Wang%NULL%0,         Ji-yang%Liu%NULL%0,         Zhong%Chen%NULL%0,         Gang%Li%NULL%0,         Zhi-jian%Zheng%NULL%0,         Shao-qin%Qiu%NULL%0,         Jie%Luo%NULL%0,         Chang-jiang%Ye%NULL%0,         Shao-yong%Zhu%NULL%0,         Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,         Fang%Jiang%NULL%0,         Wating%Su%NULL%2,         Chang%Chen%NULL%2,         Jingli%Chen%NULL%2,         Wei%Mei%NULL%2,         Li-Ying%Zhan%NULL%2,         Yifan%Jia%NULL%2,         Liangqing%Zhang%NULL%2,         Danyong%Liu%NULL%2,         Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,         Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,         Yuan%Yu%NULL%0,         Jiqian%Xu%NULL%0,         Huaqing%Shu%NULL%0,         Jia'an%Xia%NULL%0,         Hong%Liu%NULL%0,         Yongran%Wu%NULL%0,         Lu%Zhang%NULL%0,         Zhui%Yu%NULL%0,         Minghao%Fang%NULL%0,         Ting%Yu%NULL%0,         Yaxin%Wang%NULL%0,         Shangwen%Pan%NULL%0,         Xiaojing%Zou%NULL%0,         Shiying%Yuan%NULL%0,         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,         Yeming%Wang%NULL%0,         Xingwang%Li%NULL%0,         Lili%Ren%NULL%0,         Jianping%Zhao%NULL%0,         Yi%Hu%NULL%0,         Li%Zhang%NULL%0,         Guohui%Fan%NULL%0,         Jiuyang%Xu%NULL%0,         Xiaoying%Gu%NULL%0,         Zhenshun%Cheng%NULL%0,         Ting%Yu%NULL%0,         Jiaan%Xia%NULL%0,         Yuan%Wei%NULL%0,         Wenjuan%Wu%NULL%0,         Xuelei%Xie%NULL%0,         Wen%Yin%NULL%0,         Hui%Li%NULL%0,         Min%Liu%NULL%0,         Yan%Xiao%NULL%0,         Hong%Gao%NULL%0,         Li%Guo%NULL%0,         Jungang%Xie%NULL%0,         Guangfa%Wang%NULL%0,         Rongmeng%Jiang%NULL%0,         Zhancheng%Gao%NULL%0,         Qi%Jin%NULL%0,         Jianwei%Wang%wangjw28@163.com%0,         Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,         Xiaofan%Lu%NULL%1,         Yongsheng%Li%NULL%2,         Yongsheng%Li%NULL%0,         Hui%Chen%NULL%0,         Taige%Chen%NULL%1,         Nan%Su%NULL%1,         Fang%Huang%NULL%1,         Jing%Zhou%NULL%0,         Bing%Zhang%NULL%1,         Fangrong%Yan%NULL%2,         Fangrong%Yan%NULL%0,         Jun%Wang%NULL%2,         Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,       Cabrini%Luca%coreGivesNoEmail%0,       Castelli%Antonio%coreGivesNoEmail%0,       Cecconi%Maurizio%coreGivesNoEmail%0,       Cereda%Danilo%coreGivesNoEmail%0,       Coluccello%Antonio%coreGivesNoEmail%0,       Foti%Giuseppe%coreGivesNoEmail%0,       Fumagalli%Roberto%coreGivesNoEmail%0,       Grasselli%Giacomo%coreGivesNoEmail%0,       Iotti%Giorgio%coreGivesNoEmail%0,       Latronico%Nicola%coreGivesNoEmail%0,       Lorini%Luca%coreGivesNoEmail%0,       Merler%Stefano%coreGivesNoEmail%0,       Natalini%Giuseppe%coreGivesNoEmail%0,       Pesenti%Antonio%coreGivesNoEmail%0,       Piatti%Alessandra%coreGivesNoEmail%0,       Ranieri%Marco Vito%coreGivesNoEmail%0,       Scandroglio%Anna Mara%coreGivesNoEmail%0,       Storti%Enrico%coreGivesNoEmail%0,       Zanella%Alberto%coreGivesNoEmail%0,       Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,         Mikael%Chetboun%NULL%1,         Julien%Poissy%NULL%1,         Violeta%Raverdy%NULL%1,         Jerome%Noulette%NULL%2,         Jerome%Noulette%NULL%0,         Alain%Duhamel%NULL%0,         Julien%Labreuche%NULL%0,         Daniel%Mathieu%NULL%2,         Francois%Pattou%francois.pattou@univ-lille.fr%1,         Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,         Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,         Robert%Caizzo%NULL%2,         Robert%Caizzo%NULL%0,         Morgan%Caplan%NULL%1,         Nicolas%Cousin%NULL%1,         Thibault%Duburcq%NULL%1,         Arthur%Durand%NULL%1,         Ahmed%El kalioubie%NULL%1,         Raphael%Favory%NULL%1,         Bruno%Garcia%NULL%1,         Patrick%Girardie%NULL%1,         Julien%Goutay%NULL%1,         Marion%Houard%NULL%1,         Emmanuelle%Jaillette%NULL%1,         Nicolas%Kostuj%NULL%1,         Geoffrey%Ledoux%NULL%1,         Daniel%Mathieu%NULL%0,         Anne Sophie%Moreau%NULL%1,         Christopher%Niles%NULL%1,         Saad%Nseir%NULL%1,         Thierry%Onimus%NULL%1,         Erika%Parmentier%NULL%1,         Sebastien%Préau%NULL%1,         Laurent%Robriquet%NULL%1,         Anahita%Rouze%NULL%1,         Sophie%Six%NULL%1,         Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Characteristics and Outcomes of 21 Critically Ill Patients With COVID-19 in Washington State"</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0, Eric%Yim%xref no email%0, Lindy%Klaff%xref no email%0, Sharukh%Lokhandwala%xref no email%0, Francis X.%Riedo%xref no email%0, Maria%Chong%xref no email%0, Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,         Samuel L%Bruce%NULL%0,         Cody L%Slater%NULL%0,         Jonathan R%Tiao%NULL%0,         Matthew R%Baldwin%NULL%0,         R Graham%Barr%NULL%0,         Bernard P%Chang%NULL%0,         Katherine H%Chau%NULL%0,         Justin J%Choi%NULL%0,         Nicholas%Gavin%NULL%0,         Parag%Goyal%NULL%0,         Angela M%Mills%NULL%0,         Ashmi A%Patel%NULL%0,         Marie-Laure S%Romney%NULL%0,         Monika M%Safford%NULL%0,         Neil W%Schluger%NULL%0,         Soumitra%Sengupta%NULL%0,         Magdalena E%Sobieszczyk%NULL%0,         Jason E%Zucker%NULL%0,         Paul A%Asadourian%NULL%0,         Fletcher M%Bell%NULL%0,         Rebekah%Boyd%NULL%0,         Matthew F%Cohen%NULL%0,         MacAlistair I%Colquhoun%NULL%0,         Lucy A%Colville%NULL%0,         Joseph H%de Jonge%NULL%0,         Lyle B%Dershowitz%NULL%0,         Shirin A%Dey%NULL%0,         Katherine A%Eiseman%NULL%0,         Zachary P%Girvin%NULL%0,         Daniella T%Goni%NULL%0,         Amro A%Harb%NULL%0,         Nicholas%Herzik%NULL%0,         Sarah%Householder%NULL%0,         Lara E%Karaaslan%NULL%0,         Heather%Lee%NULL%0,         Evan%Lieberman%NULL%0,         Andrew%Ling%NULL%0,         Ree%Lu%NULL%0,         Arthur Y%Shou%NULL%0,         Alexander C%Sisti%NULL%0,         Zachary E%Snow%NULL%0,         Colin P%Sperring%NULL%0,         Yuqing%Xiong%NULL%0,         Henry W%Zhou%NULL%0,         Karthik%Natarajan%NULL%0,         George%Hripcsak%NULL%0,         Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,         Mark%Caridi-Scheible%NULL%0,         James M.%Blum%NULL%0,         Chad%Robichaux%NULL%0,         Colleen%Kraft%NULL%0,         Jesse T.%Jacob%NULL%0,         Craig S.%Jabaley%NULL%0,         David%Carpenter%NULL%0,         Roberta%Kaplow%NULL%0,         Alfonso C.%Hernandez-Romieu%NULL%0,         Max W.%Adelman%NULL%0,         Greg S.%Martin%NULL%0,         Craig M.%Coopersmith%NULL%0,         David J.%Murphy%NULL%0,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,         Bijan J.%Ghassemieh%NULL%0,         Michelle%Nichols%NULL%0,         Richard%Kim%NULL%0,         Keith R.%Jerome%NULL%0,         Arun K.%Nalla%NULL%0,         Alexander L.%Greninger%NULL%0,         Sudhakar%Pipavath%NULL%0,         Mark M.%Wurfel%NULL%0,         Laura%Evans%NULL%0,         Patricia A.%Kritek%NULL%0,         T. Eoin%West%NULL%0,         Andrew%Luks%NULL%0,         Anthony%Gerbino%NULL%0,         Chris R.%Dale%NULL%0,         Jason D.%Goldman%NULL%0,         Shane%O’Mahony%NULL%0,         Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Characteristics of Hospitalized Adults With COVID-19 in an Integrated Health Care System in California"</t>
+  </si>
+  <si>
+    <t>[Laura C.%Myers%xref no email%1, Stephen M.%Parodi%xref no email%1, Gabriel J.%Escobar%xref no email%1, Vincent X.%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-24</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,       Becker%L.B.%coreGivesNoEmail%0,       Chelico%J.D.%coreGivesNoEmail%0,       Cohen%S.L.%coreGivesNoEmail%0,       Cookingham%J.%coreGivesNoEmail%0,       Coppa%K.%coreGivesNoEmail%0,       Crawford%J.M.%coreGivesNoEmail%0,       Davidson%K.W.%coreGivesNoEmail%0,       Diefenbach%M.A.%coreGivesNoEmail%0,       Dominello%A.J.%coreGivesNoEmail%0,       Duer-Hefele%J.%coreGivesNoEmail%0,       Falzon%L.%coreGivesNoEmail%0,       Gitlin%J.%coreGivesNoEmail%0,       Hajizadeh%N.%coreGivesNoEmail%0,       Harvin%T.G.%coreGivesNoEmail%0,       Hirsch%J.S.%coreGivesNoEmail%0,       Hirschwerk%D.A.%coreGivesNoEmail%0,       Kim%E.J.%coreGivesNoEmail%0,       Kozel%Z.M.%coreGivesNoEmail%0,       Marrast%L.M.%coreGivesNoEmail%0,       McGinn%T.%coreGivesNoEmail%0,       Mogavero%J.N.%coreGivesNoEmail%0,       Narasimhan%M.%coreGivesNoEmail%0,       Osorio%G.A.%coreGivesNoEmail%0,       Qiu%M.%coreGivesNoEmail%0,       Richardson%S.%coreGivesNoEmail%0,       Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,         Jehan%Alladina%NULL%2,         Jehan%Alladina%NULL%0,         Camille R.%Petri%NULL%2,         Camille R.%Petri%NULL%0,         Jason H.%Maley%NULL%2,         Jason H.%Maley%NULL%0,         Ari%Moskowitz%NULL%1,         Benjamin D.%Medoff%NULL%1,         Kathryn A.%Hibbert%NULL%2,         Kathryn A.%Hibbert%NULL%0,         B. Taylor%Thompson%NULL%1,         C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,         Adam J%Russak%NULL%0,         Adam J%Russak%NULL%0,         Jessica K%De Freitas%NULL%0,         Anuradha%Lala%NULL%0,         Riccardo%Miotto%NULL%0,         Akhil%Vaid%NULL%0,         Kipp W%Johnson%NULL%0,         Matteo%Danieletto%NULL%0,         Eddye%Golden%NULL%0,         Dara%Meyer%NULL%0,         Manbir%Singh%NULL%0,         Sulaiman%Somani%NULL%0,         Arjun%Kapoor%NULL%0,         Ross%O'Hagan%NULL%0,         Sayan%Manna%NULL%0,         Udit%Nangia%NULL%0,         Suraj K%Jaladanki%NULL%0,         Paul%O’Reilly%NULL%0,         Paul%O’Reilly%NULL%0,         Laura M%Huckins%NULL%0,         Patricia%Glowe%NULL%0,         Arash%Kia%NULL%0,         Prem%Timsina%NULL%0,         Robert M%Freeman%NULL%0,         Matthew A%Levin%NULL%0,         Jeffrey%Jhang%NULL%0,         Adolfo%Firpo%NULL%0,         Patricia%Kovatch%NULL%0,         Joseph%Finkelstein%NULL%0,         Judith A%Aberg%NULL%0,         Emilia%Bagiella%NULL%0,         Carol R%Horowitz%NULL%0,         Barbara%Murphy%NULL%0,         Zahi A%Fayad%NULL%0,         Jagat%Narula%NULL%0,         Eric J%Nestler%NULL%0,         V%Fuster%NULL%0,         Carlos%Cordon-Cardo%NULL%0,         Dennis%Charney%NULL%0,         David L%Reich%NULL%0,         Allan%Just%NULL%0,         Erwin P%Bottinger%NULL%0,         Alexander W%Charney%NULL%0,         Benjamin S%Glicksberg%NULL%0,         Girish N%Nadkarni%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,          Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,          Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,          Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,          Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,          Bruno%Riou%bruno.riou@aphp.fr%2,          Bruno%Riou%bruno.riou@aphp.fr%0,          Yan%Zhao%doctoryanzhao@whu.edu.cn%0,          Yan%Zhao%doctoryanzhao@whu.edu.cn%0,          Gilles%Hejblum%gilles.hejblum@inserm.fr%2,          Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,          Peiyun%Li%NULL%0,          Liang%Ma%NULL%0,          Hang%Liang%NULL%0,          Jie%Lei%NULL%0,          Wenqiang%Li%NULL%0,          Kun%Wang%NULL%0,          Yu%Song%NULL%0,          Shuai%Li%NULL%0,          Wei%Yang%NULL%0,          Cao%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,           C.% Hong%null%1,           J.% Meng%null%1,           Z.% Wu%null%1,           P.% Zhou%null%1,           C.% Ye%null%1,           B.% Sun%null%1,           L. M.% Kucirka%null%1,           A. S.% Azman%null%1,           T.% Wang%null%0,           J.% Chen%null%1,           Z.% Wang%null%1,           L.% Liu%null%0,           J.% Lessler%null%1,           J. K.% Edwards%null%1,           T.% Ma%null%1,           G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,          Ting%Yu%NULL%0,          Ronghui%Du%NULL%0,          Guohui%Fan%NULL%0,          Ying%Liu%NULL%0,          Zhibo%Liu%NULL%0,          Jie%Xiang%NULL%0,          Yeming%Wang%NULL%0,          Bin%Song%NULL%0,          Xiaoying%Gu%NULL%0,          Lulu%Guan%NULL%0,          Yuan%Wei%NULL%0,          Hui%Li%NULL%0,          Xudong%Wu%NULL%0,          Jiuyang%Xu%NULL%0,          Shengjin%Tu%NULL%0,          Yi%Zhang%NULL%0,          Hua%Chen%NULL%0,          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,          Zhiheng%Xu%NULL%1,          Xuesong%Liu%NULL%1,          Lihua%Cai%NULL%1,          Haichong%Zheng%NULL%1,          Yongbo%Huang%NULL%1,          Lixin%Zhou%NULL%1,          Linxi%Huang%NULL%1,          Yun%Ling%NULL%0,          Liehua%Deng%NULL%1,          Jianwei%Li%NULL%0,          Sibei%Chen%NULL%1,          Dongdong%Liu%NULL%1,          Zhimin%Lin%NULL%1,          Liang%Zhou%NULL%1,          Weiqun%He%NULL%1,          Nanshan%Zhong%NULL%0,          Xiaoqing%Liu%NULL%3,          Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,          Li-jun%Sun%NULL%1,          Mi%Xu%NULL%1,          Jian%Pan%NULL%1,          Yun-tao%Zhang%NULL%1,          Xue-ling%Fang%NULL%1,          Qiang%Fang%NULL%1,          Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,          Li-Min%Liu%NULL%2,          Wen%Yin%NULL%0,          Wen%Wang%NULL%0,          Lu-Lu%Guan%NULL%2,          Ming-Li%Yuan%NULL%0,          Yu-Lei%Li%NULL%2,          Yi%Hu%NULL%0,          Xu-Yan%Li%NULL%0,          Bing%Sun%NULL%2,          Peng%Peng%NULL%0,          Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,          Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,          Wenlin%Cheng%NULL%0,          Lei%Yu%NULL%0,          Ya-Kun%Liu%NULL%0,          Xiaoyong%Hu%NULL%0,          Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,          Zheng-yi%Ni%NULL%0,          Zheng-yi%Ni%NULL%0,          Yu%Hu%NULL%0,          Wen-hua%Liang%NULL%0,          Chun-quan%Ou%NULL%0,          Jian-xing%He%NULL%0,          Lei%Liu%NULL%0,          Hong%Shan%NULL%0,          Chun-liang%Lei%NULL%0,          David S.C.%Hui%NULL%0,          Bin%Du%NULL%0,          Lan-juan%Li%NULL%0,          Guang%Zeng%NULL%0,          Kwok-Yung%Yuen%NULL%0,          Ru-chong%Chen%NULL%0,          Chun-li%Tang%NULL%0,          Tao%Wang%NULL%0,          Ping-yan%Chen%NULL%0,          Jie%Xiang%NULL%0,          Shi-yue%Li%NULL%0,          Jin-lin%Wang%NULL%0,          Zi-jing%Liang%NULL%0,          Yi-xiang%Peng%NULL%0,          Li%Wei%NULL%0,          Yong%Liu%NULL%0,          Ya-hua%Hu%NULL%0,          Peng%Peng%NULL%0,          Jian-ming%Wang%NULL%0,          Ji-yang%Liu%NULL%0,          Zhong%Chen%NULL%0,          Gang%Li%NULL%0,          Zhi-jian%Zheng%NULL%0,          Shao-qin%Qiu%NULL%0,          Jie%Luo%NULL%0,          Chang-jiang%Ye%NULL%0,          Shao-yong%Zhu%NULL%0,          Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,          Fang%Jiang%NULL%0,          Wating%Su%NULL%2,          Chang%Chen%NULL%2,          Jingli%Chen%NULL%2,          Wei%Mei%NULL%2,          Li-Ying%Zhan%NULL%2,          Yifan%Jia%NULL%2,          Liangqing%Zhang%NULL%2,          Danyong%Liu%NULL%2,          Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,          Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,          Yuan%Yu%NULL%0,          Jiqian%Xu%NULL%0,          Huaqing%Shu%NULL%0,          Jia'an%Xia%NULL%0,          Hong%Liu%NULL%0,          Yongran%Wu%NULL%0,          Lu%Zhang%NULL%0,          Zhui%Yu%NULL%0,          Minghao%Fang%NULL%0,          Ting%Yu%NULL%0,          Yaxin%Wang%NULL%0,          Shangwen%Pan%NULL%0,          Xiaojing%Zou%NULL%0,          Shiying%Yuan%NULL%0,          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,          Yeming%Wang%NULL%0,          Xingwang%Li%NULL%0,          Lili%Ren%NULL%0,          Jianping%Zhao%NULL%0,          Yi%Hu%NULL%0,          Li%Zhang%NULL%0,          Guohui%Fan%NULL%0,          Jiuyang%Xu%NULL%0,          Xiaoying%Gu%NULL%0,          Zhenshun%Cheng%NULL%0,          Ting%Yu%NULL%0,          Jiaan%Xia%NULL%0,          Yuan%Wei%NULL%0,          Wenjuan%Wu%NULL%0,          Xuelei%Xie%NULL%0,          Wen%Yin%NULL%0,          Hui%Li%NULL%0,          Min%Liu%NULL%0,          Yan%Xiao%NULL%0,          Hong%Gao%NULL%0,          Li%Guo%NULL%0,          Jungang%Xie%NULL%0,          Guangfa%Wang%NULL%0,          Rongmeng%Jiang%NULL%0,          Zhancheng%Gao%NULL%0,          Qi%Jin%NULL%0,          Jianwei%Wang%wangjw28@163.com%0,          Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,          Xiaofan%Lu%NULL%1,          Yongsheng%Li%NULL%2,          Yongsheng%Li%NULL%0,          Hui%Chen%NULL%0,          Taige%Chen%NULL%1,          Nan%Su%NULL%1,          Fang%Huang%NULL%1,          Jing%Zhou%NULL%0,          Bing%Zhang%NULL%1,          Fangrong%Yan%NULL%2,          Fangrong%Yan%NULL%0,          Jun%Wang%NULL%2,          Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,        Cabrini%Luca%coreGivesNoEmail%0,        Castelli%Antonio%coreGivesNoEmail%0,        Cecconi%Maurizio%coreGivesNoEmail%0,        Cereda%Danilo%coreGivesNoEmail%0,        Coluccello%Antonio%coreGivesNoEmail%0,        Foti%Giuseppe%coreGivesNoEmail%0,        Fumagalli%Roberto%coreGivesNoEmail%0,        Grasselli%Giacomo%coreGivesNoEmail%0,        Iotti%Giorgio%coreGivesNoEmail%0,        Latronico%Nicola%coreGivesNoEmail%0,        Lorini%Luca%coreGivesNoEmail%0,        Merler%Stefano%coreGivesNoEmail%0,        Natalini%Giuseppe%coreGivesNoEmail%0,        Pesenti%Antonio%coreGivesNoEmail%0,        Piatti%Alessandra%coreGivesNoEmail%0,        Ranieri%Marco Vito%coreGivesNoEmail%0,        Scandroglio%Anna Mara%coreGivesNoEmail%0,        Storti%Enrico%coreGivesNoEmail%0,        Zanella%Alberto%coreGivesNoEmail%0,        Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,          Mikael%Chetboun%NULL%1,          Julien%Poissy%NULL%1,          Violeta%Raverdy%NULL%1,          Jerome%Noulette%NULL%2,          Jerome%Noulette%NULL%0,          Alain%Duhamel%NULL%0,          Julien%Labreuche%NULL%0,          Daniel%Mathieu%NULL%2,          Francois%Pattou%francois.pattou@univ-lille.fr%1,          Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,          Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,          Robert%Caizzo%NULL%2,          Robert%Caizzo%NULL%0,          Morgan%Caplan%NULL%1,          Nicolas%Cousin%NULL%1,          Thibault%Duburcq%NULL%1,          Arthur%Durand%NULL%1,          Ahmed%El kalioubie%NULL%1,          Raphael%Favory%NULL%1,          Bruno%Garcia%NULL%1,          Patrick%Girardie%NULL%1,          Julien%Goutay%NULL%1,          Marion%Houard%NULL%1,          Emmanuelle%Jaillette%NULL%1,          Nicolas%Kostuj%NULL%1,          Geoffrey%Ledoux%NULL%1,          Daniel%Mathieu%NULL%0,          Anne Sophie%Moreau%NULL%1,          Christopher%Niles%NULL%1,          Saad%Nseir%NULL%1,          Thierry%Onimus%NULL%1,          Erika%Parmentier%NULL%1,          Sebastien%Préau%NULL%1,          Laurent%Robriquet%NULL%1,          Anahita%Rouze%NULL%1,          Sophie%Six%NULL%1,          Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,  Eric%Yim%xref no email%0,  Lindy%Klaff%xref no email%0,  Sharukh%Lokhandwala%xref no email%0,  Francis X.%Riedo%xref no email%0,  Maria%Chong%xref no email%0,  Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,          Samuel L%Bruce%NULL%0,          Cody L%Slater%NULL%0,          Jonathan R%Tiao%NULL%0,          Matthew R%Baldwin%NULL%0,          R Graham%Barr%NULL%0,          Bernard P%Chang%NULL%0,          Katherine H%Chau%NULL%0,          Justin J%Choi%NULL%0,          Nicholas%Gavin%NULL%0,          Parag%Goyal%NULL%0,          Angela M%Mills%NULL%0,          Ashmi A%Patel%NULL%0,          Marie-Laure S%Romney%NULL%0,          Monika M%Safford%NULL%0,          Neil W%Schluger%NULL%0,          Soumitra%Sengupta%NULL%0,          Magdalena E%Sobieszczyk%NULL%0,          Jason E%Zucker%NULL%0,          Paul A%Asadourian%NULL%0,          Fletcher M%Bell%NULL%0,          Rebekah%Boyd%NULL%0,          Matthew F%Cohen%NULL%0,          MacAlistair I%Colquhoun%NULL%0,          Lucy A%Colville%NULL%0,          Joseph H%de Jonge%NULL%0,          Lyle B%Dershowitz%NULL%0,          Shirin A%Dey%NULL%0,          Katherine A%Eiseman%NULL%0,          Zachary P%Girvin%NULL%0,          Daniella T%Goni%NULL%0,          Amro A%Harb%NULL%0,          Nicholas%Herzik%NULL%0,          Sarah%Householder%NULL%0,          Lara E%Karaaslan%NULL%0,          Heather%Lee%NULL%0,          Evan%Lieberman%NULL%0,          Andrew%Ling%NULL%0,          Ree%Lu%NULL%0,          Arthur Y%Shou%NULL%0,          Alexander C%Sisti%NULL%0,          Zachary E%Snow%NULL%0,          Colin P%Sperring%NULL%0,          Yuqing%Xiong%NULL%0,          Henry W%Zhou%NULL%0,          Karthik%Natarajan%NULL%0,          George%Hripcsak%NULL%0,          Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,          Mark%Caridi-Scheible%NULL%0,          James M.%Blum%NULL%0,          Chad%Robichaux%NULL%0,          Colleen%Kraft%NULL%0,          Jesse T.%Jacob%NULL%0,          Craig S.%Jabaley%NULL%0,          David%Carpenter%NULL%0,          Roberta%Kaplow%NULL%0,          Alfonso C.%Hernandez-Romieu%NULL%0,          Max W.%Adelman%NULL%0,          Greg S.%Martin%NULL%0,          Craig M.%Coopersmith%NULL%0,          David J.%Murphy%NULL%0,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,          Bijan J.%Ghassemieh%NULL%0,          Michelle%Nichols%NULL%0,          Richard%Kim%NULL%0,          Keith R.%Jerome%NULL%0,          Arun K.%Nalla%NULL%0,          Alexander L.%Greninger%NULL%0,          Sudhakar%Pipavath%NULL%0,          Mark M.%Wurfel%NULL%0,          Laura%Evans%NULL%0,          Patricia A.%Kritek%NULL%0,          T. Eoin%West%NULL%0,          Andrew%Luks%NULL%0,          Anthony%Gerbino%NULL%0,          Chris R.%Dale%NULL%0,          Jason D.%Goldman%NULL%0,          Shane%O’Mahony%NULL%0,          Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura C.%Myers%xref no email%1,  Stephen M.%Parodi%xref no email%1,  Gabriel J.%Escobar%xref no email%1,  Vincent X.%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,        Becker%L.B.%coreGivesNoEmail%0,        Chelico%J.D.%coreGivesNoEmail%0,        Cohen%S.L.%coreGivesNoEmail%0,        Cookingham%J.%coreGivesNoEmail%0,        Coppa%K.%coreGivesNoEmail%0,        Crawford%J.M.%coreGivesNoEmail%0,        Davidson%K.W.%coreGivesNoEmail%0,        Diefenbach%M.A.%coreGivesNoEmail%0,        Dominello%A.J.%coreGivesNoEmail%0,        Duer-Hefele%J.%coreGivesNoEmail%0,        Falzon%L.%coreGivesNoEmail%0,        Gitlin%J.%coreGivesNoEmail%0,        Hajizadeh%N.%coreGivesNoEmail%0,        Harvin%T.G.%coreGivesNoEmail%0,        Hirsch%J.S.%coreGivesNoEmail%0,        Hirschwerk%D.A.%coreGivesNoEmail%0,        Kim%E.J.%coreGivesNoEmail%0,        Kozel%Z.M.%coreGivesNoEmail%0,        Marrast%L.M.%coreGivesNoEmail%0,        McGinn%T.%coreGivesNoEmail%0,        Mogavero%J.N.%coreGivesNoEmail%0,        Narasimhan%M.%coreGivesNoEmail%0,        Osorio%G.A.%coreGivesNoEmail%0,        Qiu%M.%coreGivesNoEmail%0,        Richardson%S.%coreGivesNoEmail%0,        Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,          Jehan%Alladina%NULL%2,          Jehan%Alladina%NULL%0,          Camille R.%Petri%NULL%2,          Camille R.%Petri%NULL%0,          Jason H.%Maley%NULL%2,          Jason H.%Maley%NULL%0,          Ari%Moskowitz%NULL%1,          Benjamin D.%Medoff%NULL%1,          Kathryn A.%Hibbert%NULL%2,          Kathryn A.%Hibbert%NULL%0,          B. Taylor%Thompson%NULL%1,          C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,          Adam J%Russak%NULL%0,          Adam J%Russak%NULL%0,          Jessica K%De Freitas%NULL%0,          Anuradha%Lala%NULL%0,          Riccardo%Miotto%NULL%0,          Akhil%Vaid%NULL%0,          Kipp W%Johnson%NULL%0,          Matteo%Danieletto%NULL%0,          Eddye%Golden%NULL%0,          Dara%Meyer%NULL%0,          Manbir%Singh%NULL%0,          Sulaiman%Somani%NULL%0,          Arjun%Kapoor%NULL%0,          Ross%O'Hagan%NULL%0,          Sayan%Manna%NULL%0,          Udit%Nangia%NULL%0,          Suraj K%Jaladanki%NULL%0,          Paul%O’Reilly%NULL%0,          Paul%O’Reilly%NULL%0,          Laura M%Huckins%NULL%0,          Patricia%Glowe%NULL%0,          Arash%Kia%NULL%0,          Prem%Timsina%NULL%0,          Robert M%Freeman%NULL%0,          Matthew A%Levin%NULL%0,          Jeffrey%Jhang%NULL%0,          Adolfo%Firpo%NULL%0,          Patricia%Kovatch%NULL%0,          Joseph%Finkelstein%NULL%0,          Judith A%Aberg%NULL%0,          Emilia%Bagiella%NULL%0,          Carol R%Horowitz%NULL%0,          Barbara%Murphy%NULL%0,          Zahi A%Fayad%NULL%0,          Jagat%Narula%NULL%0,          Eric J%Nestler%NULL%0,          V%Fuster%NULL%0,          Carlos%Cordon-Cardo%NULL%0,          Dennis%Charney%NULL%0,          David L%Reich%NULL%0,          Allan%Just%NULL%0,          Erwin P%Bottinger%NULL%0,          Alexander W%Charney%NULL%0,          Benjamin S%Glicksberg%NULL%0,          Girish N%Nadkarni%NULL%0,          NULL%NULL%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1683,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -1559,7 +1712,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -1588,7 +1741,7 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1617,7 +1770,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -1646,7 +1799,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -1675,7 +1828,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -1704,7 +1857,7 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -1733,7 +1886,7 @@
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -1762,7 +1915,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -1791,7 +1944,7 @@
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="F11" t="s">
         <v>90</v>
@@ -1820,7 +1973,7 @@
         <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -1849,7 +2002,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -1878,7 +2031,7 @@
         <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -1907,7 +2060,7 @@
         <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -1936,7 +2089,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -1959,22 +2112,22 @@
         <v>43949.0</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="D17" t="s">
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>328</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>303</v>
       </c>
       <c r="I17" t="s">
         <v>101</v>
@@ -1994,7 +2147,7 @@
         <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="F18" t="s">
         <v>112</v>
@@ -2023,7 +2176,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -2052,7 +2205,7 @@
         <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
@@ -2075,22 +2228,22 @@
         <v>43984.0</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>307</v>
       </c>
       <c r="D21" t="s">
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>332</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>309</v>
       </c>
       <c r="I21" t="s">
         <v>101</v>
@@ -2110,7 +2263,7 @@
         <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -2139,7 +2292,7 @@
         <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="F23" t="s">
         <v>124</v>
@@ -2168,7 +2321,7 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="F24" t="s">
         <v>128</v>

--- a/Covid_19_Dataset_and_References/References/71.xlsx
+++ b/Covid_19_Dataset_and_References/References/71.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="382">
   <si>
     <t>Doi</t>
   </si>
@@ -1312,6 +1312,144 @@
   </si>
   <si>
     <t>[Ishan%Paranjpe%NULL%0,          Adam J%Russak%NULL%0,          Adam J%Russak%NULL%0,          Jessica K%De Freitas%NULL%0,          Anuradha%Lala%NULL%0,          Riccardo%Miotto%NULL%0,          Akhil%Vaid%NULL%0,          Kipp W%Johnson%NULL%0,          Matteo%Danieletto%NULL%0,          Eddye%Golden%NULL%0,          Dara%Meyer%NULL%0,          Manbir%Singh%NULL%0,          Sulaiman%Somani%NULL%0,          Arjun%Kapoor%NULL%0,          Ross%O'Hagan%NULL%0,          Sayan%Manna%NULL%0,          Udit%Nangia%NULL%0,          Suraj K%Jaladanki%NULL%0,          Paul%O’Reilly%NULL%0,          Paul%O’Reilly%NULL%0,          Laura M%Huckins%NULL%0,          Patricia%Glowe%NULL%0,          Arash%Kia%NULL%0,          Prem%Timsina%NULL%0,          Robert M%Freeman%NULL%0,          Matthew A%Levin%NULL%0,          Jeffrey%Jhang%NULL%0,          Adolfo%Firpo%NULL%0,          Patricia%Kovatch%NULL%0,          Joseph%Finkelstein%NULL%0,          Judith A%Aberg%NULL%0,          Emilia%Bagiella%NULL%0,          Carol R%Horowitz%NULL%0,          Barbara%Murphy%NULL%0,          Zahi A%Fayad%NULL%0,          Jagat%Narula%NULL%0,          Eric J%Nestler%NULL%0,          V%Fuster%NULL%0,          Carlos%Cordon-Cardo%NULL%0,          Dennis%Charney%NULL%0,          David L%Reich%NULL%0,          Allan%Just%NULL%0,          Erwin P%Bottinger%NULL%0,          Alexander W%Charney%NULL%0,          Benjamin S%Glicksberg%NULL%0,          Girish N%Nadkarni%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,           Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,           Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,           Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,           Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,           Bruno%Riou%bruno.riou@aphp.fr%2,           Bruno%Riou%bruno.riou@aphp.fr%0,           Yan%Zhao%doctoryanzhao@whu.edu.cn%0,           Yan%Zhao%doctoryanzhao@whu.edu.cn%0,           Gilles%Hejblum%gilles.hejblum@inserm.fr%2,           Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,           Peiyun%Li%NULL%0,           Liang%Ma%NULL%0,           Hang%Liang%NULL%0,           Jie%Lei%NULL%0,           Wenqiang%Li%NULL%0,           Kun%Wang%NULL%0,           Yu%Song%NULL%0,           Shuai%Li%NULL%0,           Wei%Yang%NULL%0,           Cao%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,            C.% Hong%null%1,            J.% Meng%null%1,            Z.% Wu%null%1,            P.% Zhou%null%1,            C.% Ye%null%1,            B.% Sun%null%1,            L. M.% Kucirka%null%1,            A. S.% Azman%null%1,            T.% Wang%null%0,            J.% Chen%null%1,            Z.% Wang%null%1,            L.% Liu%null%0,            J.% Lessler%null%1,            J. K.% Edwards%null%1,            T.% Ma%null%1,            G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,           Ting%Yu%NULL%0,           Ronghui%Du%NULL%0,           Guohui%Fan%NULL%0,           Ying%Liu%NULL%0,           Zhibo%Liu%NULL%0,           Jie%Xiang%NULL%0,           Yeming%Wang%NULL%0,           Bin%Song%NULL%0,           Xiaoying%Gu%NULL%0,           Lulu%Guan%NULL%0,           Yuan%Wei%NULL%0,           Hui%Li%NULL%0,           Xudong%Wu%NULL%0,           Jiuyang%Xu%NULL%0,           Shengjin%Tu%NULL%0,           Yi%Zhang%NULL%0,           Hua%Chen%NULL%0,           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,           Zhiheng%Xu%NULL%1,           Xuesong%Liu%NULL%1,           Lihua%Cai%NULL%1,           Haichong%Zheng%NULL%1,           Yongbo%Huang%NULL%1,           Lixin%Zhou%NULL%1,           Linxi%Huang%NULL%1,           Yun%Ling%NULL%0,           Liehua%Deng%NULL%1,           Jianwei%Li%NULL%0,           Sibei%Chen%NULL%1,           Dongdong%Liu%NULL%1,           Zhimin%Lin%NULL%1,           Liang%Zhou%NULL%1,           Weiqun%He%NULL%1,           Nanshan%Zhong%NULL%0,           Xiaoqing%Liu%NULL%3,           Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,           Li-jun%Sun%NULL%1,           Mi%Xu%NULL%1,           Jian%Pan%NULL%1,           Yun-tao%Zhang%NULL%1,           Xue-ling%Fang%NULL%1,           Qiang%Fang%NULL%1,           Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,           Li-Min%Liu%NULL%2,           Wen%Yin%NULL%0,           Wen%Wang%NULL%0,           Lu-Lu%Guan%NULL%2,           Ming-Li%Yuan%NULL%0,           Yu-Lei%Li%NULL%2,           Yi%Hu%NULL%0,           Xu-Yan%Li%NULL%0,           Bing%Sun%NULL%2,           Peng%Peng%NULL%0,           Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,           Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,           Wenlin%Cheng%NULL%0,           Lei%Yu%NULL%0,           Ya-Kun%Liu%NULL%0,           Xiaoyong%Hu%NULL%0,           Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,           Zheng-yi%Ni%NULL%0,           Zheng-yi%Ni%NULL%0,           Yu%Hu%NULL%0,           Wen-hua%Liang%NULL%0,           Chun-quan%Ou%NULL%0,           Jian-xing%He%NULL%0,           Lei%Liu%NULL%0,           Hong%Shan%NULL%0,           Chun-liang%Lei%NULL%0,           David S.C.%Hui%NULL%0,           Bin%Du%NULL%0,           Lan-juan%Li%NULL%0,           Guang%Zeng%NULL%0,           Kwok-Yung%Yuen%NULL%0,           Ru-chong%Chen%NULL%0,           Chun-li%Tang%NULL%0,           Tao%Wang%NULL%0,           Ping-yan%Chen%NULL%0,           Jie%Xiang%NULL%0,           Shi-yue%Li%NULL%0,           Jin-lin%Wang%NULL%0,           Zi-jing%Liang%NULL%0,           Yi-xiang%Peng%NULL%0,           Li%Wei%NULL%0,           Yong%Liu%NULL%0,           Ya-hua%Hu%NULL%0,           Peng%Peng%NULL%0,           Jian-ming%Wang%NULL%0,           Ji-yang%Liu%NULL%0,           Zhong%Chen%NULL%0,           Gang%Li%NULL%0,           Zhi-jian%Zheng%NULL%0,           Shao-qin%Qiu%NULL%0,           Jie%Luo%NULL%0,           Chang-jiang%Ye%NULL%0,           Shao-yong%Zhu%NULL%0,           Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,           Fang%Jiang%NULL%0,           Wating%Su%NULL%2,           Chang%Chen%NULL%2,           Jingli%Chen%NULL%2,           Wei%Mei%NULL%2,           Li-Ying%Zhan%NULL%2,           Yifan%Jia%NULL%2,           Liangqing%Zhang%NULL%2,           Danyong%Liu%NULL%2,           Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,           Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,           Yuan%Yu%NULL%0,           Jiqian%Xu%NULL%0,           Huaqing%Shu%NULL%0,           Jia'an%Xia%NULL%0,           Hong%Liu%NULL%0,           Yongran%Wu%NULL%0,           Lu%Zhang%NULL%0,           Zhui%Yu%NULL%0,           Minghao%Fang%NULL%0,           Ting%Yu%NULL%0,           Yaxin%Wang%NULL%0,           Shangwen%Pan%NULL%0,           Xiaojing%Zou%NULL%0,           Shiying%Yuan%NULL%0,           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,           Yeming%Wang%NULL%0,           Xingwang%Li%NULL%0,           Lili%Ren%NULL%0,           Jianping%Zhao%NULL%0,           Yi%Hu%NULL%0,           Li%Zhang%NULL%0,           Guohui%Fan%NULL%0,           Jiuyang%Xu%NULL%0,           Xiaoying%Gu%NULL%0,           Zhenshun%Cheng%NULL%0,           Ting%Yu%NULL%0,           Jiaan%Xia%NULL%0,           Yuan%Wei%NULL%0,           Wenjuan%Wu%NULL%0,           Xuelei%Xie%NULL%0,           Wen%Yin%NULL%0,           Hui%Li%NULL%0,           Min%Liu%NULL%0,           Yan%Xiao%NULL%0,           Hong%Gao%NULL%0,           Li%Guo%NULL%0,           Jungang%Xie%NULL%0,           Guangfa%Wang%NULL%0,           Rongmeng%Jiang%NULL%0,           Zhancheng%Gao%NULL%0,           Qi%Jin%NULL%0,           Jianwei%Wang%wangjw28@163.com%0,           Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,           Xiaofan%Lu%NULL%1,           Yongsheng%Li%NULL%2,           Yongsheng%Li%NULL%0,           Hui%Chen%NULL%0,           Taige%Chen%NULL%1,           Nan%Su%NULL%1,           Fang%Huang%NULL%1,           Jing%Zhou%NULL%0,           Bing%Zhang%NULL%1,           Fangrong%Yan%NULL%2,           Fangrong%Yan%NULL%0,           Jun%Wang%NULL%2,           Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,         Cabrini%Luca%coreGivesNoEmail%0,         Castelli%Antonio%coreGivesNoEmail%0,         Cecconi%Maurizio%coreGivesNoEmail%0,         Cereda%Danilo%coreGivesNoEmail%0,         Coluccello%Antonio%coreGivesNoEmail%0,         Foti%Giuseppe%coreGivesNoEmail%0,         Fumagalli%Roberto%coreGivesNoEmail%0,         Grasselli%Giacomo%coreGivesNoEmail%0,         Iotti%Giorgio%coreGivesNoEmail%0,         Latronico%Nicola%coreGivesNoEmail%0,         Lorini%Luca%coreGivesNoEmail%0,         Merler%Stefano%coreGivesNoEmail%0,         Natalini%Giuseppe%coreGivesNoEmail%0,         Pesenti%Antonio%coreGivesNoEmail%0,         Piatti%Alessandra%coreGivesNoEmail%0,         Ranieri%Marco Vito%coreGivesNoEmail%0,         Scandroglio%Anna Mara%coreGivesNoEmail%0,         Storti%Enrico%coreGivesNoEmail%0,         Zanella%Alberto%coreGivesNoEmail%0,         Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,           Mikael%Chetboun%NULL%1,           Julien%Poissy%NULL%1,           Violeta%Raverdy%NULL%1,           Jerome%Noulette%NULL%2,           Jerome%Noulette%NULL%0,           Alain%Duhamel%NULL%0,           Julien%Labreuche%NULL%0,           Daniel%Mathieu%NULL%2,           Francois%Pattou%francois.pattou@univ-lille.fr%1,           Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,           Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,           Robert%Caizzo%NULL%2,           Robert%Caizzo%NULL%0,           Morgan%Caplan%NULL%1,           Nicolas%Cousin%NULL%1,           Thibault%Duburcq%NULL%1,           Arthur%Durand%NULL%1,           Ahmed%El kalioubie%NULL%1,           Raphael%Favory%NULL%1,           Bruno%Garcia%NULL%1,           Patrick%Girardie%NULL%1,           Julien%Goutay%NULL%1,           Marion%Houard%NULL%1,           Emmanuelle%Jaillette%NULL%1,           Nicolas%Kostuj%NULL%1,           Geoffrey%Ledoux%NULL%1,           Daniel%Mathieu%NULL%0,           Anne Sophie%Moreau%NULL%1,           Christopher%Niles%NULL%1,           Saad%Nseir%NULL%1,           Thierry%Onimus%NULL%1,           Erika%Parmentier%NULL%1,           Sebastien%Préau%NULL%1,           Laurent%Robriquet%NULL%1,           Anahita%Rouze%NULL%1,           Sophie%Six%NULL%1,           Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,   Eric%Yim%xref no email%0,   Lindy%Klaff%xref no email%0,   Sharukh%Lokhandwala%xref no email%0,   Francis X.%Riedo%xref no email%0,   Maria%Chong%xref no email%0,   Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,           Samuel L%Bruce%NULL%0,           Cody L%Slater%NULL%0,           Jonathan R%Tiao%NULL%0,           Matthew R%Baldwin%NULL%0,           R Graham%Barr%NULL%0,           Bernard P%Chang%NULL%0,           Katherine H%Chau%NULL%0,           Justin J%Choi%NULL%0,           Nicholas%Gavin%NULL%0,           Parag%Goyal%NULL%0,           Angela M%Mills%NULL%0,           Ashmi A%Patel%NULL%0,           Marie-Laure S%Romney%NULL%0,           Monika M%Safford%NULL%0,           Neil W%Schluger%NULL%0,           Soumitra%Sengupta%NULL%0,           Magdalena E%Sobieszczyk%NULL%0,           Jason E%Zucker%NULL%0,           Paul A%Asadourian%NULL%0,           Fletcher M%Bell%NULL%0,           Rebekah%Boyd%NULL%0,           Matthew F%Cohen%NULL%0,           MacAlistair I%Colquhoun%NULL%0,           Lucy A%Colville%NULL%0,           Joseph H%de Jonge%NULL%0,           Lyle B%Dershowitz%NULL%0,           Shirin A%Dey%NULL%0,           Katherine A%Eiseman%NULL%0,           Zachary P%Girvin%NULL%0,           Daniella T%Goni%NULL%0,           Amro A%Harb%NULL%0,           Nicholas%Herzik%NULL%0,           Sarah%Householder%NULL%0,           Lara E%Karaaslan%NULL%0,           Heather%Lee%NULL%0,           Evan%Lieberman%NULL%0,           Andrew%Ling%NULL%0,           Ree%Lu%NULL%0,           Arthur Y%Shou%NULL%0,           Alexander C%Sisti%NULL%0,           Zachary E%Snow%NULL%0,           Colin P%Sperring%NULL%0,           Yuqing%Xiong%NULL%0,           Henry W%Zhou%NULL%0,           Karthik%Natarajan%NULL%0,           George%Hripcsak%NULL%0,           Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,           Mark%Caridi-Scheible%NULL%0,           James M.%Blum%NULL%0,           Chad%Robichaux%NULL%0,           Colleen%Kraft%NULL%0,           Jesse T.%Jacob%NULL%0,           Craig S.%Jabaley%NULL%0,           David%Carpenter%NULL%0,           Roberta%Kaplow%NULL%0,           Alfonso C.%Hernandez-Romieu%NULL%0,           Max W.%Adelman%NULL%0,           Greg S.%Martin%NULL%0,           Craig M.%Coopersmith%NULL%0,           David J.%Murphy%NULL%0,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,           Bijan J.%Ghassemieh%NULL%0,           Michelle%Nichols%NULL%0,           Richard%Kim%NULL%0,           Keith R.%Jerome%NULL%0,           Arun K.%Nalla%NULL%0,           Alexander L.%Greninger%NULL%0,           Sudhakar%Pipavath%NULL%0,           Mark M.%Wurfel%NULL%0,           Laura%Evans%NULL%0,           Patricia A.%Kritek%NULL%0,           T. Eoin%West%NULL%0,           Andrew%Luks%NULL%0,           Anthony%Gerbino%NULL%0,           Chris R.%Dale%NULL%0,           Jason D.%Goldman%NULL%0,           Shane%O’Mahony%NULL%0,           Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura C.%Myers%xref no email%1,   Stephen M.%Parodi%xref no email%1,   Gabriel J.%Escobar%xref no email%1,   Vincent X.%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,         Becker%L.B.%coreGivesNoEmail%0,         Chelico%J.D.%coreGivesNoEmail%0,         Cohen%S.L.%coreGivesNoEmail%0,         Cookingham%J.%coreGivesNoEmail%0,         Coppa%K.%coreGivesNoEmail%0,         Crawford%J.M.%coreGivesNoEmail%0,         Davidson%K.W.%coreGivesNoEmail%0,         Diefenbach%M.A.%coreGivesNoEmail%0,         Dominello%A.J.%coreGivesNoEmail%0,         Duer-Hefele%J.%coreGivesNoEmail%0,         Falzon%L.%coreGivesNoEmail%0,         Gitlin%J.%coreGivesNoEmail%0,         Hajizadeh%N.%coreGivesNoEmail%0,         Harvin%T.G.%coreGivesNoEmail%0,         Hirsch%J.S.%coreGivesNoEmail%0,         Hirschwerk%D.A.%coreGivesNoEmail%0,         Kim%E.J.%coreGivesNoEmail%0,         Kozel%Z.M.%coreGivesNoEmail%0,         Marrast%L.M.%coreGivesNoEmail%0,         McGinn%T.%coreGivesNoEmail%0,         Mogavero%J.N.%coreGivesNoEmail%0,         Narasimhan%M.%coreGivesNoEmail%0,         Osorio%G.A.%coreGivesNoEmail%0,         Qiu%M.%coreGivesNoEmail%0,         Richardson%S.%coreGivesNoEmail%0,         Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,           Jehan%Alladina%NULL%2,           Jehan%Alladina%NULL%0,           Camille R.%Petri%NULL%2,           Camille R.%Petri%NULL%0,           Jason H.%Maley%NULL%2,           Jason H.%Maley%NULL%0,           Ari%Moskowitz%NULL%1,           Benjamin D.%Medoff%NULL%1,           Kathryn A.%Hibbert%NULL%2,           Kathryn A.%Hibbert%NULL%0,           B. Taylor%Thompson%NULL%1,           C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,           Adam J%Russak%NULL%0,           Adam J%Russak%NULL%0,           Jessica K%De Freitas%NULL%0,           Anuradha%Lala%NULL%0,           Riccardo%Miotto%NULL%0,           Akhil%Vaid%NULL%0,           Kipp W%Johnson%NULL%0,           Matteo%Danieletto%NULL%0,           Eddye%Golden%NULL%0,           Dara%Meyer%NULL%0,           Manbir%Singh%NULL%0,           Sulaiman%Somani%NULL%0,           Arjun%Kapoor%NULL%0,           Ross%O'Hagan%NULL%0,           Sayan%Manna%NULL%0,           Udit%Nangia%NULL%0,           Suraj K%Jaladanki%NULL%0,           Paul%O’Reilly%NULL%0,           Paul%O’Reilly%NULL%0,           Laura M%Huckins%NULL%0,           Patricia%Glowe%NULL%0,           Arash%Kia%NULL%0,           Prem%Timsina%NULL%0,           Robert M%Freeman%NULL%0,           Matthew A%Levin%NULL%0,           Jeffrey%Jhang%NULL%0,           Adolfo%Firpo%NULL%0,           Patricia%Kovatch%NULL%0,           Joseph%Finkelstein%NULL%0,           Judith A%Aberg%NULL%0,           Emilia%Bagiella%NULL%0,           Carol R%Horowitz%NULL%0,           Barbara%Murphy%NULL%0,           Zahi A%Fayad%NULL%0,           Jagat%Narula%NULL%0,           Eric J%Nestler%NULL%0,           V%Fuster%NULL%0,           Carlos%Cordon-Cardo%NULL%0,           Dennis%Charney%NULL%0,           David L%Reich%NULL%0,           Allan%Just%NULL%0,           Erwin P%Bottinger%NULL%0,           Alexander W%Charney%NULL%0,           Benjamin S%Glicksberg%NULL%0,           Girish N%Nadkarni%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,            Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,            Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,            Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,            Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,            Bruno%Riou%bruno.riou@aphp.fr%2,            Bruno%Riou%bruno.riou@aphp.fr%0,            Yan%Zhao%doctoryanzhao@whu.edu.cn%0,            Yan%Zhao%doctoryanzhao@whu.edu.cn%0,            Gilles%Hejblum%gilles.hejblum@inserm.fr%2,            Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,            Peiyun%Li%NULL%1,            Liang%Ma%NULL%1,            Hang%Liang%NULL%1,            Jie%Lei%NULL%0,            Wenqiang%Li%NULL%1,            Kun%Wang%NULL%0,            Yu%Song%NULL%1,            Shuai%Li%NULL%1,            Wei%Yang%NULL%1,            Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,             C.% Hong%null%1,             J.% Meng%null%1,             Z.% Wu%null%1,             P.% Zhou%null%1,             C.% Ye%null%1,             B.% Sun%null%1,             L. M.% Kucirka%null%1,             A. S.% Azman%null%1,             T.% Wang%null%0,             J.% Chen%null%1,             Z.% Wang%null%1,             L.% Liu%null%0,             J.% Lessler%null%1,             J. K.% Edwards%null%1,             T.% Ma%null%1,             G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,            Ting%Yu%NULL%0,            Ronghui%Du%NULL%0,            Guohui%Fan%NULL%0,            Ying%Liu%NULL%0,            Zhibo%Liu%NULL%0,            Jie%Xiang%NULL%0,            Yeming%Wang%NULL%0,            Bin%Song%NULL%0,            Xiaoying%Gu%NULL%0,            Lulu%Guan%NULL%0,            Yuan%Wei%NULL%0,            Hui%Li%NULL%0,            Xudong%Wu%NULL%0,            Jiuyang%Xu%NULL%0,            Shengjin%Tu%NULL%0,            Yi%Zhang%NULL%0,            Hua%Chen%NULL%0,            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,            Zhiheng%Xu%NULL%1,            Xuesong%Liu%NULL%1,            Lihua%Cai%NULL%1,            Haichong%Zheng%NULL%1,            Yongbo%Huang%NULL%1,            Lixin%Zhou%NULL%1,            Linxi%Huang%NULL%1,            Yun%Ling%NULL%0,            Liehua%Deng%NULL%1,            Jianwei%Li%NULL%0,            Sibei%Chen%NULL%1,            Dongdong%Liu%NULL%1,            Zhimin%Lin%NULL%1,            Liang%Zhou%NULL%1,            Weiqun%He%NULL%1,            Nanshan%Zhong%NULL%0,            Xiaoqing%Liu%NULL%3,            Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,            Li-jun%Sun%NULL%1,            Mi%Xu%NULL%1,            Jian%Pan%NULL%1,            Yun-tao%Zhang%NULL%1,            Xue-ling%Fang%NULL%1,            Qiang%Fang%NULL%1,            Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,            Li-Min%Liu%NULL%2,            Wen%Yin%NULL%0,            Wen%Wang%NULL%0,            Lu-Lu%Guan%NULL%2,            Ming-Li%Yuan%NULL%0,            Yu-Lei%Li%NULL%2,            Yi%Hu%NULL%0,            Xu-Yan%Li%NULL%0,            Bing%Sun%NULL%2,            Peng%Peng%NULL%0,            Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,            Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,            Wenlin%Cheng%NULL%0,            Lei%Yu%NULL%0,            Ya-Kun%Liu%NULL%0,            Xiaoyong%Hu%NULL%0,            Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,            Zheng-yi%Ni%NULL%0,            Zheng-yi%Ni%NULL%0,            Yu%Hu%NULL%0,            Wen-hua%Liang%NULL%0,            Chun-quan%Ou%NULL%0,            Jian-xing%He%NULL%0,            Lei%Liu%NULL%0,            Hong%Shan%NULL%0,            Chun-liang%Lei%NULL%0,            David S.C.%Hui%NULL%0,            Bin%Du%NULL%0,            Lan-juan%Li%NULL%0,            Guang%Zeng%NULL%0,            Kwok-Yung%Yuen%NULL%0,            Ru-chong%Chen%NULL%0,            Chun-li%Tang%NULL%0,            Tao%Wang%NULL%0,            Ping-yan%Chen%NULL%0,            Jie%Xiang%NULL%0,            Shi-yue%Li%NULL%0,            Jin-lin%Wang%NULL%0,            Zi-jing%Liang%NULL%0,            Yi-xiang%Peng%NULL%0,            Li%Wei%NULL%0,            Yong%Liu%NULL%0,            Ya-hua%Hu%NULL%0,            Peng%Peng%NULL%0,            Jian-ming%Wang%NULL%0,            Ji-yang%Liu%NULL%0,            Zhong%Chen%NULL%0,            Gang%Li%NULL%0,            Zhi-jian%Zheng%NULL%0,            Shao-qin%Qiu%NULL%0,            Jie%Luo%NULL%0,            Chang-jiang%Ye%NULL%0,            Shao-yong%Zhu%NULL%0,            Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,            Fang%Jiang%NULL%0,            Wating%Su%NULL%2,            Chang%Chen%NULL%2,            Jingli%Chen%NULL%2,            Wei%Mei%NULL%2,            Li-Ying%Zhan%NULL%2,            Yifan%Jia%NULL%2,            Liangqing%Zhang%NULL%2,            Danyong%Liu%NULL%2,            Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,            Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,            Yuan%Yu%NULL%0,            Jiqian%Xu%NULL%0,            Huaqing%Shu%NULL%0,            Jia'an%Xia%NULL%0,            Hong%Liu%NULL%0,            Yongran%Wu%NULL%0,            Lu%Zhang%NULL%0,            Zhui%Yu%NULL%0,            Minghao%Fang%NULL%0,            Ting%Yu%NULL%0,            Yaxin%Wang%NULL%0,            Shangwen%Pan%NULL%0,            Xiaojing%Zou%NULL%0,            Shiying%Yuan%NULL%0,            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,            Yeming%Wang%NULL%0,            Xingwang%Li%NULL%0,            Lili%Ren%NULL%0,            Jianping%Zhao%NULL%0,            Yi%Hu%NULL%0,            Li%Zhang%NULL%0,            Guohui%Fan%NULL%0,            Jiuyang%Xu%NULL%0,            Xiaoying%Gu%NULL%0,            Zhenshun%Cheng%NULL%0,            Ting%Yu%NULL%0,            Jiaan%Xia%NULL%0,            Yuan%Wei%NULL%0,            Wenjuan%Wu%NULL%0,            Xuelei%Xie%NULL%0,            Wen%Yin%NULL%0,            Hui%Li%NULL%0,            Min%Liu%NULL%0,            Yan%Xiao%NULL%0,            Hong%Gao%NULL%0,            Li%Guo%NULL%0,            Jungang%Xie%NULL%0,            Guangfa%Wang%NULL%0,            Rongmeng%Jiang%NULL%0,            Zhancheng%Gao%NULL%0,            Qi%Jin%NULL%0,            Jianwei%Wang%wangjw28@163.com%0,            Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,            Xiaofan%Lu%NULL%1,            Yongsheng%Li%NULL%2,            Yongsheng%Li%NULL%0,            Hui%Chen%NULL%0,            Taige%Chen%NULL%1,            Nan%Su%NULL%1,            Fang%Huang%NULL%1,            Jing%Zhou%NULL%0,            Bing%Zhang%NULL%1,            Fangrong%Yan%NULL%2,            Fangrong%Yan%NULL%0,            Jun%Wang%NULL%2,            Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,          Cabrini%Luca%coreGivesNoEmail%0,          Castelli%Antonio%coreGivesNoEmail%0,          Cecconi%Maurizio%coreGivesNoEmail%0,          Cereda%Danilo%coreGivesNoEmail%0,          Coluccello%Antonio%coreGivesNoEmail%0,          Foti%Giuseppe%coreGivesNoEmail%0,          Fumagalli%Roberto%coreGivesNoEmail%0,          Grasselli%Giacomo%coreGivesNoEmail%0,          Iotti%Giorgio%coreGivesNoEmail%0,          Latronico%Nicola%coreGivesNoEmail%0,          Lorini%Luca%coreGivesNoEmail%0,          Merler%Stefano%coreGivesNoEmail%0,          Natalini%Giuseppe%coreGivesNoEmail%0,          Pesenti%Antonio%coreGivesNoEmail%0,          Piatti%Alessandra%coreGivesNoEmail%0,          Ranieri%Marco Vito%coreGivesNoEmail%0,          Scandroglio%Anna Mara%coreGivesNoEmail%0,          Storti%Enrico%coreGivesNoEmail%0,          Zanella%Alberto%coreGivesNoEmail%0,          Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,            Mikael%Chetboun%NULL%1,            Julien%Poissy%NULL%1,            Violeta%Raverdy%NULL%1,            Jerome%Noulette%NULL%2,            Jerome%Noulette%NULL%0,            Alain%Duhamel%NULL%0,            Julien%Labreuche%NULL%0,            Daniel%Mathieu%NULL%2,            Francois%Pattou%francois.pattou@univ-lille.fr%1,            Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,            Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,            Robert%Caizzo%NULL%2,            Robert%Caizzo%NULL%0,            Morgan%Caplan%NULL%1,            Nicolas%Cousin%NULL%1,            Thibault%Duburcq%NULL%1,            Arthur%Durand%NULL%1,            Ahmed%El kalioubie%NULL%1,            Raphael%Favory%NULL%1,            Bruno%Garcia%NULL%1,            Patrick%Girardie%NULL%1,            Julien%Goutay%NULL%1,            Marion%Houard%NULL%1,            Emmanuelle%Jaillette%NULL%1,            Nicolas%Kostuj%NULL%1,            Geoffrey%Ledoux%NULL%1,            Daniel%Mathieu%NULL%0,            Anne Sophie%Moreau%NULL%1,            Christopher%Niles%NULL%1,            Saad%Nseir%NULL%1,            Thierry%Onimus%NULL%1,            Erika%Parmentier%NULL%1,            Sebastien%Préau%NULL%1,            Laurent%Robriquet%NULL%1,            Anahita%Rouze%NULL%1,            Sophie%Six%NULL%1,            Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,    Eric%Yim%xref no email%0,    Lindy%Klaff%xref no email%0,    Sharukh%Lokhandwala%xref no email%0,    Francis X.%Riedo%xref no email%0,    Maria%Chong%xref no email%0,    Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,            Samuel L%Bruce%NULL%1,            Cody L%Slater%NULL%1,            Jonathan R%Tiao%NULL%1,            Matthew R%Baldwin%NULL%2,            R Graham%Barr%NULL%1,            Bernard P%Chang%NULL%1,            Katherine H%Chau%NULL%1,            Justin J%Choi%NULL%1,            Nicholas%Gavin%NULL%1,            Parag%Goyal%NULL%1,            Angela M%Mills%NULL%1,            Ashmi A%Patel%NULL%1,            Marie-Laure S%Romney%NULL%1,            Monika M%Safford%NULL%1,            Neil W%Schluger%NULL%1,            Soumitra%Sengupta%NULL%1,            Magdalena E%Sobieszczyk%NULL%1,            Jason E%Zucker%NULL%1,            Paul A%Asadourian%NULL%1,            Fletcher M%Bell%NULL%1,            Rebekah%Boyd%NULL%1,            Matthew F%Cohen%NULL%1,            MacAlistair I%Colquhoun%NULL%1,            Lucy A%Colville%NULL%1,            Joseph H%de Jonge%NULL%1,            Lyle B%Dershowitz%NULL%1,            Shirin A%Dey%NULL%1,            Katherine A%Eiseman%NULL%1,            Zachary P%Girvin%NULL%1,            Daniella T%Goni%NULL%1,            Amro A%Harb%NULL%1,            Nicholas%Herzik%NULL%1,            Sarah%Householder%NULL%1,            Lara E%Karaaslan%NULL%1,            Heather%Lee%NULL%1,            Evan%Lieberman%NULL%1,            Andrew%Ling%NULL%1,            Ree%Lu%NULL%1,            Arthur Y%Shou%NULL%1,            Alexander C%Sisti%NULL%1,            Zachary E%Snow%NULL%1,            Colin P%Sperring%NULL%1,            Yuqing%Xiong%NULL%1,            Henry W%Zhou%NULL%1,            Karthik%Natarajan%NULL%1,            George%Hripcsak%NULL%1,            Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,            Mark%Caridi-Scheible%NULL%0,            James M.%Blum%NULL%0,            Chad%Robichaux%NULL%0,            Colleen%Kraft%NULL%0,            Jesse T.%Jacob%NULL%0,            Craig S.%Jabaley%NULL%0,            David%Carpenter%NULL%0,            Roberta%Kaplow%NULL%0,            Alfonso C.%Hernandez-Romieu%NULL%0,            Max W.%Adelman%NULL%0,            Greg S.%Martin%NULL%0,            Craig M.%Coopersmith%NULL%0,            David J.%Murphy%NULL%0,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,            Bijan J.%Ghassemieh%NULL%0,            Michelle%Nichols%NULL%0,            Richard%Kim%NULL%0,            Keith R.%Jerome%NULL%0,            Arun K.%Nalla%NULL%0,            Alexander L.%Greninger%NULL%0,            Sudhakar%Pipavath%NULL%0,            Mark M.%Wurfel%NULL%0,            Laura%Evans%NULL%0,            Patricia A.%Kritek%NULL%0,            T. Eoin%West%NULL%0,            Andrew%Luks%NULL%0,            Anthony%Gerbino%NULL%0,            Chris R.%Dale%NULL%0,            Jason D.%Goldman%NULL%0,            Shane%O’Mahony%NULL%0,            Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura C.%Myers%xref no email%1,    Stephen M.%Parodi%xref no email%1,    Gabriel J.%Escobar%xref no email%1,    Vincent X.%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,          Becker%L.B.%coreGivesNoEmail%0,          Chelico%J.D.%coreGivesNoEmail%0,          Cohen%S.L.%coreGivesNoEmail%0,          Cookingham%J.%coreGivesNoEmail%0,          Coppa%K.%coreGivesNoEmail%0,          Crawford%J.M.%coreGivesNoEmail%0,          Davidson%K.W.%coreGivesNoEmail%0,          Diefenbach%M.A.%coreGivesNoEmail%0,          Dominello%A.J.%coreGivesNoEmail%0,          Duer-Hefele%J.%coreGivesNoEmail%0,          Falzon%L.%coreGivesNoEmail%0,          Gitlin%J.%coreGivesNoEmail%0,          Hajizadeh%N.%coreGivesNoEmail%0,          Harvin%T.G.%coreGivesNoEmail%0,          Hirsch%J.S.%coreGivesNoEmail%0,          Hirschwerk%D.A.%coreGivesNoEmail%0,          Kim%E.J.%coreGivesNoEmail%0,          Kozel%Z.M.%coreGivesNoEmail%0,          Marrast%L.M.%coreGivesNoEmail%0,          McGinn%T.%coreGivesNoEmail%0,          Mogavero%J.N.%coreGivesNoEmail%0,          Narasimhan%M.%coreGivesNoEmail%0,          Osorio%G.A.%coreGivesNoEmail%0,          Qiu%M.%coreGivesNoEmail%0,          Richardson%S.%coreGivesNoEmail%0,          Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,            Jehan%Alladina%NULL%2,            Jehan%Alladina%NULL%0,            Camille R.%Petri%NULL%2,            Camille R.%Petri%NULL%0,            Jason H.%Maley%NULL%2,            Jason H.%Maley%NULL%0,            Ari%Moskowitz%NULL%1,            Benjamin D.%Medoff%NULL%1,            Kathryn A.%Hibbert%NULL%2,            Kathryn A.%Hibbert%NULL%0,            B. Taylor%Thompson%NULL%1,            C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,            Adam J%Russak%NULL%2,            Adam J%Russak%NULL%0,            Jessica K%De Freitas%NULL%1,            Anuradha%Lala%NULL%1,            Riccardo%Miotto%NULL%1,            Akhil%Vaid%NULL%1,            Kipp W%Johnson%NULL%1,            Matteo%Danieletto%NULL%1,            Eddye%Golden%NULL%1,            Dara%Meyer%NULL%1,            Manbir%Singh%NULL%1,            Sulaiman%Somani%NULL%1,            Arjun%Kapoor%NULL%1,            Ross%O'Hagan%NULL%1,            Sayan%Manna%NULL%1,            Udit%Nangia%NULL%1,            Suraj K%Jaladanki%NULL%1,            Paul%O’Reilly%NULL%2,            Paul%O’Reilly%NULL%0,            Laura M%Huckins%NULL%1,            Patricia%Glowe%NULL%1,            Arash%Kia%NULL%1,            Prem%Timsina%NULL%1,            Robert M%Freeman%NULL%1,            Matthew A%Levin%NULL%1,            Jeffrey%Jhang%NULL%1,            Adolfo%Firpo%NULL%1,            Patricia%Kovatch%NULL%1,            Joseph%Finkelstein%NULL%1,            Judith A%Aberg%NULL%1,            Emilia%Bagiella%NULL%1,            Carol R%Horowitz%NULL%1,            Barbara%Murphy%NULL%1,            Zahi A%Fayad%NULL%1,            Jagat%Narula%NULL%1,            Eric J%Nestler%NULL%1,            V%Fuster%NULL%1,            Carlos%Cordon-Cardo%NULL%1,            Dennis%Charney%NULL%1,            David L%Reich%NULL%1,            Allan%Just%NULL%1,            Erwin P%Bottinger%NULL%1,            Alexander W%Charney%NULL%1,            Benjamin S%Glicksberg%NULL%1,            Girish N%Nadkarni%NULL%1,            NULL%NULL%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1683,7 +1821,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -1712,7 +1850,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -1741,7 +1879,7 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1770,7 +1908,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -1799,7 +1937,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -1828,7 +1966,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -1857,7 +1995,7 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -1886,7 +2024,7 @@
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -1915,7 +2053,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -1944,7 +2082,7 @@
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="F11" t="s">
         <v>90</v>
@@ -1973,7 +2111,7 @@
         <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -2002,7 +2140,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -2031,7 +2169,7 @@
         <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -2060,7 +2198,7 @@
         <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -2089,7 +2227,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -2118,7 +2256,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -2147,7 +2285,7 @@
         <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="F18" t="s">
         <v>112</v>
@@ -2176,7 +2314,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -2205,7 +2343,7 @@
         <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
@@ -2234,7 +2372,7 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
@@ -2263,7 +2401,7 @@
         <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -2292,7 +2430,7 @@
         <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="F23" t="s">
         <v>124</v>
@@ -2321,7 +2459,7 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="F24" t="s">
         <v>128</v>

--- a/Covid_19_Dataset_and_References/References/71.xlsx
+++ b/Covid_19_Dataset_and_References/References/71.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="429">
   <si>
     <t>Doi</t>
   </si>
@@ -1450,6 +1450,167 @@
   </si>
   <si>
     <t>[Ishan%Paranjpe%NULL%0,            Adam J%Russak%NULL%2,            Adam J%Russak%NULL%0,            Jessica K%De Freitas%NULL%1,            Anuradha%Lala%NULL%1,            Riccardo%Miotto%NULL%1,            Akhil%Vaid%NULL%1,            Kipp W%Johnson%NULL%1,            Matteo%Danieletto%NULL%1,            Eddye%Golden%NULL%1,            Dara%Meyer%NULL%1,            Manbir%Singh%NULL%1,            Sulaiman%Somani%NULL%1,            Arjun%Kapoor%NULL%1,            Ross%O'Hagan%NULL%1,            Sayan%Manna%NULL%1,            Udit%Nangia%NULL%1,            Suraj K%Jaladanki%NULL%1,            Paul%O’Reilly%NULL%2,            Paul%O’Reilly%NULL%0,            Laura M%Huckins%NULL%1,            Patricia%Glowe%NULL%1,            Arash%Kia%NULL%1,            Prem%Timsina%NULL%1,            Robert M%Freeman%NULL%1,            Matthew A%Levin%NULL%1,            Jeffrey%Jhang%NULL%1,            Adolfo%Firpo%NULL%1,            Patricia%Kovatch%NULL%1,            Joseph%Finkelstein%NULL%1,            Judith A%Aberg%NULL%1,            Emilia%Bagiella%NULL%1,            Carol R%Horowitz%NULL%1,            Barbara%Murphy%NULL%1,            Zahi A%Fayad%NULL%1,            Jagat%Narula%NULL%1,            Eric J%Nestler%NULL%1,            V%Fuster%NULL%1,            Carlos%Cordon-Cardo%NULL%1,            Dennis%Charney%NULL%1,            David L%Reich%NULL%1,            Allan%Just%NULL%1,            Erwin P%Bottinger%NULL%1,            Alexander W%Charney%NULL%1,            Benjamin S%Glicksberg%NULL%1,            Girish N%Nadkarni%NULL%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The average length of stay (LOS) in the intensive care unit (ICU_ALOS) is a helpful parameter summarizing critical bed occupancy.
+ During the outbreak of a novel virus, estimating early a reliable ICU_ALOS estimate of infected patients is critical to accurately parameterize models examining mitigation and preparedness scenarios.
+Methods
+Two estimation methods of ICU_ALOS were compared: the average LOS of already discharged patients at the date of estimation (DPE), and a standard parametric method used for analyzing time-to-event data which fits a given distribution to observed data and includes the censored stays of patients still treated in the ICU at the date of estimation (CPE).
+ Methods were compared on a series of all COVID-19 consecutive cases (n = 59) admitted in an ICU devoted to such patients.
+ At the last follow-up date, 99 days after the first admission, all patients but one had been discharged.
+ A simulation study investigated the generalizability of the methods' patterns.
+ CPE and DPE estimates were also compared to COVID-19 estimates reported to date.
+Results
+LOS ≥ 30 days concerned 14 out of the 59 patients (24%), including 8 of the 21 deaths observed.
+ Two months after the first admission, 38 (64%) patients had been discharged, with corresponding DPE and CPE estimates of ICU_ALOS (95% CI) at 13.0 days (10.4–15.6) and 23.1 days (18.1–29.7), respectively.
+ Series' true ICU_ALOS was greater than 21 days, well above reported estimates to date.
+Conclusions
+Discharges of short stays are more likely observed earlier during the course of an outbreak.
+ Cautious unbiased ICU_ALOS estimates suggest parameterizing a higher burden of ICU bed occupancy than that adopted to date in COVID-19 forecasting models.
+Funding
+Support by the National Natural Science Foundation of China (81900097 to Dr.
+ Zhou) and the Emergency Response Project of Hubei Science and Technology Department (2020FCA023 to Pr.
+ Zhao).
+</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,             Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,             Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,             Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,             Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,             Bruno%Riou%bruno.riou@aphp.fr%2,             Bruno%Riou%bruno.riou@aphp.fr%0,             Yan%Zhao%doctoryanzhao@whu.edu.cn%0,             Yan%Zhao%doctoryanzhao@whu.edu.cn%0,             Gilles%Hejblum%gilles.hejblum@inserm.fr%2,             Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,             Peiyun%Li%NULL%1,             Liang%Ma%NULL%1,             Hang%Liang%NULL%1,             Jie%Lei%NULL%0,             Wenqiang%Li%NULL%1,             Kun%Wang%NULL%0,             Yu%Song%NULL%1,             Shuai%Li%NULL%1,             Wei%Yang%NULL%1,             Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,              C.% Hong%null%1,              J.% Meng%null%1,              Z.% Wu%null%1,              P.% Zhou%null%1,              C.% Ye%null%1,              B.% Sun%null%1,              L. M.% Kucirka%null%1,              A. S.% Azman%null%1,              T.% Wang%null%0,              J.% Chen%null%1,              Z.% Wang%null%1,              L.% Liu%null%0,              J.% Lessler%null%1,              J. K.% Edwards%null%1,              T.% Ma%null%1,              G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,             Ting%Yu%NULL%0,             Ronghui%Du%NULL%0,             Guohui%Fan%NULL%0,             Ying%Liu%NULL%0,             Zhibo%Liu%NULL%0,             Jie%Xiang%NULL%0,             Yeming%Wang%NULL%0,             Bin%Song%NULL%0,             Xiaoying%Gu%NULL%0,             Lulu%Guan%NULL%0,             Yuan%Wei%NULL%0,             Hui%Li%NULL%0,             Xudong%Wu%NULL%0,             Jiuyang%Xu%NULL%0,             Shengjin%Tu%NULL%0,             Yi%Zhang%NULL%0,             Hua%Chen%NULL%0,             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,             Zhiheng%Xu%NULL%1,             Xuesong%Liu%NULL%1,             Lihua%Cai%NULL%1,             Haichong%Zheng%NULL%1,             Yongbo%Huang%NULL%1,             Lixin%Zhou%NULL%1,             Linxi%Huang%NULL%1,             Yun%Ling%NULL%0,             Liehua%Deng%NULL%1,             Jianwei%Li%NULL%0,             Sibei%Chen%NULL%1,             Dongdong%Liu%NULL%1,             Zhimin%Lin%NULL%1,             Liang%Zhou%NULL%1,             Weiqun%He%NULL%1,             Nanshan%Zhong%NULL%0,             Xiaoqing%Liu%NULL%3,             Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,             Li-jun%Sun%NULL%1,             Mi%Xu%NULL%1,             Jian%Pan%NULL%1,             Yun-tao%Zhang%NULL%1,             Xue-ling%Fang%NULL%1,             Qiang%Fang%NULL%1,             Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,             Li-Min%Liu%NULL%2,             Wen%Yin%NULL%0,             Wen%Wang%NULL%0,             Lu-Lu%Guan%NULL%2,             Ming-Li%Yuan%NULL%0,             Yu-Lei%Li%NULL%2,             Yi%Hu%NULL%0,             Xu-Yan%Li%NULL%0,             Bing%Sun%NULL%2,             Peng%Peng%NULL%0,             Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,             Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,             Wenlin%Cheng%NULL%0,             Lei%Yu%NULL%0,             Ya-Kun%Liu%NULL%0,             Xiaoyong%Hu%NULL%0,             Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,             Zheng-yi%Ni%NULL%0,             Zheng-yi%Ni%NULL%0,             Yu%Hu%NULL%0,             Wen-hua%Liang%NULL%0,             Chun-quan%Ou%NULL%0,             Jian-xing%He%NULL%0,             Lei%Liu%NULL%0,             Hong%Shan%NULL%0,             Chun-liang%Lei%NULL%0,             David S.C.%Hui%NULL%0,             Bin%Du%NULL%0,             Lan-juan%Li%NULL%0,             Guang%Zeng%NULL%0,             Kwok-Yung%Yuen%NULL%0,             Ru-chong%Chen%NULL%0,             Chun-li%Tang%NULL%0,             Tao%Wang%NULL%0,             Ping-yan%Chen%NULL%0,             Jie%Xiang%NULL%0,             Shi-yue%Li%NULL%0,             Jin-lin%Wang%NULL%0,             Zi-jing%Liang%NULL%0,             Yi-xiang%Peng%NULL%0,             Li%Wei%NULL%0,             Yong%Liu%NULL%0,             Ya-hua%Hu%NULL%0,             Peng%Peng%NULL%0,             Jian-ming%Wang%NULL%0,             Ji-yang%Liu%NULL%0,             Zhong%Chen%NULL%0,             Gang%Li%NULL%0,             Zhi-jian%Zheng%NULL%0,             Shao-qin%Qiu%NULL%0,             Jie%Luo%NULL%0,             Chang-jiang%Ye%NULL%0,             Shao-yong%Zhu%NULL%0,             Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,             Fang%Jiang%NULL%0,             Wating%Su%NULL%2,             Chang%Chen%NULL%2,             Jingli%Chen%NULL%2,             Wei%Mei%NULL%2,             Li-Ying%Zhan%NULL%2,             Yifan%Jia%NULL%2,             Liangqing%Zhang%NULL%2,             Danyong%Liu%NULL%2,             Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,             Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,             Yuan%Yu%NULL%0,             Jiqian%Xu%NULL%0,             Huaqing%Shu%NULL%0,             Jia'an%Xia%NULL%0,             Hong%Liu%NULL%0,             Yongran%Wu%NULL%0,             Lu%Zhang%NULL%0,             Zhui%Yu%NULL%0,             Minghao%Fang%NULL%0,             Ting%Yu%NULL%0,             Yaxin%Wang%NULL%0,             Shangwen%Pan%NULL%0,             Xiaojing%Zou%NULL%0,             Shiying%Yuan%NULL%0,             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,             Yeming%Wang%NULL%0,             Xingwang%Li%NULL%0,             Lili%Ren%NULL%0,             Jianping%Zhao%NULL%0,             Yi%Hu%NULL%0,             Li%Zhang%NULL%0,             Guohui%Fan%NULL%0,             Jiuyang%Xu%NULL%0,             Xiaoying%Gu%NULL%0,             Zhenshun%Cheng%NULL%0,             Ting%Yu%NULL%0,             Jiaan%Xia%NULL%0,             Yuan%Wei%NULL%0,             Wenjuan%Wu%NULL%0,             Xuelei%Xie%NULL%0,             Wen%Yin%NULL%0,             Hui%Li%NULL%0,             Min%Liu%NULL%0,             Yan%Xiao%NULL%0,             Hong%Gao%NULL%0,             Li%Guo%NULL%0,             Jungang%Xie%NULL%0,             Guangfa%Wang%NULL%0,             Rongmeng%Jiang%NULL%0,             Zhancheng%Gao%NULL%0,             Qi%Jin%NULL%0,             Jianwei%Wang%wangjw28@163.com%0,             Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,             Xiaofan%Lu%NULL%1,             Yongsheng%Li%NULL%2,             Yongsheng%Li%NULL%0,             Hui%Chen%NULL%0,             Taige%Chen%NULL%1,             Nan%Su%NULL%1,             Fang%Huang%NULL%1,             Jing%Zhou%NULL%0,             Bing%Zhang%NULL%1,             Fangrong%Yan%NULL%2,             Fangrong%Yan%NULL%0,             Jun%Wang%NULL%2,             Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,           Cabrini%Luca%coreGivesNoEmail%0,           Castelli%Antonio%coreGivesNoEmail%0,           Cecconi%Maurizio%coreGivesNoEmail%0,           Cereda%Danilo%coreGivesNoEmail%0,           Coluccello%Antonio%coreGivesNoEmail%0,           Foti%Giuseppe%coreGivesNoEmail%0,           Fumagalli%Roberto%coreGivesNoEmail%0,           Grasselli%Giacomo%coreGivesNoEmail%0,           Iotti%Giorgio%coreGivesNoEmail%0,           Latronico%Nicola%coreGivesNoEmail%0,           Lorini%Luca%coreGivesNoEmail%0,           Merler%Stefano%coreGivesNoEmail%0,           Natalini%Giuseppe%coreGivesNoEmail%0,           Pesenti%Antonio%coreGivesNoEmail%0,           Piatti%Alessandra%coreGivesNoEmail%0,           Ranieri%Marco Vito%coreGivesNoEmail%0,           Scandroglio%Anna Mara%coreGivesNoEmail%0,           Storti%Enrico%coreGivesNoEmail%0,           Zanella%Alberto%coreGivesNoEmail%0,           Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,             Mikael%Chetboun%NULL%1,             Julien%Poissy%NULL%1,             Violeta%Raverdy%NULL%1,             Jerome%Noulette%NULL%2,             Jerome%Noulette%NULL%0,             Alain%Duhamel%NULL%0,             Julien%Labreuche%NULL%0,             Daniel%Mathieu%NULL%2,             Francois%Pattou%francois.pattou@univ-lille.fr%1,             Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,             Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,             Robert%Caizzo%NULL%2,             Robert%Caizzo%NULL%0,             Morgan%Caplan%NULL%1,             Nicolas%Cousin%NULL%1,             Thibault%Duburcq%NULL%1,             Arthur%Durand%NULL%1,             Ahmed%El kalioubie%NULL%1,             Raphael%Favory%NULL%1,             Bruno%Garcia%NULL%1,             Patrick%Girardie%NULL%1,             Julien%Goutay%NULL%1,             Marion%Houard%NULL%1,             Emmanuelle%Jaillette%NULL%1,             Nicolas%Kostuj%NULL%1,             Geoffrey%Ledoux%NULL%1,             Daniel%Mathieu%NULL%0,             Anne Sophie%Moreau%NULL%1,             Christopher%Niles%NULL%1,             Saad%Nseir%NULL%1,             Thierry%Onimus%NULL%1,             Erika%Parmentier%NULL%1,             Sebastien%Préau%NULL%1,             Laurent%Robriquet%NULL%1,             Anahita%Rouze%NULL%1,             Sophie%Six%NULL%1,             Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,     Eric%Yim%xref no email%0,     Lindy%Klaff%xref no email%0,     Sharukh%Lokhandwala%xref no email%0,     Francis X.%Riedo%xref no email%0,     Maria%Chong%xref no email%0,     Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,             Samuel L%Bruce%NULL%1,             Cody L%Slater%NULL%1,             Jonathan R%Tiao%NULL%1,             Matthew R%Baldwin%NULL%2,             R Graham%Barr%NULL%1,             Bernard P%Chang%NULL%1,             Katherine H%Chau%NULL%1,             Justin J%Choi%NULL%1,             Nicholas%Gavin%NULL%1,             Parag%Goyal%NULL%1,             Angela M%Mills%NULL%1,             Ashmi A%Patel%NULL%1,             Marie-Laure S%Romney%NULL%1,             Monika M%Safford%NULL%1,             Neil W%Schluger%NULL%1,             Soumitra%Sengupta%NULL%1,             Magdalena E%Sobieszczyk%NULL%1,             Jason E%Zucker%NULL%1,             Paul A%Asadourian%NULL%1,             Fletcher M%Bell%NULL%1,             Rebekah%Boyd%NULL%1,             Matthew F%Cohen%NULL%1,             MacAlistair I%Colquhoun%NULL%1,             Lucy A%Colville%NULL%1,             Joseph H%de Jonge%NULL%1,             Lyle B%Dershowitz%NULL%1,             Shirin A%Dey%NULL%1,             Katherine A%Eiseman%NULL%1,             Zachary P%Girvin%NULL%1,             Daniella T%Goni%NULL%1,             Amro A%Harb%NULL%1,             Nicholas%Herzik%NULL%1,             Sarah%Householder%NULL%1,             Lara E%Karaaslan%NULL%1,             Heather%Lee%NULL%1,             Evan%Lieberman%NULL%1,             Andrew%Ling%NULL%1,             Ree%Lu%NULL%1,             Arthur Y%Shou%NULL%1,             Alexander C%Sisti%NULL%1,             Zachary E%Snow%NULL%1,             Colin P%Sperring%NULL%1,             Yuqing%Xiong%NULL%1,             Henry W%Zhou%NULL%1,             Karthik%Natarajan%NULL%1,             George%Hripcsak%NULL%1,             Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,             Mark%Caridi-Scheible%NULL%0,             James M.%Blum%NULL%0,             Chad%Robichaux%NULL%0,             Colleen%Kraft%NULL%0,             Jesse T.%Jacob%NULL%0,             Craig S.%Jabaley%NULL%0,             David%Carpenter%NULL%0,             Roberta%Kaplow%NULL%0,             Alfonso C.%Hernandez-Romieu%NULL%0,             Max W.%Adelman%NULL%0,             Greg S.%Martin%NULL%0,             Craig M.%Coopersmith%NULL%0,             David J.%Murphy%NULL%0,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,             Bijan J.%Ghassemieh%NULL%0,             Michelle%Nichols%NULL%0,             Richard%Kim%NULL%0,             Keith R.%Jerome%NULL%0,             Arun K.%Nalla%NULL%0,             Alexander L.%Greninger%NULL%0,             Sudhakar%Pipavath%NULL%0,             Mark M.%Wurfel%NULL%0,             Laura%Evans%NULL%0,             Patricia A.%Kritek%NULL%0,             T. Eoin%West%NULL%0,             Andrew%Luks%NULL%0,             Anthony%Gerbino%NULL%0,             Chris R.%Dale%NULL%0,             Jason D.%Goldman%NULL%0,             Shane%O’Mahony%NULL%0,             Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura C.%Myers%xref no email%1,     Stephen M.%Parodi%xref no email%1,     Gabriel J.%Escobar%xref no email%1,     Vincent X.%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,           Becker%L.B.%coreGivesNoEmail%0,           Chelico%J.D.%coreGivesNoEmail%0,           Cohen%S.L.%coreGivesNoEmail%0,           Cookingham%J.%coreGivesNoEmail%0,           Coppa%K.%coreGivesNoEmail%0,           Crawford%J.M.%coreGivesNoEmail%0,           Davidson%K.W.%coreGivesNoEmail%0,           Diefenbach%M.A.%coreGivesNoEmail%0,           Dominello%A.J.%coreGivesNoEmail%0,           Duer-Hefele%J.%coreGivesNoEmail%0,           Falzon%L.%coreGivesNoEmail%0,           Gitlin%J.%coreGivesNoEmail%0,           Hajizadeh%N.%coreGivesNoEmail%0,           Harvin%T.G.%coreGivesNoEmail%0,           Hirsch%J.S.%coreGivesNoEmail%0,           Hirschwerk%D.A.%coreGivesNoEmail%0,           Kim%E.J.%coreGivesNoEmail%0,           Kozel%Z.M.%coreGivesNoEmail%0,           Marrast%L.M.%coreGivesNoEmail%0,           McGinn%T.%coreGivesNoEmail%0,           Mogavero%J.N.%coreGivesNoEmail%0,           Narasimhan%M.%coreGivesNoEmail%0,           Osorio%G.A.%coreGivesNoEmail%0,           Qiu%M.%coreGivesNoEmail%0,           Richardson%S.%coreGivesNoEmail%0,           Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,             Jehan%Alladina%NULL%2,             Jehan%Alladina%NULL%0,             Camille R.%Petri%NULL%2,             Camille R.%Petri%NULL%0,             Jason H.%Maley%NULL%2,             Jason H.%Maley%NULL%0,             Ari%Moskowitz%NULL%1,             Benjamin D.%Medoff%NULL%1,             Kathryn A.%Hibbert%NULL%2,             Kathryn A.%Hibbert%NULL%0,             B. Taylor%Thompson%NULL%1,             C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,             Adam J%Russak%NULL%2,             Adam J%Russak%NULL%0,             Jessica K%De Freitas%NULL%1,             Anuradha%Lala%NULL%1,             Riccardo%Miotto%NULL%1,             Akhil%Vaid%NULL%1,             Kipp W%Johnson%NULL%1,             Matteo%Danieletto%NULL%1,             Eddye%Golden%NULL%1,             Dara%Meyer%NULL%1,             Manbir%Singh%NULL%1,             Sulaiman%Somani%NULL%1,             Arjun%Kapoor%NULL%1,             Ross%O'Hagan%NULL%1,             Sayan%Manna%NULL%1,             Udit%Nangia%NULL%1,             Suraj K%Jaladanki%NULL%1,             Paul%O’Reilly%NULL%2,             Paul%O’Reilly%NULL%0,             Laura M%Huckins%NULL%1,             Patricia%Glowe%NULL%1,             Arash%Kia%NULL%1,             Prem%Timsina%NULL%1,             Robert M%Freeman%NULL%1,             Matthew A%Levin%NULL%1,             Jeffrey%Jhang%NULL%1,             Adolfo%Firpo%NULL%1,             Patricia%Kovatch%NULL%1,             Joseph%Finkelstein%NULL%1,             Judith A%Aberg%NULL%1,             Emilia%Bagiella%NULL%1,             Carol R%Horowitz%NULL%1,             Barbara%Murphy%NULL%1,             Zahi A%Fayad%NULL%1,             Jagat%Narula%NULL%1,             Eric J%Nestler%NULL%1,             V%Fuster%NULL%1,             Carlos%Cordon-Cardo%NULL%1,             Dennis%Charney%NULL%1,             David L%Reich%NULL%1,             Allan%Just%NULL%1,             Erwin P%Bottinger%NULL%1,             Alexander W%Charney%NULL%1,             Benjamin S%Glicksberg%NULL%1,             Girish N%Nadkarni%NULL%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,              Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,              Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,              Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,              Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,              Bruno%Riou%bruno.riou@aphp.fr%2,              Bruno%Riou%bruno.riou@aphp.fr%0,              Yan%Zhao%doctoryanzhao@whu.edu.cn%0,              Yan%Zhao%doctoryanzhao@whu.edu.cn%0,              Gilles%Hejblum%gilles.hejblum@inserm.fr%2,              Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,              Peiyun%Li%NULL%1,              Liang%Ma%NULL%1,              Hang%Liang%NULL%1,              Jie%Lei%NULL%0,              Wenqiang%Li%NULL%1,              Kun%Wang%NULL%0,              Yu%Song%NULL%1,              Shuai%Li%NULL%1,              Wei%Yang%NULL%1,              Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,               C.% Hong%null%1,               J.% Meng%null%1,               Z.% Wu%null%1,               P.% Zhou%null%1,               C.% Ye%null%1,               B.% Sun%null%1,               L. M.% Kucirka%null%1,               A. S.% Azman%null%1,               T.% Wang%null%0,               J.% Chen%null%1,               Z.% Wang%null%1,               L.% Liu%null%0,               J.% Lessler%null%1,               J. K.% Edwards%null%1,               T.% Ma%null%1,               G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,              Ting%Yu%NULL%0,              Ronghui%Du%NULL%0,              Guohui%Fan%NULL%0,              Ying%Liu%NULL%0,              Zhibo%Liu%NULL%0,              Jie%Xiang%NULL%0,              Yeming%Wang%NULL%0,              Bin%Song%NULL%0,              Xiaoying%Gu%NULL%0,              Lulu%Guan%NULL%0,              Yuan%Wei%NULL%0,              Hui%Li%NULL%0,              Xudong%Wu%NULL%0,              Jiuyang%Xu%NULL%0,              Shengjin%Tu%NULL%0,              Yi%Zhang%NULL%0,              Hua%Chen%NULL%0,              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,              Zhiheng%Xu%NULL%1,              Xuesong%Liu%NULL%1,              Lihua%Cai%NULL%1,              Haichong%Zheng%NULL%1,              Yongbo%Huang%NULL%1,              Lixin%Zhou%NULL%1,              Linxi%Huang%NULL%1,              Yun%Ling%NULL%0,              Liehua%Deng%NULL%1,              Jianwei%Li%NULL%0,              Sibei%Chen%NULL%1,              Dongdong%Liu%NULL%1,              Zhimin%Lin%NULL%1,              Liang%Zhou%NULL%1,              Weiqun%He%NULL%1,              Nanshan%Zhong%NULL%0,              Xiaoqing%Liu%NULL%3,              Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,              Li-jun%Sun%NULL%1,              Mi%Xu%NULL%1,              Jian%Pan%NULL%1,              Yun-tao%Zhang%NULL%1,              Xue-ling%Fang%NULL%1,              Qiang%Fang%NULL%1,              Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,              Li-Min%Liu%NULL%2,              Wen%Yin%NULL%0,              Wen%Wang%NULL%0,              Lu-Lu%Guan%NULL%2,              Ming-Li%Yuan%NULL%0,              Yu-Lei%Li%NULL%2,              Yi%Hu%NULL%0,              Xu-Yan%Li%NULL%0,              Bing%Sun%NULL%2,              Peng%Peng%NULL%0,              Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,              Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,              Wenlin%Cheng%NULL%0,              Lei%Yu%NULL%0,              Ya-Kun%Liu%NULL%0,              Xiaoyong%Hu%NULL%0,              Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,              Zheng-yi%Ni%NULL%0,              Zheng-yi%Ni%NULL%0,              Yu%Hu%NULL%0,              Wen-hua%Liang%NULL%0,              Chun-quan%Ou%NULL%0,              Jian-xing%He%NULL%0,              Lei%Liu%NULL%0,              Hong%Shan%NULL%0,              Chun-liang%Lei%NULL%0,              David S.C.%Hui%NULL%0,              Bin%Du%NULL%0,              Lan-juan%Li%NULL%0,              Guang%Zeng%NULL%0,              Kwok-Yung%Yuen%NULL%0,              Ru-chong%Chen%NULL%0,              Chun-li%Tang%NULL%0,              Tao%Wang%NULL%0,              Ping-yan%Chen%NULL%0,              Jie%Xiang%NULL%0,              Shi-yue%Li%NULL%0,              Jin-lin%Wang%NULL%0,              Zi-jing%Liang%NULL%0,              Yi-xiang%Peng%NULL%0,              Li%Wei%NULL%0,              Yong%Liu%NULL%0,              Ya-hua%Hu%NULL%0,              Peng%Peng%NULL%0,              Jian-ming%Wang%NULL%0,              Ji-yang%Liu%NULL%0,              Zhong%Chen%NULL%0,              Gang%Li%NULL%0,              Zhi-jian%Zheng%NULL%0,              Shao-qin%Qiu%NULL%0,              Jie%Luo%NULL%0,              Chang-jiang%Ye%NULL%0,              Shao-yong%Zhu%NULL%0,              Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,              Fang%Jiang%NULL%0,              Wating%Su%NULL%2,              Chang%Chen%NULL%2,              Jingli%Chen%NULL%2,              Wei%Mei%NULL%2,              Li-Ying%Zhan%NULL%2,              Yifan%Jia%NULL%2,              Liangqing%Zhang%NULL%2,              Danyong%Liu%NULL%2,              Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,              Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,              Yuan%Yu%NULL%0,              Jiqian%Xu%NULL%0,              Huaqing%Shu%NULL%0,              Jia'an%Xia%NULL%0,              Hong%Liu%NULL%0,              Yongran%Wu%NULL%0,              Lu%Zhang%NULL%0,              Zhui%Yu%NULL%0,              Minghao%Fang%NULL%0,              Ting%Yu%NULL%0,              Yaxin%Wang%NULL%0,              Shangwen%Pan%NULL%0,              Xiaojing%Zou%NULL%0,              Shiying%Yuan%NULL%0,              You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,              Yeming%Wang%NULL%0,              Xingwang%Li%NULL%0,              Lili%Ren%NULL%0,              Jianping%Zhao%NULL%0,              Yi%Hu%NULL%0,              Li%Zhang%NULL%0,              Guohui%Fan%NULL%0,              Jiuyang%Xu%NULL%0,              Xiaoying%Gu%NULL%0,              Zhenshun%Cheng%NULL%0,              Ting%Yu%NULL%0,              Jiaan%Xia%NULL%0,              Yuan%Wei%NULL%0,              Wenjuan%Wu%NULL%0,              Xuelei%Xie%NULL%0,              Wen%Yin%NULL%0,              Hui%Li%NULL%0,              Min%Liu%NULL%0,              Yan%Xiao%NULL%0,              Hong%Gao%NULL%0,              Li%Guo%NULL%0,              Jungang%Xie%NULL%0,              Guangfa%Wang%NULL%0,              Rongmeng%Jiang%NULL%0,              Zhancheng%Gao%NULL%0,              Qi%Jin%NULL%0,              Jianwei%Wang%wangjw28@163.com%0,              Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,              Xiaofan%Lu%NULL%1,              Yongsheng%Li%NULL%2,              Yongsheng%Li%NULL%0,              Hui%Chen%NULL%0,              Taige%Chen%NULL%1,              Nan%Su%NULL%1,              Fang%Huang%NULL%1,              Jing%Zhou%NULL%0,              Bing%Zhang%NULL%1,              Fangrong%Yan%NULL%2,              Fangrong%Yan%NULL%0,              Jun%Wang%NULL%2,              Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,            Cabrini%Luca%coreGivesNoEmail%0,            Castelli%Antonio%coreGivesNoEmail%0,            Cecconi%Maurizio%coreGivesNoEmail%0,            Cereda%Danilo%coreGivesNoEmail%0,            Coluccello%Antonio%coreGivesNoEmail%0,            Foti%Giuseppe%coreGivesNoEmail%0,            Fumagalli%Roberto%coreGivesNoEmail%0,            Grasselli%Giacomo%coreGivesNoEmail%0,            Iotti%Giorgio%coreGivesNoEmail%0,            Latronico%Nicola%coreGivesNoEmail%0,            Lorini%Luca%coreGivesNoEmail%0,            Merler%Stefano%coreGivesNoEmail%0,            Natalini%Giuseppe%coreGivesNoEmail%0,            Pesenti%Antonio%coreGivesNoEmail%0,            Piatti%Alessandra%coreGivesNoEmail%0,            Ranieri%Marco Vito%coreGivesNoEmail%0,            Scandroglio%Anna Mara%coreGivesNoEmail%0,            Storti%Enrico%coreGivesNoEmail%0,            Zanella%Alberto%coreGivesNoEmail%0,            Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,              Mikael%Chetboun%NULL%1,              Julien%Poissy%NULL%1,              Violeta%Raverdy%NULL%1,              Jerome%Noulette%NULL%2,              Jerome%Noulette%NULL%0,              Alain%Duhamel%NULL%0,              Julien%Labreuche%NULL%0,              Daniel%Mathieu%NULL%2,              Francois%Pattou%francois.pattou@univ-lille.fr%1,              Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,              Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,              Robert%Caizzo%NULL%2,              Robert%Caizzo%NULL%0,              Morgan%Caplan%NULL%1,              Nicolas%Cousin%NULL%1,              Thibault%Duburcq%NULL%1,              Arthur%Durand%NULL%1,              Ahmed%El kalioubie%NULL%1,              Raphael%Favory%NULL%1,              Bruno%Garcia%NULL%1,              Patrick%Girardie%NULL%1,              Julien%Goutay%NULL%1,              Marion%Houard%NULL%1,              Emmanuelle%Jaillette%NULL%1,              Nicolas%Kostuj%NULL%1,              Geoffrey%Ledoux%NULL%1,              Daniel%Mathieu%NULL%0,              Anne Sophie%Moreau%NULL%1,              Christopher%Niles%NULL%1,              Saad%Nseir%NULL%1,              Thierry%Onimus%NULL%1,              Erika%Parmentier%NULL%1,              Sebastien%Préau%NULL%1,              Laurent%Robriquet%NULL%1,              Anahita%Rouze%NULL%1,              Sophie%Six%NULL%1,              Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,      Eric%Yim%xref no email%0,      Lindy%Klaff%xref no email%0,      Sharukh%Lokhandwala%xref no email%0,      Francis X.%Riedo%xref no email%0,      Maria%Chong%xref no email%0,      Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,              Samuel L%Bruce%NULL%1,              Cody L%Slater%NULL%1,              Jonathan R%Tiao%NULL%1,              Matthew R%Baldwin%NULL%2,              R Graham%Barr%NULL%1,              Bernard P%Chang%NULL%1,              Katherine H%Chau%NULL%1,              Justin J%Choi%NULL%1,              Nicholas%Gavin%NULL%1,              Parag%Goyal%NULL%1,              Angela M%Mills%NULL%1,              Ashmi A%Patel%NULL%1,              Marie-Laure S%Romney%NULL%1,              Monika M%Safford%NULL%1,              Neil W%Schluger%NULL%1,              Soumitra%Sengupta%NULL%1,              Magdalena E%Sobieszczyk%NULL%1,              Jason E%Zucker%NULL%1,              Paul A%Asadourian%NULL%1,              Fletcher M%Bell%NULL%1,              Rebekah%Boyd%NULL%1,              Matthew F%Cohen%NULL%1,              MacAlistair I%Colquhoun%NULL%1,              Lucy A%Colville%NULL%1,              Joseph H%de Jonge%NULL%1,              Lyle B%Dershowitz%NULL%1,              Shirin A%Dey%NULL%1,              Katherine A%Eiseman%NULL%1,              Zachary P%Girvin%NULL%1,              Daniella T%Goni%NULL%1,              Amro A%Harb%NULL%1,              Nicholas%Herzik%NULL%1,              Sarah%Householder%NULL%1,              Lara E%Karaaslan%NULL%1,              Heather%Lee%NULL%1,              Evan%Lieberman%NULL%1,              Andrew%Ling%NULL%1,              Ree%Lu%NULL%1,              Arthur Y%Shou%NULL%1,              Alexander C%Sisti%NULL%1,              Zachary E%Snow%NULL%1,              Colin P%Sperring%NULL%1,              Yuqing%Xiong%NULL%1,              Henry W%Zhou%NULL%1,              Karthik%Natarajan%NULL%1,              George%Hripcsak%NULL%1,              Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,              Mark%Caridi-Scheible%NULL%0,              James M.%Blum%NULL%0,              Chad%Robichaux%NULL%0,              Colleen%Kraft%NULL%0,              Jesse T.%Jacob%NULL%0,              Craig S.%Jabaley%NULL%0,              David%Carpenter%NULL%0,              Roberta%Kaplow%NULL%0,              Alfonso C.%Hernandez-Romieu%NULL%0,              Max W.%Adelman%NULL%0,              Greg S.%Martin%NULL%0,              Craig M.%Coopersmith%NULL%0,              David J.%Murphy%NULL%0,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,              Bijan J.%Ghassemieh%NULL%0,              Michelle%Nichols%NULL%0,              Richard%Kim%NULL%0,              Keith R.%Jerome%NULL%0,              Arun K.%Nalla%NULL%0,              Alexander L.%Greninger%NULL%0,              Sudhakar%Pipavath%NULL%0,              Mark M.%Wurfel%NULL%0,              Laura%Evans%NULL%0,              Patricia A.%Kritek%NULL%0,              T. Eoin%West%NULL%0,              Andrew%Luks%NULL%0,              Anthony%Gerbino%NULL%0,              Chris R.%Dale%NULL%0,              Jason D.%Goldman%NULL%0,              Shane%O’Mahony%NULL%0,              Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura C.%Myers%xref no email%1,      Stephen M.%Parodi%xref no email%1,      Gabriel J.%Escobar%xref no email%1,      Vincent X.%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,            Becker%L.B.%coreGivesNoEmail%0,            Chelico%J.D.%coreGivesNoEmail%0,            Cohen%S.L.%coreGivesNoEmail%0,            Cookingham%J.%coreGivesNoEmail%0,            Coppa%K.%coreGivesNoEmail%0,            Crawford%J.M.%coreGivesNoEmail%0,            Davidson%K.W.%coreGivesNoEmail%0,            Diefenbach%M.A.%coreGivesNoEmail%0,            Dominello%A.J.%coreGivesNoEmail%0,            Duer-Hefele%J.%coreGivesNoEmail%0,            Falzon%L.%coreGivesNoEmail%0,            Gitlin%J.%coreGivesNoEmail%0,            Hajizadeh%N.%coreGivesNoEmail%0,            Harvin%T.G.%coreGivesNoEmail%0,            Hirsch%J.S.%coreGivesNoEmail%0,            Hirschwerk%D.A.%coreGivesNoEmail%0,            Kim%E.J.%coreGivesNoEmail%0,            Kozel%Z.M.%coreGivesNoEmail%0,            Marrast%L.M.%coreGivesNoEmail%0,            McGinn%T.%coreGivesNoEmail%0,            Mogavero%J.N.%coreGivesNoEmail%0,            Narasimhan%M.%coreGivesNoEmail%0,            Osorio%G.A.%coreGivesNoEmail%0,            Qiu%M.%coreGivesNoEmail%0,            Richardson%S.%coreGivesNoEmail%0,            Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,              Jehan%Alladina%NULL%2,              Jehan%Alladina%NULL%0,              Camille R.%Petri%NULL%2,              Camille R.%Petri%NULL%0,              Jason H.%Maley%NULL%2,              Jason H.%Maley%NULL%0,              Ari%Moskowitz%NULL%1,              Benjamin D.%Medoff%NULL%1,              Kathryn A.%Hibbert%NULL%2,              Kathryn A.%Hibbert%NULL%0,              B. Taylor%Thompson%NULL%1,              C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,              Adam J%Russak%NULL%2,              Adam J%Russak%NULL%0,              Jessica K%De Freitas%NULL%1,              Anuradha%Lala%NULL%1,              Riccardo%Miotto%NULL%1,              Akhil%Vaid%NULL%1,              Kipp W%Johnson%NULL%1,              Matteo%Danieletto%NULL%1,              Eddye%Golden%NULL%1,              Dara%Meyer%NULL%1,              Manbir%Singh%NULL%1,              Sulaiman%Somani%NULL%1,              Arjun%Kapoor%NULL%1,              Ross%O'Hagan%NULL%1,              Sayan%Manna%NULL%1,              Udit%Nangia%NULL%1,              Suraj K%Jaladanki%NULL%1,              Paul%O’Reilly%NULL%2,              Paul%O’Reilly%NULL%0,              Laura M%Huckins%NULL%1,              Patricia%Glowe%NULL%1,              Arash%Kia%NULL%1,              Prem%Timsina%NULL%1,              Robert M%Freeman%NULL%1,              Matthew A%Levin%NULL%1,              Jeffrey%Jhang%NULL%1,              Adolfo%Firpo%NULL%1,              Patricia%Kovatch%NULL%1,              Joseph%Finkelstein%NULL%1,              Judith A%Aberg%NULL%1,              Emilia%Bagiella%NULL%1,              Carol R%Horowitz%NULL%1,              Barbara%Murphy%NULL%1,              Zahi A%Fayad%NULL%1,              Jagat%Narula%NULL%1,              Eric J%Nestler%NULL%1,              V%Fuster%NULL%1,              Carlos%Cordon-Cardo%NULL%1,              Dennis%Charney%NULL%1,              David L%Reich%NULL%1,              Allan%Just%NULL%1,              Erwin P%Bottinger%NULL%1,              Alexander W%Charney%NULL%1,              Benjamin S%Glicksberg%NULL%1,              Girish N%Nadkarni%NULL%1,              NULL%NULL%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1818,10 +1979,10 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>382</v>
       </c>
       <c r="E2" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -1850,7 +2011,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -1879,7 +2040,7 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1908,7 +2069,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -1937,7 +2098,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -1966,7 +2127,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -1995,7 +2156,7 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -2024,7 +2185,7 @@
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -2053,7 +2214,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -2082,7 +2243,7 @@
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="F11" t="s">
         <v>90</v>
@@ -2111,7 +2272,7 @@
         <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -2140,7 +2301,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -2169,7 +2330,7 @@
         <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -2198,7 +2359,7 @@
         <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -2227,7 +2388,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -2256,7 +2417,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -2285,7 +2446,7 @@
         <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="F18" t="s">
         <v>112</v>
@@ -2314,7 +2475,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -2343,7 +2504,7 @@
         <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
@@ -2372,7 +2533,7 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
@@ -2401,7 +2562,7 @@
         <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -2430,7 +2591,7 @@
         <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="F23" t="s">
         <v>124</v>
@@ -2459,7 +2620,7 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="F24" t="s">
         <v>128</v>

--- a/Covid_19_Dataset_and_References/References/71.xlsx
+++ b/Covid_19_Dataset_and_References/References/71.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="453">
   <si>
     <t>Doi</t>
   </si>
@@ -1611,6 +1611,78 @@
   </si>
   <si>
     <t>[Ishan%Paranjpe%NULL%0,              Adam J%Russak%NULL%2,              Adam J%Russak%NULL%0,              Jessica K%De Freitas%NULL%1,              Anuradha%Lala%NULL%1,              Riccardo%Miotto%NULL%1,              Akhil%Vaid%NULL%1,              Kipp W%Johnson%NULL%1,              Matteo%Danieletto%NULL%1,              Eddye%Golden%NULL%1,              Dara%Meyer%NULL%1,              Manbir%Singh%NULL%1,              Sulaiman%Somani%NULL%1,              Arjun%Kapoor%NULL%1,              Ross%O'Hagan%NULL%1,              Sayan%Manna%NULL%1,              Udit%Nangia%NULL%1,              Suraj K%Jaladanki%NULL%1,              Paul%O’Reilly%NULL%2,              Paul%O’Reilly%NULL%0,              Laura M%Huckins%NULL%1,              Patricia%Glowe%NULL%1,              Arash%Kia%NULL%1,              Prem%Timsina%NULL%1,              Robert M%Freeman%NULL%1,              Matthew A%Levin%NULL%1,              Jeffrey%Jhang%NULL%1,              Adolfo%Firpo%NULL%1,              Patricia%Kovatch%NULL%1,              Joseph%Finkelstein%NULL%1,              Judith A%Aberg%NULL%1,              Emilia%Bagiella%NULL%1,              Carol R%Horowitz%NULL%1,              Barbara%Murphy%NULL%1,              Zahi A%Fayad%NULL%1,              Jagat%Narula%NULL%1,              Eric J%Nestler%NULL%1,              V%Fuster%NULL%1,              Carlos%Cordon-Cardo%NULL%1,              Dennis%Charney%NULL%1,              David L%Reich%NULL%1,              Allan%Just%NULL%1,              Erwin P%Bottinger%NULL%1,              Alexander W%Charney%NULL%1,              Benjamin S%Glicksberg%NULL%1,              Girish N%Nadkarni%NULL%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,               Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,               Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,               Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,               Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,               Bruno%Riou%bruno.riou@aphp.fr%2,               Bruno%Riou%bruno.riou@aphp.fr%0,               Yan%Zhao%doctoryanzhao@whu.edu.cn%0,               Yan%Zhao%doctoryanzhao@whu.edu.cn%0,               Gilles%Hejblum%gilles.hejblum@inserm.fr%2,               Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,               Peiyun%Li%NULL%1,               Liang%Ma%NULL%1,               Hang%Liang%NULL%1,               Jie%Lei%NULL%0,               Wenqiang%Li%NULL%1,               Kun%Wang%NULL%0,               Yu%Song%NULL%1,               Shuai%Li%NULL%1,               Wei%Yang%NULL%1,               Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,                C.% Hong%null%1,                J.% Meng%null%1,                Z.% Wu%null%1,                P.% Zhou%null%1,                C.% Ye%null%1,                B.% Sun%null%1,                L. M.% Kucirka%null%1,                A. S.% Azman%null%1,                T.% Wang%null%0,                J.% Chen%null%1,                Z.% Wang%null%1,                L.% Liu%null%0,                J.% Lessler%null%1,                J. K.% Edwards%null%1,                T.% Ma%null%1,                G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,               Ting%Yu%NULL%0,               Ronghui%Du%NULL%0,               Guohui%Fan%NULL%0,               Ying%Liu%NULL%0,               Zhibo%Liu%NULL%0,               Jie%Xiang%NULL%0,               Yeming%Wang%NULL%0,               Bin%Song%NULL%0,               Xiaoying%Gu%NULL%0,               Lulu%Guan%NULL%0,               Yuan%Wei%NULL%0,               Hui%Li%NULL%0,               Xudong%Wu%NULL%0,               Jiuyang%Xu%NULL%0,               Shengjin%Tu%NULL%0,               Yi%Zhang%NULL%0,               Hua%Chen%NULL%0,               Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,               Zhiheng%Xu%NULL%1,               Xuesong%Liu%NULL%1,               Lihua%Cai%NULL%1,               Haichong%Zheng%NULL%1,               Yongbo%Huang%NULL%1,               Lixin%Zhou%NULL%1,               Linxi%Huang%NULL%1,               Yun%Ling%NULL%0,               Liehua%Deng%NULL%1,               Jianwei%Li%NULL%0,               Sibei%Chen%NULL%1,               Dongdong%Liu%NULL%1,               Zhimin%Lin%NULL%1,               Liang%Zhou%NULL%1,               Weiqun%He%NULL%1,               Nanshan%Zhong%NULL%0,               Xiaoqing%Liu%NULL%3,               Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,               Li-jun%Sun%NULL%1,               Mi%Xu%NULL%1,               Jian%Pan%NULL%1,               Yun-tao%Zhang%NULL%1,               Xue-ling%Fang%NULL%1,               Qiang%Fang%NULL%1,               Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,               Li-Min%Liu%NULL%2,               Wen%Yin%NULL%0,               Wen%Wang%NULL%0,               Lu-Lu%Guan%NULL%2,               Ming-Li%Yuan%NULL%0,               Yu-Lei%Li%NULL%2,               Yi%Hu%NULL%0,               Xu-Yan%Li%NULL%0,               Bing%Sun%NULL%2,               Peng%Peng%NULL%0,               Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,               Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,               Wenlin%Cheng%NULL%0,               Lei%Yu%NULL%0,               Ya-Kun%Liu%NULL%0,               Xiaoyong%Hu%NULL%0,               Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,               Zheng-yi%Ni%NULL%0,               Zheng-yi%Ni%NULL%0,               Yu%Hu%NULL%0,               Wen-hua%Liang%NULL%0,               Chun-quan%Ou%NULL%0,               Jian-xing%He%NULL%0,               Lei%Liu%NULL%0,               Hong%Shan%NULL%0,               Chun-liang%Lei%NULL%0,               David S.C.%Hui%NULL%0,               Bin%Du%NULL%0,               Lan-juan%Li%NULL%0,               Guang%Zeng%NULL%0,               Kwok-Yung%Yuen%NULL%0,               Ru-chong%Chen%NULL%0,               Chun-li%Tang%NULL%0,               Tao%Wang%NULL%0,               Ping-yan%Chen%NULL%0,               Jie%Xiang%NULL%0,               Shi-yue%Li%NULL%0,               Jin-lin%Wang%NULL%0,               Zi-jing%Liang%NULL%0,               Yi-xiang%Peng%NULL%0,               Li%Wei%NULL%0,               Yong%Liu%NULL%0,               Ya-hua%Hu%NULL%0,               Peng%Peng%NULL%0,               Jian-ming%Wang%NULL%0,               Ji-yang%Liu%NULL%0,               Zhong%Chen%NULL%0,               Gang%Li%NULL%0,               Zhi-jian%Zheng%NULL%0,               Shao-qin%Qiu%NULL%0,               Jie%Luo%NULL%0,               Chang-jiang%Ye%NULL%0,               Shao-yong%Zhu%NULL%0,               Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,               Fang%Jiang%NULL%0,               Wating%Su%NULL%2,               Chang%Chen%NULL%2,               Jingli%Chen%NULL%2,               Wei%Mei%NULL%2,               Li-Ying%Zhan%NULL%2,               Yifan%Jia%NULL%2,               Liangqing%Zhang%NULL%2,               Danyong%Liu%NULL%2,               Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,               Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,               Yuan%Yu%NULL%0,               Jiqian%Xu%NULL%0,               Huaqing%Shu%NULL%0,               Jia'an%Xia%NULL%0,               Hong%Liu%NULL%0,               Yongran%Wu%NULL%0,               Lu%Zhang%NULL%0,               Zhui%Yu%NULL%0,               Minghao%Fang%NULL%0,               Ting%Yu%NULL%0,               Yaxin%Wang%NULL%0,               Shangwen%Pan%NULL%0,               Xiaojing%Zou%NULL%0,               Shiying%Yuan%NULL%0,               You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,               Yeming%Wang%NULL%0,               Xingwang%Li%NULL%0,               Lili%Ren%NULL%0,               Jianping%Zhao%NULL%0,               Yi%Hu%NULL%0,               Li%Zhang%NULL%0,               Guohui%Fan%NULL%0,               Jiuyang%Xu%NULL%0,               Xiaoying%Gu%NULL%0,               Zhenshun%Cheng%NULL%0,               Ting%Yu%NULL%0,               Jiaan%Xia%NULL%0,               Yuan%Wei%NULL%0,               Wenjuan%Wu%NULL%0,               Xuelei%Xie%NULL%0,               Wen%Yin%NULL%0,               Hui%Li%NULL%0,               Min%Liu%NULL%0,               Yan%Xiao%NULL%0,               Hong%Gao%NULL%0,               Li%Guo%NULL%0,               Jungang%Xie%NULL%0,               Guangfa%Wang%NULL%0,               Rongmeng%Jiang%NULL%0,               Zhancheng%Gao%NULL%0,               Qi%Jin%NULL%0,               Jianwei%Wang%wangjw28@163.com%0,               Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,               Xiaofan%Lu%NULL%1,               Yongsheng%Li%NULL%2,               Yongsheng%Li%NULL%0,               Hui%Chen%NULL%0,               Taige%Chen%NULL%1,               Nan%Su%NULL%1,               Fang%Huang%NULL%1,               Jing%Zhou%NULL%0,               Bing%Zhang%NULL%1,               Fangrong%Yan%NULL%2,               Fangrong%Yan%NULL%0,               Jun%Wang%NULL%2,               Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,             Cabrini%Luca%coreGivesNoEmail%0,             Castelli%Antonio%coreGivesNoEmail%0,             Cecconi%Maurizio%coreGivesNoEmail%0,             Cereda%Danilo%coreGivesNoEmail%0,             Coluccello%Antonio%coreGivesNoEmail%0,             Foti%Giuseppe%coreGivesNoEmail%0,             Fumagalli%Roberto%coreGivesNoEmail%0,             Grasselli%Giacomo%coreGivesNoEmail%0,             Iotti%Giorgio%coreGivesNoEmail%0,             Latronico%Nicola%coreGivesNoEmail%0,             Lorini%Luca%coreGivesNoEmail%0,             Merler%Stefano%coreGivesNoEmail%0,             Natalini%Giuseppe%coreGivesNoEmail%0,             Pesenti%Antonio%coreGivesNoEmail%0,             Piatti%Alessandra%coreGivesNoEmail%0,             Ranieri%Marco Vito%coreGivesNoEmail%0,             Scandroglio%Anna Mara%coreGivesNoEmail%0,             Storti%Enrico%coreGivesNoEmail%0,             Zanella%Alberto%coreGivesNoEmail%0,             Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,               Mikael%Chetboun%NULL%1,               Julien%Poissy%NULL%1,               Violeta%Raverdy%NULL%1,               Jerome%Noulette%NULL%2,               Jerome%Noulette%NULL%0,               Alain%Duhamel%NULL%0,               Julien%Labreuche%NULL%0,               Daniel%Mathieu%NULL%2,               Francois%Pattou%francois.pattou@univ-lille.fr%1,               Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,               Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,               Robert%Caizzo%NULL%2,               Robert%Caizzo%NULL%0,               Morgan%Caplan%NULL%1,               Nicolas%Cousin%NULL%1,               Thibault%Duburcq%NULL%1,               Arthur%Durand%NULL%1,               Ahmed%El kalioubie%NULL%1,               Raphael%Favory%NULL%1,               Bruno%Garcia%NULL%1,               Patrick%Girardie%NULL%1,               Julien%Goutay%NULL%1,               Marion%Houard%NULL%1,               Emmanuelle%Jaillette%NULL%1,               Nicolas%Kostuj%NULL%1,               Geoffrey%Ledoux%NULL%1,               Daniel%Mathieu%NULL%0,               Anne Sophie%Moreau%NULL%1,               Christopher%Niles%NULL%1,               Saad%Nseir%NULL%1,               Thierry%Onimus%NULL%1,               Erika%Parmentier%NULL%1,               Sebastien%Préau%NULL%1,               Laurent%Robriquet%NULL%1,               Anahita%Rouze%NULL%1,               Sophie%Six%NULL%1,               Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,       Eric%Yim%xref no email%0,       Lindy%Klaff%xref no email%0,       Sharukh%Lokhandwala%xref no email%0,       Francis X.%Riedo%xref no email%0,       Maria%Chong%xref no email%0,       Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,               Samuel L%Bruce%NULL%1,               Cody L%Slater%NULL%1,               Jonathan R%Tiao%NULL%1,               Matthew R%Baldwin%NULL%2,               R Graham%Barr%NULL%1,               Bernard P%Chang%NULL%1,               Katherine H%Chau%NULL%1,               Justin J%Choi%NULL%1,               Nicholas%Gavin%NULL%1,               Parag%Goyal%NULL%1,               Angela M%Mills%NULL%1,               Ashmi A%Patel%NULL%1,               Marie-Laure S%Romney%NULL%1,               Monika M%Safford%NULL%1,               Neil W%Schluger%NULL%1,               Soumitra%Sengupta%NULL%1,               Magdalena E%Sobieszczyk%NULL%1,               Jason E%Zucker%NULL%1,               Paul A%Asadourian%NULL%1,               Fletcher M%Bell%NULL%1,               Rebekah%Boyd%NULL%1,               Matthew F%Cohen%NULL%1,               MacAlistair I%Colquhoun%NULL%1,               Lucy A%Colville%NULL%1,               Joseph H%de Jonge%NULL%1,               Lyle B%Dershowitz%NULL%1,               Shirin A%Dey%NULL%1,               Katherine A%Eiseman%NULL%1,               Zachary P%Girvin%NULL%1,               Daniella T%Goni%NULL%1,               Amro A%Harb%NULL%1,               Nicholas%Herzik%NULL%1,               Sarah%Householder%NULL%1,               Lara E%Karaaslan%NULL%1,               Heather%Lee%NULL%1,               Evan%Lieberman%NULL%1,               Andrew%Ling%NULL%1,               Ree%Lu%NULL%1,               Arthur Y%Shou%NULL%1,               Alexander C%Sisti%NULL%1,               Zachary E%Snow%NULL%1,               Colin P%Sperring%NULL%1,               Yuqing%Xiong%NULL%1,               Henry W%Zhou%NULL%1,               Karthik%Natarajan%NULL%1,               George%Hripcsak%NULL%1,               Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,               Mark%Caridi-Scheible%NULL%0,               James M.%Blum%NULL%0,               Chad%Robichaux%NULL%0,               Colleen%Kraft%NULL%0,               Jesse T.%Jacob%NULL%0,               Craig S.%Jabaley%NULL%0,               David%Carpenter%NULL%0,               Roberta%Kaplow%NULL%0,               Alfonso C.%Hernandez-Romieu%NULL%0,               Max W.%Adelman%NULL%0,               Greg S.%Martin%NULL%0,               Craig M.%Coopersmith%NULL%0,               David J.%Murphy%NULL%0,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,               Bijan J.%Ghassemieh%NULL%0,               Michelle%Nichols%NULL%0,               Richard%Kim%NULL%0,               Keith R.%Jerome%NULL%0,               Arun K.%Nalla%NULL%0,               Alexander L.%Greninger%NULL%0,               Sudhakar%Pipavath%NULL%0,               Mark M.%Wurfel%NULL%0,               Laura%Evans%NULL%0,               Patricia A.%Kritek%NULL%0,               T. Eoin%West%NULL%0,               Andrew%Luks%NULL%0,               Anthony%Gerbino%NULL%0,               Chris R.%Dale%NULL%0,               Jason D.%Goldman%NULL%0,               Shane%O’Mahony%NULL%0,               Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura C.%Myers%xref no email%1,       Stephen M.%Parodi%xref no email%1,       Gabriel J.%Escobar%xref no email%1,       Vincent X.%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,             Becker%L.B.%coreGivesNoEmail%0,             Chelico%J.D.%coreGivesNoEmail%0,             Cohen%S.L.%coreGivesNoEmail%0,             Cookingham%J.%coreGivesNoEmail%0,             Coppa%K.%coreGivesNoEmail%0,             Crawford%J.M.%coreGivesNoEmail%0,             Davidson%K.W.%coreGivesNoEmail%0,             Diefenbach%M.A.%coreGivesNoEmail%0,             Dominello%A.J.%coreGivesNoEmail%0,             Duer-Hefele%J.%coreGivesNoEmail%0,             Falzon%L.%coreGivesNoEmail%0,             Gitlin%J.%coreGivesNoEmail%0,             Hajizadeh%N.%coreGivesNoEmail%0,             Harvin%T.G.%coreGivesNoEmail%0,             Hirsch%J.S.%coreGivesNoEmail%0,             Hirschwerk%D.A.%coreGivesNoEmail%0,             Kim%E.J.%coreGivesNoEmail%0,             Kozel%Z.M.%coreGivesNoEmail%0,             Marrast%L.M.%coreGivesNoEmail%0,             McGinn%T.%coreGivesNoEmail%0,             Mogavero%J.N.%coreGivesNoEmail%0,             Narasimhan%M.%coreGivesNoEmail%0,             Osorio%G.A.%coreGivesNoEmail%0,             Qiu%M.%coreGivesNoEmail%0,             Richardson%S.%coreGivesNoEmail%0,             Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,               Jehan%Alladina%NULL%2,               Jehan%Alladina%NULL%0,               Camille R.%Petri%NULL%2,               Camille R.%Petri%NULL%0,               Jason H.%Maley%NULL%2,               Jason H.%Maley%NULL%0,               Ari%Moskowitz%NULL%1,               Benjamin D.%Medoff%NULL%1,               Kathryn A.%Hibbert%NULL%2,               Kathryn A.%Hibbert%NULL%0,               B. Taylor%Thompson%NULL%1,               C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,               Adam J%Russak%NULL%2,               Adam J%Russak%NULL%0,               Jessica K%De Freitas%NULL%1,               Anuradha%Lala%NULL%1,               Riccardo%Miotto%NULL%1,               Akhil%Vaid%NULL%1,               Kipp W%Johnson%NULL%1,               Matteo%Danieletto%NULL%1,               Eddye%Golden%NULL%1,               Dara%Meyer%NULL%1,               Manbir%Singh%NULL%1,               Sulaiman%Somani%NULL%1,               Arjun%Kapoor%NULL%1,               Ross%O'Hagan%NULL%1,               Sayan%Manna%NULL%1,               Udit%Nangia%NULL%1,               Suraj K%Jaladanki%NULL%1,               Paul%O’Reilly%NULL%2,               Paul%O’Reilly%NULL%0,               Laura M%Huckins%NULL%1,               Patricia%Glowe%NULL%1,               Arash%Kia%NULL%1,               Prem%Timsina%NULL%1,               Robert M%Freeman%NULL%1,               Matthew A%Levin%NULL%1,               Jeffrey%Jhang%NULL%1,               Adolfo%Firpo%NULL%1,               Patricia%Kovatch%NULL%1,               Joseph%Finkelstein%NULL%1,               Judith A%Aberg%NULL%1,               Emilia%Bagiella%NULL%1,               Carol R%Horowitz%NULL%1,               Barbara%Murphy%NULL%1,               Zahi A%Fayad%NULL%1,               Jagat%Narula%NULL%1,               Eric J%Nestler%NULL%1,               V%Fuster%NULL%1,               Carlos%Cordon-Cardo%NULL%1,               Dennis%Charney%NULL%1,               David L%Reich%NULL%1,               Allan%Just%NULL%1,               Erwin P%Bottinger%NULL%1,               Alexander W%Charney%NULL%1,               Benjamin S%Glicksberg%NULL%1,               Girish N%Nadkarni%NULL%1,               NULL%NULL%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1982,7 +2054,7 @@
         <v>382</v>
       </c>
       <c r="E2" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -2011,7 +2083,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -2040,13 +2112,13 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>432</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
@@ -2069,7 +2141,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -2098,7 +2170,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -2127,7 +2199,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -2156,7 +2228,7 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -2185,7 +2257,7 @@
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -2214,7 +2286,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -2243,7 +2315,7 @@
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="F11" t="s">
         <v>90</v>
@@ -2272,7 +2344,7 @@
         <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -2301,7 +2373,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -2330,7 +2402,7 @@
         <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -2359,7 +2431,7 @@
         <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -2388,7 +2460,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -2417,7 +2489,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -2446,7 +2518,7 @@
         <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="F18" t="s">
         <v>112</v>
@@ -2475,7 +2547,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -2504,7 +2576,7 @@
         <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
@@ -2533,7 +2605,7 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
@@ -2562,7 +2634,7 @@
         <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -2591,7 +2663,7 @@
         <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="F23" t="s">
         <v>124</v>
@@ -2620,7 +2692,7 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="F24" t="s">
         <v>128</v>

--- a/Covid_19_Dataset_and_References/References/71.xlsx
+++ b/Covid_19_Dataset_and_References/References/71.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2816" uniqueCount="476">
   <si>
     <t>Doi</t>
   </si>
@@ -1683,6 +1683,75 @@
   </si>
   <si>
     <t>[Ishan%Paranjpe%NULL%0,               Adam J%Russak%NULL%2,               Adam J%Russak%NULL%0,               Jessica K%De Freitas%NULL%1,               Anuradha%Lala%NULL%1,               Riccardo%Miotto%NULL%1,               Akhil%Vaid%NULL%1,               Kipp W%Johnson%NULL%1,               Matteo%Danieletto%NULL%1,               Eddye%Golden%NULL%1,               Dara%Meyer%NULL%1,               Manbir%Singh%NULL%1,               Sulaiman%Somani%NULL%1,               Arjun%Kapoor%NULL%1,               Ross%O'Hagan%NULL%1,               Sayan%Manna%NULL%1,               Udit%Nangia%NULL%1,               Suraj K%Jaladanki%NULL%1,               Paul%O’Reilly%NULL%2,               Paul%O’Reilly%NULL%0,               Laura M%Huckins%NULL%1,               Patricia%Glowe%NULL%1,               Arash%Kia%NULL%1,               Prem%Timsina%NULL%1,               Robert M%Freeman%NULL%1,               Matthew A%Levin%NULL%1,               Jeffrey%Jhang%NULL%1,               Adolfo%Firpo%NULL%1,               Patricia%Kovatch%NULL%1,               Joseph%Finkelstein%NULL%1,               Judith A%Aberg%NULL%1,               Emilia%Bagiella%NULL%1,               Carol R%Horowitz%NULL%1,               Barbara%Murphy%NULL%1,               Zahi A%Fayad%NULL%1,               Jagat%Narula%NULL%1,               Eric J%Nestler%NULL%1,               V%Fuster%NULL%1,               Carlos%Cordon-Cardo%NULL%1,               Dennis%Charney%NULL%1,               David L%Reich%NULL%1,               Allan%Just%NULL%1,               Erwin P%Bottinger%NULL%1,               Alexander W%Charney%NULL%1,               Benjamin S%Glicksberg%NULL%1,               Girish N%Nadkarni%NULL%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,                Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,                Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,                Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,                Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,                Bruno%Riou%bruno.riou@aphp.fr%2,                Bruno%Riou%bruno.riou@aphp.fr%0,                Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                Gilles%Hejblum%gilles.hejblum@inserm.fr%2,                Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,                Peiyun%Li%NULL%1,                Liang%Ma%NULL%1,                Hang%Liang%NULL%1,                Jie%Lei%NULL%0,                Wenqiang%Li%NULL%1,                Kun%Wang%NULL%0,                Yu%Song%NULL%1,                Shuai%Li%NULL%1,                Wei%Yang%NULL%1,                Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,                 C.% Hong%null%1,                 J.% Meng%null%1,                 Z.% Wu%null%1,                 P.% Zhou%null%1,                 C.% Ye%null%1,                 B.% Sun%null%1,                 L. M.% Kucirka%null%1,                 A. S.% Azman%null%1,                 T.% Wang%null%0,                 J.% Chen%null%1,                 Z.% Wang%null%1,                 L.% Liu%null%0,                 J.% Lessler%null%1,                 J. K.% Edwards%null%1,                 T.% Ma%null%1,                 G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                Ting%Yu%NULL%0,                Ronghui%Du%NULL%0,                Guohui%Fan%NULL%0,                Ying%Liu%NULL%0,                Zhibo%Liu%NULL%0,                Jie%Xiang%NULL%0,                Yeming%Wang%NULL%0,                Bin%Song%NULL%0,                Xiaoying%Gu%NULL%0,                Lulu%Guan%NULL%0,                Yuan%Wei%NULL%0,                Hui%Li%NULL%0,                Xudong%Wu%NULL%0,                Jiuyang%Xu%NULL%0,                Shengjin%Tu%NULL%0,                Yi%Zhang%NULL%0,                Hua%Chen%NULL%0,                Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,                Zhiheng%Xu%NULL%1,                Xuesong%Liu%NULL%1,                Lihua%Cai%NULL%1,                Haichong%Zheng%NULL%1,                Yongbo%Huang%NULL%1,                Lixin%Zhou%NULL%1,                Linxi%Huang%NULL%1,                Yun%Ling%NULL%0,                Liehua%Deng%NULL%1,                Jianwei%Li%NULL%0,                Sibei%Chen%NULL%1,                Dongdong%Liu%NULL%1,                Zhimin%Lin%NULL%1,                Liang%Zhou%NULL%1,                Weiqun%He%NULL%1,                Nanshan%Zhong%NULL%0,                Xiaoqing%Liu%NULL%3,                Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,                Li-jun%Sun%NULL%1,                Mi%Xu%NULL%1,                Jian%Pan%NULL%1,                Yun-tao%Zhang%NULL%1,                Xue-ling%Fang%NULL%1,                Qiang%Fang%NULL%1,                Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                Li-Min%Liu%NULL%2,                Wen%Yin%NULL%0,                Wen%Wang%NULL%0,                Lu-Lu%Guan%NULL%2,                Ming-Li%Yuan%NULL%0,                Yu-Lei%Li%NULL%2,                Yi%Hu%NULL%0,                Xu-Yan%Li%NULL%0,                Bing%Sun%NULL%2,                Peng%Peng%NULL%0,                Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                Wenlin%Cheng%NULL%0,                Lei%Yu%NULL%0,                Ya-Kun%Liu%NULL%0,                Xiaoyong%Hu%NULL%0,                Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                Zheng-yi%Ni%NULL%0,                Zheng-yi%Ni%NULL%0,                Yu%Hu%NULL%0,                Wen-hua%Liang%NULL%0,                Chun-quan%Ou%NULL%0,                Jian-xing%He%NULL%0,                Lei%Liu%NULL%0,                Hong%Shan%NULL%0,                Chun-liang%Lei%NULL%0,                David S.C.%Hui%NULL%0,                Bin%Du%NULL%0,                Lan-juan%Li%NULL%0,                Guang%Zeng%NULL%0,                Kwok-Yung%Yuen%NULL%0,                Ru-chong%Chen%NULL%0,                Chun-li%Tang%NULL%0,                Tao%Wang%NULL%0,                Ping-yan%Chen%NULL%0,                Jie%Xiang%NULL%0,                Shi-yue%Li%NULL%0,                Jin-lin%Wang%NULL%0,                Zi-jing%Liang%NULL%0,                Yi-xiang%Peng%NULL%0,                Li%Wei%NULL%0,                Yong%Liu%NULL%0,                Ya-hua%Hu%NULL%0,                Peng%Peng%NULL%0,                Jian-ming%Wang%NULL%0,                Ji-yang%Liu%NULL%0,                Zhong%Chen%NULL%0,                Gang%Li%NULL%0,                Zhi-jian%Zheng%NULL%0,                Shao-qin%Qiu%NULL%0,                Jie%Luo%NULL%0,                Chang-jiang%Ye%NULL%0,                Shao-yong%Zhu%NULL%0,                Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                Fang%Jiang%NULL%0,                Wating%Su%NULL%2,                Chang%Chen%NULL%2,                Jingli%Chen%NULL%2,                Wei%Mei%NULL%2,                Li-Ying%Zhan%NULL%2,                Yifan%Jia%NULL%2,                Liangqing%Zhang%NULL%2,                Danyong%Liu%NULL%2,                Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,                Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                Yuan%Yu%NULL%0,                Jiqian%Xu%NULL%0,                Huaqing%Shu%NULL%0,                Jia'an%Xia%NULL%0,                Hong%Liu%NULL%0,                Yongran%Wu%NULL%0,                Lu%Zhang%NULL%0,                Zhui%Yu%NULL%0,                Minghao%Fang%NULL%0,                Ting%Yu%NULL%0,                Yaxin%Wang%NULL%0,                Shangwen%Pan%NULL%0,                Xiaojing%Zou%NULL%0,                Shiying%Yuan%NULL%0,                You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                Yeming%Wang%NULL%0,                Xingwang%Li%NULL%0,                Lili%Ren%NULL%0,                Jianping%Zhao%NULL%0,                Yi%Hu%NULL%0,                Li%Zhang%NULL%0,                Guohui%Fan%NULL%0,                Jiuyang%Xu%NULL%0,                Xiaoying%Gu%NULL%0,                Zhenshun%Cheng%NULL%0,                Ting%Yu%NULL%0,                Jiaan%Xia%NULL%0,                Yuan%Wei%NULL%0,                Wenjuan%Wu%NULL%0,                Xuelei%Xie%NULL%0,                Wen%Yin%NULL%0,                Hui%Li%NULL%0,                Min%Liu%NULL%0,                Yan%Xiao%NULL%0,                Hong%Gao%NULL%0,                Li%Guo%NULL%0,                Jungang%Xie%NULL%0,                Guangfa%Wang%NULL%0,                Rongmeng%Jiang%NULL%0,                Zhancheng%Gao%NULL%0,                Qi%Jin%NULL%0,                Jianwei%Wang%wangjw28@163.com%0,                Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,                Xiaofan%Lu%NULL%1,                Yongsheng%Li%NULL%2,                Yongsheng%Li%NULL%0,                Hui%Chen%NULL%0,                Taige%Chen%NULL%1,                Nan%Su%NULL%1,                Fang%Huang%NULL%1,                Jing%Zhou%NULL%0,                Bing%Zhang%NULL%1,                Fangrong%Yan%NULL%2,                Fangrong%Yan%NULL%0,                Jun%Wang%NULL%2,                Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,              Cabrini%Luca%coreGivesNoEmail%0,              Castelli%Antonio%coreGivesNoEmail%0,              Cecconi%Maurizio%coreGivesNoEmail%0,              Cereda%Danilo%coreGivesNoEmail%0,              Coluccello%Antonio%coreGivesNoEmail%0,              Foti%Giuseppe%coreGivesNoEmail%0,              Fumagalli%Roberto%coreGivesNoEmail%0,              Grasselli%Giacomo%coreGivesNoEmail%0,              Iotti%Giorgio%coreGivesNoEmail%0,              Latronico%Nicola%coreGivesNoEmail%0,              Lorini%Luca%coreGivesNoEmail%0,              Merler%Stefano%coreGivesNoEmail%0,              Natalini%Giuseppe%coreGivesNoEmail%0,              Pesenti%Antonio%coreGivesNoEmail%0,              Piatti%Alessandra%coreGivesNoEmail%0,              Ranieri%Marco Vito%coreGivesNoEmail%0,              Scandroglio%Anna Mara%coreGivesNoEmail%0,              Storti%Enrico%coreGivesNoEmail%0,              Zanella%Alberto%coreGivesNoEmail%0,              Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                Mikael%Chetboun%NULL%1,                Julien%Poissy%NULL%1,                Violeta%Raverdy%NULL%1,                Jerome%Noulette%NULL%2,                Jerome%Noulette%NULL%0,                Alain%Duhamel%NULL%0,                Julien%Labreuche%NULL%0,                Daniel%Mathieu%NULL%2,                Francois%Pattou%francois.pattou@univ-lille.fr%1,                Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,                Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                Robert%Caizzo%NULL%2,                Robert%Caizzo%NULL%0,                Morgan%Caplan%NULL%1,                Nicolas%Cousin%NULL%1,                Thibault%Duburcq%NULL%1,                Arthur%Durand%NULL%1,                Ahmed%El kalioubie%NULL%1,                Raphael%Favory%NULL%1,                Bruno%Garcia%NULL%1,                Patrick%Girardie%NULL%1,                Julien%Goutay%NULL%1,                Marion%Houard%NULL%1,                Emmanuelle%Jaillette%NULL%1,                Nicolas%Kostuj%NULL%1,                Geoffrey%Ledoux%NULL%1,                Daniel%Mathieu%NULL%0,                Anne Sophie%Moreau%NULL%1,                Christopher%Niles%NULL%1,                Saad%Nseir%NULL%1,                Thierry%Onimus%NULL%1,                Erika%Parmentier%NULL%1,                Sebastien%Préau%NULL%1,                Laurent%Robriquet%NULL%1,                Anahita%Rouze%NULL%1,                Sophie%Six%NULL%1,                Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,        Eric%Yim%xref no email%0,        Lindy%Klaff%xref no email%0,        Sharukh%Lokhandwala%xref no email%0,        Francis X.%Riedo%xref no email%0,        Maria%Chong%xref no email%0,        Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                Samuel L%Bruce%NULL%1,                Cody L%Slater%NULL%1,                Jonathan R%Tiao%NULL%1,                Matthew R%Baldwin%NULL%2,                R Graham%Barr%NULL%1,                Bernard P%Chang%NULL%1,                Katherine H%Chau%NULL%1,                Justin J%Choi%NULL%1,                Nicholas%Gavin%NULL%1,                Parag%Goyal%NULL%1,                Angela M%Mills%NULL%1,                Ashmi A%Patel%NULL%1,                Marie-Laure S%Romney%NULL%1,                Monika M%Safford%NULL%1,                Neil W%Schluger%NULL%1,                Soumitra%Sengupta%NULL%1,                Magdalena E%Sobieszczyk%NULL%1,                Jason E%Zucker%NULL%1,                Paul A%Asadourian%NULL%1,                Fletcher M%Bell%NULL%1,                Rebekah%Boyd%NULL%1,                Matthew F%Cohen%NULL%1,                MacAlistair I%Colquhoun%NULL%1,                Lucy A%Colville%NULL%1,                Joseph H%de Jonge%NULL%1,                Lyle B%Dershowitz%NULL%1,                Shirin A%Dey%NULL%1,                Katherine A%Eiseman%NULL%1,                Zachary P%Girvin%NULL%1,                Daniella T%Goni%NULL%1,                Amro A%Harb%NULL%1,                Nicholas%Herzik%NULL%1,                Sarah%Householder%NULL%1,                Lara E%Karaaslan%NULL%1,                Heather%Lee%NULL%1,                Evan%Lieberman%NULL%1,                Andrew%Ling%NULL%1,                Ree%Lu%NULL%1,                Arthur Y%Shou%NULL%1,                Alexander C%Sisti%NULL%1,                Zachary E%Snow%NULL%1,                Colin P%Sperring%NULL%1,                Yuqing%Xiong%NULL%1,                Henry W%Zhou%NULL%1,                Karthik%Natarajan%NULL%1,                George%Hripcsak%NULL%1,                Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                Mark%Caridi-Scheible%NULL%0,                James M.%Blum%NULL%0,                Chad%Robichaux%NULL%0,                Colleen%Kraft%NULL%0,                Jesse T.%Jacob%NULL%0,                Craig S.%Jabaley%NULL%0,                David%Carpenter%NULL%0,                Roberta%Kaplow%NULL%0,                Alfonso C.%Hernandez-Romieu%NULL%0,                Max W.%Adelman%NULL%0,                Greg S.%Martin%NULL%0,                Craig M.%Coopersmith%NULL%0,                David J.%Murphy%NULL%0,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                Bijan J.%Ghassemieh%NULL%0,                Michelle%Nichols%NULL%0,                Richard%Kim%NULL%0,                Keith R.%Jerome%NULL%0,                Arun K.%Nalla%NULL%0,                Alexander L.%Greninger%NULL%0,                Sudhakar%Pipavath%NULL%0,                Mark M.%Wurfel%NULL%0,                Laura%Evans%NULL%0,                Patricia A.%Kritek%NULL%0,                T. Eoin%West%NULL%0,                Andrew%Luks%NULL%0,                Anthony%Gerbino%NULL%0,                Chris R.%Dale%NULL%0,                Jason D.%Goldman%NULL%0,                Shane%O’Mahony%NULL%0,                Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura C.%Myers%xref no email%1,        Stephen M.%Parodi%xref no email%1,        Gabriel J.%Escobar%xref no email%1,        Vincent X.%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,              Becker%L.B.%coreGivesNoEmail%0,              Chelico%J.D.%coreGivesNoEmail%0,              Cohen%S.L.%coreGivesNoEmail%0,              Cookingham%J.%coreGivesNoEmail%0,              Coppa%K.%coreGivesNoEmail%0,              Crawford%J.M.%coreGivesNoEmail%0,              Davidson%K.W.%coreGivesNoEmail%0,              Diefenbach%M.A.%coreGivesNoEmail%0,              Dominello%A.J.%coreGivesNoEmail%0,              Duer-Hefele%J.%coreGivesNoEmail%0,              Falzon%L.%coreGivesNoEmail%0,              Gitlin%J.%coreGivesNoEmail%0,              Hajizadeh%N.%coreGivesNoEmail%0,              Harvin%T.G.%coreGivesNoEmail%0,              Hirsch%J.S.%coreGivesNoEmail%0,              Hirschwerk%D.A.%coreGivesNoEmail%0,              Kim%E.J.%coreGivesNoEmail%0,              Kozel%Z.M.%coreGivesNoEmail%0,              Marrast%L.M.%coreGivesNoEmail%0,              McGinn%T.%coreGivesNoEmail%0,              Mogavero%J.N.%coreGivesNoEmail%0,              Narasimhan%M.%coreGivesNoEmail%0,              Osorio%G.A.%coreGivesNoEmail%0,              Qiu%M.%coreGivesNoEmail%0,              Richardson%S.%coreGivesNoEmail%0,              Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,                Jehan%Alladina%NULL%2,                Jehan%Alladina%NULL%0,                Camille R.%Petri%NULL%2,                Camille R.%Petri%NULL%0,                Jason H.%Maley%NULL%2,                Jason H.%Maley%NULL%0,                Ari%Moskowitz%NULL%1,                Benjamin D.%Medoff%NULL%1,                Kathryn A.%Hibbert%NULL%2,                Kathryn A.%Hibbert%NULL%0,                B. Taylor%Thompson%NULL%1,                C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,                Adam J%Russak%NULL%2,                Adam J%Russak%NULL%0,                Jessica K%De Freitas%NULL%1,                Anuradha%Lala%NULL%1,                Riccardo%Miotto%NULL%1,                Akhil%Vaid%NULL%1,                Kipp W%Johnson%NULL%1,                Matteo%Danieletto%NULL%1,                Eddye%Golden%NULL%1,                Dara%Meyer%NULL%1,                Manbir%Singh%NULL%1,                Sulaiman%Somani%NULL%1,                Arjun%Kapoor%NULL%1,                Ross%O'Hagan%NULL%1,                Sayan%Manna%NULL%1,                Udit%Nangia%NULL%1,                Suraj K%Jaladanki%NULL%1,                Paul%O’Reilly%NULL%2,                Paul%O’Reilly%NULL%0,                Laura M%Huckins%NULL%1,                Patricia%Glowe%NULL%1,                Arash%Kia%NULL%1,                Prem%Timsina%NULL%1,                Robert M%Freeman%NULL%1,                Matthew A%Levin%NULL%1,                Jeffrey%Jhang%NULL%1,                Adolfo%Firpo%NULL%1,                Patricia%Kovatch%NULL%1,                Joseph%Finkelstein%NULL%1,                Judith A%Aberg%NULL%1,                Emilia%Bagiella%NULL%1,                Carol R%Horowitz%NULL%1,                Barbara%Murphy%NULL%1,                Zahi A%Fayad%NULL%1,                Jagat%Narula%NULL%1,                Eric J%Nestler%NULL%1,                V%Fuster%NULL%1,                Carlos%Cordon-Cardo%NULL%1,                Dennis%Charney%NULL%1,                David L%Reich%NULL%1,                Allan%Just%NULL%1,                Erwin P%Bottinger%NULL%1,                Alexander W%Charney%NULL%1,                Benjamin S%Glicksberg%NULL%1,                Girish N%Nadkarni%NULL%1,                NULL%NULL%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2054,7 +2123,7 @@
         <v>382</v>
       </c>
       <c r="E2" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -2083,7 +2152,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -2112,7 +2181,7 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -2141,7 +2210,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -2170,7 +2239,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -2199,7 +2268,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -2228,7 +2297,7 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -2257,7 +2326,7 @@
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -2286,7 +2355,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -2315,7 +2384,7 @@
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="F11" t="s">
         <v>90</v>
@@ -2344,7 +2413,7 @@
         <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -2373,7 +2442,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -2402,7 +2471,7 @@
         <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -2431,7 +2500,7 @@
         <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -2460,7 +2529,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -2489,7 +2558,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -2518,7 +2587,7 @@
         <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="F18" t="s">
         <v>112</v>
@@ -2547,7 +2616,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -2576,7 +2645,7 @@
         <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
@@ -2605,7 +2674,7 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
@@ -2634,7 +2703,7 @@
         <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -2663,7 +2732,7 @@
         <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="F23" t="s">
         <v>124</v>
@@ -2692,7 +2761,7 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="F24" t="s">
         <v>128</v>

--- a/Covid_19_Dataset_and_References/References/71.xlsx
+++ b/Covid_19_Dataset_and_References/References/71.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2816" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="522">
   <si>
     <t>Doi</t>
   </si>
@@ -1752,6 +1752,144 @@
   </si>
   <si>
     <t>[Ishan%Paranjpe%NULL%0,                Adam J%Russak%NULL%2,                Adam J%Russak%NULL%0,                Jessica K%De Freitas%NULL%1,                Anuradha%Lala%NULL%1,                Riccardo%Miotto%NULL%1,                Akhil%Vaid%NULL%1,                Kipp W%Johnson%NULL%1,                Matteo%Danieletto%NULL%1,                Eddye%Golden%NULL%1,                Dara%Meyer%NULL%1,                Manbir%Singh%NULL%1,                Sulaiman%Somani%NULL%1,                Arjun%Kapoor%NULL%1,                Ross%O'Hagan%NULL%1,                Sayan%Manna%NULL%1,                Udit%Nangia%NULL%1,                Suraj K%Jaladanki%NULL%1,                Paul%O’Reilly%NULL%2,                Paul%O’Reilly%NULL%0,                Laura M%Huckins%NULL%1,                Patricia%Glowe%NULL%1,                Arash%Kia%NULL%1,                Prem%Timsina%NULL%1,                Robert M%Freeman%NULL%1,                Matthew A%Levin%NULL%1,                Jeffrey%Jhang%NULL%1,                Adolfo%Firpo%NULL%1,                Patricia%Kovatch%NULL%1,                Joseph%Finkelstein%NULL%1,                Judith A%Aberg%NULL%1,                Emilia%Bagiella%NULL%1,                Carol R%Horowitz%NULL%1,                Barbara%Murphy%NULL%1,                Zahi A%Fayad%NULL%1,                Jagat%Narula%NULL%1,                Eric J%Nestler%NULL%1,                V%Fuster%NULL%1,                Carlos%Cordon-Cardo%NULL%1,                Dennis%Charney%NULL%1,                David L%Reich%NULL%1,                Allan%Just%NULL%1,                Erwin P%Bottinger%NULL%1,                Alexander W%Charney%NULL%1,                Benjamin S%Glicksberg%NULL%1,                Girish N%Nadkarni%NULL%1,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,                 Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,                 Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,                 Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,                 Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,                 Bruno%Riou%bruno.riou@aphp.fr%2,                 Bruno%Riou%bruno.riou@aphp.fr%0,                 Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                 Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                 Gilles%Hejblum%gilles.hejblum@inserm.fr%2,                 Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,                 Peiyun%Li%NULL%1,                 Liang%Ma%NULL%1,                 Hang%Liang%NULL%1,                 Jie%Lei%NULL%0,                 Wenqiang%Li%NULL%1,                 Kun%Wang%NULL%0,                 Yu%Song%NULL%1,                 Shuai%Li%NULL%1,                 Wei%Yang%NULL%1,                 Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,                  C.% Hong%null%1,                  J.% Meng%null%1,                  Z.% Wu%null%1,                  P.% Zhou%null%1,                  C.% Ye%null%1,                  B.% Sun%null%1,                  L. M.% Kucirka%null%1,                  A. S.% Azman%null%1,                  T.% Wang%null%0,                  J.% Chen%null%1,                  Z.% Wang%null%1,                  L.% Liu%null%0,                  J.% Lessler%null%1,                  J. K.% Edwards%null%1,                  T.% Ma%null%1,                  G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                 Ting%Yu%NULL%0,                 Ronghui%Du%NULL%0,                 Guohui%Fan%NULL%0,                 Ying%Liu%NULL%0,                 Zhibo%Liu%NULL%0,                 Jie%Xiang%NULL%0,                 Yeming%Wang%NULL%0,                 Bin%Song%NULL%0,                 Xiaoying%Gu%NULL%0,                 Lulu%Guan%NULL%0,                 Yuan%Wei%NULL%0,                 Hui%Li%NULL%0,                 Xudong%Wu%NULL%0,                 Jiuyang%Xu%NULL%0,                 Shengjin%Tu%NULL%0,                 Yi%Zhang%NULL%0,                 Hua%Chen%NULL%0,                 Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,                 Zhiheng%Xu%NULL%1,                 Xuesong%Liu%NULL%1,                 Lihua%Cai%NULL%1,                 Haichong%Zheng%NULL%1,                 Yongbo%Huang%NULL%1,                 Lixin%Zhou%NULL%1,                 Linxi%Huang%NULL%1,                 Yun%Ling%NULL%0,                 Liehua%Deng%NULL%1,                 Jianwei%Li%NULL%0,                 Sibei%Chen%NULL%1,                 Dongdong%Liu%NULL%1,                 Zhimin%Lin%NULL%1,                 Liang%Zhou%NULL%1,                 Weiqun%He%NULL%1,                 Nanshan%Zhong%NULL%0,                 Xiaoqing%Liu%NULL%3,                 Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,                 Li-jun%Sun%NULL%1,                 Mi%Xu%NULL%1,                 Jian%Pan%NULL%1,                 Yun-tao%Zhang%NULL%1,                 Xue-ling%Fang%NULL%1,                 Qiang%Fang%NULL%1,                 Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                 Li-Min%Liu%NULL%2,                 Wen%Yin%NULL%0,                 Wen%Wang%NULL%0,                 Lu-Lu%Guan%NULL%2,                 Ming-Li%Yuan%NULL%0,                 Yu-Lei%Li%NULL%2,                 Yi%Hu%NULL%0,                 Xu-Yan%Li%NULL%0,                 Bing%Sun%NULL%2,                 Peng%Peng%NULL%0,                 Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                 Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                 Wenlin%Cheng%NULL%0,                 Lei%Yu%NULL%0,                 Ya-Kun%Liu%NULL%0,                 Xiaoyong%Hu%NULL%0,                 Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                 Zheng-yi%Ni%NULL%0,                 Zheng-yi%Ni%NULL%0,                 Yu%Hu%NULL%0,                 Wen-hua%Liang%NULL%0,                 Chun-quan%Ou%NULL%0,                 Jian-xing%He%NULL%0,                 Lei%Liu%NULL%0,                 Hong%Shan%NULL%0,                 Chun-liang%Lei%NULL%0,                 David S.C.%Hui%NULL%0,                 Bin%Du%NULL%0,                 Lan-juan%Li%NULL%0,                 Guang%Zeng%NULL%0,                 Kwok-Yung%Yuen%NULL%0,                 Ru-chong%Chen%NULL%0,                 Chun-li%Tang%NULL%0,                 Tao%Wang%NULL%0,                 Ping-yan%Chen%NULL%0,                 Jie%Xiang%NULL%0,                 Shi-yue%Li%NULL%0,                 Jin-lin%Wang%NULL%0,                 Zi-jing%Liang%NULL%0,                 Yi-xiang%Peng%NULL%0,                 Li%Wei%NULL%0,                 Yong%Liu%NULL%0,                 Ya-hua%Hu%NULL%0,                 Peng%Peng%NULL%0,                 Jian-ming%Wang%NULL%0,                 Ji-yang%Liu%NULL%0,                 Zhong%Chen%NULL%0,                 Gang%Li%NULL%0,                 Zhi-jian%Zheng%NULL%0,                 Shao-qin%Qiu%NULL%0,                 Jie%Luo%NULL%0,                 Chang-jiang%Ye%NULL%0,                 Shao-yong%Zhu%NULL%0,                 Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                 Fang%Jiang%NULL%0,                 Wating%Su%NULL%2,                 Chang%Chen%NULL%2,                 Jingli%Chen%NULL%2,                 Wei%Mei%NULL%2,                 Li-Ying%Zhan%NULL%2,                 Yifan%Jia%NULL%2,                 Liangqing%Zhang%NULL%2,                 Danyong%Liu%NULL%2,                 Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,                 Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                 Yuan%Yu%NULL%0,                 Jiqian%Xu%NULL%0,                 Huaqing%Shu%NULL%0,                 Jia'an%Xia%NULL%0,                 Hong%Liu%NULL%0,                 Yongran%Wu%NULL%0,                 Lu%Zhang%NULL%0,                 Zhui%Yu%NULL%0,                 Minghao%Fang%NULL%0,                 Ting%Yu%NULL%0,                 Yaxin%Wang%NULL%0,                 Shangwen%Pan%NULL%0,                 Xiaojing%Zou%NULL%0,                 Shiying%Yuan%NULL%0,                 You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                 Yeming%Wang%NULL%0,                 Xingwang%Li%NULL%0,                 Lili%Ren%NULL%0,                 Jianping%Zhao%NULL%0,                 Yi%Hu%NULL%0,                 Li%Zhang%NULL%0,                 Guohui%Fan%NULL%0,                 Jiuyang%Xu%NULL%0,                 Xiaoying%Gu%NULL%0,                 Zhenshun%Cheng%NULL%0,                 Ting%Yu%NULL%0,                 Jiaan%Xia%NULL%0,                 Yuan%Wei%NULL%0,                 Wenjuan%Wu%NULL%0,                 Xuelei%Xie%NULL%0,                 Wen%Yin%NULL%0,                 Hui%Li%NULL%0,                 Min%Liu%NULL%0,                 Yan%Xiao%NULL%0,                 Hong%Gao%NULL%0,                 Li%Guo%NULL%0,                 Jungang%Xie%NULL%0,                 Guangfa%Wang%NULL%0,                 Rongmeng%Jiang%NULL%0,                 Zhancheng%Gao%NULL%0,                 Qi%Jin%NULL%0,                 Jianwei%Wang%wangjw28@163.com%0,                 Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,                 Xiaofan%Lu%NULL%1,                 Yongsheng%Li%NULL%2,                 Yongsheng%Li%NULL%0,                 Hui%Chen%NULL%0,                 Taige%Chen%NULL%1,                 Nan%Su%NULL%1,                 Fang%Huang%NULL%1,                 Jing%Zhou%NULL%0,                 Bing%Zhang%NULL%1,                 Fangrong%Yan%NULL%2,                 Fangrong%Yan%NULL%0,                 Jun%Wang%NULL%2,                 Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,               Cabrini%Luca%coreGivesNoEmail%0,               Castelli%Antonio%coreGivesNoEmail%0,               Cecconi%Maurizio%coreGivesNoEmail%0,               Cereda%Danilo%coreGivesNoEmail%0,               Coluccello%Antonio%coreGivesNoEmail%0,               Foti%Giuseppe%coreGivesNoEmail%0,               Fumagalli%Roberto%coreGivesNoEmail%0,               Grasselli%Giacomo%coreGivesNoEmail%0,               Iotti%Giorgio%coreGivesNoEmail%0,               Latronico%Nicola%coreGivesNoEmail%0,               Lorini%Luca%coreGivesNoEmail%0,               Merler%Stefano%coreGivesNoEmail%0,               Natalini%Giuseppe%coreGivesNoEmail%0,               Pesenti%Antonio%coreGivesNoEmail%0,               Piatti%Alessandra%coreGivesNoEmail%0,               Ranieri%Marco Vito%coreGivesNoEmail%0,               Scandroglio%Anna Mara%coreGivesNoEmail%0,               Storti%Enrico%coreGivesNoEmail%0,               Zanella%Alberto%coreGivesNoEmail%0,               Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                 Mikael%Chetboun%NULL%1,                 Julien%Poissy%NULL%1,                 Violeta%Raverdy%NULL%1,                 Jerome%Noulette%NULL%2,                 Jerome%Noulette%NULL%0,                 Alain%Duhamel%NULL%0,                 Julien%Labreuche%NULL%0,                 Daniel%Mathieu%NULL%2,                 Francois%Pattou%francois.pattou@univ-lille.fr%1,                 Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,                 Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                 Robert%Caizzo%NULL%2,                 Robert%Caizzo%NULL%0,                 Morgan%Caplan%NULL%1,                 Nicolas%Cousin%NULL%1,                 Thibault%Duburcq%NULL%1,                 Arthur%Durand%NULL%1,                 Ahmed%El kalioubie%NULL%1,                 Raphael%Favory%NULL%1,                 Bruno%Garcia%NULL%1,                 Patrick%Girardie%NULL%1,                 Julien%Goutay%NULL%1,                 Marion%Houard%NULL%1,                 Emmanuelle%Jaillette%NULL%1,                 Nicolas%Kostuj%NULL%1,                 Geoffrey%Ledoux%NULL%1,                 Daniel%Mathieu%NULL%0,                 Anne Sophie%Moreau%NULL%1,                 Christopher%Niles%NULL%1,                 Saad%Nseir%NULL%1,                 Thierry%Onimus%NULL%1,                 Erika%Parmentier%NULL%1,                 Sebastien%Préau%NULL%1,                 Laurent%Robriquet%NULL%1,                 Anahita%Rouze%NULL%1,                 Sophie%Six%NULL%1,                 Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,         Eric%Yim%xref no email%0,         Lindy%Klaff%xref no email%0,         Sharukh%Lokhandwala%xref no email%0,         Francis X.%Riedo%xref no email%0,         Maria%Chong%xref no email%0,         Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                 Samuel L%Bruce%NULL%1,                 Cody L%Slater%NULL%1,                 Jonathan R%Tiao%NULL%1,                 Matthew R%Baldwin%NULL%2,                 R Graham%Barr%NULL%1,                 Bernard P%Chang%NULL%1,                 Katherine H%Chau%NULL%1,                 Justin J%Choi%NULL%1,                 Nicholas%Gavin%NULL%1,                 Parag%Goyal%NULL%1,                 Angela M%Mills%NULL%1,                 Ashmi A%Patel%NULL%1,                 Marie-Laure S%Romney%NULL%1,                 Monika M%Safford%NULL%1,                 Neil W%Schluger%NULL%1,                 Soumitra%Sengupta%NULL%1,                 Magdalena E%Sobieszczyk%NULL%1,                 Jason E%Zucker%NULL%1,                 Paul A%Asadourian%NULL%1,                 Fletcher M%Bell%NULL%1,                 Rebekah%Boyd%NULL%1,                 Matthew F%Cohen%NULL%1,                 MacAlistair I%Colquhoun%NULL%1,                 Lucy A%Colville%NULL%1,                 Joseph H%de Jonge%NULL%1,                 Lyle B%Dershowitz%NULL%1,                 Shirin A%Dey%NULL%1,                 Katherine A%Eiseman%NULL%1,                 Zachary P%Girvin%NULL%1,                 Daniella T%Goni%NULL%1,                 Amro A%Harb%NULL%1,                 Nicholas%Herzik%NULL%1,                 Sarah%Householder%NULL%1,                 Lara E%Karaaslan%NULL%1,                 Heather%Lee%NULL%1,                 Evan%Lieberman%NULL%1,                 Andrew%Ling%NULL%1,                 Ree%Lu%NULL%1,                 Arthur Y%Shou%NULL%1,                 Alexander C%Sisti%NULL%1,                 Zachary E%Snow%NULL%1,                 Colin P%Sperring%NULL%1,                 Yuqing%Xiong%NULL%1,                 Henry W%Zhou%NULL%1,                 Karthik%Natarajan%NULL%1,                 George%Hripcsak%NULL%1,                 Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                 Mark%Caridi-Scheible%NULL%0,                 James M.%Blum%NULL%0,                 Chad%Robichaux%NULL%0,                 Colleen%Kraft%NULL%0,                 Jesse T.%Jacob%NULL%0,                 Craig S.%Jabaley%NULL%0,                 David%Carpenter%NULL%0,                 Roberta%Kaplow%NULL%0,                 Alfonso C.%Hernandez-Romieu%NULL%0,                 Max W.%Adelman%NULL%0,                 Greg S.%Martin%NULL%0,                 Craig M.%Coopersmith%NULL%0,                 David J.%Murphy%NULL%0,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                 Bijan J.%Ghassemieh%NULL%0,                 Michelle%Nichols%NULL%0,                 Richard%Kim%NULL%0,                 Keith R.%Jerome%NULL%0,                 Arun K.%Nalla%NULL%0,                 Alexander L.%Greninger%NULL%0,                 Sudhakar%Pipavath%NULL%0,                 Mark M.%Wurfel%NULL%0,                 Laura%Evans%NULL%0,                 Patricia A.%Kritek%NULL%0,                 T. Eoin%West%NULL%0,                 Andrew%Luks%NULL%0,                 Anthony%Gerbino%NULL%0,                 Chris R.%Dale%NULL%0,                 Jason D.%Goldman%NULL%0,                 Shane%O’Mahony%NULL%0,                 Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura C.%Myers%xref no email%1,         Stephen M.%Parodi%xref no email%1,         Gabriel J.%Escobar%xref no email%1,         Vincent X.%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,               Becker%L.B.%coreGivesNoEmail%0,               Chelico%J.D.%coreGivesNoEmail%0,               Cohen%S.L.%coreGivesNoEmail%0,               Cookingham%J.%coreGivesNoEmail%0,               Coppa%K.%coreGivesNoEmail%0,               Crawford%J.M.%coreGivesNoEmail%0,               Davidson%K.W.%coreGivesNoEmail%0,               Diefenbach%M.A.%coreGivesNoEmail%0,               Dominello%A.J.%coreGivesNoEmail%0,               Duer-Hefele%J.%coreGivesNoEmail%0,               Falzon%L.%coreGivesNoEmail%0,               Gitlin%J.%coreGivesNoEmail%0,               Hajizadeh%N.%coreGivesNoEmail%0,               Harvin%T.G.%coreGivesNoEmail%0,               Hirsch%J.S.%coreGivesNoEmail%0,               Hirschwerk%D.A.%coreGivesNoEmail%0,               Kim%E.J.%coreGivesNoEmail%0,               Kozel%Z.M.%coreGivesNoEmail%0,               Marrast%L.M.%coreGivesNoEmail%0,               McGinn%T.%coreGivesNoEmail%0,               Mogavero%J.N.%coreGivesNoEmail%0,               Narasimhan%M.%coreGivesNoEmail%0,               Osorio%G.A.%coreGivesNoEmail%0,               Qiu%M.%coreGivesNoEmail%0,               Richardson%S.%coreGivesNoEmail%0,               Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,                 Jehan%Alladina%NULL%2,                 Jehan%Alladina%NULL%0,                 Camille R.%Petri%NULL%2,                 Camille R.%Petri%NULL%0,                 Jason H.%Maley%NULL%2,                 Jason H.%Maley%NULL%0,                 Ari%Moskowitz%NULL%1,                 Benjamin D.%Medoff%NULL%1,                 Kathryn A.%Hibbert%NULL%2,                 Kathryn A.%Hibbert%NULL%0,                 B. Taylor%Thompson%NULL%1,                 C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,                 Adam J%Russak%NULL%2,                 Adam J%Russak%NULL%0,                 Jessica K%De Freitas%NULL%1,                 Anuradha%Lala%NULL%1,                 Riccardo%Miotto%NULL%1,                 Akhil%Vaid%NULL%1,                 Kipp W%Johnson%NULL%1,                 Matteo%Danieletto%NULL%1,                 Eddye%Golden%NULL%1,                 Dara%Meyer%NULL%1,                 Manbir%Singh%NULL%1,                 Sulaiman%Somani%NULL%1,                 Arjun%Kapoor%NULL%1,                 Ross%O'Hagan%NULL%1,                 Sayan%Manna%NULL%1,                 Udit%Nangia%NULL%1,                 Suraj K%Jaladanki%NULL%1,                 Paul%O’Reilly%NULL%2,                 Paul%O’Reilly%NULL%0,                 Laura M%Huckins%NULL%1,                 Patricia%Glowe%NULL%1,                 Arash%Kia%NULL%1,                 Prem%Timsina%NULL%1,                 Robert M%Freeman%NULL%1,                 Matthew A%Levin%NULL%1,                 Jeffrey%Jhang%NULL%1,                 Adolfo%Firpo%NULL%1,                 Patricia%Kovatch%NULL%1,                 Joseph%Finkelstein%NULL%1,                 Judith A%Aberg%NULL%1,                 Emilia%Bagiella%NULL%1,                 Carol R%Horowitz%NULL%1,                 Barbara%Murphy%NULL%1,                 Zahi A%Fayad%NULL%1,                 Jagat%Narula%NULL%1,                 Eric J%Nestler%NULL%1,                 V%Fuster%NULL%1,                 Carlos%Cordon-Cardo%NULL%1,                 Dennis%Charney%NULL%1,                 David L%Reich%NULL%1,                 Allan%Just%NULL%1,                 Erwin P%Bottinger%NULL%1,                 Alexander W%Charney%NULL%1,                 Benjamin S%Glicksberg%NULL%1,                 Girish N%Nadkarni%NULL%1,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,                  Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,                  Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,                  Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,                  Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,                  Bruno%Riou%bruno.riou@aphp.fr%2,                  Bruno%Riou%bruno.riou@aphp.fr%0,                  Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                  Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                  Gilles%Hejblum%gilles.hejblum@inserm.fr%2,                  Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,                  Peiyun%Li%NULL%1,                  Liang%Ma%NULL%1,                  Hang%Liang%NULL%1,                  Jie%Lei%NULL%0,                  Wenqiang%Li%NULL%1,                  Kun%Wang%NULL%0,                  Yu%Song%NULL%1,                  Shuai%Li%NULL%1,                  Wei%Yang%NULL%1,                  Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,                   C.% Hong%null%1,                   J.% Meng%null%1,                   Z.% Wu%null%1,                   P.% Zhou%null%1,                   C.% Ye%null%1,                   B.% Sun%null%1,                   L. M.% Kucirka%null%1,                   A. S.% Azman%null%1,                   T.% Wang%null%0,                   J.% Chen%null%1,                   Z.% Wang%null%1,                   L.% Liu%null%0,                   J.% Lessler%null%1,                   J. K.% Edwards%null%1,                   T.% Ma%null%1,                   G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                  Ting%Yu%NULL%0,                  Ronghui%Du%NULL%0,                  Guohui%Fan%NULL%0,                  Ying%Liu%NULL%0,                  Zhibo%Liu%NULL%0,                  Jie%Xiang%NULL%0,                  Yeming%Wang%NULL%0,                  Bin%Song%NULL%0,                  Xiaoying%Gu%NULL%0,                  Lulu%Guan%NULL%0,                  Yuan%Wei%NULL%0,                  Hui%Li%NULL%0,                  Xudong%Wu%NULL%0,                  Jiuyang%Xu%NULL%0,                  Shengjin%Tu%NULL%0,                  Yi%Zhang%NULL%0,                  Hua%Chen%NULL%0,                  Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,                  Zhiheng%Xu%NULL%1,                  Xuesong%Liu%NULL%1,                  Lihua%Cai%NULL%1,                  Haichong%Zheng%NULL%1,                  Yongbo%Huang%NULL%1,                  Lixin%Zhou%NULL%1,                  Linxi%Huang%NULL%1,                  Yun%Ling%NULL%0,                  Liehua%Deng%NULL%1,                  Jianwei%Li%NULL%0,                  Sibei%Chen%NULL%1,                  Dongdong%Liu%NULL%1,                  Zhimin%Lin%NULL%1,                  Liang%Zhou%NULL%1,                  Weiqun%He%NULL%1,                  Nanshan%Zhong%NULL%0,                  Xiaoqing%Liu%NULL%3,                  Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,                  Li-jun%Sun%NULL%1,                  Mi%Xu%NULL%1,                  Jian%Pan%NULL%1,                  Yun-tao%Zhang%NULL%1,                  Xue-ling%Fang%NULL%1,                  Qiang%Fang%NULL%1,                  Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                  Li-Min%Liu%NULL%2,                  Wen%Yin%NULL%0,                  Wen%Wang%NULL%0,                  Lu-Lu%Guan%NULL%2,                  Ming-Li%Yuan%NULL%0,                  Yu-Lei%Li%NULL%2,                  Yi%Hu%NULL%0,                  Xu-Yan%Li%NULL%0,                  Bing%Sun%NULL%2,                  Peng%Peng%NULL%0,                  Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                  Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                  Wenlin%Cheng%NULL%0,                  Lei%Yu%NULL%0,                  Ya-Kun%Liu%NULL%0,                  Xiaoyong%Hu%NULL%0,                  Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                  Zheng-yi%Ni%NULL%0,                  Zheng-yi%Ni%NULL%0,                  Yu%Hu%NULL%0,                  Wen-hua%Liang%NULL%0,                  Chun-quan%Ou%NULL%0,                  Jian-xing%He%NULL%0,                  Lei%Liu%NULL%0,                  Hong%Shan%NULL%0,                  Chun-liang%Lei%NULL%0,                  David S.C.%Hui%NULL%0,                  Bin%Du%NULL%0,                  Lan-juan%Li%NULL%0,                  Guang%Zeng%NULL%0,                  Kwok-Yung%Yuen%NULL%0,                  Ru-chong%Chen%NULL%0,                  Chun-li%Tang%NULL%0,                  Tao%Wang%NULL%0,                  Ping-yan%Chen%NULL%0,                  Jie%Xiang%NULL%0,                  Shi-yue%Li%NULL%0,                  Jin-lin%Wang%NULL%0,                  Zi-jing%Liang%NULL%0,                  Yi-xiang%Peng%NULL%0,                  Li%Wei%NULL%0,                  Yong%Liu%NULL%0,                  Ya-hua%Hu%NULL%0,                  Peng%Peng%NULL%0,                  Jian-ming%Wang%NULL%0,                  Ji-yang%Liu%NULL%0,                  Zhong%Chen%NULL%0,                  Gang%Li%NULL%0,                  Zhi-jian%Zheng%NULL%0,                  Shao-qin%Qiu%NULL%0,                  Jie%Luo%NULL%0,                  Chang-jiang%Ye%NULL%0,                  Shao-yong%Zhu%NULL%0,                  Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                  Fang%Jiang%NULL%0,                  Wating%Su%NULL%2,                  Chang%Chen%NULL%2,                  Jingli%Chen%NULL%2,                  Wei%Mei%NULL%2,                  Li-Ying%Zhan%NULL%2,                  Yifan%Jia%NULL%2,                  Liangqing%Zhang%NULL%2,                  Danyong%Liu%NULL%2,                  Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,                  Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                  Yuan%Yu%NULL%0,                  Jiqian%Xu%NULL%0,                  Huaqing%Shu%NULL%0,                  Jia'an%Xia%NULL%0,                  Hong%Liu%NULL%0,                  Yongran%Wu%NULL%0,                  Lu%Zhang%NULL%0,                  Zhui%Yu%NULL%0,                  Minghao%Fang%NULL%0,                  Ting%Yu%NULL%0,                  Yaxin%Wang%NULL%0,                  Shangwen%Pan%NULL%0,                  Xiaojing%Zou%NULL%0,                  Shiying%Yuan%NULL%0,                  You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                  Yeming%Wang%NULL%0,                  Xingwang%Li%NULL%0,                  Lili%Ren%NULL%0,                  Jianping%Zhao%NULL%0,                  Yi%Hu%NULL%0,                  Li%Zhang%NULL%0,                  Guohui%Fan%NULL%0,                  Jiuyang%Xu%NULL%0,                  Xiaoying%Gu%NULL%0,                  Zhenshun%Cheng%NULL%0,                  Ting%Yu%NULL%0,                  Jiaan%Xia%NULL%0,                  Yuan%Wei%NULL%0,                  Wenjuan%Wu%NULL%0,                  Xuelei%Xie%NULL%0,                  Wen%Yin%NULL%0,                  Hui%Li%NULL%0,                  Min%Liu%NULL%0,                  Yan%Xiao%NULL%0,                  Hong%Gao%NULL%0,                  Li%Guo%NULL%0,                  Jungang%Xie%NULL%0,                  Guangfa%Wang%NULL%0,                  Rongmeng%Jiang%NULL%0,                  Zhancheng%Gao%NULL%0,                  Qi%Jin%NULL%0,                  Jianwei%Wang%wangjw28@163.com%0,                  Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,                  Xiaofan%Lu%NULL%1,                  Yongsheng%Li%NULL%2,                  Yongsheng%Li%NULL%0,                  Hui%Chen%NULL%0,                  Taige%Chen%NULL%1,                  Nan%Su%NULL%1,                  Fang%Huang%NULL%1,                  Jing%Zhou%NULL%0,                  Bing%Zhang%NULL%1,                  Fangrong%Yan%NULL%2,                  Fangrong%Yan%NULL%0,                  Jun%Wang%NULL%2,                  Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                Cabrini%Luca%coreGivesNoEmail%0,                Castelli%Antonio%coreGivesNoEmail%0,                Cecconi%Maurizio%coreGivesNoEmail%0,                Cereda%Danilo%coreGivesNoEmail%0,                Coluccello%Antonio%coreGivesNoEmail%0,                Foti%Giuseppe%coreGivesNoEmail%0,                Fumagalli%Roberto%coreGivesNoEmail%0,                Grasselli%Giacomo%coreGivesNoEmail%0,                Iotti%Giorgio%coreGivesNoEmail%0,                Latronico%Nicola%coreGivesNoEmail%0,                Lorini%Luca%coreGivesNoEmail%0,                Merler%Stefano%coreGivesNoEmail%0,                Natalini%Giuseppe%coreGivesNoEmail%0,                Pesenti%Antonio%coreGivesNoEmail%0,                Piatti%Alessandra%coreGivesNoEmail%0,                Ranieri%Marco Vito%coreGivesNoEmail%0,                Scandroglio%Anna Mara%coreGivesNoEmail%0,                Storti%Enrico%coreGivesNoEmail%0,                Zanella%Alberto%coreGivesNoEmail%0,                Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                  Mikael%Chetboun%NULL%1,                  Julien%Poissy%NULL%1,                  Violeta%Raverdy%NULL%1,                  Jerome%Noulette%NULL%2,                  Jerome%Noulette%NULL%0,                  Alain%Duhamel%NULL%0,                  Julien%Labreuche%NULL%0,                  Daniel%Mathieu%NULL%2,                  Francois%Pattou%francois.pattou@univ-lille.fr%1,                  Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,                  Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                  Robert%Caizzo%NULL%2,                  Robert%Caizzo%NULL%0,                  Morgan%Caplan%NULL%1,                  Nicolas%Cousin%NULL%1,                  Thibault%Duburcq%NULL%1,                  Arthur%Durand%NULL%1,                  Ahmed%El kalioubie%NULL%1,                  Raphael%Favory%NULL%1,                  Bruno%Garcia%NULL%1,                  Patrick%Girardie%NULL%1,                  Julien%Goutay%NULL%1,                  Marion%Houard%NULL%1,                  Emmanuelle%Jaillette%NULL%1,                  Nicolas%Kostuj%NULL%1,                  Geoffrey%Ledoux%NULL%1,                  Daniel%Mathieu%NULL%0,                  Anne Sophie%Moreau%NULL%1,                  Christopher%Niles%NULL%1,                  Saad%Nseir%NULL%1,                  Thierry%Onimus%NULL%1,                  Erika%Parmentier%NULL%1,                  Sebastien%Préau%NULL%1,                  Laurent%Robriquet%NULL%1,                  Anahita%Rouze%NULL%1,                  Sophie%Six%NULL%1,                  Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,          Eric%Yim%xref no email%0,          Lindy%Klaff%xref no email%0,          Sharukh%Lokhandwala%xref no email%0,          Francis X.%Riedo%xref no email%0,          Maria%Chong%xref no email%0,          Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                  Samuel L%Bruce%NULL%1,                  Cody L%Slater%NULL%1,                  Jonathan R%Tiao%NULL%1,                  Matthew R%Baldwin%NULL%2,                  R Graham%Barr%NULL%1,                  Bernard P%Chang%NULL%1,                  Katherine H%Chau%NULL%1,                  Justin J%Choi%NULL%1,                  Nicholas%Gavin%NULL%1,                  Parag%Goyal%NULL%1,                  Angela M%Mills%NULL%1,                  Ashmi A%Patel%NULL%1,                  Marie-Laure S%Romney%NULL%1,                  Monika M%Safford%NULL%1,                  Neil W%Schluger%NULL%1,                  Soumitra%Sengupta%NULL%1,                  Magdalena E%Sobieszczyk%NULL%1,                  Jason E%Zucker%NULL%1,                  Paul A%Asadourian%NULL%1,                  Fletcher M%Bell%NULL%1,                  Rebekah%Boyd%NULL%1,                  Matthew F%Cohen%NULL%1,                  MacAlistair I%Colquhoun%NULL%1,                  Lucy A%Colville%NULL%1,                  Joseph H%de Jonge%NULL%1,                  Lyle B%Dershowitz%NULL%1,                  Shirin A%Dey%NULL%1,                  Katherine A%Eiseman%NULL%1,                  Zachary P%Girvin%NULL%1,                  Daniella T%Goni%NULL%1,                  Amro A%Harb%NULL%1,                  Nicholas%Herzik%NULL%1,                  Sarah%Householder%NULL%1,                  Lara E%Karaaslan%NULL%1,                  Heather%Lee%NULL%1,                  Evan%Lieberman%NULL%1,                  Andrew%Ling%NULL%1,                  Ree%Lu%NULL%1,                  Arthur Y%Shou%NULL%1,                  Alexander C%Sisti%NULL%1,                  Zachary E%Snow%NULL%1,                  Colin P%Sperring%NULL%1,                  Yuqing%Xiong%NULL%1,                  Henry W%Zhou%NULL%1,                  Karthik%Natarajan%NULL%1,                  George%Hripcsak%NULL%1,                  Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                  Mark%Caridi-Scheible%NULL%0,                  James M.%Blum%NULL%0,                  Chad%Robichaux%NULL%0,                  Colleen%Kraft%NULL%0,                  Jesse T.%Jacob%NULL%0,                  Craig S.%Jabaley%NULL%0,                  David%Carpenter%NULL%0,                  Roberta%Kaplow%NULL%0,                  Alfonso C.%Hernandez-Romieu%NULL%0,                  Max W.%Adelman%NULL%0,                  Greg S.%Martin%NULL%0,                  Craig M.%Coopersmith%NULL%0,                  David J.%Murphy%NULL%0,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                  Bijan J.%Ghassemieh%NULL%0,                  Michelle%Nichols%NULL%0,                  Richard%Kim%NULL%0,                  Keith R.%Jerome%NULL%0,                  Arun K.%Nalla%NULL%0,                  Alexander L.%Greninger%NULL%0,                  Sudhakar%Pipavath%NULL%0,                  Mark M.%Wurfel%NULL%0,                  Laura%Evans%NULL%0,                  Patricia A.%Kritek%NULL%0,                  T. Eoin%West%NULL%0,                  Andrew%Luks%NULL%0,                  Anthony%Gerbino%NULL%0,                  Chris R.%Dale%NULL%0,                  Jason D.%Goldman%NULL%0,                  Shane%O’Mahony%NULL%0,                  Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura C.%Myers%xref no email%1,          Stephen M.%Parodi%xref no email%1,          Gabriel J.%Escobar%xref no email%1,          Vincent X.%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                Becker%L.B.%coreGivesNoEmail%0,                Chelico%J.D.%coreGivesNoEmail%0,                Cohen%S.L.%coreGivesNoEmail%0,                Cookingham%J.%coreGivesNoEmail%0,                Coppa%K.%coreGivesNoEmail%0,                Crawford%J.M.%coreGivesNoEmail%0,                Davidson%K.W.%coreGivesNoEmail%0,                Diefenbach%M.A.%coreGivesNoEmail%0,                Dominello%A.J.%coreGivesNoEmail%0,                Duer-Hefele%J.%coreGivesNoEmail%0,                Falzon%L.%coreGivesNoEmail%0,                Gitlin%J.%coreGivesNoEmail%0,                Hajizadeh%N.%coreGivesNoEmail%0,                Harvin%T.G.%coreGivesNoEmail%0,                Hirsch%J.S.%coreGivesNoEmail%0,                Hirschwerk%D.A.%coreGivesNoEmail%0,                Kim%E.J.%coreGivesNoEmail%0,                Kozel%Z.M.%coreGivesNoEmail%0,                Marrast%L.M.%coreGivesNoEmail%0,                McGinn%T.%coreGivesNoEmail%0,                Mogavero%J.N.%coreGivesNoEmail%0,                Narasimhan%M.%coreGivesNoEmail%0,                Osorio%G.A.%coreGivesNoEmail%0,                Qiu%M.%coreGivesNoEmail%0,                Richardson%S.%coreGivesNoEmail%0,                Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,                  Jehan%Alladina%NULL%2,                  Jehan%Alladina%NULL%0,                  Camille R.%Petri%NULL%2,                  Camille R.%Petri%NULL%0,                  Jason H.%Maley%NULL%2,                  Jason H.%Maley%NULL%0,                  Ari%Moskowitz%NULL%1,                  Benjamin D.%Medoff%NULL%1,                  Kathryn A.%Hibbert%NULL%2,                  Kathryn A.%Hibbert%NULL%0,                  B. Taylor%Thompson%NULL%1,                  C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,                  Adam J%Russak%NULL%2,                  Adam J%Russak%NULL%0,                  Jessica K%De Freitas%NULL%1,                  Anuradha%Lala%NULL%1,                  Riccardo%Miotto%NULL%1,                  Akhil%Vaid%NULL%1,                  Kipp W%Johnson%NULL%1,                  Matteo%Danieletto%NULL%1,                  Eddye%Golden%NULL%1,                  Dara%Meyer%NULL%1,                  Manbir%Singh%NULL%1,                  Sulaiman%Somani%NULL%1,                  Arjun%Kapoor%NULL%1,                  Ross%O'Hagan%NULL%1,                  Sayan%Manna%NULL%1,                  Udit%Nangia%NULL%1,                  Suraj K%Jaladanki%NULL%1,                  Paul%O’Reilly%NULL%2,                  Paul%O’Reilly%NULL%0,                  Laura M%Huckins%NULL%1,                  Patricia%Glowe%NULL%1,                  Arash%Kia%NULL%1,                  Prem%Timsina%NULL%1,                  Robert M%Freeman%NULL%1,                  Matthew A%Levin%NULL%1,                  Jeffrey%Jhang%NULL%1,                  Adolfo%Firpo%NULL%1,                  Patricia%Kovatch%NULL%1,                  Joseph%Finkelstein%NULL%1,                  Judith A%Aberg%NULL%1,                  Emilia%Bagiella%NULL%1,                  Carol R%Horowitz%NULL%1,                  Barbara%Murphy%NULL%1,                  Zahi A%Fayad%NULL%1,                  Jagat%Narula%NULL%1,                  Eric J%Nestler%NULL%1,                  V%Fuster%NULL%1,                  Carlos%Cordon-Cardo%NULL%1,                  Dennis%Charney%NULL%1,                  David L%Reich%NULL%1,                  Allan%Just%NULL%1,                  Erwin P%Bottinger%NULL%1,                  Alexander W%Charney%NULL%1,                  Benjamin S%Glicksberg%NULL%1,                  Girish N%Nadkarni%NULL%1,                  NULL%NULL%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2123,7 +2261,7 @@
         <v>382</v>
       </c>
       <c r="E2" t="s">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -2152,7 +2290,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -2181,7 +2319,7 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>455</v>
+        <v>501</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -2210,7 +2348,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>456</v>
+        <v>502</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -2239,7 +2377,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>457</v>
+        <v>503</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -2268,7 +2406,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -2297,7 +2435,7 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>459</v>
+        <v>505</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -2326,7 +2464,7 @@
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>460</v>
+        <v>506</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -2355,7 +2493,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>461</v>
+        <v>507</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -2384,7 +2522,7 @@
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>462</v>
+        <v>508</v>
       </c>
       <c r="F11" t="s">
         <v>90</v>
@@ -2413,7 +2551,7 @@
         <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>463</v>
+        <v>509</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -2442,7 +2580,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>464</v>
+        <v>510</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -2471,7 +2609,7 @@
         <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>465</v>
+        <v>511</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -2500,7 +2638,7 @@
         <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>466</v>
+        <v>512</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -2529,7 +2667,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>467</v>
+        <v>513</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -2558,7 +2696,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>468</v>
+        <v>514</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -2587,7 +2725,7 @@
         <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>469</v>
+        <v>515</v>
       </c>
       <c r="F18" t="s">
         <v>112</v>
@@ -2616,7 +2754,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>470</v>
+        <v>516</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -2645,7 +2783,7 @@
         <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
@@ -2674,7 +2812,7 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
@@ -2703,7 +2841,7 @@
         <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -2732,7 +2870,7 @@
         <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="F23" t="s">
         <v>124</v>
@@ -2761,7 +2899,7 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="F24" t="s">
         <v>128</v>

--- a/Covid_19_Dataset_and_References/References/71.xlsx
+++ b/Covid_19_Dataset_and_References/References/71.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3320" uniqueCount="545">
   <si>
     <t>Doi</t>
   </si>
@@ -1890,6 +1890,75 @@
   </si>
   <si>
     <t>[Ishan%Paranjpe%NULL%0,                  Adam J%Russak%NULL%2,                  Adam J%Russak%NULL%0,                  Jessica K%De Freitas%NULL%1,                  Anuradha%Lala%NULL%1,                  Riccardo%Miotto%NULL%1,                  Akhil%Vaid%NULL%1,                  Kipp W%Johnson%NULL%1,                  Matteo%Danieletto%NULL%1,                  Eddye%Golden%NULL%1,                  Dara%Meyer%NULL%1,                  Manbir%Singh%NULL%1,                  Sulaiman%Somani%NULL%1,                  Arjun%Kapoor%NULL%1,                  Ross%O'Hagan%NULL%1,                  Sayan%Manna%NULL%1,                  Udit%Nangia%NULL%1,                  Suraj K%Jaladanki%NULL%1,                  Paul%O’Reilly%NULL%2,                  Paul%O’Reilly%NULL%0,                  Laura M%Huckins%NULL%1,                  Patricia%Glowe%NULL%1,                  Arash%Kia%NULL%1,                  Prem%Timsina%NULL%1,                  Robert M%Freeman%NULL%1,                  Matthew A%Levin%NULL%1,                  Jeffrey%Jhang%NULL%1,                  Adolfo%Firpo%NULL%1,                  Patricia%Kovatch%NULL%1,                  Joseph%Finkelstein%NULL%1,                  Judith A%Aberg%NULL%1,                  Emilia%Bagiella%NULL%1,                  Carol R%Horowitz%NULL%1,                  Barbara%Murphy%NULL%1,                  Zahi A%Fayad%NULL%1,                  Jagat%Narula%NULL%1,                  Eric J%Nestler%NULL%1,                  V%Fuster%NULL%1,                  Carlos%Cordon-Cardo%NULL%1,                  Dennis%Charney%NULL%1,                  David L%Reich%NULL%1,                  Allan%Just%NULL%1,                  Erwin P%Bottinger%NULL%1,                  Alexander W%Charney%NULL%1,                  Benjamin S%Glicksberg%NULL%1,                  Girish N%Nadkarni%NULL%1,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,                   Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,                   Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,                   Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,                   Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,                   Bruno%Riou%bruno.riou@aphp.fr%2,                   Bruno%Riou%bruno.riou@aphp.fr%0,                   Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                   Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                   Gilles%Hejblum%gilles.hejblum@inserm.fr%2,                   Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,                   Peiyun%Li%NULL%1,                   Liang%Ma%NULL%1,                   Hang%Liang%NULL%1,                   Jie%Lei%NULL%0,                   Wenqiang%Li%NULL%1,                   Kun%Wang%NULL%0,                   Yu%Song%NULL%1,                   Shuai%Li%NULL%1,                   Wei%Yang%NULL%1,                   Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,                    C.% Hong%null%1,                    J.% Meng%null%1,                    Z.% Wu%null%1,                    P.% Zhou%null%1,                    C.% Ye%null%1,                    B.% Sun%null%1,                    L. M.% Kucirka%null%1,                    A. S.% Azman%null%1,                    T.% Wang%null%0,                    J.% Chen%null%1,                    Z.% Wang%null%1,                    L.% Liu%null%0,                    J.% Lessler%null%1,                    J. K.% Edwards%null%1,                    T.% Ma%null%1,                    G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                   Ting%Yu%NULL%0,                   Ronghui%Du%NULL%0,                   Guohui%Fan%NULL%0,                   Ying%Liu%NULL%0,                   Zhibo%Liu%NULL%0,                   Jie%Xiang%NULL%0,                   Yeming%Wang%NULL%0,                   Bin%Song%NULL%0,                   Xiaoying%Gu%NULL%0,                   Lulu%Guan%NULL%0,                   Yuan%Wei%NULL%0,                   Hui%Li%NULL%0,                   Xudong%Wu%NULL%0,                   Jiuyang%Xu%NULL%0,                   Shengjin%Tu%NULL%0,                   Yi%Zhang%NULL%0,                   Hua%Chen%NULL%0,                   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,                   Zhiheng%Xu%NULL%1,                   Xuesong%Liu%NULL%1,                   Lihua%Cai%NULL%1,                   Haichong%Zheng%NULL%1,                   Yongbo%Huang%NULL%1,                   Lixin%Zhou%NULL%1,                   Linxi%Huang%NULL%1,                   Yun%Ling%NULL%0,                   Liehua%Deng%NULL%1,                   Jianwei%Li%NULL%0,                   Sibei%Chen%NULL%1,                   Dongdong%Liu%NULL%1,                   Zhimin%Lin%NULL%1,                   Liang%Zhou%NULL%1,                   Weiqun%He%NULL%1,                   Nanshan%Zhong%NULL%0,                   Xiaoqing%Liu%NULL%3,                   Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,                   Li-jun%Sun%NULL%1,                   Mi%Xu%NULL%1,                   Jian%Pan%NULL%1,                   Yun-tao%Zhang%NULL%1,                   Xue-ling%Fang%NULL%1,                   Qiang%Fang%NULL%1,                   Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                   Li-Min%Liu%NULL%2,                   Wen%Yin%NULL%0,                   Wen%Wang%NULL%0,                   Lu-Lu%Guan%NULL%2,                   Ming-Li%Yuan%NULL%0,                   Yu-Lei%Li%NULL%2,                   Yi%Hu%NULL%0,                   Xu-Yan%Li%NULL%0,                   Bing%Sun%NULL%2,                   Peng%Peng%NULL%0,                   Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                   Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                   Wenlin%Cheng%NULL%0,                   Lei%Yu%NULL%0,                   Ya-Kun%Liu%NULL%0,                   Xiaoyong%Hu%NULL%0,                   Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                   Zheng-yi%Ni%NULL%0,                   Zheng-yi%Ni%NULL%0,                   Yu%Hu%NULL%0,                   Wen-hua%Liang%NULL%0,                   Chun-quan%Ou%NULL%0,                   Jian-xing%He%NULL%0,                   Lei%Liu%NULL%0,                   Hong%Shan%NULL%0,                   Chun-liang%Lei%NULL%0,                   David S.C.%Hui%NULL%0,                   Bin%Du%NULL%0,                   Lan-juan%Li%NULL%0,                   Guang%Zeng%NULL%0,                   Kwok-Yung%Yuen%NULL%0,                   Ru-chong%Chen%NULL%0,                   Chun-li%Tang%NULL%0,                   Tao%Wang%NULL%0,                   Ping-yan%Chen%NULL%0,                   Jie%Xiang%NULL%0,                   Shi-yue%Li%NULL%0,                   Jin-lin%Wang%NULL%0,                   Zi-jing%Liang%NULL%0,                   Yi-xiang%Peng%NULL%0,                   Li%Wei%NULL%0,                   Yong%Liu%NULL%0,                   Ya-hua%Hu%NULL%0,                   Peng%Peng%NULL%0,                   Jian-ming%Wang%NULL%0,                   Ji-yang%Liu%NULL%0,                   Zhong%Chen%NULL%0,                   Gang%Li%NULL%0,                   Zhi-jian%Zheng%NULL%0,                   Shao-qin%Qiu%NULL%0,                   Jie%Luo%NULL%0,                   Chang-jiang%Ye%NULL%0,                   Shao-yong%Zhu%NULL%0,                   Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                   Fang%Jiang%NULL%0,                   Wating%Su%NULL%2,                   Chang%Chen%NULL%2,                   Jingli%Chen%NULL%2,                   Wei%Mei%NULL%2,                   Li-Ying%Zhan%NULL%2,                   Yifan%Jia%NULL%2,                   Liangqing%Zhang%NULL%2,                   Danyong%Liu%NULL%2,                   Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,                   Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                   Yuan%Yu%NULL%0,                   Jiqian%Xu%NULL%0,                   Huaqing%Shu%NULL%0,                   Jia'an%Xia%NULL%0,                   Hong%Liu%NULL%0,                   Yongran%Wu%NULL%0,                   Lu%Zhang%NULL%0,                   Zhui%Yu%NULL%0,                   Minghao%Fang%NULL%0,                   Ting%Yu%NULL%0,                   Yaxin%Wang%NULL%0,                   Shangwen%Pan%NULL%0,                   Xiaojing%Zou%NULL%0,                   Shiying%Yuan%NULL%0,                   You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                   Yeming%Wang%NULL%0,                   Xingwang%Li%NULL%0,                   Lili%Ren%NULL%0,                   Jianping%Zhao%NULL%0,                   Yi%Hu%NULL%0,                   Li%Zhang%NULL%0,                   Guohui%Fan%NULL%0,                   Jiuyang%Xu%NULL%0,                   Xiaoying%Gu%NULL%0,                   Zhenshun%Cheng%NULL%0,                   Ting%Yu%NULL%0,                   Jiaan%Xia%NULL%0,                   Yuan%Wei%NULL%0,                   Wenjuan%Wu%NULL%0,                   Xuelei%Xie%NULL%0,                   Wen%Yin%NULL%0,                   Hui%Li%NULL%0,                   Min%Liu%NULL%0,                   Yan%Xiao%NULL%0,                   Hong%Gao%NULL%0,                   Li%Guo%NULL%0,                   Jungang%Xie%NULL%0,                   Guangfa%Wang%NULL%0,                   Rongmeng%Jiang%NULL%0,                   Zhancheng%Gao%NULL%0,                   Qi%Jin%NULL%0,                   Jianwei%Wang%wangjw28@163.com%0,                   Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,                   Xiaofan%Lu%NULL%1,                   Yongsheng%Li%NULL%2,                   Yongsheng%Li%NULL%0,                   Hui%Chen%NULL%0,                   Taige%Chen%NULL%1,                   Nan%Su%NULL%1,                   Fang%Huang%NULL%1,                   Jing%Zhou%NULL%0,                   Bing%Zhang%NULL%1,                   Fangrong%Yan%NULL%2,                   Fangrong%Yan%NULL%0,                   Jun%Wang%NULL%2,                   Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                 Cabrini%Luca%coreGivesNoEmail%0,                 Castelli%Antonio%coreGivesNoEmail%0,                 Cecconi%Maurizio%coreGivesNoEmail%0,                 Cereda%Danilo%coreGivesNoEmail%0,                 Coluccello%Antonio%coreGivesNoEmail%0,                 Foti%Giuseppe%coreGivesNoEmail%0,                 Fumagalli%Roberto%coreGivesNoEmail%0,                 Grasselli%Giacomo%coreGivesNoEmail%0,                 Iotti%Giorgio%coreGivesNoEmail%0,                 Latronico%Nicola%coreGivesNoEmail%0,                 Lorini%Luca%coreGivesNoEmail%0,                 Merler%Stefano%coreGivesNoEmail%0,                 Natalini%Giuseppe%coreGivesNoEmail%0,                 Pesenti%Antonio%coreGivesNoEmail%0,                 Piatti%Alessandra%coreGivesNoEmail%0,                 Ranieri%Marco Vito%coreGivesNoEmail%0,                 Scandroglio%Anna Mara%coreGivesNoEmail%0,                 Storti%Enrico%coreGivesNoEmail%0,                 Zanella%Alberto%coreGivesNoEmail%0,                 Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                   Mikael%Chetboun%NULL%1,                   Julien%Poissy%NULL%1,                   Violeta%Raverdy%NULL%1,                   Jerome%Noulette%NULL%2,                   Jerome%Noulette%NULL%0,                   Alain%Duhamel%NULL%0,                   Julien%Labreuche%NULL%0,                   Daniel%Mathieu%NULL%2,                   Francois%Pattou%francois.pattou@univ-lille.fr%1,                   Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,                   Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                   Robert%Caizzo%NULL%2,                   Robert%Caizzo%NULL%0,                   Morgan%Caplan%NULL%1,                   Nicolas%Cousin%NULL%1,                   Thibault%Duburcq%NULL%1,                   Arthur%Durand%NULL%1,                   Ahmed%El kalioubie%NULL%1,                   Raphael%Favory%NULL%1,                   Bruno%Garcia%NULL%1,                   Patrick%Girardie%NULL%1,                   Julien%Goutay%NULL%1,                   Marion%Houard%NULL%1,                   Emmanuelle%Jaillette%NULL%1,                   Nicolas%Kostuj%NULL%1,                   Geoffrey%Ledoux%NULL%1,                   Daniel%Mathieu%NULL%0,                   Anne Sophie%Moreau%NULL%1,                   Christopher%Niles%NULL%1,                   Saad%Nseir%NULL%1,                   Thierry%Onimus%NULL%1,                   Erika%Parmentier%NULL%1,                   Sebastien%Préau%NULL%1,                   Laurent%Robriquet%NULL%1,                   Anahita%Rouze%NULL%1,                   Sophie%Six%NULL%1,                   Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,           Eric%Yim%xref no email%0,           Lindy%Klaff%xref no email%0,           Sharukh%Lokhandwala%xref no email%0,           Francis X.%Riedo%xref no email%0,           Maria%Chong%xref no email%0,           Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                   Samuel L%Bruce%NULL%1,                   Cody L%Slater%NULL%1,                   Jonathan R%Tiao%NULL%1,                   Matthew R%Baldwin%NULL%2,                   R Graham%Barr%NULL%1,                   Bernard P%Chang%NULL%1,                   Katherine H%Chau%NULL%1,                   Justin J%Choi%NULL%1,                   Nicholas%Gavin%NULL%1,                   Parag%Goyal%NULL%1,                   Angela M%Mills%NULL%1,                   Ashmi A%Patel%NULL%1,                   Marie-Laure S%Romney%NULL%1,                   Monika M%Safford%NULL%1,                   Neil W%Schluger%NULL%1,                   Soumitra%Sengupta%NULL%1,                   Magdalena E%Sobieszczyk%NULL%1,                   Jason E%Zucker%NULL%1,                   Paul A%Asadourian%NULL%1,                   Fletcher M%Bell%NULL%1,                   Rebekah%Boyd%NULL%1,                   Matthew F%Cohen%NULL%1,                   MacAlistair I%Colquhoun%NULL%1,                   Lucy A%Colville%NULL%1,                   Joseph H%de Jonge%NULL%1,                   Lyle B%Dershowitz%NULL%1,                   Shirin A%Dey%NULL%1,                   Katherine A%Eiseman%NULL%1,                   Zachary P%Girvin%NULL%1,                   Daniella T%Goni%NULL%1,                   Amro A%Harb%NULL%1,                   Nicholas%Herzik%NULL%1,                   Sarah%Householder%NULL%1,                   Lara E%Karaaslan%NULL%1,                   Heather%Lee%NULL%1,                   Evan%Lieberman%NULL%1,                   Andrew%Ling%NULL%1,                   Ree%Lu%NULL%1,                   Arthur Y%Shou%NULL%1,                   Alexander C%Sisti%NULL%1,                   Zachary E%Snow%NULL%1,                   Colin P%Sperring%NULL%1,                   Yuqing%Xiong%NULL%1,                   Henry W%Zhou%NULL%1,                   Karthik%Natarajan%NULL%1,                   George%Hripcsak%NULL%1,                   Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                   Mark%Caridi-Scheible%NULL%0,                   James M.%Blum%NULL%0,                   Chad%Robichaux%NULL%0,                   Colleen%Kraft%NULL%0,                   Jesse T.%Jacob%NULL%0,                   Craig S.%Jabaley%NULL%0,                   David%Carpenter%NULL%0,                   Roberta%Kaplow%NULL%0,                   Alfonso C.%Hernandez-Romieu%NULL%0,                   Max W.%Adelman%NULL%0,                   Greg S.%Martin%NULL%0,                   Craig M.%Coopersmith%NULL%0,                   David J.%Murphy%NULL%0,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                   Bijan J.%Ghassemieh%NULL%0,                   Michelle%Nichols%NULL%0,                   Richard%Kim%NULL%0,                   Keith R.%Jerome%NULL%0,                   Arun K.%Nalla%NULL%0,                   Alexander L.%Greninger%NULL%0,                   Sudhakar%Pipavath%NULL%0,                   Mark M.%Wurfel%NULL%0,                   Laura%Evans%NULL%0,                   Patricia A.%Kritek%NULL%0,                   T. Eoin%West%NULL%0,                   Andrew%Luks%NULL%0,                   Anthony%Gerbino%NULL%0,                   Chris R.%Dale%NULL%0,                   Jason D.%Goldman%NULL%0,                   Shane%O’Mahony%NULL%0,                   Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura C.%Myers%xref no email%1,           Stephen M.%Parodi%xref no email%1,           Gabriel J.%Escobar%xref no email%1,           Vincent X.%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                 Becker%L.B.%coreGivesNoEmail%0,                 Chelico%J.D.%coreGivesNoEmail%0,                 Cohen%S.L.%coreGivesNoEmail%0,                 Cookingham%J.%coreGivesNoEmail%0,                 Coppa%K.%coreGivesNoEmail%0,                 Crawford%J.M.%coreGivesNoEmail%0,                 Davidson%K.W.%coreGivesNoEmail%0,                 Diefenbach%M.A.%coreGivesNoEmail%0,                 Dominello%A.J.%coreGivesNoEmail%0,                 Duer-Hefele%J.%coreGivesNoEmail%0,                 Falzon%L.%coreGivesNoEmail%0,                 Gitlin%J.%coreGivesNoEmail%0,                 Hajizadeh%N.%coreGivesNoEmail%0,                 Harvin%T.G.%coreGivesNoEmail%0,                 Hirsch%J.S.%coreGivesNoEmail%0,                 Hirschwerk%D.A.%coreGivesNoEmail%0,                 Kim%E.J.%coreGivesNoEmail%0,                 Kozel%Z.M.%coreGivesNoEmail%0,                 Marrast%L.M.%coreGivesNoEmail%0,                 McGinn%T.%coreGivesNoEmail%0,                 Mogavero%J.N.%coreGivesNoEmail%0,                 Narasimhan%M.%coreGivesNoEmail%0,                 Osorio%G.A.%coreGivesNoEmail%0,                 Qiu%M.%coreGivesNoEmail%0,                 Richardson%S.%coreGivesNoEmail%0,                 Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,                   Jehan%Alladina%NULL%2,                   Jehan%Alladina%NULL%0,                   Camille R.%Petri%NULL%2,                   Camille R.%Petri%NULL%0,                   Jason H.%Maley%NULL%2,                   Jason H.%Maley%NULL%0,                   Ari%Moskowitz%NULL%1,                   Benjamin D.%Medoff%NULL%1,                   Kathryn A.%Hibbert%NULL%2,                   Kathryn A.%Hibbert%NULL%0,                   B. Taylor%Thompson%NULL%1,                   C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,                   Adam J%Russak%NULL%2,                   Adam J%Russak%NULL%0,                   Jessica K%De Freitas%NULL%1,                   Anuradha%Lala%NULL%1,                   Riccardo%Miotto%NULL%1,                   Akhil%Vaid%NULL%1,                   Kipp W%Johnson%NULL%1,                   Matteo%Danieletto%NULL%1,                   Eddye%Golden%NULL%1,                   Dara%Meyer%NULL%1,                   Manbir%Singh%NULL%1,                   Sulaiman%Somani%NULL%1,                   Arjun%Kapoor%NULL%1,                   Ross%O'Hagan%NULL%1,                   Sayan%Manna%NULL%1,                   Udit%Nangia%NULL%1,                   Suraj K%Jaladanki%NULL%1,                   Paul%O’Reilly%NULL%2,                   Paul%O’Reilly%NULL%0,                   Laura M%Huckins%NULL%1,                   Patricia%Glowe%NULL%1,                   Arash%Kia%NULL%1,                   Prem%Timsina%NULL%1,                   Robert M%Freeman%NULL%1,                   Matthew A%Levin%NULL%1,                   Jeffrey%Jhang%NULL%1,                   Adolfo%Firpo%NULL%1,                   Patricia%Kovatch%NULL%1,                   Joseph%Finkelstein%NULL%1,                   Judith A%Aberg%NULL%1,                   Emilia%Bagiella%NULL%1,                   Carol R%Horowitz%NULL%1,                   Barbara%Murphy%NULL%1,                   Zahi A%Fayad%NULL%1,                   Jagat%Narula%NULL%1,                   Eric J%Nestler%NULL%1,                   V%Fuster%NULL%1,                   Carlos%Cordon-Cardo%NULL%1,                   Dennis%Charney%NULL%1,                   David L%Reich%NULL%1,                   Allan%Just%NULL%1,                   Erwin P%Bottinger%NULL%1,                   Alexander W%Charney%NULL%1,                   Benjamin S%Glicksberg%NULL%1,                   Girish N%Nadkarni%NULL%1,                   NULL%NULL%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2261,7 +2330,7 @@
         <v>382</v>
       </c>
       <c r="E2" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -2290,7 +2359,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -2319,7 +2388,7 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -2348,7 +2417,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -2377,7 +2446,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -2406,7 +2475,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -2435,7 +2504,7 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -2464,7 +2533,7 @@
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -2493,7 +2562,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -2522,7 +2591,7 @@
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="F11" t="s">
         <v>90</v>
@@ -2551,7 +2620,7 @@
         <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -2580,7 +2649,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -2609,7 +2678,7 @@
         <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -2638,7 +2707,7 @@
         <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -2667,7 +2736,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -2696,7 +2765,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -2725,7 +2794,7 @@
         <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="F18" t="s">
         <v>112</v>
@@ -2754,7 +2823,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -2783,7 +2852,7 @@
         <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
@@ -2812,7 +2881,7 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
@@ -2841,7 +2910,7 @@
         <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -2870,7 +2939,7 @@
         <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="F23" t="s">
         <v>124</v>
@@ -2899,7 +2968,7 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="F24" t="s">
         <v>128</v>

--- a/Covid_19_Dataset_and_References/References/71.xlsx
+++ b/Covid_19_Dataset_and_References/References/71.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3320" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3488" uniqueCount="573">
   <si>
     <t>Doi</t>
   </si>
@@ -1959,6 +1959,90 @@
   </si>
   <si>
     <t>[Ishan%Paranjpe%NULL%0,                   Adam J%Russak%NULL%2,                   Adam J%Russak%NULL%0,                   Jessica K%De Freitas%NULL%1,                   Anuradha%Lala%NULL%1,                   Riccardo%Miotto%NULL%1,                   Akhil%Vaid%NULL%1,                   Kipp W%Johnson%NULL%1,                   Matteo%Danieletto%NULL%1,                   Eddye%Golden%NULL%1,                   Dara%Meyer%NULL%1,                   Manbir%Singh%NULL%1,                   Sulaiman%Somani%NULL%1,                   Arjun%Kapoor%NULL%1,                   Ross%O'Hagan%NULL%1,                   Sayan%Manna%NULL%1,                   Udit%Nangia%NULL%1,                   Suraj K%Jaladanki%NULL%1,                   Paul%O’Reilly%NULL%2,                   Paul%O’Reilly%NULL%0,                   Laura M%Huckins%NULL%1,                   Patricia%Glowe%NULL%1,                   Arash%Kia%NULL%1,                   Prem%Timsina%NULL%1,                   Robert M%Freeman%NULL%1,                   Matthew A%Levin%NULL%1,                   Jeffrey%Jhang%NULL%1,                   Adolfo%Firpo%NULL%1,                   Patricia%Kovatch%NULL%1,                   Joseph%Finkelstein%NULL%1,                   Judith A%Aberg%NULL%1,                   Emilia%Bagiella%NULL%1,                   Carol R%Horowitz%NULL%1,                   Barbara%Murphy%NULL%1,                   Zahi A%Fayad%NULL%1,                   Jagat%Narula%NULL%1,                   Eric J%Nestler%NULL%1,                   V%Fuster%NULL%1,                   Carlos%Cordon-Cardo%NULL%1,                   Dennis%Charney%NULL%1,                   David L%Reich%NULL%1,                   Allan%Just%NULL%1,                   Erwin P%Bottinger%NULL%1,                   Alexander W%Charney%NULL%1,                   Benjamin S%Glicksberg%NULL%1,                   Girish N%Nadkarni%NULL%1,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,                    Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,                    Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,                    Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,                    Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,                    Bruno%Riou%bruno.riou@aphp.fr%2,                    Bruno%Riou%bruno.riou@aphp.fr%0,                    Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                    Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                    Gilles%Hejblum%gilles.hejblum@inserm.fr%2,                    Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,                    Peiyun%Li%NULL%1,                    Liang%Ma%NULL%1,                    Hang%Liang%NULL%1,                    Jie%Lei%NULL%0,                    Wenqiang%Li%NULL%1,                    Kun%Wang%NULL%0,                    Yu%Song%NULL%1,                    Shuai%Li%NULL%1,                    Wei%Yang%NULL%1,                    Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,                     C.% Hong%null%1,                     J.% Meng%null%1,                     Z.% Wu%null%1,                     P.% Zhou%null%1,                     C.% Ye%null%1,                     B.% Sun%null%1,                     L. M.% Kucirka%null%1,                     A. S.% Azman%null%1,                     T.% Wang%null%0,                     J.% Chen%null%1,                     Z.% Wang%null%1,                     L.% Liu%null%0,                     J.% Lessler%null%1,                     J. K.% Edwards%null%1,                     T.% Ma%null%1,                     G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                    Ting%Yu%NULL%0,                    Ronghui%Du%NULL%0,                    Guohui%Fan%NULL%0,                    Ying%Liu%NULL%0,                    Zhibo%Liu%NULL%0,                    Jie%Xiang%NULL%0,                    Yeming%Wang%NULL%0,                    Bin%Song%NULL%0,                    Xiaoying%Gu%NULL%0,                    Lulu%Guan%NULL%0,                    Yuan%Wei%NULL%0,                    Hui%Li%NULL%0,                    Xudong%Wu%NULL%0,                    Jiuyang%Xu%NULL%0,                    Shengjin%Tu%NULL%0,                    Yi%Zhang%NULL%0,                    Hua%Chen%NULL%0,                    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,                    Zhiheng%Xu%NULL%1,                    Xuesong%Liu%NULL%1,                    Lihua%Cai%NULL%1,                    Haichong%Zheng%NULL%1,                    Yongbo%Huang%NULL%1,                    Lixin%Zhou%NULL%1,                    Linxi%Huang%NULL%1,                    Yun%Ling%NULL%0,                    Liehua%Deng%NULL%1,                    Jianwei%Li%NULL%0,                    Sibei%Chen%NULL%1,                    Dongdong%Liu%NULL%1,                    Zhimin%Lin%NULL%1,                    Liang%Zhou%NULL%1,                    Weiqun%He%NULL%1,                    Nanshan%Zhong%NULL%0,                    Xiaoqing%Liu%NULL%3,                    Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,                    Li-jun%Sun%NULL%1,                    Mi%Xu%NULL%1,                    Jian%Pan%NULL%1,                    Yun-tao%Zhang%NULL%1,                    Xue-ling%Fang%NULL%1,                    Qiang%Fang%NULL%1,                    Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                    Li-Min%Liu%NULL%2,                    Wen%Yin%NULL%0,                    Wen%Wang%NULL%0,                    Lu-Lu%Guan%NULL%2,                    Ming-Li%Yuan%NULL%0,                    Yu-Lei%Li%NULL%2,                    Yi%Hu%NULL%0,                    Xu-Yan%Li%NULL%0,                    Bing%Sun%NULL%2,                    Peng%Peng%NULL%0,                    Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                    Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                    Wenlin%Cheng%NULL%0,                    Lei%Yu%NULL%0,                    Ya-Kun%Liu%NULL%0,                    Xiaoyong%Hu%NULL%0,                    Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                    Zheng-yi%Ni%NULL%0,                    Zheng-yi%Ni%NULL%0,                    Yu%Hu%NULL%0,                    Wen-hua%Liang%NULL%0,                    Chun-quan%Ou%NULL%0,                    Jian-xing%He%NULL%0,                    Lei%Liu%NULL%0,                    Hong%Shan%NULL%0,                    Chun-liang%Lei%NULL%0,                    David S.C.%Hui%NULL%0,                    Bin%Du%NULL%0,                    Lan-juan%Li%NULL%0,                    Guang%Zeng%NULL%0,                    Kwok-Yung%Yuen%NULL%0,                    Ru-chong%Chen%NULL%0,                    Chun-li%Tang%NULL%0,                    Tao%Wang%NULL%0,                    Ping-yan%Chen%NULL%0,                    Jie%Xiang%NULL%0,                    Shi-yue%Li%NULL%0,                    Jin-lin%Wang%NULL%0,                    Zi-jing%Liang%NULL%0,                    Yi-xiang%Peng%NULL%0,                    Li%Wei%NULL%0,                    Yong%Liu%NULL%0,                    Ya-hua%Hu%NULL%0,                    Peng%Peng%NULL%0,                    Jian-ming%Wang%NULL%0,                    Ji-yang%Liu%NULL%0,                    Zhong%Chen%NULL%0,                    Gang%Li%NULL%0,                    Zhi-jian%Zheng%NULL%0,                    Shao-qin%Qiu%NULL%0,                    Jie%Luo%NULL%0,                    Chang-jiang%Ye%NULL%0,                    Shao-yong%Zhu%NULL%0,                    Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                    Fang%Jiang%NULL%0,                    Wating%Su%NULL%2,                    Chang%Chen%NULL%2,                    Jingli%Chen%NULL%2,                    Wei%Mei%NULL%2,                    Li-Ying%Zhan%NULL%2,                    Yifan%Jia%NULL%2,                    Liangqing%Zhang%NULL%2,                    Danyong%Liu%NULL%2,                    Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,                    Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                    Yuan%Yu%NULL%0,                    Jiqian%Xu%NULL%0,                    Huaqing%Shu%NULL%0,                    Jia'an%Xia%NULL%0,                    Hong%Liu%NULL%0,                    Yongran%Wu%NULL%0,                    Lu%Zhang%NULL%0,                    Zhui%Yu%NULL%0,                    Minghao%Fang%NULL%0,                    Ting%Yu%NULL%0,                    Yaxin%Wang%NULL%0,                    Shangwen%Pan%NULL%0,                    Xiaojing%Zou%NULL%0,                    Shiying%Yuan%NULL%0,                    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                    Yeming%Wang%NULL%0,                    Xingwang%Li%NULL%0,                    Lili%Ren%NULL%0,                    Jianping%Zhao%NULL%0,                    Yi%Hu%NULL%0,                    Li%Zhang%NULL%0,                    Guohui%Fan%NULL%0,                    Jiuyang%Xu%NULL%0,                    Xiaoying%Gu%NULL%0,                    Zhenshun%Cheng%NULL%0,                    Ting%Yu%NULL%0,                    Jiaan%Xia%NULL%0,                    Yuan%Wei%NULL%0,                    Wenjuan%Wu%NULL%0,                    Xuelei%Xie%NULL%0,                    Wen%Yin%NULL%0,                    Hui%Li%NULL%0,                    Min%Liu%NULL%0,                    Yan%Xiao%NULL%0,                    Hong%Gao%NULL%0,                    Li%Guo%NULL%0,                    Jungang%Xie%NULL%0,                    Guangfa%Wang%NULL%0,                    Rongmeng%Jiang%NULL%0,                    Zhancheng%Gao%NULL%0,                    Qi%Jin%NULL%0,                    Jianwei%Wang%wangjw28@163.com%0,                    Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,                    Xiaofan%Lu%NULL%1,                    Yongsheng%Li%NULL%2,                    Yongsheng%Li%NULL%0,                    Hui%Chen%NULL%3,                    Taige%Chen%NULL%1,                    Nan%Su%NULL%1,                    Fang%Huang%NULL%1,                    Jing%Zhou%NULL%1,                    Bing%Zhang%NULL%1,                    Fangrong%Yan%NULL%2,                    Fangrong%Yan%NULL%0,                    Jun%Wang%NULL%2,                    Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                  Cabrini%Luca%coreGivesNoEmail%0,                  Castelli%Antonio%coreGivesNoEmail%0,                  Cecconi%Maurizio%coreGivesNoEmail%0,                  Cereda%Danilo%coreGivesNoEmail%0,                  Coluccello%Antonio%coreGivesNoEmail%0,                  Foti%Giuseppe%coreGivesNoEmail%0,                  Fumagalli%Roberto%coreGivesNoEmail%0,                  Grasselli%Giacomo%coreGivesNoEmail%0,                  Iotti%Giorgio%coreGivesNoEmail%0,                  Latronico%Nicola%coreGivesNoEmail%0,                  Lorini%Luca%coreGivesNoEmail%0,                  Merler%Stefano%coreGivesNoEmail%0,                  Natalini%Giuseppe%coreGivesNoEmail%0,                  Pesenti%Antonio%coreGivesNoEmail%0,                  Piatti%Alessandra%coreGivesNoEmail%0,                  Ranieri%Marco Vito%coreGivesNoEmail%0,                  Scandroglio%Anna Mara%coreGivesNoEmail%0,                  Storti%Enrico%coreGivesNoEmail%0,                  Zanella%Alberto%coreGivesNoEmail%0,                  Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                    Mikael%Chetboun%NULL%1,                    Julien%Poissy%NULL%1,                    Violeta%Raverdy%NULL%1,                    Jerome%Noulette%NULL%2,                    Jerome%Noulette%NULL%0,                    Alain%Duhamel%NULL%0,                    Julien%Labreuche%NULL%0,                    Daniel%Mathieu%NULL%2,                    Francois%Pattou%francois.pattou@univ-lille.fr%1,                    Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,                    Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                    Robert%Caizzo%NULL%2,                    Robert%Caizzo%NULL%0,                    Morgan%Caplan%NULL%1,                    Nicolas%Cousin%NULL%1,                    Thibault%Duburcq%NULL%1,                    Arthur%Durand%NULL%1,                    Ahmed%El kalioubie%NULL%1,                    Raphael%Favory%NULL%1,                    Bruno%Garcia%NULL%1,                    Patrick%Girardie%NULL%1,                    Julien%Goutay%NULL%1,                    Marion%Houard%NULL%1,                    Emmanuelle%Jaillette%NULL%1,                    Nicolas%Kostuj%NULL%1,                    Geoffrey%Ledoux%NULL%1,                    Daniel%Mathieu%NULL%0,                    Anne Sophie%Moreau%NULL%1,                    Christopher%Niles%NULL%1,                    Saad%Nseir%NULL%1,                    Thierry%Onimus%NULL%1,                    Erika%Parmentier%NULL%1,                    Sebastien%Préau%NULL%1,                    Laurent%Robriquet%NULL%1,                    Anahita%Rouze%NULL%1,                    Sophie%Six%NULL%1,                    Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,            Eric%Yim%xref no email%0,            Lindy%Klaff%xref no email%0,            Sharukh%Lokhandwala%xref no email%0,            Francis X.%Riedo%xref no email%0,            Maria%Chong%xref no email%0,            Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                    Samuel L%Bruce%NULL%1,                    Cody L%Slater%NULL%1,                    Jonathan R%Tiao%NULL%1,                    Matthew R%Baldwin%NULL%2,                    R Graham%Barr%NULL%1,                    Bernard P%Chang%NULL%1,                    Katherine H%Chau%NULL%1,                    Justin J%Choi%NULL%1,                    Nicholas%Gavin%NULL%1,                    Parag%Goyal%NULL%1,                    Angela M%Mills%NULL%1,                    Ashmi A%Patel%NULL%1,                    Marie-Laure S%Romney%NULL%1,                    Monika M%Safford%NULL%1,                    Neil W%Schluger%NULL%1,                    Soumitra%Sengupta%NULL%1,                    Magdalena E%Sobieszczyk%NULL%1,                    Jason E%Zucker%NULL%1,                    Paul A%Asadourian%NULL%1,                    Fletcher M%Bell%NULL%1,                    Rebekah%Boyd%NULL%1,                    Matthew F%Cohen%NULL%1,                    MacAlistair I%Colquhoun%NULL%1,                    Lucy A%Colville%NULL%1,                    Joseph H%de Jonge%NULL%1,                    Lyle B%Dershowitz%NULL%1,                    Shirin A%Dey%NULL%1,                    Katherine A%Eiseman%NULL%1,                    Zachary P%Girvin%NULL%1,                    Daniella T%Goni%NULL%1,                    Amro A%Harb%NULL%1,                    Nicholas%Herzik%NULL%1,                    Sarah%Householder%NULL%1,                    Lara E%Karaaslan%NULL%1,                    Heather%Lee%NULL%1,                    Evan%Lieberman%NULL%1,                    Andrew%Ling%NULL%1,                    Ree%Lu%NULL%1,                    Arthur Y%Shou%NULL%1,                    Alexander C%Sisti%NULL%1,                    Zachary E%Snow%NULL%1,                    Colin P%Sperring%NULL%1,                    Yuqing%Xiong%NULL%1,                    Henry W%Zhou%NULL%1,                    Karthik%Natarajan%NULL%1,                    George%Hripcsak%NULL%1,                    Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                    Mark%Caridi-Scheible%NULL%0,                    James M.%Blum%NULL%0,                    Chad%Robichaux%NULL%0,                    Colleen%Kraft%NULL%0,                    Jesse T.%Jacob%NULL%0,                    Craig S.%Jabaley%NULL%0,                    David%Carpenter%NULL%0,                    Roberta%Kaplow%NULL%0,                    Alfonso C.%Hernandez-Romieu%NULL%0,                    Max W.%Adelman%NULL%0,                    Greg S.%Martin%NULL%0,                    Craig M.%Coopersmith%NULL%0,                    David J.%Murphy%NULL%0,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                    Bijan J.%Ghassemieh%NULL%0,                    Michelle%Nichols%NULL%0,                    Richard%Kim%NULL%0,                    Keith R.%Jerome%NULL%0,                    Arun K.%Nalla%NULL%0,                    Alexander L.%Greninger%NULL%0,                    Sudhakar%Pipavath%NULL%0,                    Mark M.%Wurfel%NULL%0,                    Laura%Evans%NULL%0,                    Patricia A.%Kritek%NULL%0,                    T. Eoin%West%NULL%0,                    Andrew%Luks%NULL%0,                    Anthony%Gerbino%NULL%0,                    Chris R.%Dale%NULL%0,                    Jason D.%Goldman%NULL%0,                    Shane%O’Mahony%NULL%0,                    Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura C.%Myers%xref no email%1,            Stephen M.%Parodi%xref no email%1,            Gabriel J.%Escobar%xref no email%1,            Vincent X.%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                  Becker%L.B.%coreGivesNoEmail%0,                  Chelico%J.D.%coreGivesNoEmail%0,                  Cohen%S.L.%coreGivesNoEmail%0,                  Cookingham%J.%coreGivesNoEmail%0,                  Coppa%K.%coreGivesNoEmail%0,                  Crawford%J.M.%coreGivesNoEmail%0,                  Davidson%K.W.%coreGivesNoEmail%0,                  Diefenbach%M.A.%coreGivesNoEmail%0,                  Dominello%A.J.%coreGivesNoEmail%0,                  Duer-Hefele%J.%coreGivesNoEmail%0,                  Falzon%L.%coreGivesNoEmail%0,                  Gitlin%J.%coreGivesNoEmail%0,                  Hajizadeh%N.%coreGivesNoEmail%0,                  Harvin%T.G.%coreGivesNoEmail%0,                  Hirsch%J.S.%coreGivesNoEmail%0,                  Hirschwerk%D.A.%coreGivesNoEmail%0,                  Kim%E.J.%coreGivesNoEmail%0,                  Kozel%Z.M.%coreGivesNoEmail%0,                  Marrast%L.M.%coreGivesNoEmail%0,                  McGinn%T.%coreGivesNoEmail%0,                  Mogavero%J.N.%coreGivesNoEmail%0,                  Narasimhan%M.%coreGivesNoEmail%0,                  Osorio%G.A.%coreGivesNoEmail%0,                  Qiu%M.%coreGivesNoEmail%0,                  Richardson%S.%coreGivesNoEmail%0,                  Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,                    Jehan%Alladina%NULL%2,                    Jehan%Alladina%NULL%0,                    Camille R.%Petri%NULL%2,                    Camille R.%Petri%NULL%0,                    Jason H.%Maley%NULL%2,                    Jason H.%Maley%NULL%0,                    Ari%Moskowitz%NULL%1,                    Benjamin D.%Medoff%NULL%1,                    Kathryn A.%Hibbert%NULL%2,                    Kathryn A.%Hibbert%NULL%0,                    B. Taylor%Thompson%NULL%1,                    C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,                    Adam J%Russak%NULL%2,                    Adam J%Russak%NULL%0,                    Jessica K%De Freitas%NULL%1,                    Anuradha%Lala%NULL%1,                    Riccardo%Miotto%NULL%1,                    Akhil%Vaid%NULL%1,                    Kipp W%Johnson%NULL%1,                    Matteo%Danieletto%NULL%1,                    Eddye%Golden%NULL%1,                    Dara%Meyer%NULL%1,                    Manbir%Singh%NULL%1,                    Sulaiman%Somani%NULL%1,                    Arjun%Kapoor%NULL%1,                    Ross%O'Hagan%NULL%1,                    Sayan%Manna%NULL%1,                    Udit%Nangia%NULL%1,                    Suraj K%Jaladanki%NULL%1,                    Paul%O’Reilly%NULL%2,                    Paul%O’Reilly%NULL%0,                    Laura M%Huckins%NULL%1,                    Patricia%Glowe%NULL%1,                    Arash%Kia%NULL%1,                    Prem%Timsina%NULL%1,                    Robert M%Freeman%NULL%1,                    Matthew A%Levin%NULL%1,                    Jeffrey%Jhang%NULL%1,                    Adolfo%Firpo%NULL%1,                    Patricia%Kovatch%NULL%1,                    Joseph%Finkelstein%NULL%1,                    Judith A%Aberg%NULL%1,                    Emilia%Bagiella%NULL%1,                    Carol R%Horowitz%NULL%1,                    Barbara%Murphy%NULL%1,                    Zahi A%Fayad%NULL%1,                    Jagat%Narula%NULL%1,                    Eric J%Nestler%NULL%1,                    V%Fuster%NULL%1,                    Carlos%Cordon-Cardo%NULL%1,                    Dennis%Charney%NULL%1,                    David L%Reich%NULL%1,                    Allan%Just%NULL%1,                    Erwin P%Bottinger%NULL%1,                    Alexander W%Charney%NULL%1,                    Benjamin S%Glicksberg%NULL%1,                    Girish N%Nadkarni%NULL%1,                    NULL%NULL%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2330,7 +2414,7 @@
         <v>382</v>
       </c>
       <c r="E2" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -2342,7 +2426,7 @@
         <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>198</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3">
@@ -2359,7 +2443,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -2371,7 +2455,7 @@
         <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>200</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4">
@@ -2388,7 +2472,7 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -2400,7 +2484,7 @@
         <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>202</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5">
@@ -2417,7 +2501,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -2429,7 +2513,7 @@
         <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>204</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6">
@@ -2446,7 +2530,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -2458,7 +2542,7 @@
         <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>200</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7">
@@ -2475,7 +2559,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>527</v>
+        <v>554</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -2487,7 +2571,7 @@
         <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>198</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8">
@@ -2504,7 +2588,7 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -2516,7 +2600,7 @@
         <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>200</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9">
@@ -2533,7 +2617,7 @@
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -2545,7 +2629,7 @@
         <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>200</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10">
@@ -2562,7 +2646,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -2574,7 +2658,7 @@
         <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>200</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11">
@@ -2591,7 +2675,7 @@
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="F11" t="s">
         <v>90</v>
@@ -2603,7 +2687,7 @@
         <v>91</v>
       </c>
       <c r="I11" t="s">
-        <v>204</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12">
@@ -2620,7 +2704,7 @@
         <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>532</v>
+        <v>559</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -2632,7 +2716,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>204</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13">
@@ -2649,7 +2733,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -2661,7 +2745,7 @@
         <v>63</v>
       </c>
       <c r="I13" t="s">
-        <v>204</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14">
@@ -2678,7 +2762,7 @@
         <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>534</v>
+        <v>561</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -2690,7 +2774,7 @@
         <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>200</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15">
@@ -2707,7 +2791,7 @@
         <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>535</v>
+        <v>562</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -2719,7 +2803,7 @@
         <v>63</v>
       </c>
       <c r="I15" t="s">
-        <v>101</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16">
@@ -2736,7 +2820,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -2748,7 +2832,7 @@
         <v>108</v>
       </c>
       <c r="I16" t="s">
-        <v>200</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17">
@@ -2765,7 +2849,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -2777,7 +2861,7 @@
         <v>303</v>
       </c>
       <c r="I17" t="s">
-        <v>101</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18">
@@ -2794,7 +2878,7 @@
         <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="F18" t="s">
         <v>112</v>
@@ -2806,7 +2890,7 @@
         <v>113</v>
       </c>
       <c r="I18" t="s">
-        <v>200</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19">
@@ -2823,7 +2907,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -2835,7 +2919,7 @@
         <v>63</v>
       </c>
       <c r="I19" t="s">
-        <v>200</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20">
@@ -2852,7 +2936,7 @@
         <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
@@ -2864,7 +2948,7 @@
         <v>63</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21">
@@ -2881,7 +2965,7 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
@@ -2893,7 +2977,7 @@
         <v>309</v>
       </c>
       <c r="I21" t="s">
-        <v>101</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22">
@@ -2910,7 +2994,7 @@
         <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -2922,7 +3006,7 @@
         <v>63</v>
       </c>
       <c r="I22" t="s">
-        <v>101</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23">
@@ -2939,7 +3023,7 @@
         <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="F23" t="s">
         <v>124</v>
@@ -2951,7 +3035,7 @@
         <v>63</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24">
@@ -2968,7 +3052,7 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="F24" t="s">
         <v>128</v>
@@ -2980,7 +3064,7 @@
         <v>129</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/71.xlsx
+++ b/Covid_19_Dataset_and_References/References/71.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3488" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3656" uniqueCount="596">
   <si>
     <t>Doi</t>
   </si>
@@ -2043,6 +2043,75 @@
   </si>
   <si>
     <t>[Ishan%Paranjpe%NULL%0,                    Adam J%Russak%NULL%2,                    Adam J%Russak%NULL%0,                    Jessica K%De Freitas%NULL%1,                    Anuradha%Lala%NULL%1,                    Riccardo%Miotto%NULL%1,                    Akhil%Vaid%NULL%1,                    Kipp W%Johnson%NULL%1,                    Matteo%Danieletto%NULL%1,                    Eddye%Golden%NULL%1,                    Dara%Meyer%NULL%1,                    Manbir%Singh%NULL%1,                    Sulaiman%Somani%NULL%1,                    Arjun%Kapoor%NULL%1,                    Ross%O'Hagan%NULL%1,                    Sayan%Manna%NULL%1,                    Udit%Nangia%NULL%1,                    Suraj K%Jaladanki%NULL%1,                    Paul%O’Reilly%NULL%2,                    Paul%O’Reilly%NULL%0,                    Laura M%Huckins%NULL%1,                    Patricia%Glowe%NULL%1,                    Arash%Kia%NULL%1,                    Prem%Timsina%NULL%1,                    Robert M%Freeman%NULL%1,                    Matthew A%Levin%NULL%1,                    Jeffrey%Jhang%NULL%1,                    Adolfo%Firpo%NULL%1,                    Patricia%Kovatch%NULL%1,                    Joseph%Finkelstein%NULL%1,                    Judith A%Aberg%NULL%1,                    Emilia%Bagiella%NULL%1,                    Carol R%Horowitz%NULL%1,                    Barbara%Murphy%NULL%1,                    Zahi A%Fayad%NULL%1,                    Jagat%Narula%NULL%1,                    Eric J%Nestler%NULL%1,                    V%Fuster%NULL%1,                    Carlos%Cordon-Cardo%NULL%1,                    Dennis%Charney%NULL%1,                    David L%Reich%NULL%1,                    Allan%Just%NULL%1,                    Erwin P%Bottinger%NULL%1,                    Alexander W%Charney%NULL%1,                    Benjamin S%Glicksberg%NULL%1,                    Girish N%Nadkarni%NULL%1,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,                     Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,                     Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,                     Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,                     Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,                     Bruno%Riou%bruno.riou@aphp.fr%2,                     Bruno%Riou%bruno.riou@aphp.fr%0,                     Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                     Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                     Gilles%Hejblum%gilles.hejblum@inserm.fr%2,                     Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,                     Peiyun%Li%NULL%1,                     Liang%Ma%NULL%1,                     Hang%Liang%NULL%1,                     Jie%Lei%NULL%0,                     Wenqiang%Li%NULL%1,                     Kun%Wang%NULL%0,                     Yu%Song%NULL%1,                     Shuai%Li%NULL%1,                     Wei%Yang%NULL%1,                     Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%2,                      C.% Hong%null%1,                      J.% Meng%null%1,                      Z.% Wu%null%1,                      P.% Zhou%null%1,                      C.% Ye%null%1,                      B.% Sun%null%1,                      L. M.% Kucirka%null%1,                      A. S.% Azman%null%1,                      T.% Wang%null%0,                      J.% Chen%null%1,                      Z.% Wang%null%1,                      L.% Liu%null%0,                      J.% Lessler%null%1,                      J. K.% Edwards%null%1,                      T.% Ma%null%1,                      G. % Zhang%null%1,  Q.%Bi%null%0,  C.% Hong%null%1,  J.% Meng%null%1,  Z.% Wu%null%1,  P.% Zhou%null%0,  C.% Ye%null%1,  B.% Sun%null%1,  L. M.% Kucirka%null%1,  A. S.% Azman%null%1,  T.% Wang%null%0,  J.% Chen%null%1,  Z.% Wang%null%1,  L.% Liu%null%0,  J.% Lessler%null%1,  J. K.% Edwards%null%1,  T.% Ma%null%1,  G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                     Ting%Yu%NULL%0,                     Ronghui%Du%NULL%0,                     Guohui%Fan%NULL%0,                     Ying%Liu%NULL%0,                     Zhibo%Liu%NULL%0,                     Jie%Xiang%NULL%0,                     Yeming%Wang%NULL%0,                     Bin%Song%NULL%0,                     Xiaoying%Gu%NULL%0,                     Lulu%Guan%NULL%0,                     Yuan%Wei%NULL%0,                     Hui%Li%NULL%0,                     Xudong%Wu%NULL%0,                     Jiuyang%Xu%NULL%0,                     Shengjin%Tu%NULL%0,                     Yi%Zhang%NULL%0,                     Hua%Chen%NULL%0,                     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,                     Zhiheng%Xu%NULL%1,                     Xuesong%Liu%NULL%1,                     Lihua%Cai%NULL%1,                     Haichong%Zheng%NULL%1,                     Yongbo%Huang%NULL%1,                     Lixin%Zhou%NULL%1,                     Linxi%Huang%NULL%1,                     Yun%Ling%NULL%0,                     Liehua%Deng%NULL%1,                     Jianwei%Li%NULL%0,                     Sibei%Chen%NULL%1,                     Dongdong%Liu%NULL%1,                     Zhimin%Lin%NULL%1,                     Liang%Zhou%NULL%1,                     Weiqun%He%NULL%1,                     Nanshan%Zhong%NULL%0,                     Xiaoqing%Liu%NULL%3,                     Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,                     Li-jun%Sun%NULL%1,                     Mi%Xu%NULL%1,                     Jian%Pan%NULL%1,                     Yun-tao%Zhang%NULL%1,                     Xue-ling%Fang%NULL%1,                     Qiang%Fang%NULL%1,                     Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                     Li-Min%Liu%NULL%2,                     Wen%Yin%NULL%0,                     Wen%Wang%NULL%0,                     Lu-Lu%Guan%NULL%2,                     Ming-Li%Yuan%NULL%0,                     Yu-Lei%Li%NULL%2,                     Yi%Hu%NULL%0,                     Xu-Yan%Li%NULL%0,                     Bing%Sun%NULL%2,                     Peng%Peng%NULL%0,                     Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                     Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                     Wenlin%Cheng%NULL%0,                     Lei%Yu%NULL%0,                     Ya-Kun%Liu%NULL%0,                     Xiaoyong%Hu%NULL%0,                     Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                     Zheng-yi%Ni%NULL%0,                     Zheng-yi%Ni%NULL%0,                     Yu%Hu%NULL%0,                     Wen-hua%Liang%NULL%0,                     Chun-quan%Ou%NULL%0,                     Jian-xing%He%NULL%0,                     Lei%Liu%NULL%0,                     Hong%Shan%NULL%0,                     Chun-liang%Lei%NULL%0,                     David S.C.%Hui%NULL%0,                     Bin%Du%NULL%0,                     Lan-juan%Li%NULL%0,                     Guang%Zeng%NULL%0,                     Kwok-Yung%Yuen%NULL%0,                     Ru-chong%Chen%NULL%0,                     Chun-li%Tang%NULL%0,                     Tao%Wang%NULL%0,                     Ping-yan%Chen%NULL%0,                     Jie%Xiang%NULL%0,                     Shi-yue%Li%NULL%0,                     Jin-lin%Wang%NULL%0,                     Zi-jing%Liang%NULL%0,                     Yi-xiang%Peng%NULL%0,                     Li%Wei%NULL%0,                     Yong%Liu%NULL%0,                     Ya-hua%Hu%NULL%0,                     Peng%Peng%NULL%0,                     Jian-ming%Wang%NULL%0,                     Ji-yang%Liu%NULL%0,                     Zhong%Chen%NULL%0,                     Gang%Li%NULL%0,                     Zhi-jian%Zheng%NULL%0,                     Shao-qin%Qiu%NULL%0,                     Jie%Luo%NULL%0,                     Chang-jiang%Ye%NULL%0,                     Shao-yong%Zhu%NULL%0,                     Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                     Fang%Jiang%NULL%0,                     Wating%Su%NULL%2,                     Chang%Chen%NULL%2,                     Jingli%Chen%NULL%2,                     Wei%Mei%NULL%2,                     Li-Ying%Zhan%NULL%2,                     Yifan%Jia%NULL%2,                     Liangqing%Zhang%NULL%2,                     Danyong%Liu%NULL%2,                     Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,                     Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                     Yuan%Yu%NULL%0,                     Jiqian%Xu%NULL%0,                     Huaqing%Shu%NULL%0,                     Jia'an%Xia%NULL%0,                     Hong%Liu%NULL%0,                     Yongran%Wu%NULL%0,                     Lu%Zhang%NULL%0,                     Zhui%Yu%NULL%0,                     Minghao%Fang%NULL%0,                     Ting%Yu%NULL%0,                     Yaxin%Wang%NULL%0,                     Shangwen%Pan%NULL%0,                     Xiaojing%Zou%NULL%0,                     Shiying%Yuan%NULL%0,                     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                     Yeming%Wang%NULL%0,                     Xingwang%Li%NULL%0,                     Lili%Ren%NULL%0,                     Jianping%Zhao%NULL%0,                     Yi%Hu%NULL%0,                     Li%Zhang%NULL%0,                     Guohui%Fan%NULL%0,                     Jiuyang%Xu%NULL%0,                     Xiaoying%Gu%NULL%0,                     Zhenshun%Cheng%NULL%0,                     Ting%Yu%NULL%0,                     Jiaan%Xia%NULL%0,                     Yuan%Wei%NULL%0,                     Wenjuan%Wu%NULL%0,                     Xuelei%Xie%NULL%0,                     Wen%Yin%NULL%0,                     Hui%Li%NULL%0,                     Min%Liu%NULL%0,                     Yan%Xiao%NULL%0,                     Hong%Gao%NULL%0,                     Li%Guo%NULL%0,                     Jungang%Xie%NULL%0,                     Guangfa%Wang%NULL%0,                     Rongmeng%Jiang%NULL%0,                     Zhancheng%Gao%NULL%0,                     Qi%Jin%NULL%0,                     Jianwei%Wang%wangjw28@163.com%0,                     Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,                     Xiaofan%Lu%NULL%1,                     Yongsheng%Li%NULL%2,                     Yongsheng%Li%NULL%0,                     Hui%Chen%NULL%3,                     Taige%Chen%NULL%1,                     Nan%Su%NULL%1,                     Fang%Huang%NULL%1,                     Jing%Zhou%NULL%1,                     Bing%Zhang%NULL%1,                     Fangrong%Yan%NULL%2,                     Fangrong%Yan%NULL%0,                     Jun%Wang%NULL%2,                     Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                   Cabrini%Luca%coreGivesNoEmail%0,                   Castelli%Antonio%coreGivesNoEmail%0,                   Cecconi%Maurizio%coreGivesNoEmail%0,                   Cereda%Danilo%coreGivesNoEmail%0,                   Coluccello%Antonio%coreGivesNoEmail%0,                   Foti%Giuseppe%coreGivesNoEmail%0,                   Fumagalli%Roberto%coreGivesNoEmail%0,                   Grasselli%Giacomo%coreGivesNoEmail%0,                   Iotti%Giorgio%coreGivesNoEmail%0,                   Latronico%Nicola%coreGivesNoEmail%0,                   Lorini%Luca%coreGivesNoEmail%0,                   Merler%Stefano%coreGivesNoEmail%0,                   Natalini%Giuseppe%coreGivesNoEmail%0,                   Pesenti%Antonio%coreGivesNoEmail%0,                   Piatti%Alessandra%coreGivesNoEmail%0,                   Ranieri%Marco Vito%coreGivesNoEmail%0,                   Scandroglio%Anna Mara%coreGivesNoEmail%0,                   Storti%Enrico%coreGivesNoEmail%0,                   Zanella%Alberto%coreGivesNoEmail%0,                   Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                     Mikael%Chetboun%NULL%1,                     Julien%Poissy%NULL%1,                     Violeta%Raverdy%NULL%1,                     Jerome%Noulette%NULL%2,                     Jerome%Noulette%NULL%0,                     Alain%Duhamel%NULL%0,                     Julien%Labreuche%NULL%0,                     Daniel%Mathieu%NULL%2,                     Francois%Pattou%francois.pattou@univ-lille.fr%1,                     Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,                     Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                     Robert%Caizzo%NULL%2,                     Robert%Caizzo%NULL%0,                     Morgan%Caplan%NULL%1,                     Nicolas%Cousin%NULL%1,                     Thibault%Duburcq%NULL%1,                     Arthur%Durand%NULL%1,                     Ahmed%El kalioubie%NULL%1,                     Raphael%Favory%NULL%1,                     Bruno%Garcia%NULL%1,                     Patrick%Girardie%NULL%1,                     Julien%Goutay%NULL%1,                     Marion%Houard%NULL%1,                     Emmanuelle%Jaillette%NULL%1,                     Nicolas%Kostuj%NULL%1,                     Geoffrey%Ledoux%NULL%1,                     Daniel%Mathieu%NULL%0,                     Anne Sophie%Moreau%NULL%1,                     Christopher%Niles%NULL%1,                     Saad%Nseir%NULL%1,                     Thierry%Onimus%NULL%1,                     Erika%Parmentier%NULL%1,                     Sebastien%Préau%NULL%1,                     Laurent%Robriquet%NULL%1,                     Anahita%Rouze%NULL%1,                     Sophie%Six%NULL%1,                     Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matt%Arentz%xref no email%0,             Eric%Yim%xref no email%0,             Lindy%Klaff%xref no email%0,             Sharukh%Lokhandwala%xref no email%0,             Francis X.%Riedo%xref no email%0,             Maria%Chong%xref no email%0,             Melissa%Lee%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                     Samuel L%Bruce%NULL%1,                     Cody L%Slater%NULL%1,                     Jonathan R%Tiao%NULL%1,                     Matthew R%Baldwin%NULL%2,                     R Graham%Barr%NULL%1,                     Bernard P%Chang%NULL%1,                     Katherine H%Chau%NULL%1,                     Justin J%Choi%NULL%1,                     Nicholas%Gavin%NULL%1,                     Parag%Goyal%NULL%1,                     Angela M%Mills%NULL%1,                     Ashmi A%Patel%NULL%1,                     Marie-Laure S%Romney%NULL%1,                     Monika M%Safford%NULL%1,                     Neil W%Schluger%NULL%1,                     Soumitra%Sengupta%NULL%1,                     Magdalena E%Sobieszczyk%NULL%1,                     Jason E%Zucker%NULL%1,                     Paul A%Asadourian%NULL%1,                     Fletcher M%Bell%NULL%1,                     Rebekah%Boyd%NULL%1,                     Matthew F%Cohen%NULL%1,                     MacAlistair I%Colquhoun%NULL%1,                     Lucy A%Colville%NULL%1,                     Joseph H%de Jonge%NULL%1,                     Lyle B%Dershowitz%NULL%1,                     Shirin A%Dey%NULL%1,                     Katherine A%Eiseman%NULL%1,                     Zachary P%Girvin%NULL%1,                     Daniella T%Goni%NULL%1,                     Amro A%Harb%NULL%1,                     Nicholas%Herzik%NULL%1,                     Sarah%Householder%NULL%1,                     Lara E%Karaaslan%NULL%1,                     Heather%Lee%NULL%1,                     Evan%Lieberman%NULL%1,                     Andrew%Ling%NULL%1,                     Ree%Lu%NULL%1,                     Arthur Y%Shou%NULL%1,                     Alexander C%Sisti%NULL%1,                     Zachary E%Snow%NULL%1,                     Colin P%Sperring%NULL%1,                     Yuqing%Xiong%NULL%1,                     Henry W%Zhou%NULL%1,                     Karthik%Natarajan%NULL%1,                     George%Hripcsak%NULL%1,                     Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                     Mark%Caridi-Scheible%NULL%0,                     James M.%Blum%NULL%0,                     Chad%Robichaux%NULL%0,                     Colleen%Kraft%NULL%0,                     Jesse T.%Jacob%NULL%0,                     Craig S.%Jabaley%NULL%0,                     David%Carpenter%NULL%0,                     Roberta%Kaplow%NULL%0,                     Alfonso C.%Hernandez-Romieu%NULL%0,                     Max W.%Adelman%NULL%0,                     Greg S.%Martin%NULL%0,                     Craig M.%Coopersmith%NULL%0,                     David J.%Murphy%NULL%0,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                     Bijan J.%Ghassemieh%NULL%0,                     Michelle%Nichols%NULL%0,                     Richard%Kim%NULL%0,                     Keith R.%Jerome%NULL%0,                     Arun K.%Nalla%NULL%0,                     Alexander L.%Greninger%NULL%0,                     Sudhakar%Pipavath%NULL%0,                     Mark M.%Wurfel%NULL%0,                     Laura%Evans%NULL%0,                     Patricia A.%Kritek%NULL%0,                     T. Eoin%West%NULL%0,                     Andrew%Luks%NULL%0,                     Anthony%Gerbino%NULL%0,                     Chris R.%Dale%NULL%0,                     Jason D.%Goldman%NULL%0,                     Shane%O’Mahony%NULL%0,                     Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura C.%Myers%xref no email%1,             Stephen M.%Parodi%xref no email%1,             Gabriel J.%Escobar%xref no email%1,             Vincent X.%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                   Becker%L.B.%coreGivesNoEmail%0,                   Chelico%J.D.%coreGivesNoEmail%0,                   Cohen%S.L.%coreGivesNoEmail%0,                   Cookingham%J.%coreGivesNoEmail%0,                   Coppa%K.%coreGivesNoEmail%0,                   Crawford%J.M.%coreGivesNoEmail%0,                   Davidson%K.W.%coreGivesNoEmail%0,                   Diefenbach%M.A.%coreGivesNoEmail%0,                   Dominello%A.J.%coreGivesNoEmail%0,                   Duer-Hefele%J.%coreGivesNoEmail%0,                   Falzon%L.%coreGivesNoEmail%0,                   Gitlin%J.%coreGivesNoEmail%0,                   Hajizadeh%N.%coreGivesNoEmail%0,                   Harvin%T.G.%coreGivesNoEmail%0,                   Hirsch%J.S.%coreGivesNoEmail%0,                   Hirschwerk%D.A.%coreGivesNoEmail%0,                   Kim%E.J.%coreGivesNoEmail%0,                   Kozel%Z.M.%coreGivesNoEmail%0,                   Marrast%L.M.%coreGivesNoEmail%0,                   McGinn%T.%coreGivesNoEmail%0,                   Mogavero%J.N.%coreGivesNoEmail%0,                   Narasimhan%M.%coreGivesNoEmail%0,                   Osorio%G.A.%coreGivesNoEmail%0,                   Qiu%M.%coreGivesNoEmail%0,                   Richardson%S.%coreGivesNoEmail%0,                   Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,                     Jehan%Alladina%NULL%2,                     Jehan%Alladina%NULL%0,                     Camille R.%Petri%NULL%2,                     Camille R.%Petri%NULL%0,                     Jason H.%Maley%NULL%2,                     Jason H.%Maley%NULL%0,                     Ari%Moskowitz%NULL%1,                     Benjamin D.%Medoff%NULL%1,                     Kathryn A.%Hibbert%NULL%2,                     Kathryn A.%Hibbert%NULL%0,                     B. Taylor%Thompson%NULL%1,                     C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,                     Adam J%Russak%NULL%2,                     Adam J%Russak%NULL%0,                     Jessica K%De Freitas%NULL%1,                     Anuradha%Lala%NULL%1,                     Riccardo%Miotto%NULL%1,                     Akhil%Vaid%NULL%1,                     Kipp W%Johnson%NULL%1,                     Matteo%Danieletto%NULL%1,                     Eddye%Golden%NULL%1,                     Dara%Meyer%NULL%1,                     Manbir%Singh%NULL%1,                     Sulaiman%Somani%NULL%1,                     Arjun%Kapoor%NULL%1,                     Ross%O'Hagan%NULL%1,                     Sayan%Manna%NULL%1,                     Udit%Nangia%NULL%1,                     Suraj K%Jaladanki%NULL%1,                     Paul%O’Reilly%NULL%2,                     Paul%O’Reilly%NULL%0,                     Laura M%Huckins%NULL%1,                     Patricia%Glowe%NULL%1,                     Arash%Kia%NULL%1,                     Prem%Timsina%NULL%1,                     Robert M%Freeman%NULL%1,                     Matthew A%Levin%NULL%1,                     Jeffrey%Jhang%NULL%1,                     Adolfo%Firpo%NULL%1,                     Patricia%Kovatch%NULL%1,                     Joseph%Finkelstein%NULL%1,                     Judith A%Aberg%NULL%1,                     Emilia%Bagiella%NULL%1,                     Carol R%Horowitz%NULL%1,                     Barbara%Murphy%NULL%1,                     Zahi A%Fayad%NULL%1,                     Jagat%Narula%NULL%1,                     Eric J%Nestler%NULL%1,                     V%Fuster%NULL%1,                     Carlos%Cordon-Cardo%NULL%1,                     Dennis%Charney%NULL%1,                     David L%Reich%NULL%1,                     Allan%Just%NULL%1,                     Erwin P%Bottinger%NULL%1,                     Alexander W%Charney%NULL%1,                     Benjamin S%Glicksberg%NULL%1,                     Girish N%Nadkarni%NULL%1,                     NULL%NULL%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2414,7 +2483,7 @@
         <v>382</v>
       </c>
       <c r="E2" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -2443,7 +2512,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -2472,7 +2541,7 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -2501,7 +2570,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -2530,7 +2599,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -2559,7 +2628,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -2588,7 +2657,7 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -2617,7 +2686,7 @@
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -2646,7 +2715,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -2675,7 +2744,7 @@
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="F11" t="s">
         <v>90</v>
@@ -2704,7 +2773,7 @@
         <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -2733,7 +2802,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -2762,7 +2831,7 @@
         <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -2791,7 +2860,7 @@
         <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -2820,7 +2889,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -2849,7 +2918,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -2878,7 +2947,7 @@
         <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="F18" t="s">
         <v>112</v>
@@ -2907,7 +2976,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -2936,7 +3005,7 @@
         <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
@@ -2965,7 +3034,7 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
@@ -2994,7 +3063,7 @@
         <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -3023,7 +3092,7 @@
         <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="F23" t="s">
         <v>124</v>
@@ -3052,7 +3121,7 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>572</v>
+        <v>595</v>
       </c>
       <c r="F24" t="s">
         <v>128</v>

--- a/Covid_19_Dataset_and_References/References/71.xlsx
+++ b/Covid_19_Dataset_and_References/References/71.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3656" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4616" uniqueCount="705">
   <si>
     <t>Doi</t>
   </si>
@@ -2112,6 +2112,333 @@
   </si>
   <si>
     <t>[Ishan%Paranjpe%NULL%0,                     Adam J%Russak%NULL%2,                     Adam J%Russak%NULL%0,                     Jessica K%De Freitas%NULL%1,                     Anuradha%Lala%NULL%1,                     Riccardo%Miotto%NULL%1,                     Akhil%Vaid%NULL%1,                     Kipp W%Johnson%NULL%1,                     Matteo%Danieletto%NULL%1,                     Eddye%Golden%NULL%1,                     Dara%Meyer%NULL%1,                     Manbir%Singh%NULL%1,                     Sulaiman%Somani%NULL%1,                     Arjun%Kapoor%NULL%1,                     Ross%O'Hagan%NULL%1,                     Sayan%Manna%NULL%1,                     Udit%Nangia%NULL%1,                     Suraj K%Jaladanki%NULL%1,                     Paul%O’Reilly%NULL%2,                     Paul%O’Reilly%NULL%0,                     Laura M%Huckins%NULL%1,                     Patricia%Glowe%NULL%1,                     Arash%Kia%NULL%1,                     Prem%Timsina%NULL%1,                     Robert M%Freeman%NULL%1,                     Matthew A%Levin%NULL%1,                     Jeffrey%Jhang%NULL%1,                     Adolfo%Firpo%NULL%1,                     Patricia%Kovatch%NULL%1,                     Joseph%Finkelstein%NULL%1,                     Judith A%Aberg%NULL%1,                     Emilia%Bagiella%NULL%1,                     Carol R%Horowitz%NULL%1,                     Barbara%Murphy%NULL%1,                     Zahi A%Fayad%NULL%1,                     Jagat%Narula%NULL%1,                     Eric J%Nestler%NULL%1,                     V%Fuster%NULL%1,                     Carlos%Cordon-Cardo%NULL%1,                     Dennis%Charney%NULL%1,                     David L%Reich%NULL%1,                     Allan%Just%NULL%1,                     Erwin P%Bottinger%NULL%1,                     Alexander W%Charney%NULL%1,                     Benjamin S%Glicksberg%NULL%1,                     Girish N%Nadkarni%NULL%1,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,                      Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,                      Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,                      Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,                      Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,                      Bruno%Riou%bruno.riou@aphp.fr%2,                      Bruno%Riou%bruno.riou@aphp.fr%0,                      Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                      Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                      Gilles%Hejblum%gilles.hejblum@inserm.fr%2,                      Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,                      Peiyun%Li%NULL%1,                      Liang%Ma%NULL%1,                      Hang%Liang%NULL%1,                      Jie%Lei%NULL%0,                      Wenqiang%Li%NULL%1,                      Kun%Wang%NULL%0,                      Yu%Song%NULL%1,                      Shuai%Li%NULL%1,                      Wei%Yang%NULL%1,                      Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,                       C.% Hong%null%1,                       J.% Meng%null%1,                       Z.% Wu%null%1,                       P.% Zhou%null%1,                       C.% Ye%null%1,                       B.% Sun%null%1,                       L. M.% Kucirka%null%1,                       A. S.% Azman%null%1,                       T.% Wang%null%0,                       J.% Chen%null%1,                       Z.% Wang%null%1,                       L.% Liu%null%0,                       J.% Lessler%null%1,                       J. K.% Edwards%null%1,                       T.% Ma%null%1,                       G. % Zhang%null%1,   Q.%Bi%null%1,   C.% Hong%null%1,   J.% Meng%null%1,   Z.% Wu%null%1,   P.% Zhou%null%0,   C.% Ye%null%1,   B.% Sun%null%1,   L. M.% Kucirka%null%1,   A. S.% Azman%null%1,   T.% Wang%null%0,   J.% Chen%null%1,   Z.% Wang%null%1,   L.% Liu%null%0,   J.% Lessler%null%1,   J. K.% Edwards%null%1,   T.% Ma%null%1,   G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                      Ting%Yu%NULL%0,                      Ronghui%Du%NULL%0,                      Guohui%Fan%NULL%0,                      Ying%Liu%NULL%0,                      Zhibo%Liu%NULL%0,                      Jie%Xiang%NULL%0,                      Yeming%Wang%NULL%0,                      Bin%Song%NULL%0,                      Xiaoying%Gu%NULL%0,                      Lulu%Guan%NULL%0,                      Yuan%Wei%NULL%0,                      Hui%Li%NULL%0,                      Xudong%Wu%NULL%0,                      Jiuyang%Xu%NULL%0,                      Shengjin%Tu%NULL%0,                      Yi%Zhang%NULL%0,                      Hua%Chen%NULL%0,                      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,                      Zhiheng%Xu%NULL%1,                      Xuesong%Liu%NULL%1,                      Lihua%Cai%NULL%1,                      Haichong%Zheng%NULL%1,                      Yongbo%Huang%NULL%1,                      Lixin%Zhou%NULL%1,                      Linxi%Huang%NULL%1,                      Yun%Ling%NULL%0,                      Liehua%Deng%NULL%1,                      Jianwei%Li%NULL%0,                      Sibei%Chen%NULL%1,                      Dongdong%Liu%NULL%1,                      Zhimin%Lin%NULL%1,                      Liang%Zhou%NULL%1,                      Weiqun%He%NULL%1,                      Nanshan%Zhong%NULL%0,                      Xiaoqing%Liu%NULL%3,                      Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,                      Li-jun%Sun%NULL%1,                      Mi%Xu%NULL%1,                      Jian%Pan%NULL%1,                      Yun-tao%Zhang%NULL%1,                      Xue-ling%Fang%NULL%1,                      Qiang%Fang%NULL%1,                      Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                      Li-Min%Liu%NULL%2,                      Wen%Yin%NULL%0,                      Wen%Wang%NULL%0,                      Lu-Lu%Guan%NULL%2,                      Ming-Li%Yuan%NULL%0,                      Yu-Lei%Li%NULL%2,                      Yi%Hu%NULL%0,                      Xu-Yan%Li%NULL%0,                      Bing%Sun%NULL%2,                      Peng%Peng%NULL%0,                      Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                      Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                      Wenlin%Cheng%NULL%0,                      Lei%Yu%NULL%0,                      Ya-Kun%Liu%NULL%0,                      Xiaoyong%Hu%NULL%0,                      Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                      Zheng-yi%Ni%NULL%0,                      Zheng-yi%Ni%NULL%0,                      Yu%Hu%NULL%0,                      Wen-hua%Liang%NULL%0,                      Chun-quan%Ou%NULL%0,                      Jian-xing%He%NULL%0,                      Lei%Liu%NULL%0,                      Hong%Shan%NULL%0,                      Chun-liang%Lei%NULL%0,                      David S.C.%Hui%NULL%0,                      Bin%Du%NULL%0,                      Lan-juan%Li%NULL%0,                      Guang%Zeng%NULL%0,                      Kwok-Yung%Yuen%NULL%0,                      Ru-chong%Chen%NULL%0,                      Chun-li%Tang%NULL%0,                      Tao%Wang%NULL%0,                      Ping-yan%Chen%NULL%0,                      Jie%Xiang%NULL%0,                      Shi-yue%Li%NULL%0,                      Jin-lin%Wang%NULL%0,                      Zi-jing%Liang%NULL%0,                      Yi-xiang%Peng%NULL%0,                      Li%Wei%NULL%0,                      Yong%Liu%NULL%0,                      Ya-hua%Hu%NULL%0,                      Peng%Peng%NULL%0,                      Jian-ming%Wang%NULL%0,                      Ji-yang%Liu%NULL%0,                      Zhong%Chen%NULL%0,                      Gang%Li%NULL%0,                      Zhi-jian%Zheng%NULL%0,                      Shao-qin%Qiu%NULL%0,                      Jie%Luo%NULL%0,                      Chang-jiang%Ye%NULL%0,                      Shao-yong%Zhu%NULL%0,                      Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                      Fang%Jiang%NULL%0,                      Wating%Su%NULL%2,                      Chang%Chen%NULL%2,                      Jingli%Chen%NULL%2,                      Wei%Mei%NULL%2,                      Li-Ying%Zhan%NULL%2,                      Yifan%Jia%NULL%2,                      Liangqing%Zhang%NULL%2,                      Danyong%Liu%NULL%2,                      Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,                      Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                      Yuan%Yu%NULL%0,                      Jiqian%Xu%NULL%0,                      Huaqing%Shu%NULL%0,                      Jia'an%Xia%NULL%0,                      Hong%Liu%NULL%0,                      Yongran%Wu%NULL%0,                      Lu%Zhang%NULL%0,                      Zhui%Yu%NULL%0,                      Minghao%Fang%NULL%0,                      Ting%Yu%NULL%0,                      Yaxin%Wang%NULL%0,                      Shangwen%Pan%NULL%0,                      Xiaojing%Zou%NULL%0,                      Shiying%Yuan%NULL%0,                      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                      Yeming%Wang%NULL%0,                      Xingwang%Li%NULL%0,                      Lili%Ren%NULL%0,                      Jianping%Zhao%NULL%0,                      Yi%Hu%NULL%0,                      Li%Zhang%NULL%0,                      Guohui%Fan%NULL%0,                      Jiuyang%Xu%NULL%0,                      Xiaoying%Gu%NULL%0,                      Zhenshun%Cheng%NULL%0,                      Ting%Yu%NULL%0,                      Jiaan%Xia%NULL%0,                      Yuan%Wei%NULL%0,                      Wenjuan%Wu%NULL%0,                      Xuelei%Xie%NULL%0,                      Wen%Yin%NULL%0,                      Hui%Li%NULL%0,                      Min%Liu%NULL%0,                      Yan%Xiao%NULL%0,                      Hong%Gao%NULL%0,                      Li%Guo%NULL%0,                      Jungang%Xie%NULL%0,                      Guangfa%Wang%NULL%0,                      Rongmeng%Jiang%NULL%0,                      Zhancheng%Gao%NULL%0,                      Qi%Jin%NULL%0,                      Jianwei%Wang%wangjw28@163.com%0,                      Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,                      Xiaofan%Lu%NULL%1,                      Yongsheng%Li%NULL%2,                      Yongsheng%Li%NULL%0,                      Hui%Chen%NULL%3,                      Taige%Chen%NULL%1,                      Nan%Su%NULL%1,                      Fang%Huang%NULL%1,                      Jing%Zhou%NULL%1,                      Bing%Zhang%NULL%1,                      Fangrong%Yan%NULL%2,                      Fangrong%Yan%NULL%0,                      Jun%Wang%NULL%2,                      Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                    Cabrini%Luca%coreGivesNoEmail%0,                    Castelli%Antonio%coreGivesNoEmail%0,                    Cecconi%Maurizio%coreGivesNoEmail%0,                    Cereda%Danilo%coreGivesNoEmail%0,                    Coluccello%Antonio%coreGivesNoEmail%0,                    Foti%Giuseppe%coreGivesNoEmail%0,                    Fumagalli%Roberto%coreGivesNoEmail%0,                    Grasselli%Giacomo%coreGivesNoEmail%0,                    Iotti%Giorgio%coreGivesNoEmail%0,                    Latronico%Nicola%coreGivesNoEmail%0,                    Lorini%Luca%coreGivesNoEmail%0,                    Merler%Stefano%coreGivesNoEmail%0,                    Natalini%Giuseppe%coreGivesNoEmail%0,                    Pesenti%Antonio%coreGivesNoEmail%0,                    Piatti%Alessandra%coreGivesNoEmail%0,                    Ranieri%Marco Vito%coreGivesNoEmail%0,                    Scandroglio%Anna Mara%coreGivesNoEmail%0,                    Storti%Enrico%coreGivesNoEmail%0,                    Zanella%Alberto%coreGivesNoEmail%0,                    Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                      Mikael%Chetboun%NULL%1,                      Julien%Poissy%NULL%1,                      Violeta%Raverdy%NULL%1,                      Jerome%Noulette%NULL%2,                      Jerome%Noulette%NULL%0,                      Alain%Duhamel%NULL%0,                      Julien%Labreuche%NULL%0,                      Daniel%Mathieu%NULL%2,                      Francois%Pattou%francois.pattou@univ-lille.fr%1,                      Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,                      Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                      Robert%Caizzo%NULL%2,                      Robert%Caizzo%NULL%0,                      Morgan%Caplan%NULL%1,                      Nicolas%Cousin%NULL%1,                      Thibault%Duburcq%NULL%1,                      Arthur%Durand%NULL%1,                      Ahmed%El kalioubie%NULL%1,                      Raphael%Favory%NULL%1,                      Bruno%Garcia%NULL%1,                      Patrick%Girardie%NULL%1,                      Julien%Goutay%NULL%1,                      Marion%Houard%NULL%1,                      Emmanuelle%Jaillette%NULL%1,                      Nicolas%Kostuj%NULL%1,                      Geoffrey%Ledoux%NULL%1,                      Daniel%Mathieu%NULL%0,                      Anne Sophie%Moreau%NULL%1,                      Christopher%Niles%NULL%1,                      Saad%Nseir%NULL%1,                      Thierry%Onimus%NULL%1,                      Erika%Parmentier%NULL%1,                      Sebastien%Préau%NULL%1,                      Laurent%Robriquet%NULL%1,                      Anahita%Rouze%NULL%1,                      Sophie%Six%NULL%1,                      Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                      Samuel L%Bruce%NULL%1,                      Cody L%Slater%NULL%1,                      Jonathan R%Tiao%NULL%1,                      Matthew R%Baldwin%NULL%2,                      R Graham%Barr%NULL%1,                      Bernard P%Chang%NULL%1,                      Katherine H%Chau%NULL%1,                      Justin J%Choi%NULL%1,                      Nicholas%Gavin%NULL%1,                      Parag%Goyal%NULL%1,                      Angela M%Mills%NULL%1,                      Ashmi A%Patel%NULL%1,                      Marie-Laure S%Romney%NULL%1,                      Monika M%Safford%NULL%1,                      Neil W%Schluger%NULL%1,                      Soumitra%Sengupta%NULL%1,                      Magdalena E%Sobieszczyk%NULL%1,                      Jason E%Zucker%NULL%1,                      Paul A%Asadourian%NULL%1,                      Fletcher M%Bell%NULL%1,                      Rebekah%Boyd%NULL%1,                      Matthew F%Cohen%NULL%1,                      MacAlistair I%Colquhoun%NULL%1,                      Lucy A%Colville%NULL%1,                      Joseph H%de Jonge%NULL%1,                      Lyle B%Dershowitz%NULL%1,                      Shirin A%Dey%NULL%1,                      Katherine A%Eiseman%NULL%1,                      Zachary P%Girvin%NULL%1,                      Daniella T%Goni%NULL%1,                      Amro A%Harb%NULL%1,                      Nicholas%Herzik%NULL%1,                      Sarah%Householder%NULL%1,                      Lara E%Karaaslan%NULL%1,                      Heather%Lee%NULL%1,                      Evan%Lieberman%NULL%1,                      Andrew%Ling%NULL%1,                      Ree%Lu%NULL%1,                      Arthur Y%Shou%NULL%1,                      Alexander C%Sisti%NULL%1,                      Zachary E%Snow%NULL%1,                      Colin P%Sperring%NULL%1,                      Yuqing%Xiong%NULL%1,                      Henry W%Zhou%NULL%1,                      Karthik%Natarajan%NULL%1,                      George%Hripcsak%NULL%1,                      Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                      Mark%Caridi-Scheible%NULL%0,                      James M.%Blum%NULL%0,                      Chad%Robichaux%NULL%0,                      Colleen%Kraft%NULL%0,                      Jesse T.%Jacob%NULL%0,                      Craig S.%Jabaley%NULL%0,                      David%Carpenter%NULL%0,                      Roberta%Kaplow%NULL%0,                      Alfonso C.%Hernandez-Romieu%NULL%0,                      Max W.%Adelman%NULL%0,                      Greg S.%Martin%NULL%0,                      Craig M.%Coopersmith%NULL%0,                      David J.%Murphy%NULL%0,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                      Bijan J.%Ghassemieh%NULL%0,                      Michelle%Nichols%NULL%0,                      Richard%Kim%NULL%0,                      Keith R.%Jerome%NULL%0,                      Arun K.%Nalla%NULL%0,                      Alexander L.%Greninger%NULL%0,                      Sudhakar%Pipavath%NULL%0,                      Mark M.%Wurfel%NULL%0,                      Laura%Evans%NULL%0,                      Patricia A.%Kritek%NULL%0,                      T. Eoin%West%NULL%0,                      Andrew%Luks%NULL%0,                      Anthony%Gerbino%NULL%0,                      Chris R.%Dale%NULL%0,                      Jason D.%Goldman%NULL%0,                      Shane%O’Mahony%NULL%0,                      Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura C.%Myers%xref no email%0, Stephen M.%Parodi%xref no email%1, Gabriel J.%Escobar%xref no email%1, Vincent X.%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                    Becker%L.B.%coreGivesNoEmail%0,                    Chelico%J.D.%coreGivesNoEmail%0,                    Cohen%S.L.%coreGivesNoEmail%0,                    Cookingham%J.%coreGivesNoEmail%0,                    Coppa%K.%coreGivesNoEmail%0,                    Crawford%J.M.%coreGivesNoEmail%0,                    Davidson%K.W.%coreGivesNoEmail%0,                    Diefenbach%M.A.%coreGivesNoEmail%0,                    Dominello%A.J.%coreGivesNoEmail%0,                    Duer-Hefele%J.%coreGivesNoEmail%0,                    Falzon%L.%coreGivesNoEmail%0,                    Gitlin%J.%coreGivesNoEmail%0,                    Hajizadeh%N.%coreGivesNoEmail%0,                    Harvin%T.G.%coreGivesNoEmail%0,                    Hirsch%J.S.%coreGivesNoEmail%0,                    Hirschwerk%D.A.%coreGivesNoEmail%0,                    Kim%E.J.%coreGivesNoEmail%0,                    Kozel%Z.M.%coreGivesNoEmail%0,                    Marrast%L.M.%coreGivesNoEmail%0,                    McGinn%T.%coreGivesNoEmail%0,                    Mogavero%J.N.%coreGivesNoEmail%0,                    Narasimhan%M.%coreGivesNoEmail%0,                    Osorio%G.A.%coreGivesNoEmail%0,                    Qiu%M.%coreGivesNoEmail%0,                    Richardson%S.%coreGivesNoEmail%0,                    Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,                      Jehan%Alladina%NULL%2,                      Jehan%Alladina%NULL%0,                      Camille R.%Petri%NULL%2,                      Camille R.%Petri%NULL%0,                      Jason H.%Maley%NULL%2,                      Jason H.%Maley%NULL%0,                      Ari%Moskowitz%NULL%1,                      Benjamin D.%Medoff%NULL%1,                      Kathryn A.%Hibbert%NULL%2,                      Kathryn A.%Hibbert%NULL%0,                      B. Taylor%Thompson%NULL%1,                      C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,                      Adam J%Russak%NULL%2,                      Adam J%Russak%NULL%0,                      Jessica K%De Freitas%NULL%1,                      Anuradha%Lala%NULL%1,                      Riccardo%Miotto%NULL%1,                      Akhil%Vaid%NULL%1,                      Kipp W%Johnson%NULL%1,                      Matteo%Danieletto%NULL%1,                      Eddye%Golden%NULL%1,                      Dara%Meyer%NULL%1,                      Manbir%Singh%NULL%1,                      Sulaiman%Somani%NULL%1,                      Arjun%Kapoor%NULL%1,                      Ross%O'Hagan%NULL%1,                      Sayan%Manna%NULL%1,                      Udit%Nangia%NULL%1,                      Suraj K%Jaladanki%NULL%1,                      Paul%O’Reilly%NULL%2,                      Paul%O’Reilly%NULL%0,                      Laura M%Huckins%NULL%1,                      Patricia%Glowe%NULL%1,                      Arash%Kia%NULL%1,                      Prem%Timsina%NULL%1,                      Robert M%Freeman%NULL%1,                      Matthew A%Levin%NULL%1,                      Jeffrey%Jhang%NULL%1,                      Adolfo%Firpo%NULL%1,                      Patricia%Kovatch%NULL%1,                      Joseph%Finkelstein%NULL%1,                      Judith A%Aberg%NULL%1,                      Emilia%Bagiella%NULL%1,                      Carol R%Horowitz%NULL%1,                      Barbara%Murphy%NULL%1,                      Zahi A%Fayad%NULL%1,                      Jagat%Narula%NULL%1,                      Eric J%Nestler%NULL%1,                      V%Fuster%NULL%1,                      Carlos%Cordon-Cardo%NULL%1,                      Dennis%Charney%NULL%1,                      David L%Reich%NULL%1,                      Allan%Just%NULL%1,                      Erwin P%Bottinger%NULL%1,                      Alexander W%Charney%NULL%1,                      Benjamin S%Glicksberg%NULL%1,                      Girish N%Nadkarni%NULL%1,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,                       Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,                       Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,                       Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,                       Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,                       Bruno%Riou%bruno.riou@aphp.fr%2,                       Bruno%Riou%bruno.riou@aphp.fr%0,                       Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                       Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                       Gilles%Hejblum%gilles.hejblum@inserm.fr%2,                       Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,                       Peiyun%Li%NULL%1,                       Liang%Ma%NULL%1,                       Hang%Liang%NULL%1,                       Jie%Lei%NULL%0,                       Wenqiang%Li%NULL%1,                       Kun%Wang%NULL%0,                       Yu%Song%NULL%1,                       Shuai%Li%NULL%1,                       Wei%Yang%NULL%1,                       Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,                        C.% Hong%null%1,                        J.% Meng%null%1,                        Z.% Wu%null%1,                        P.% Zhou%null%1,                        C.% Ye%null%1,                        B.% Sun%null%1,                        L. M.% Kucirka%null%1,                        A. S.% Azman%null%1,                        T.% Wang%null%0,                        J.% Chen%null%1,                        Z.% Wang%null%1,                        L.% Liu%null%0,                        J.% Lessler%null%1,                        J. K.% Edwards%null%1,                        T.% Ma%null%1,                        G. % Zhang%null%1,    Q.%Bi%null%1,    C.% Hong%null%1,    J.% Meng%null%1,    Z.% Wu%null%1,    P.% Zhou%null%0,    C.% Ye%null%1,    B.% Sun%null%1,    L. M.% Kucirka%null%1,    A. S.% Azman%null%1,    T.% Wang%null%0,    J.% Chen%null%1,    Z.% Wang%null%1,    L.% Liu%null%0,    J.% Lessler%null%1,    J. K.% Edwards%null%1,    T.% Ma%null%1,    G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                       Ting%Yu%NULL%0,                       Ronghui%Du%NULL%0,                       Guohui%Fan%NULL%0,                       Ying%Liu%NULL%0,                       Zhibo%Liu%NULL%0,                       Jie%Xiang%NULL%0,                       Yeming%Wang%NULL%0,                       Bin%Song%NULL%0,                       Xiaoying%Gu%NULL%0,                       Lulu%Guan%NULL%0,                       Yuan%Wei%NULL%0,                       Hui%Li%NULL%0,                       Xudong%Wu%NULL%0,                       Jiuyang%Xu%NULL%0,                       Shengjin%Tu%NULL%0,                       Yi%Zhang%NULL%0,                       Hua%Chen%NULL%0,                       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,                       Zhiheng%Xu%NULL%1,                       Xuesong%Liu%NULL%1,                       Lihua%Cai%NULL%1,                       Haichong%Zheng%NULL%1,                       Yongbo%Huang%NULL%1,                       Lixin%Zhou%NULL%1,                       Linxi%Huang%NULL%1,                       Yun%Ling%NULL%0,                       Liehua%Deng%NULL%1,                       Jianwei%Li%NULL%0,                       Sibei%Chen%NULL%1,                       Dongdong%Liu%NULL%1,                       Zhimin%Lin%NULL%1,                       Liang%Zhou%NULL%1,                       Weiqun%He%NULL%1,                       Nanshan%Zhong%NULL%0,                       Xiaoqing%Liu%NULL%3,                       Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,                       Li-jun%Sun%NULL%1,                       Mi%Xu%NULL%1,                       Jian%Pan%NULL%1,                       Yun-tao%Zhang%NULL%1,                       Xue-ling%Fang%NULL%1,                       Qiang%Fang%NULL%1,                       Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                       Li-Min%Liu%NULL%2,                       Wen%Yin%NULL%0,                       Wen%Wang%NULL%0,                       Lu-Lu%Guan%NULL%2,                       Ming-Li%Yuan%NULL%0,                       Yu-Lei%Li%NULL%2,                       Yi%Hu%NULL%0,                       Xu-Yan%Li%NULL%0,                       Bing%Sun%NULL%2,                       Peng%Peng%NULL%0,                       Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                       Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                       Wenlin%Cheng%NULL%0,                       Lei%Yu%NULL%0,                       Ya-Kun%Liu%NULL%0,                       Xiaoyong%Hu%NULL%0,                       Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                       Zheng-yi%Ni%NULL%0,                       Zheng-yi%Ni%NULL%0,                       Yu%Hu%NULL%0,                       Wen-hua%Liang%NULL%0,                       Chun-quan%Ou%NULL%0,                       Jian-xing%He%NULL%0,                       Lei%Liu%NULL%0,                       Hong%Shan%NULL%0,                       Chun-liang%Lei%NULL%0,                       David S.C.%Hui%NULL%0,                       Bin%Du%NULL%0,                       Lan-juan%Li%NULL%0,                       Guang%Zeng%NULL%0,                       Kwok-Yung%Yuen%NULL%0,                       Ru-chong%Chen%NULL%0,                       Chun-li%Tang%NULL%0,                       Tao%Wang%NULL%0,                       Ping-yan%Chen%NULL%0,                       Jie%Xiang%NULL%0,                       Shi-yue%Li%NULL%0,                       Jin-lin%Wang%NULL%0,                       Zi-jing%Liang%NULL%0,                       Yi-xiang%Peng%NULL%0,                       Li%Wei%NULL%0,                       Yong%Liu%NULL%0,                       Ya-hua%Hu%NULL%0,                       Peng%Peng%NULL%0,                       Jian-ming%Wang%NULL%0,                       Ji-yang%Liu%NULL%0,                       Zhong%Chen%NULL%0,                       Gang%Li%NULL%0,                       Zhi-jian%Zheng%NULL%0,                       Shao-qin%Qiu%NULL%0,                       Jie%Luo%NULL%0,                       Chang-jiang%Ye%NULL%0,                       Shao-yong%Zhu%NULL%0,                       Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                       Fang%Jiang%NULL%0,                       Wating%Su%NULL%2,                       Chang%Chen%NULL%2,                       Jingli%Chen%NULL%2,                       Wei%Mei%NULL%2,                       Li-Ying%Zhan%NULL%2,                       Yifan%Jia%NULL%2,                       Liangqing%Zhang%NULL%2,                       Danyong%Liu%NULL%2,                       Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,                       Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                       Yuan%Yu%NULL%0,                       Jiqian%Xu%NULL%0,                       Huaqing%Shu%NULL%0,                       Jia'an%Xia%NULL%0,                       Hong%Liu%NULL%0,                       Yongran%Wu%NULL%0,                       Lu%Zhang%NULL%0,                       Zhui%Yu%NULL%0,                       Minghao%Fang%NULL%0,                       Ting%Yu%NULL%0,                       Yaxin%Wang%NULL%0,                       Shangwen%Pan%NULL%0,                       Xiaojing%Zou%NULL%0,                       Shiying%Yuan%NULL%0,                       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                       Yeming%Wang%NULL%0,                       Xingwang%Li%NULL%0,                       Lili%Ren%NULL%0,                       Jianping%Zhao%NULL%0,                       Yi%Hu%NULL%0,                       Li%Zhang%NULL%0,                       Guohui%Fan%NULL%0,                       Jiuyang%Xu%NULL%0,                       Xiaoying%Gu%NULL%0,                       Zhenshun%Cheng%NULL%0,                       Ting%Yu%NULL%0,                       Jiaan%Xia%NULL%0,                       Yuan%Wei%NULL%0,                       Wenjuan%Wu%NULL%0,                       Xuelei%Xie%NULL%0,                       Wen%Yin%NULL%0,                       Hui%Li%NULL%0,                       Min%Liu%NULL%0,                       Yan%Xiao%NULL%0,                       Hong%Gao%NULL%0,                       Li%Guo%NULL%0,                       Jungang%Xie%NULL%0,                       Guangfa%Wang%NULL%0,                       Rongmeng%Jiang%NULL%0,                       Zhancheng%Gao%NULL%0,                       Qi%Jin%NULL%0,                       Jianwei%Wang%wangjw28@163.com%0,                       Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,                       Xiaofan%Lu%NULL%1,                       Yongsheng%Li%NULL%2,                       Yongsheng%Li%NULL%0,                       Hui%Chen%NULL%3,                       Taige%Chen%NULL%1,                       Nan%Su%NULL%1,                       Fang%Huang%NULL%1,                       Jing%Zhou%NULL%1,                       Bing%Zhang%NULL%1,                       Fangrong%Yan%NULL%2,                       Fangrong%Yan%NULL%0,                       Jun%Wang%NULL%2,                       Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                     Cabrini%Luca%coreGivesNoEmail%0,                     Castelli%Antonio%coreGivesNoEmail%0,                     Cecconi%Maurizio%coreGivesNoEmail%0,                     Cereda%Danilo%coreGivesNoEmail%0,                     Coluccello%Antonio%coreGivesNoEmail%0,                     Foti%Giuseppe%coreGivesNoEmail%0,                     Fumagalli%Roberto%coreGivesNoEmail%0,                     Grasselli%Giacomo%coreGivesNoEmail%0,                     Iotti%Giorgio%coreGivesNoEmail%0,                     Latronico%Nicola%coreGivesNoEmail%0,                     Lorini%Luca%coreGivesNoEmail%0,                     Merler%Stefano%coreGivesNoEmail%0,                     Natalini%Giuseppe%coreGivesNoEmail%0,                     Pesenti%Antonio%coreGivesNoEmail%0,                     Piatti%Alessandra%coreGivesNoEmail%0,                     Ranieri%Marco Vito%coreGivesNoEmail%0,                     Scandroglio%Anna Mara%coreGivesNoEmail%0,                     Storti%Enrico%coreGivesNoEmail%0,                     Zanella%Alberto%coreGivesNoEmail%0,                     Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                       Mikael%Chetboun%NULL%1,                       Julien%Poissy%NULL%1,                       Violeta%Raverdy%NULL%1,                       Jerome%Noulette%NULL%2,                       Jerome%Noulette%NULL%0,                       Alain%Duhamel%NULL%0,                       Julien%Labreuche%NULL%0,                       Daniel%Mathieu%NULL%2,                       Francois%Pattou%francois.pattou@univ-lille.fr%1,                       Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,                       Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                       Robert%Caizzo%NULL%2,                       Robert%Caizzo%NULL%0,                       Morgan%Caplan%NULL%1,                       Nicolas%Cousin%NULL%1,                       Thibault%Duburcq%NULL%1,                       Arthur%Durand%NULL%1,                       Ahmed%El kalioubie%NULL%1,                       Raphael%Favory%NULL%1,                       Bruno%Garcia%NULL%1,                       Patrick%Girardie%NULL%1,                       Julien%Goutay%NULL%1,                       Marion%Houard%NULL%1,                       Emmanuelle%Jaillette%NULL%1,                       Nicolas%Kostuj%NULL%1,                       Geoffrey%Ledoux%NULL%1,                       Daniel%Mathieu%NULL%0,                       Anne Sophie%Moreau%NULL%1,                       Christopher%Niles%NULL%1,                       Saad%Nseir%NULL%1,                       Thierry%Onimus%NULL%1,                       Erika%Parmentier%NULL%1,                       Sebastien%Préau%NULL%1,                       Laurent%Robriquet%NULL%1,                       Anahita%Rouze%NULL%1,                       Sophie%Six%NULL%1,                       Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                       Samuel L%Bruce%NULL%1,                       Cody L%Slater%NULL%1,                       Jonathan R%Tiao%NULL%1,                       Matthew R%Baldwin%NULL%2,                       R Graham%Barr%NULL%1,                       Bernard P%Chang%NULL%1,                       Katherine H%Chau%NULL%1,                       Justin J%Choi%NULL%1,                       Nicholas%Gavin%NULL%1,                       Parag%Goyal%NULL%1,                       Angela M%Mills%NULL%1,                       Ashmi A%Patel%NULL%1,                       Marie-Laure S%Romney%NULL%1,                       Monika M%Safford%NULL%1,                       Neil W%Schluger%NULL%1,                       Soumitra%Sengupta%NULL%1,                       Magdalena E%Sobieszczyk%NULL%1,                       Jason E%Zucker%NULL%1,                       Paul A%Asadourian%NULL%1,                       Fletcher M%Bell%NULL%1,                       Rebekah%Boyd%NULL%1,                       Matthew F%Cohen%NULL%1,                       MacAlistair I%Colquhoun%NULL%1,                       Lucy A%Colville%NULL%1,                       Joseph H%de Jonge%NULL%1,                       Lyle B%Dershowitz%NULL%1,                       Shirin A%Dey%NULL%1,                       Katherine A%Eiseman%NULL%1,                       Zachary P%Girvin%NULL%1,                       Daniella T%Goni%NULL%1,                       Amro A%Harb%NULL%1,                       Nicholas%Herzik%NULL%1,                       Sarah%Householder%NULL%1,                       Lara E%Karaaslan%NULL%1,                       Heather%Lee%NULL%1,                       Evan%Lieberman%NULL%1,                       Andrew%Ling%NULL%1,                       Ree%Lu%NULL%1,                       Arthur Y%Shou%NULL%1,                       Alexander C%Sisti%NULL%1,                       Zachary E%Snow%NULL%1,                       Colin P%Sperring%NULL%1,                       Yuqing%Xiong%NULL%1,                       Henry W%Zhou%NULL%1,                       Karthik%Natarajan%NULL%1,                       George%Hripcsak%NULL%1,                       Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                       Mark%Caridi-Scheible%NULL%0,                       James M.%Blum%NULL%0,                       Chad%Robichaux%NULL%0,                       Colleen%Kraft%NULL%0,                       Jesse T.%Jacob%NULL%0,                       Craig S.%Jabaley%NULL%0,                       David%Carpenter%NULL%0,                       Roberta%Kaplow%NULL%0,                       Alfonso C.%Hernandez-Romieu%NULL%0,                       Max W.%Adelman%NULL%0,                       Greg S.%Martin%NULL%0,                       Craig M.%Coopersmith%NULL%0,                       David J.%Murphy%NULL%0,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                       Bijan J.%Ghassemieh%NULL%0,                       Michelle%Nichols%NULL%0,                       Richard%Kim%NULL%0,                       Keith R.%Jerome%NULL%0,                       Arun K.%Nalla%NULL%0,                       Alexander L.%Greninger%NULL%0,                       Sudhakar%Pipavath%NULL%0,                       Mark M.%Wurfel%NULL%0,                       Laura%Evans%NULL%0,                       Patricia A.%Kritek%NULL%0,                       T. Eoin%West%NULL%0,                       Andrew%Luks%NULL%0,                       Anthony%Gerbino%NULL%0,                       Chris R.%Dale%NULL%0,                       Jason D.%Goldman%NULL%0,                       Shane%O’Mahony%NULL%0,                       Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                     Becker%L.B.%coreGivesNoEmail%0,                     Chelico%J.D.%coreGivesNoEmail%0,                     Cohen%S.L.%coreGivesNoEmail%0,                     Cookingham%J.%coreGivesNoEmail%0,                     Coppa%K.%coreGivesNoEmail%0,                     Crawford%J.M.%coreGivesNoEmail%0,                     Davidson%K.W.%coreGivesNoEmail%0,                     Diefenbach%M.A.%coreGivesNoEmail%0,                     Dominello%A.J.%coreGivesNoEmail%0,                     Duer-Hefele%J.%coreGivesNoEmail%0,                     Falzon%L.%coreGivesNoEmail%0,                     Gitlin%J.%coreGivesNoEmail%0,                     Hajizadeh%N.%coreGivesNoEmail%0,                     Harvin%T.G.%coreGivesNoEmail%0,                     Hirsch%J.S.%coreGivesNoEmail%0,                     Hirschwerk%D.A.%coreGivesNoEmail%0,                     Kim%E.J.%coreGivesNoEmail%0,                     Kozel%Z.M.%coreGivesNoEmail%0,                     Marrast%L.M.%coreGivesNoEmail%0,                     McGinn%T.%coreGivesNoEmail%0,                     Mogavero%J.N.%coreGivesNoEmail%0,                     Narasimhan%M.%coreGivesNoEmail%0,                     Osorio%G.A.%coreGivesNoEmail%0,                     Qiu%M.%coreGivesNoEmail%0,                     Richardson%S.%coreGivesNoEmail%0,                     Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,                       Jehan%Alladina%NULL%2,                       Jehan%Alladina%NULL%0,                       Camille R.%Petri%NULL%2,                       Camille R.%Petri%NULL%0,                       Jason H.%Maley%NULL%2,                       Jason H.%Maley%NULL%0,                       Ari%Moskowitz%NULL%1,                       Benjamin D.%Medoff%NULL%1,                       Kathryn A.%Hibbert%NULL%2,                       Kathryn A.%Hibbert%NULL%0,                       B. Taylor%Thompson%NULL%1,                       C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,                       Adam J%Russak%NULL%2,                       Adam J%Russak%NULL%0,                       Jessica K%De Freitas%NULL%1,                       Anuradha%Lala%NULL%1,                       Riccardo%Miotto%NULL%1,                       Akhil%Vaid%NULL%1,                       Kipp W%Johnson%NULL%1,                       Matteo%Danieletto%NULL%1,                       Eddye%Golden%NULL%1,                       Dara%Meyer%NULL%1,                       Manbir%Singh%NULL%1,                       Sulaiman%Somani%NULL%1,                       Arjun%Kapoor%NULL%1,                       Ross%O'Hagan%NULL%1,                       Sayan%Manna%NULL%1,                       Udit%Nangia%NULL%1,                       Suraj K%Jaladanki%NULL%1,                       Paul%O’Reilly%NULL%2,                       Paul%O’Reilly%NULL%0,                       Laura M%Huckins%NULL%1,                       Patricia%Glowe%NULL%1,                       Arash%Kia%NULL%1,                       Prem%Timsina%NULL%1,                       Robert M%Freeman%NULL%1,                       Matthew A%Levin%NULL%1,                       Jeffrey%Jhang%NULL%1,                       Adolfo%Firpo%NULL%1,                       Patricia%Kovatch%NULL%1,                       Joseph%Finkelstein%NULL%1,                       Judith A%Aberg%NULL%1,                       Emilia%Bagiella%NULL%1,                       Carol R%Horowitz%NULL%1,                       Barbara%Murphy%NULL%1,                       Zahi A%Fayad%NULL%1,                       Jagat%Narula%NULL%1,                       Eric J%Nestler%NULL%1,                       V%Fuster%NULL%1,                       Carlos%Cordon-Cardo%NULL%1,                       Dennis%Charney%NULL%1,                       David L%Reich%NULL%1,                       Allan%Just%NULL%1,                       Erwin P%Bottinger%NULL%1,                       Alexander W%Charney%NULL%1,                       Benjamin S%Glicksberg%NULL%1,                       Girish N%Nadkarni%NULL%1,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,                        Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,                        Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,                        Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,                        Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,                        Bruno%Riou%bruno.riou@aphp.fr%2,                        Bruno%Riou%bruno.riou@aphp.fr%0,                        Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                        Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                        Gilles%Hejblum%gilles.hejblum@inserm.fr%2,                        Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,                        Peiyun%Li%NULL%1,                        Liang%Ma%NULL%1,                        Hang%Liang%NULL%1,                        Jie%Lei%NULL%0,                        Wenqiang%Li%NULL%1,                        Kun%Wang%NULL%0,                        Yu%Song%NULL%1,                        Shuai%Li%NULL%1,                        Wei%Yang%NULL%1,                        Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,                         C.% Hong%null%1,                         J.% Meng%null%1,                         Z.% Wu%null%1,                         P.% Zhou%null%1,                         C.% Ye%null%1,                         B.% Sun%null%1,                         L. M.% Kucirka%null%1,                         A. S.% Azman%null%1,                         T.% Wang%null%0,                         J.% Chen%null%1,                         Z.% Wang%null%1,                         L.% Liu%null%0,                         J.% Lessler%null%1,                         J. K.% Edwards%null%1,                         T.% Ma%null%1,                         G. % Zhang%null%1,     Q.%Bi%null%1,     C.% Hong%null%1,     J.% Meng%null%1,     Z.% Wu%null%1,     P.% Zhou%null%0,     C.% Ye%null%1,     B.% Sun%null%1,     L. M.% Kucirka%null%1,     A. S.% Azman%null%1,     T.% Wang%null%0,     J.% Chen%null%1,     Z.% Wang%null%1,     L.% Liu%null%0,     J.% Lessler%null%1,     J. K.% Edwards%null%1,     T.% Ma%null%1,     G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                        Ting%Yu%NULL%0,                        Ronghui%Du%NULL%0,                        Guohui%Fan%NULL%0,                        Ying%Liu%NULL%0,                        Zhibo%Liu%NULL%0,                        Jie%Xiang%NULL%0,                        Yeming%Wang%NULL%0,                        Bin%Song%NULL%0,                        Xiaoying%Gu%NULL%0,                        Lulu%Guan%NULL%0,                        Yuan%Wei%NULL%0,                        Hui%Li%NULL%0,                        Xudong%Wu%NULL%0,                        Jiuyang%Xu%NULL%0,                        Shengjin%Tu%NULL%0,                        Yi%Zhang%NULL%0,                        Hua%Chen%NULL%0,                        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,                        Zhiheng%Xu%NULL%1,                        Xuesong%Liu%NULL%1,                        Lihua%Cai%NULL%1,                        Haichong%Zheng%NULL%1,                        Yongbo%Huang%NULL%1,                        Lixin%Zhou%NULL%1,                        Linxi%Huang%NULL%1,                        Yun%Ling%NULL%0,                        Liehua%Deng%NULL%1,                        Jianwei%Li%NULL%0,                        Sibei%Chen%NULL%1,                        Dongdong%Liu%NULL%1,                        Zhimin%Lin%NULL%1,                        Liang%Zhou%NULL%1,                        Weiqun%He%NULL%1,                        Nanshan%Zhong%NULL%0,                        Xiaoqing%Liu%NULL%3,                        Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,                        Li-jun%Sun%NULL%1,                        Mi%Xu%NULL%1,                        Jian%Pan%NULL%1,                        Yun-tao%Zhang%NULL%1,                        Xue-ling%Fang%NULL%1,                        Qiang%Fang%NULL%1,                        Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                        Li-Min%Liu%NULL%2,                        Wen%Yin%NULL%0,                        Wen%Wang%NULL%0,                        Lu-Lu%Guan%NULL%2,                        Ming-Li%Yuan%NULL%0,                        Yu-Lei%Li%NULL%2,                        Yi%Hu%NULL%0,                        Xu-Yan%Li%NULL%0,                        Bing%Sun%NULL%2,                        Peng%Peng%NULL%0,                        Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                        Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                        Wenlin%Cheng%NULL%0,                        Lei%Yu%NULL%0,                        Ya-Kun%Liu%NULL%0,                        Xiaoyong%Hu%NULL%0,                        Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                        Zheng-yi%Ni%NULL%0,                        Zheng-yi%Ni%NULL%0,                        Yu%Hu%NULL%0,                        Wen-hua%Liang%NULL%0,                        Chun-quan%Ou%NULL%0,                        Jian-xing%He%NULL%0,                        Lei%Liu%NULL%0,                        Hong%Shan%NULL%0,                        Chun-liang%Lei%NULL%0,                        David S.C.%Hui%NULL%0,                        Bin%Du%NULL%0,                        Lan-juan%Li%NULL%0,                        Guang%Zeng%NULL%0,                        Kwok-Yung%Yuen%NULL%0,                        Ru-chong%Chen%NULL%0,                        Chun-li%Tang%NULL%0,                        Tao%Wang%NULL%0,                        Ping-yan%Chen%NULL%0,                        Jie%Xiang%NULL%0,                        Shi-yue%Li%NULL%0,                        Jin-lin%Wang%NULL%0,                        Zi-jing%Liang%NULL%0,                        Yi-xiang%Peng%NULL%0,                        Li%Wei%NULL%0,                        Yong%Liu%NULL%0,                        Ya-hua%Hu%NULL%0,                        Peng%Peng%NULL%0,                        Jian-ming%Wang%NULL%0,                        Ji-yang%Liu%NULL%0,                        Zhong%Chen%NULL%0,                        Gang%Li%NULL%0,                        Zhi-jian%Zheng%NULL%0,                        Shao-qin%Qiu%NULL%0,                        Jie%Luo%NULL%0,                        Chang-jiang%Ye%NULL%0,                        Shao-yong%Zhu%NULL%0,                        Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                        Fang%Jiang%NULL%0,                        Wating%Su%NULL%2,                        Chang%Chen%NULL%2,                        Jingli%Chen%NULL%2,                        Wei%Mei%NULL%2,                        Li-Ying%Zhan%NULL%2,                        Yifan%Jia%NULL%2,                        Liangqing%Zhang%NULL%2,                        Danyong%Liu%NULL%2,                        Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,                        Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                        Yuan%Yu%NULL%0,                        Jiqian%Xu%NULL%0,                        Huaqing%Shu%NULL%0,                        Jia'an%Xia%NULL%0,                        Hong%Liu%NULL%0,                        Yongran%Wu%NULL%0,                        Lu%Zhang%NULL%0,                        Zhui%Yu%NULL%0,                        Minghao%Fang%NULL%0,                        Ting%Yu%NULL%0,                        Yaxin%Wang%NULL%0,                        Shangwen%Pan%NULL%0,                        Xiaojing%Zou%NULL%0,                        Shiying%Yuan%NULL%0,                        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                        Yeming%Wang%NULL%0,                        Xingwang%Li%NULL%0,                        Lili%Ren%NULL%0,                        Jianping%Zhao%NULL%0,                        Yi%Hu%NULL%0,                        Li%Zhang%NULL%0,                        Guohui%Fan%NULL%0,                        Jiuyang%Xu%NULL%0,                        Xiaoying%Gu%NULL%0,                        Zhenshun%Cheng%NULL%0,                        Ting%Yu%NULL%0,                        Jiaan%Xia%NULL%0,                        Yuan%Wei%NULL%0,                        Wenjuan%Wu%NULL%0,                        Xuelei%Xie%NULL%0,                        Wen%Yin%NULL%0,                        Hui%Li%NULL%0,                        Min%Liu%NULL%0,                        Yan%Xiao%NULL%0,                        Hong%Gao%NULL%0,                        Li%Guo%NULL%0,                        Jungang%Xie%NULL%0,                        Guangfa%Wang%NULL%0,                        Rongmeng%Jiang%NULL%0,                        Zhancheng%Gao%NULL%0,                        Qi%Jin%NULL%0,                        Jianwei%Wang%wangjw28@163.com%0,                        Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,                        Xiaofan%Lu%NULL%1,                        Yongsheng%Li%NULL%2,                        Yongsheng%Li%NULL%0,                        Hui%Chen%NULL%3,                        Taige%Chen%NULL%1,                        Nan%Su%NULL%1,                        Fang%Huang%NULL%1,                        Jing%Zhou%NULL%1,                        Bing%Zhang%NULL%1,                        Fangrong%Yan%NULL%2,                        Fangrong%Yan%NULL%0,                        Jun%Wang%NULL%2,                        Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                      Cabrini%Luca%coreGivesNoEmail%0,                      Castelli%Antonio%coreGivesNoEmail%0,                      Cecconi%Maurizio%coreGivesNoEmail%0,                      Cereda%Danilo%coreGivesNoEmail%0,                      Coluccello%Antonio%coreGivesNoEmail%0,                      Foti%Giuseppe%coreGivesNoEmail%0,                      Fumagalli%Roberto%coreGivesNoEmail%0,                      Grasselli%Giacomo%coreGivesNoEmail%0,                      Iotti%Giorgio%coreGivesNoEmail%0,                      Latronico%Nicola%coreGivesNoEmail%0,                      Lorini%Luca%coreGivesNoEmail%0,                      Merler%Stefano%coreGivesNoEmail%0,                      Natalini%Giuseppe%coreGivesNoEmail%0,                      Pesenti%Antonio%coreGivesNoEmail%0,                      Piatti%Alessandra%coreGivesNoEmail%0,                      Ranieri%Marco Vito%coreGivesNoEmail%0,                      Scandroglio%Anna Mara%coreGivesNoEmail%0,                      Storti%Enrico%coreGivesNoEmail%0,                      Zanella%Alberto%coreGivesNoEmail%0,                      Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                        Mikael%Chetboun%NULL%1,                        Julien%Poissy%NULL%1,                        Violeta%Raverdy%NULL%1,                        Jerome%Noulette%NULL%2,                        Jerome%Noulette%NULL%0,                        Alain%Duhamel%NULL%0,                        Julien%Labreuche%NULL%0,                        Daniel%Mathieu%NULL%2,                        Francois%Pattou%francois.pattou@univ-lille.fr%1,                        Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,                        Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                        Robert%Caizzo%NULL%2,                        Robert%Caizzo%NULL%0,                        Morgan%Caplan%NULL%1,                        Nicolas%Cousin%NULL%1,                        Thibault%Duburcq%NULL%1,                        Arthur%Durand%NULL%1,                        Ahmed%El kalioubie%NULL%1,                        Raphael%Favory%NULL%1,                        Bruno%Garcia%NULL%1,                        Patrick%Girardie%NULL%1,                        Julien%Goutay%NULL%1,                        Marion%Houard%NULL%1,                        Emmanuelle%Jaillette%NULL%1,                        Nicolas%Kostuj%NULL%1,                        Geoffrey%Ledoux%NULL%1,                        Daniel%Mathieu%NULL%0,                        Anne Sophie%Moreau%NULL%1,                        Christopher%Niles%NULL%1,                        Saad%Nseir%NULL%1,                        Thierry%Onimus%NULL%1,                        Erika%Parmentier%NULL%1,                        Sebastien%Préau%NULL%1,                        Laurent%Robriquet%NULL%1,                        Anahita%Rouze%NULL%1,                        Sophie%Six%NULL%1,                        Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                        Samuel L%Bruce%NULL%1,                        Cody L%Slater%NULL%1,                        Jonathan R%Tiao%NULL%1,                        Matthew R%Baldwin%NULL%2,                        R Graham%Barr%NULL%1,                        Bernard P%Chang%NULL%1,                        Katherine H%Chau%NULL%1,                        Justin J%Choi%NULL%1,                        Nicholas%Gavin%NULL%1,                        Parag%Goyal%NULL%1,                        Angela M%Mills%NULL%1,                        Ashmi A%Patel%NULL%1,                        Marie-Laure S%Romney%NULL%1,                        Monika M%Safford%NULL%1,                        Neil W%Schluger%NULL%1,                        Soumitra%Sengupta%NULL%1,                        Magdalena E%Sobieszczyk%NULL%1,                        Jason E%Zucker%NULL%1,                        Paul A%Asadourian%NULL%1,                        Fletcher M%Bell%NULL%1,                        Rebekah%Boyd%NULL%1,                        Matthew F%Cohen%NULL%1,                        MacAlistair I%Colquhoun%NULL%1,                        Lucy A%Colville%NULL%1,                        Joseph H%de Jonge%NULL%1,                        Lyle B%Dershowitz%NULL%1,                        Shirin A%Dey%NULL%1,                        Katherine A%Eiseman%NULL%1,                        Zachary P%Girvin%NULL%1,                        Daniella T%Goni%NULL%1,                        Amro A%Harb%NULL%1,                        Nicholas%Herzik%NULL%1,                        Sarah%Householder%NULL%1,                        Lara E%Karaaslan%NULL%1,                        Heather%Lee%NULL%1,                        Evan%Lieberman%NULL%1,                        Andrew%Ling%NULL%1,                        Ree%Lu%NULL%1,                        Arthur Y%Shou%NULL%1,                        Alexander C%Sisti%NULL%1,                        Zachary E%Snow%NULL%1,                        Colin P%Sperring%NULL%1,                        Yuqing%Xiong%NULL%1,                        Henry W%Zhou%NULL%1,                        Karthik%Natarajan%NULL%1,                        George%Hripcsak%NULL%1,                        Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                        Mark%Caridi-Scheible%NULL%0,                        James M.%Blum%NULL%0,                        Chad%Robichaux%NULL%0,                        Colleen%Kraft%NULL%0,                        Jesse T.%Jacob%NULL%0,                        Craig S.%Jabaley%NULL%0,                        David%Carpenter%NULL%0,                        Roberta%Kaplow%NULL%0,                        Alfonso C.%Hernandez-Romieu%NULL%0,                        Max W.%Adelman%NULL%0,                        Greg S.%Martin%NULL%0,                        Craig M.%Coopersmith%NULL%0,                        David J.%Murphy%NULL%0,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                        Bijan J.%Ghassemieh%NULL%0,                        Michelle%Nichols%NULL%0,                        Richard%Kim%NULL%0,                        Keith R.%Jerome%NULL%0,                        Arun K.%Nalla%NULL%0,                        Alexander L.%Greninger%NULL%0,                        Sudhakar%Pipavath%NULL%0,                        Mark M.%Wurfel%NULL%0,                        Laura%Evans%NULL%0,                        Patricia A.%Kritek%NULL%0,                        T. Eoin%West%NULL%0,                        Andrew%Luks%NULL%0,                        Anthony%Gerbino%NULL%0,                        Chris R.%Dale%NULL%0,                        Jason D.%Goldman%NULL%0,                        Shane%O’Mahony%NULL%0,                        Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                      Becker%L.B.%coreGivesNoEmail%0,                      Chelico%J.D.%coreGivesNoEmail%0,                      Cohen%S.L.%coreGivesNoEmail%0,                      Cookingham%J.%coreGivesNoEmail%0,                      Coppa%K.%coreGivesNoEmail%0,                      Crawford%J.M.%coreGivesNoEmail%0,                      Davidson%K.W.%coreGivesNoEmail%0,                      Diefenbach%M.A.%coreGivesNoEmail%0,                      Dominello%A.J.%coreGivesNoEmail%0,                      Duer-Hefele%J.%coreGivesNoEmail%0,                      Falzon%L.%coreGivesNoEmail%0,                      Gitlin%J.%coreGivesNoEmail%0,                      Hajizadeh%N.%coreGivesNoEmail%0,                      Harvin%T.G.%coreGivesNoEmail%0,                      Hirsch%J.S.%coreGivesNoEmail%0,                      Hirschwerk%D.A.%coreGivesNoEmail%0,                      Kim%E.J.%coreGivesNoEmail%0,                      Kozel%Z.M.%coreGivesNoEmail%0,                      Marrast%L.M.%coreGivesNoEmail%0,                      McGinn%T.%coreGivesNoEmail%0,                      Mogavero%J.N.%coreGivesNoEmail%0,                      Narasimhan%M.%coreGivesNoEmail%0,                      Osorio%G.A.%coreGivesNoEmail%0,                      Qiu%M.%coreGivesNoEmail%0,                      Richardson%S.%coreGivesNoEmail%0,                      Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,                        Jehan%Alladina%NULL%2,                        Jehan%Alladina%NULL%0,                        Camille R.%Petri%NULL%2,                        Camille R.%Petri%NULL%0,                        Jason H.%Maley%NULL%2,                        Jason H.%Maley%NULL%0,                        Ari%Moskowitz%NULL%1,                        Benjamin D.%Medoff%NULL%1,                        Kathryn A.%Hibbert%NULL%2,                        Kathryn A.%Hibbert%NULL%0,                        B. Taylor%Thompson%NULL%1,                        C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,                        Adam J%Russak%NULL%2,                        Adam J%Russak%NULL%0,                        Jessica K%De Freitas%NULL%1,                        Anuradha%Lala%NULL%1,                        Riccardo%Miotto%NULL%1,                        Akhil%Vaid%NULL%1,                        Kipp W%Johnson%NULL%1,                        Matteo%Danieletto%NULL%1,                        Eddye%Golden%NULL%1,                        Dara%Meyer%NULL%1,                        Manbir%Singh%NULL%1,                        Sulaiman%Somani%NULL%1,                        Arjun%Kapoor%NULL%1,                        Ross%O'Hagan%NULL%1,                        Sayan%Manna%NULL%1,                        Udit%Nangia%NULL%1,                        Suraj K%Jaladanki%NULL%1,                        Paul%O’Reilly%NULL%2,                        Paul%O’Reilly%NULL%0,                        Laura M%Huckins%NULL%1,                        Patricia%Glowe%NULL%1,                        Arash%Kia%NULL%1,                        Prem%Timsina%NULL%1,                        Robert M%Freeman%NULL%1,                        Matthew A%Levin%NULL%1,                        Jeffrey%Jhang%NULL%1,                        Adolfo%Firpo%NULL%1,                        Patricia%Kovatch%NULL%1,                        Joseph%Finkelstein%NULL%1,                        Judith A%Aberg%NULL%1,                        Emilia%Bagiella%NULL%1,                        Carol R%Horowitz%NULL%1,                        Barbara%Murphy%NULL%1,                        Zahi A%Fayad%NULL%1,                        Jagat%Narula%NULL%1,                        Eric J%Nestler%NULL%1,                        V%Fuster%NULL%1,                        Carlos%Cordon-Cardo%NULL%1,                        Dennis%Charney%NULL%1,                        David L%Reich%NULL%1,                        Allan%Just%NULL%1,                        Erwin P%Bottinger%NULL%1,                        Alexander W%Charney%NULL%1,                        Benjamin S%Glicksberg%NULL%1,                        Girish N%Nadkarni%NULL%1,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,                         Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,                         Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,                         Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,                         Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,                         Bruno%Riou%bruno.riou@aphp.fr%2,                         Bruno%Riou%bruno.riou@aphp.fr%0,                         Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                         Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                         Gilles%Hejblum%gilles.hejblum@inserm.fr%2,                         Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,                         Peiyun%Li%NULL%1,                         Liang%Ma%NULL%1,                         Hang%Liang%NULL%1,                         Jie%Lei%NULL%0,                         Wenqiang%Li%NULL%1,                         Kun%Wang%NULL%0,                         Yu%Song%NULL%1,                         Shuai%Li%NULL%1,                         Wei%Yang%NULL%1,                         Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,                          C.% Hong%null%1,                          J.% Meng%null%1,                          Z.% Wu%null%1,                          P.% Zhou%null%1,                          C.% Ye%null%1,                          B.% Sun%null%1,                          L. M.% Kucirka%null%1,                          A. S.% Azman%null%1,                          T.% Wang%null%0,                          J.% Chen%null%1,                          Z.% Wang%null%1,                          L.% Liu%null%0,                          J.% Lessler%null%1,                          J. K.% Edwards%null%1,                          T.% Ma%null%1,                          G. % Zhang%null%1,      Q.%Bi%null%1,      C.% Hong%null%1,      J.% Meng%null%1,      Z.% Wu%null%1,      P.% Zhou%null%0,      C.% Ye%null%1,      B.% Sun%null%1,      L. M.% Kucirka%null%1,      A. S.% Azman%null%1,      T.% Wang%null%0,      J.% Chen%null%1,      Z.% Wang%null%1,      L.% Liu%null%0,      J.% Lessler%null%1,      J. K.% Edwards%null%1,      T.% Ma%null%1,      G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                         Ting%Yu%NULL%0,                         Ronghui%Du%NULL%0,                         Guohui%Fan%NULL%0,                         Ying%Liu%NULL%0,                         Zhibo%Liu%NULL%0,                         Jie%Xiang%NULL%0,                         Yeming%Wang%NULL%0,                         Bin%Song%NULL%0,                         Xiaoying%Gu%NULL%0,                         Lulu%Guan%NULL%0,                         Yuan%Wei%NULL%0,                         Hui%Li%NULL%0,                         Xudong%Wu%NULL%0,                         Jiuyang%Xu%NULL%0,                         Shengjin%Tu%NULL%0,                         Yi%Zhang%NULL%0,                         Hua%Chen%NULL%0,                         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,                         Zhiheng%Xu%NULL%1,                         Xuesong%Liu%NULL%1,                         Lihua%Cai%NULL%1,                         Haichong%Zheng%NULL%1,                         Yongbo%Huang%NULL%1,                         Lixin%Zhou%NULL%1,                         Linxi%Huang%NULL%1,                         Yun%Ling%NULL%0,                         Liehua%Deng%NULL%1,                         Jianwei%Li%NULL%0,                         Sibei%Chen%NULL%1,                         Dongdong%Liu%NULL%1,                         Zhimin%Lin%NULL%1,                         Liang%Zhou%NULL%1,                         Weiqun%He%NULL%1,                         Nanshan%Zhong%NULL%0,                         Xiaoqing%Liu%NULL%3,                         Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,                         Li-jun%Sun%NULL%1,                         Mi%Xu%NULL%1,                         Jian%Pan%NULL%1,                         Yun-tao%Zhang%NULL%1,                         Xue-ling%Fang%NULL%1,                         Qiang%Fang%NULL%1,                         Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                         Li-Min%Liu%NULL%2,                         Wen%Yin%NULL%0,                         Wen%Wang%NULL%0,                         Lu-Lu%Guan%NULL%2,                         Ming-Li%Yuan%NULL%0,                         Yu-Lei%Li%NULL%2,                         Yi%Hu%NULL%0,                         Xu-Yan%Li%NULL%0,                         Bing%Sun%NULL%2,                         Peng%Peng%NULL%0,                         Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                         Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                         Wenlin%Cheng%NULL%0,                         Lei%Yu%NULL%0,                         Ya-Kun%Liu%NULL%0,                         Xiaoyong%Hu%NULL%0,                         Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                         Zheng-yi%Ni%NULL%0,                         Zheng-yi%Ni%NULL%0,                         Yu%Hu%NULL%0,                         Wen-hua%Liang%NULL%0,                         Chun-quan%Ou%NULL%0,                         Jian-xing%He%NULL%0,                         Lei%Liu%NULL%0,                         Hong%Shan%NULL%0,                         Chun-liang%Lei%NULL%0,                         David S.C.%Hui%NULL%0,                         Bin%Du%NULL%0,                         Lan-juan%Li%NULL%0,                         Guang%Zeng%NULL%0,                         Kwok-Yung%Yuen%NULL%0,                         Ru-chong%Chen%NULL%0,                         Chun-li%Tang%NULL%0,                         Tao%Wang%NULL%0,                         Ping-yan%Chen%NULL%0,                         Jie%Xiang%NULL%0,                         Shi-yue%Li%NULL%0,                         Jin-lin%Wang%NULL%0,                         Zi-jing%Liang%NULL%0,                         Yi-xiang%Peng%NULL%0,                         Li%Wei%NULL%0,                         Yong%Liu%NULL%0,                         Ya-hua%Hu%NULL%0,                         Peng%Peng%NULL%0,                         Jian-ming%Wang%NULL%0,                         Ji-yang%Liu%NULL%0,                         Zhong%Chen%NULL%0,                         Gang%Li%NULL%0,                         Zhi-jian%Zheng%NULL%0,                         Shao-qin%Qiu%NULL%0,                         Jie%Luo%NULL%0,                         Chang-jiang%Ye%NULL%0,                         Shao-yong%Zhu%NULL%0,                         Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                         Fang%Jiang%NULL%0,                         Wating%Su%NULL%2,                         Chang%Chen%NULL%2,                         Jingli%Chen%NULL%2,                         Wei%Mei%NULL%2,                         Li-Ying%Zhan%NULL%2,                         Yifan%Jia%NULL%2,                         Liangqing%Zhang%NULL%2,                         Danyong%Liu%NULL%2,                         Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,                         Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                         Yuan%Yu%NULL%0,                         Jiqian%Xu%NULL%0,                         Huaqing%Shu%NULL%0,                         Jia'an%Xia%NULL%0,                         Hong%Liu%NULL%0,                         Yongran%Wu%NULL%0,                         Lu%Zhang%NULL%0,                         Zhui%Yu%NULL%0,                         Minghao%Fang%NULL%0,                         Ting%Yu%NULL%0,                         Yaxin%Wang%NULL%0,                         Shangwen%Pan%NULL%0,                         Xiaojing%Zou%NULL%0,                         Shiying%Yuan%NULL%0,                         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                         Yeming%Wang%NULL%0,                         Xingwang%Li%NULL%0,                         Lili%Ren%NULL%0,                         Jianping%Zhao%NULL%0,                         Yi%Hu%NULL%0,                         Li%Zhang%NULL%0,                         Guohui%Fan%NULL%0,                         Jiuyang%Xu%NULL%0,                         Xiaoying%Gu%NULL%0,                         Zhenshun%Cheng%NULL%0,                         Ting%Yu%NULL%0,                         Jiaan%Xia%NULL%0,                         Yuan%Wei%NULL%0,                         Wenjuan%Wu%NULL%0,                         Xuelei%Xie%NULL%0,                         Wen%Yin%NULL%0,                         Hui%Li%NULL%0,                         Min%Liu%NULL%0,                         Yan%Xiao%NULL%0,                         Hong%Gao%NULL%0,                         Li%Guo%NULL%0,                         Jungang%Xie%NULL%0,                         Guangfa%Wang%NULL%0,                         Rongmeng%Jiang%NULL%0,                         Zhancheng%Gao%NULL%0,                         Qi%Jin%NULL%0,                         Jianwei%Wang%wangjw28@163.com%0,                         Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,                         Xiaofan%Lu%NULL%1,                         Yongsheng%Li%NULL%2,                         Yongsheng%Li%NULL%0,                         Hui%Chen%NULL%3,                         Taige%Chen%NULL%1,                         Nan%Su%NULL%1,                         Fang%Huang%NULL%1,                         Jing%Zhou%NULL%1,                         Bing%Zhang%NULL%1,                         Fangrong%Yan%NULL%2,                         Fangrong%Yan%NULL%0,                         Jun%Wang%NULL%2,                         Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                       Cabrini%Luca%coreGivesNoEmail%0,                       Castelli%Antonio%coreGivesNoEmail%0,                       Cecconi%Maurizio%coreGivesNoEmail%0,                       Cereda%Danilo%coreGivesNoEmail%0,                       Coluccello%Antonio%coreGivesNoEmail%0,                       Foti%Giuseppe%coreGivesNoEmail%0,                       Fumagalli%Roberto%coreGivesNoEmail%0,                       Grasselli%Giacomo%coreGivesNoEmail%0,                       Iotti%Giorgio%coreGivesNoEmail%0,                       Latronico%Nicola%coreGivesNoEmail%0,                       Lorini%Luca%coreGivesNoEmail%0,                       Merler%Stefano%coreGivesNoEmail%0,                       Natalini%Giuseppe%coreGivesNoEmail%0,                       Pesenti%Antonio%coreGivesNoEmail%0,                       Piatti%Alessandra%coreGivesNoEmail%0,                       Ranieri%Marco Vito%coreGivesNoEmail%0,                       Scandroglio%Anna Mara%coreGivesNoEmail%0,                       Storti%Enrico%coreGivesNoEmail%0,                       Zanella%Alberto%coreGivesNoEmail%0,                       Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                         Mikael%Chetboun%NULL%1,                         Julien%Poissy%NULL%1,                         Violeta%Raverdy%NULL%1,                         Jerome%Noulette%NULL%2,                         Jerome%Noulette%NULL%0,                         Alain%Duhamel%NULL%0,                         Julien%Labreuche%NULL%0,                         Daniel%Mathieu%NULL%2,                         Francois%Pattou%francois.pattou@univ-lille.fr%1,                         Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,                         Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                         Robert%Caizzo%NULL%2,                         Robert%Caizzo%NULL%0,                         Morgan%Caplan%NULL%1,                         Nicolas%Cousin%NULL%1,                         Thibault%Duburcq%NULL%1,                         Arthur%Durand%NULL%1,                         Ahmed%El kalioubie%NULL%1,                         Raphael%Favory%NULL%1,                         Bruno%Garcia%NULL%1,                         Patrick%Girardie%NULL%1,                         Julien%Goutay%NULL%1,                         Marion%Houard%NULL%1,                         Emmanuelle%Jaillette%NULL%1,                         Nicolas%Kostuj%NULL%1,                         Geoffrey%Ledoux%NULL%1,                         Daniel%Mathieu%NULL%0,                         Anne Sophie%Moreau%NULL%1,                         Christopher%Niles%NULL%1,                         Saad%Nseir%NULL%1,                         Thierry%Onimus%NULL%1,                         Erika%Parmentier%NULL%1,                         Sebastien%Préau%NULL%1,                         Laurent%Robriquet%NULL%1,                         Anahita%Rouze%NULL%1,                         Sophie%Six%NULL%1,                         Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                         Samuel L%Bruce%NULL%1,                         Cody L%Slater%NULL%1,                         Jonathan R%Tiao%NULL%1,                         Matthew R%Baldwin%NULL%2,                         R Graham%Barr%NULL%1,                         Bernard P%Chang%NULL%1,                         Katherine H%Chau%NULL%1,                         Justin J%Choi%NULL%1,                         Nicholas%Gavin%NULL%1,                         Parag%Goyal%NULL%1,                         Angela M%Mills%NULL%1,                         Ashmi A%Patel%NULL%1,                         Marie-Laure S%Romney%NULL%1,                         Monika M%Safford%NULL%1,                         Neil W%Schluger%NULL%1,                         Soumitra%Sengupta%NULL%1,                         Magdalena E%Sobieszczyk%NULL%1,                         Jason E%Zucker%NULL%1,                         Paul A%Asadourian%NULL%1,                         Fletcher M%Bell%NULL%1,                         Rebekah%Boyd%NULL%1,                         Matthew F%Cohen%NULL%1,                         MacAlistair I%Colquhoun%NULL%1,                         Lucy A%Colville%NULL%1,                         Joseph H%de Jonge%NULL%1,                         Lyle B%Dershowitz%NULL%1,                         Shirin A%Dey%NULL%1,                         Katherine A%Eiseman%NULL%1,                         Zachary P%Girvin%NULL%1,                         Daniella T%Goni%NULL%1,                         Amro A%Harb%NULL%1,                         Nicholas%Herzik%NULL%1,                         Sarah%Householder%NULL%1,                         Lara E%Karaaslan%NULL%1,                         Heather%Lee%NULL%1,                         Evan%Lieberman%NULL%1,                         Andrew%Ling%NULL%1,                         Ree%Lu%NULL%1,                         Arthur Y%Shou%NULL%1,                         Alexander C%Sisti%NULL%1,                         Zachary E%Snow%NULL%1,                         Colin P%Sperring%NULL%1,                         Yuqing%Xiong%NULL%1,                         Henry W%Zhou%NULL%1,                         Karthik%Natarajan%NULL%1,                         George%Hripcsak%NULL%1,                         Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                         Mark%Caridi-Scheible%NULL%0,                         James M.%Blum%NULL%0,                         Chad%Robichaux%NULL%0,                         Colleen%Kraft%NULL%0,                         Jesse T.%Jacob%NULL%0,                         Craig S.%Jabaley%NULL%0,                         David%Carpenter%NULL%0,                         Roberta%Kaplow%NULL%0,                         Alfonso C.%Hernandez-Romieu%NULL%0,                         Max W.%Adelman%NULL%0,                         Greg S.%Martin%NULL%0,                         Craig M.%Coopersmith%NULL%0,                         David J.%Murphy%NULL%0,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                         Bijan J.%Ghassemieh%NULL%0,                         Michelle%Nichols%NULL%0,                         Richard%Kim%NULL%0,                         Keith R.%Jerome%NULL%0,                         Arun K.%Nalla%NULL%0,                         Alexander L.%Greninger%NULL%0,                         Sudhakar%Pipavath%NULL%0,                         Mark M.%Wurfel%NULL%0,                         Laura%Evans%NULL%0,                         Patricia A.%Kritek%NULL%0,                         T. Eoin%West%NULL%0,                         Andrew%Luks%NULL%0,                         Anthony%Gerbino%NULL%0,                         Chris R.%Dale%NULL%0,                         Jason D.%Goldman%NULL%0,                         Shane%O’Mahony%NULL%0,                         Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                       Becker%L.B.%coreGivesNoEmail%0,                       Chelico%J.D.%coreGivesNoEmail%0,                       Cohen%S.L.%coreGivesNoEmail%0,                       Cookingham%J.%coreGivesNoEmail%0,                       Coppa%K.%coreGivesNoEmail%0,                       Crawford%J.M.%coreGivesNoEmail%0,                       Davidson%K.W.%coreGivesNoEmail%0,                       Diefenbach%M.A.%coreGivesNoEmail%0,                       Dominello%A.J.%coreGivesNoEmail%0,                       Duer-Hefele%J.%coreGivesNoEmail%0,                       Falzon%L.%coreGivesNoEmail%0,                       Gitlin%J.%coreGivesNoEmail%0,                       Hajizadeh%N.%coreGivesNoEmail%0,                       Harvin%T.G.%coreGivesNoEmail%0,                       Hirsch%J.S.%coreGivesNoEmail%0,                       Hirschwerk%D.A.%coreGivesNoEmail%0,                       Kim%E.J.%coreGivesNoEmail%0,                       Kozel%Z.M.%coreGivesNoEmail%0,                       Marrast%L.M.%coreGivesNoEmail%0,                       McGinn%T.%coreGivesNoEmail%0,                       Mogavero%J.N.%coreGivesNoEmail%0,                       Narasimhan%M.%coreGivesNoEmail%0,                       Osorio%G.A.%coreGivesNoEmail%0,                       Qiu%M.%coreGivesNoEmail%0,                       Richardson%S.%coreGivesNoEmail%0,                       Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,                         Jehan%Alladina%NULL%2,                         Jehan%Alladina%NULL%0,                         Camille R.%Petri%NULL%2,                         Camille R.%Petri%NULL%0,                         Jason H.%Maley%NULL%2,                         Jason H.%Maley%NULL%0,                         Ari%Moskowitz%NULL%1,                         Benjamin D.%Medoff%NULL%1,                         Kathryn A.%Hibbert%NULL%2,                         Kathryn A.%Hibbert%NULL%0,                         B. Taylor%Thompson%NULL%1,                         C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,                         Adam J%Russak%NULL%2,                         Adam J%Russak%NULL%0,                         Jessica K%De Freitas%NULL%1,                         Anuradha%Lala%NULL%1,                         Riccardo%Miotto%NULL%1,                         Akhil%Vaid%NULL%1,                         Kipp W%Johnson%NULL%1,                         Matteo%Danieletto%NULL%1,                         Eddye%Golden%NULL%1,                         Dara%Meyer%NULL%1,                         Manbir%Singh%NULL%1,                         Sulaiman%Somani%NULL%1,                         Arjun%Kapoor%NULL%1,                         Ross%O'Hagan%NULL%1,                         Sayan%Manna%NULL%1,                         Udit%Nangia%NULL%1,                         Suraj K%Jaladanki%NULL%1,                         Paul%O’Reilly%NULL%2,                         Paul%O’Reilly%NULL%0,                         Laura M%Huckins%NULL%1,                         Patricia%Glowe%NULL%1,                         Arash%Kia%NULL%1,                         Prem%Timsina%NULL%1,                         Robert M%Freeman%NULL%1,                         Matthew A%Levin%NULL%1,                         Jeffrey%Jhang%NULL%1,                         Adolfo%Firpo%NULL%1,                         Patricia%Kovatch%NULL%1,                         Joseph%Finkelstein%NULL%1,                         Judith A%Aberg%NULL%1,                         Emilia%Bagiella%NULL%1,                         Carol R%Horowitz%NULL%1,                         Barbara%Murphy%NULL%1,                         Zahi A%Fayad%NULL%1,                         Jagat%Narula%NULL%1,                         Eric J%Nestler%NULL%1,                         V%Fuster%NULL%1,                         Carlos%Cordon-Cardo%NULL%1,                         Dennis%Charney%NULL%1,                         David L%Reich%NULL%1,                         Allan%Just%NULL%1,                         Erwin P%Bottinger%NULL%1,                         Alexander W%Charney%NULL%1,                         Benjamin S%Glicksberg%NULL%1,                         Girish N%Nadkarni%NULL%1,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,                          Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,                          Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,                          Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,                          Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,                          Bruno%Riou%bruno.riou@aphp.fr%2,                          Bruno%Riou%bruno.riou@aphp.fr%0,                          Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                          Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                          Gilles%Hejblum%gilles.hejblum@inserm.fr%2,                          Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,                          Peiyun%Li%NULL%1,                          Liang%Ma%NULL%1,                          Hang%Liang%NULL%1,                          Jie%Lei%NULL%0,                          Wenqiang%Li%NULL%1,                          Kun%Wang%NULL%0,                          Yu%Song%NULL%1,                          Shuai%Li%NULL%1,                          Wei%Yang%NULL%1,                          Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,                           C.% Hong%null%1,                           J.% Meng%null%1,                           Z.% Wu%null%1,                           P.% Zhou%null%1,                           C.% Ye%null%1,                           B.% Sun%null%1,                           L. M.% Kucirka%null%1,                           A. S.% Azman%null%1,                           T.% Wang%null%0,                           J.% Chen%null%1,                           Z.% Wang%null%1,                           L.% Liu%null%0,                           J.% Lessler%null%1,                           J. K.% Edwards%null%1,                           T.% Ma%null%1,                           G. % Zhang%null%1,       Q.%Bi%null%1,       C.% Hong%null%1,       J.% Meng%null%1,       Z.% Wu%null%1,       P.% Zhou%null%0,       C.% Ye%null%1,       B.% Sun%null%1,       L. M.% Kucirka%null%1,       A. S.% Azman%null%1,       T.% Wang%null%0,       J.% Chen%null%1,       Z.% Wang%null%1,       L.% Liu%null%0,       J.% Lessler%null%1,       J. K.% Edwards%null%1,       T.% Ma%null%1,       G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                          Ting%Yu%NULL%0,                          Ronghui%Du%NULL%0,                          Guohui%Fan%NULL%0,                          Ying%Liu%NULL%0,                          Zhibo%Liu%NULL%0,                          Jie%Xiang%NULL%0,                          Yeming%Wang%NULL%0,                          Bin%Song%NULL%0,                          Xiaoying%Gu%NULL%0,                          Lulu%Guan%NULL%0,                          Yuan%Wei%NULL%0,                          Hui%Li%NULL%0,                          Xudong%Wu%NULL%0,                          Jiuyang%Xu%NULL%0,                          Shengjin%Tu%NULL%0,                          Yi%Zhang%NULL%0,                          Hua%Chen%NULL%0,                          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,                          Zhiheng%Xu%NULL%1,                          Xuesong%Liu%NULL%1,                          Lihua%Cai%NULL%1,                          Haichong%Zheng%NULL%1,                          Yongbo%Huang%NULL%1,                          Lixin%Zhou%NULL%1,                          Linxi%Huang%NULL%1,                          Yun%Ling%NULL%0,                          Liehua%Deng%NULL%1,                          Jianwei%Li%NULL%0,                          Sibei%Chen%NULL%1,                          Dongdong%Liu%NULL%1,                          Zhimin%Lin%NULL%1,                          Liang%Zhou%NULL%1,                          Weiqun%He%NULL%1,                          Nanshan%Zhong%NULL%0,                          Xiaoqing%Liu%NULL%3,                          Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,                          Li-jun%Sun%NULL%1,                          Mi%Xu%NULL%1,                          Jian%Pan%NULL%1,                          Yun-tao%Zhang%NULL%1,                          Xue-ling%Fang%NULL%1,                          Qiang%Fang%NULL%1,                          Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                          Li-Min%Liu%NULL%2,                          Wen%Yin%NULL%0,                          Wen%Wang%NULL%0,                          Lu-Lu%Guan%NULL%2,                          Ming-Li%Yuan%NULL%0,                          Yu-Lei%Li%NULL%2,                          Yi%Hu%NULL%0,                          Xu-Yan%Li%NULL%0,                          Bing%Sun%NULL%2,                          Peng%Peng%NULL%0,                          Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                          Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                          Wenlin%Cheng%NULL%0,                          Lei%Yu%NULL%0,                          Ya-Kun%Liu%NULL%0,                          Xiaoyong%Hu%NULL%0,                          Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                          Zheng-yi%Ni%NULL%0,                          Zheng-yi%Ni%NULL%0,                          Yu%Hu%NULL%0,                          Wen-hua%Liang%NULL%0,                          Chun-quan%Ou%NULL%0,                          Jian-xing%He%NULL%0,                          Lei%Liu%NULL%0,                          Hong%Shan%NULL%0,                          Chun-liang%Lei%NULL%0,                          David S.C.%Hui%NULL%0,                          Bin%Du%NULL%0,                          Lan-juan%Li%NULL%0,                          Guang%Zeng%NULL%0,                          Kwok-Yung%Yuen%NULL%0,                          Ru-chong%Chen%NULL%0,                          Chun-li%Tang%NULL%0,                          Tao%Wang%NULL%0,                          Ping-yan%Chen%NULL%0,                          Jie%Xiang%NULL%0,                          Shi-yue%Li%NULL%0,                          Jin-lin%Wang%NULL%0,                          Zi-jing%Liang%NULL%0,                          Yi-xiang%Peng%NULL%0,                          Li%Wei%NULL%0,                          Yong%Liu%NULL%0,                          Ya-hua%Hu%NULL%0,                          Peng%Peng%NULL%0,                          Jian-ming%Wang%NULL%0,                          Ji-yang%Liu%NULL%0,                          Zhong%Chen%NULL%0,                          Gang%Li%NULL%0,                          Zhi-jian%Zheng%NULL%0,                          Shao-qin%Qiu%NULL%0,                          Jie%Luo%NULL%0,                          Chang-jiang%Ye%NULL%0,                          Shao-yong%Zhu%NULL%0,                          Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                          Fang%Jiang%NULL%0,                          Wating%Su%NULL%2,                          Chang%Chen%NULL%2,                          Jingli%Chen%NULL%2,                          Wei%Mei%NULL%2,                          Li-Ying%Zhan%NULL%2,                          Yifan%Jia%NULL%2,                          Liangqing%Zhang%NULL%2,                          Danyong%Liu%NULL%2,                          Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,                          Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                          Yuan%Yu%NULL%0,                          Jiqian%Xu%NULL%0,                          Huaqing%Shu%NULL%0,                          Jia'an%Xia%NULL%0,                          Hong%Liu%NULL%0,                          Yongran%Wu%NULL%0,                          Lu%Zhang%NULL%0,                          Zhui%Yu%NULL%0,                          Minghao%Fang%NULL%0,                          Ting%Yu%NULL%0,                          Yaxin%Wang%NULL%0,                          Shangwen%Pan%NULL%0,                          Xiaojing%Zou%NULL%0,                          Shiying%Yuan%NULL%0,                          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                          Yeming%Wang%NULL%0,                          Xingwang%Li%NULL%0,                          Lili%Ren%NULL%0,                          Jianping%Zhao%NULL%0,                          Yi%Hu%NULL%0,                          Li%Zhang%NULL%0,                          Guohui%Fan%NULL%0,                          Jiuyang%Xu%NULL%0,                          Xiaoying%Gu%NULL%0,                          Zhenshun%Cheng%NULL%0,                          Ting%Yu%NULL%0,                          Jiaan%Xia%NULL%0,                          Yuan%Wei%NULL%0,                          Wenjuan%Wu%NULL%0,                          Xuelei%Xie%NULL%0,                          Wen%Yin%NULL%0,                          Hui%Li%NULL%0,                          Min%Liu%NULL%0,                          Yan%Xiao%NULL%0,                          Hong%Gao%NULL%0,                          Li%Guo%NULL%0,                          Jungang%Xie%NULL%0,                          Guangfa%Wang%NULL%0,                          Rongmeng%Jiang%NULL%0,                          Zhancheng%Gao%NULL%0,                          Qi%Jin%NULL%0,                          Jianwei%Wang%wangjw28@163.com%0,                          Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,                          Xiaofan%Lu%NULL%1,                          Yongsheng%Li%NULL%2,                          Yongsheng%Li%NULL%0,                          Hui%Chen%NULL%3,                          Taige%Chen%NULL%1,                          Nan%Su%NULL%1,                          Fang%Huang%NULL%1,                          Jing%Zhou%NULL%1,                          Bing%Zhang%NULL%1,                          Fangrong%Yan%NULL%2,                          Fangrong%Yan%NULL%0,                          Jun%Wang%NULL%2,                          Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                        Cabrini%Luca%coreGivesNoEmail%0,                        Castelli%Antonio%coreGivesNoEmail%0,                        Cecconi%Maurizio%coreGivesNoEmail%0,                        Cereda%Danilo%coreGivesNoEmail%0,                        Coluccello%Antonio%coreGivesNoEmail%0,                        Foti%Giuseppe%coreGivesNoEmail%0,                        Fumagalli%Roberto%coreGivesNoEmail%0,                        Grasselli%Giacomo%coreGivesNoEmail%0,                        Iotti%Giorgio%coreGivesNoEmail%0,                        Latronico%Nicola%coreGivesNoEmail%0,                        Lorini%Luca%coreGivesNoEmail%0,                        Merler%Stefano%coreGivesNoEmail%0,                        Natalini%Giuseppe%coreGivesNoEmail%0,                        Pesenti%Antonio%coreGivesNoEmail%0,                        Piatti%Alessandra%coreGivesNoEmail%0,                        Ranieri%Marco Vito%coreGivesNoEmail%0,                        Scandroglio%Anna Mara%coreGivesNoEmail%0,                        Storti%Enrico%coreGivesNoEmail%0,                        Zanella%Alberto%coreGivesNoEmail%0,                        Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                          Mikael%Chetboun%NULL%1,                          Julien%Poissy%NULL%1,                          Violeta%Raverdy%NULL%1,                          Jerome%Noulette%NULL%2,                          Jerome%Noulette%NULL%0,                          Alain%Duhamel%NULL%0,                          Julien%Labreuche%NULL%0,                          Daniel%Mathieu%NULL%2,                          Francois%Pattou%francois.pattou@univ-lille.fr%1,                          Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,                          Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                          Robert%Caizzo%NULL%2,                          Robert%Caizzo%NULL%0,                          Morgan%Caplan%NULL%1,                          Nicolas%Cousin%NULL%1,                          Thibault%Duburcq%NULL%1,                          Arthur%Durand%NULL%1,                          Ahmed%El kalioubie%NULL%1,                          Raphael%Favory%NULL%1,                          Bruno%Garcia%NULL%1,                          Patrick%Girardie%NULL%1,                          Julien%Goutay%NULL%1,                          Marion%Houard%NULL%1,                          Emmanuelle%Jaillette%NULL%1,                          Nicolas%Kostuj%NULL%1,                          Geoffrey%Ledoux%NULL%1,                          Daniel%Mathieu%NULL%0,                          Anne Sophie%Moreau%NULL%1,                          Christopher%Niles%NULL%1,                          Saad%Nseir%NULL%1,                          Thierry%Onimus%NULL%1,                          Erika%Parmentier%NULL%1,                          Sebastien%Préau%NULL%1,                          Laurent%Robriquet%NULL%1,                          Anahita%Rouze%NULL%1,                          Sophie%Six%NULL%1,                          Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                          Samuel L%Bruce%NULL%1,                          Cody L%Slater%NULL%1,                          Jonathan R%Tiao%NULL%1,                          Matthew R%Baldwin%NULL%2,                          R Graham%Barr%NULL%1,                          Bernard P%Chang%NULL%1,                          Katherine H%Chau%NULL%1,                          Justin J%Choi%NULL%1,                          Nicholas%Gavin%NULL%1,                          Parag%Goyal%NULL%1,                          Angela M%Mills%NULL%1,                          Ashmi A%Patel%NULL%1,                          Marie-Laure S%Romney%NULL%1,                          Monika M%Safford%NULL%1,                          Neil W%Schluger%NULL%1,                          Soumitra%Sengupta%NULL%1,                          Magdalena E%Sobieszczyk%NULL%1,                          Jason E%Zucker%NULL%1,                          Paul A%Asadourian%NULL%1,                          Fletcher M%Bell%NULL%1,                          Rebekah%Boyd%NULL%1,                          Matthew F%Cohen%NULL%1,                          MacAlistair I%Colquhoun%NULL%1,                          Lucy A%Colville%NULL%1,                          Joseph H%de Jonge%NULL%1,                          Lyle B%Dershowitz%NULL%1,                          Shirin A%Dey%NULL%1,                          Katherine A%Eiseman%NULL%1,                          Zachary P%Girvin%NULL%1,                          Daniella T%Goni%NULL%1,                          Amro A%Harb%NULL%1,                          Nicholas%Herzik%NULL%1,                          Sarah%Householder%NULL%1,                          Lara E%Karaaslan%NULL%1,                          Heather%Lee%NULL%1,                          Evan%Lieberman%NULL%1,                          Andrew%Ling%NULL%1,                          Ree%Lu%NULL%1,                          Arthur Y%Shou%NULL%1,                          Alexander C%Sisti%NULL%1,                          Zachary E%Snow%NULL%1,                          Colin P%Sperring%NULL%1,                          Yuqing%Xiong%NULL%1,                          Henry W%Zhou%NULL%1,                          Karthik%Natarajan%NULL%1,                          George%Hripcsak%NULL%1,                          Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                          Mark%Caridi-Scheible%NULL%0,                          James M.%Blum%NULL%0,                          Chad%Robichaux%NULL%0,                          Colleen%Kraft%NULL%0,                          Jesse T.%Jacob%NULL%0,                          Craig S.%Jabaley%NULL%0,                          David%Carpenter%NULL%0,                          Roberta%Kaplow%NULL%0,                          Alfonso C.%Hernandez-Romieu%NULL%0,                          Max W.%Adelman%NULL%0,                          Greg S.%Martin%NULL%0,                          Craig M.%Coopersmith%NULL%0,                          David J.%Murphy%NULL%0,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                          Bijan J.%Ghassemieh%NULL%0,                          Michelle%Nichols%NULL%0,                          Richard%Kim%NULL%0,                          Keith R.%Jerome%NULL%0,                          Arun K.%Nalla%NULL%0,                          Alexander L.%Greninger%NULL%0,                          Sudhakar%Pipavath%NULL%0,                          Mark M.%Wurfel%NULL%0,                          Laura%Evans%NULL%0,                          Patricia A.%Kritek%NULL%0,                          T. Eoin%West%NULL%0,                          Andrew%Luks%NULL%0,                          Anthony%Gerbino%NULL%0,                          Chris R.%Dale%NULL%0,                          Jason D.%Goldman%NULL%0,                          Shane%O’Mahony%NULL%0,                          Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                        Becker%L.B.%coreGivesNoEmail%0,                        Chelico%J.D.%coreGivesNoEmail%0,                        Cohen%S.L.%coreGivesNoEmail%0,                        Cookingham%J.%coreGivesNoEmail%0,                        Coppa%K.%coreGivesNoEmail%0,                        Crawford%J.M.%coreGivesNoEmail%0,                        Davidson%K.W.%coreGivesNoEmail%0,                        Diefenbach%M.A.%coreGivesNoEmail%0,                        Dominello%A.J.%coreGivesNoEmail%0,                        Duer-Hefele%J.%coreGivesNoEmail%0,                        Falzon%L.%coreGivesNoEmail%0,                        Gitlin%J.%coreGivesNoEmail%0,                        Hajizadeh%N.%coreGivesNoEmail%0,                        Harvin%T.G.%coreGivesNoEmail%0,                        Hirsch%J.S.%coreGivesNoEmail%0,                        Hirschwerk%D.A.%coreGivesNoEmail%0,                        Kim%E.J.%coreGivesNoEmail%0,                        Kozel%Z.M.%coreGivesNoEmail%0,                        Marrast%L.M.%coreGivesNoEmail%0,                        McGinn%T.%coreGivesNoEmail%0,                        Mogavero%J.N.%coreGivesNoEmail%0,                        Narasimhan%M.%coreGivesNoEmail%0,                        Osorio%G.A.%coreGivesNoEmail%0,                        Qiu%M.%coreGivesNoEmail%0,                        Richardson%S.%coreGivesNoEmail%0,                        Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,                          Jehan%Alladina%NULL%2,                          Jehan%Alladina%NULL%0,                          Camille R.%Petri%NULL%2,                          Camille R.%Petri%NULL%0,                          Jason H.%Maley%NULL%2,                          Jason H.%Maley%NULL%0,                          Ari%Moskowitz%NULL%1,                          Benjamin D.%Medoff%NULL%1,                          Kathryn A.%Hibbert%NULL%2,                          Kathryn A.%Hibbert%NULL%0,                          B. Taylor%Thompson%NULL%1,                          C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,                          Adam J%Russak%NULL%2,                          Adam J%Russak%NULL%0,                          Jessica K%De Freitas%NULL%1,                          Anuradha%Lala%NULL%1,                          Riccardo%Miotto%NULL%1,                          Akhil%Vaid%NULL%1,                          Kipp W%Johnson%NULL%1,                          Matteo%Danieletto%NULL%1,                          Eddye%Golden%NULL%1,                          Dara%Meyer%NULL%1,                          Manbir%Singh%NULL%1,                          Sulaiman%Somani%NULL%1,                          Arjun%Kapoor%NULL%1,                          Ross%O'Hagan%NULL%1,                          Sayan%Manna%NULL%1,                          Udit%Nangia%NULL%1,                          Suraj K%Jaladanki%NULL%1,                          Paul%O’Reilly%NULL%2,                          Paul%O’Reilly%NULL%0,                          Laura M%Huckins%NULL%1,                          Patricia%Glowe%NULL%1,                          Arash%Kia%NULL%1,                          Prem%Timsina%NULL%1,                          Robert M%Freeman%NULL%1,                          Matthew A%Levin%NULL%1,                          Jeffrey%Jhang%NULL%1,                          Adolfo%Firpo%NULL%1,                          Patricia%Kovatch%NULL%1,                          Joseph%Finkelstein%NULL%1,                          Judith A%Aberg%NULL%1,                          Emilia%Bagiella%NULL%1,                          Carol R%Horowitz%NULL%1,                          Barbara%Murphy%NULL%1,                          Zahi A%Fayad%NULL%1,                          Jagat%Narula%NULL%1,                          Eric J%Nestler%NULL%1,                          V%Fuster%NULL%1,                          Carlos%Cordon-Cardo%NULL%1,                          Dennis%Charney%NULL%1,                          David L%Reich%NULL%1,                          Allan%Just%NULL%1,                          Erwin P%Bottinger%NULL%1,                          Alexander W%Charney%NULL%1,                          Benjamin S%Glicksberg%NULL%1,                          Girish N%Nadkarni%NULL%1,                          NULL%NULL%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2468,6 +2795,9 @@
       <c r="I1" t="s">
         <v>196</v>
       </c>
+      <c r="J1" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2483,7 +2813,7 @@
         <v>382</v>
       </c>
       <c r="E2" t="s">
-        <v>573</v>
+        <v>684</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -2496,6 +2826,9 @@
       </c>
       <c r="I2" t="s">
         <v>546</v>
+      </c>
+      <c r="J2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3">
@@ -2512,7 +2845,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>574</v>
+        <v>685</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -2525,6 +2858,9 @@
       </c>
       <c r="I3" t="s">
         <v>548</v>
+      </c>
+      <c r="J3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4">
@@ -2541,7 +2877,7 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>575</v>
+        <v>686</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -2554,6 +2890,9 @@
       </c>
       <c r="I4" t="s">
         <v>550</v>
+      </c>
+      <c r="J4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5">
@@ -2570,7 +2909,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>576</v>
+        <v>687</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -2583,6 +2922,9 @@
       </c>
       <c r="I5" t="s">
         <v>552</v>
+      </c>
+      <c r="J5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6">
@@ -2599,7 +2941,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>577</v>
+        <v>688</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -2612,6 +2954,9 @@
       </c>
       <c r="I6" t="s">
         <v>548</v>
+      </c>
+      <c r="J6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="7">
@@ -2628,7 +2973,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>578</v>
+        <v>689</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -2641,6 +2986,9 @@
       </c>
       <c r="I7" t="s">
         <v>546</v>
+      </c>
+      <c r="J7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8">
@@ -2657,7 +3005,7 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>579</v>
+        <v>690</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -2670,6 +3018,9 @@
       </c>
       <c r="I8" t="s">
         <v>548</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -2686,7 +3037,7 @@
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>580</v>
+        <v>691</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -2699,6 +3050,9 @@
       </c>
       <c r="I9" t="s">
         <v>548</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10">
@@ -2715,7 +3069,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>581</v>
+        <v>692</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -2728,6 +3082,9 @@
       </c>
       <c r="I10" t="s">
         <v>548</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -2744,7 +3101,7 @@
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>582</v>
+        <v>693</v>
       </c>
       <c r="F11" t="s">
         <v>90</v>
@@ -2757,6 +3114,9 @@
       </c>
       <c r="I11" t="s">
         <v>552</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="12">
@@ -2773,7 +3133,7 @@
         <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>583</v>
+        <v>694</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -2786,6 +3146,9 @@
       </c>
       <c r="I12" t="s">
         <v>552</v>
+      </c>
+      <c r="J12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="13">
@@ -2802,7 +3165,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>584</v>
+        <v>695</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -2815,6 +3178,9 @@
       </c>
       <c r="I13" t="s">
         <v>552</v>
+      </c>
+      <c r="J13" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="14">
@@ -2831,7 +3197,7 @@
         <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>585</v>
+        <v>696</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -2844,6 +3210,9 @@
       </c>
       <c r="I14" t="s">
         <v>548</v>
+      </c>
+      <c r="J14" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="15">
@@ -2860,7 +3229,7 @@
         <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>586</v>
+        <v>697</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -2873,6 +3242,9 @@
       </c>
       <c r="I15" t="s">
         <v>563</v>
+      </c>
+      <c r="J15" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="16">
@@ -2889,7 +3261,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>587</v>
+        <v>698</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -2902,6 +3274,9 @@
       </c>
       <c r="I16" t="s">
         <v>548</v>
+      </c>
+      <c r="J16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="17">
@@ -2918,7 +3293,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>588</v>
+        <v>398</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -2927,10 +3302,13 @@
         <v>302</v>
       </c>
       <c r="H17" t="s">
-        <v>303</v>
+        <v>612</v>
       </c>
       <c r="I17" t="s">
-        <v>563</v>
+        <v>101</v>
+      </c>
+      <c r="J17" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="18">
@@ -2947,7 +3325,7 @@
         <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>589</v>
+        <v>699</v>
       </c>
       <c r="F18" t="s">
         <v>112</v>
@@ -2960,6 +3338,9 @@
       </c>
       <c r="I18" t="s">
         <v>548</v>
+      </c>
+      <c r="J18" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="19">
@@ -2976,7 +3357,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>590</v>
+        <v>700</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -2989,6 +3370,9 @@
       </c>
       <c r="I19" t="s">
         <v>548</v>
+      </c>
+      <c r="J19" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="20">
@@ -3005,7 +3389,7 @@
         <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>591</v>
+        <v>701</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
@@ -3018,6 +3402,9 @@
       </c>
       <c r="I20" t="s">
         <v>548</v>
+      </c>
+      <c r="J20" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="21">
@@ -3034,7 +3421,7 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>592</v>
+        <v>402</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
@@ -3043,10 +3430,13 @@
         <v>302</v>
       </c>
       <c r="H21" t="s">
-        <v>309</v>
+        <v>612</v>
       </c>
       <c r="I21" t="s">
-        <v>563</v>
+        <v>101</v>
+      </c>
+      <c r="J21" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="22">
@@ -3063,7 +3453,7 @@
         <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>593</v>
+        <v>702</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -3076,6 +3466,9 @@
       </c>
       <c r="I22" t="s">
         <v>563</v>
+      </c>
+      <c r="J22" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="23">
@@ -3092,7 +3485,7 @@
         <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>594</v>
+        <v>703</v>
       </c>
       <c r="F23" t="s">
         <v>124</v>
@@ -3105,6 +3498,9 @@
       </c>
       <c r="I23" t="s">
         <v>548</v>
+      </c>
+      <c r="J23" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -3121,7 +3517,7 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>595</v>
+        <v>704</v>
       </c>
       <c r="F24" t="s">
         <v>128</v>
@@ -3134,6 +3530,9 @@
       </c>
       <c r="I24" t="s">
         <v>548</v>
+      </c>
+      <c r="J24" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/71.xlsx
+++ b/Covid_19_Dataset_and_References/References/71.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4616" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5000" uniqueCount="747">
   <si>
     <t>Doi</t>
   </si>
@@ -2439,6 +2439,132 @@
   </si>
   <si>
     <t>[Ishan%Paranjpe%NULL%0,                          Adam J%Russak%NULL%2,                          Adam J%Russak%NULL%0,                          Jessica K%De Freitas%NULL%1,                          Anuradha%Lala%NULL%1,                          Riccardo%Miotto%NULL%1,                          Akhil%Vaid%NULL%1,                          Kipp W%Johnson%NULL%1,                          Matteo%Danieletto%NULL%1,                          Eddye%Golden%NULL%1,                          Dara%Meyer%NULL%1,                          Manbir%Singh%NULL%1,                          Sulaiman%Somani%NULL%1,                          Arjun%Kapoor%NULL%1,                          Ross%O'Hagan%NULL%1,                          Sayan%Manna%NULL%1,                          Udit%Nangia%NULL%1,                          Suraj K%Jaladanki%NULL%1,                          Paul%O’Reilly%NULL%2,                          Paul%O’Reilly%NULL%0,                          Laura M%Huckins%NULL%1,                          Patricia%Glowe%NULL%1,                          Arash%Kia%NULL%1,                          Prem%Timsina%NULL%1,                          Robert M%Freeman%NULL%1,                          Matthew A%Levin%NULL%1,                          Jeffrey%Jhang%NULL%1,                          Adolfo%Firpo%NULL%1,                          Patricia%Kovatch%NULL%1,                          Joseph%Finkelstein%NULL%1,                          Judith A%Aberg%NULL%1,                          Emilia%Bagiella%NULL%1,                          Carol R%Horowitz%NULL%1,                          Barbara%Murphy%NULL%1,                          Zahi A%Fayad%NULL%1,                          Jagat%Narula%NULL%1,                          Eric J%Nestler%NULL%1,                          V%Fuster%NULL%1,                          Carlos%Cordon-Cardo%NULL%1,                          Dennis%Charney%NULL%1,                          David L%Reich%NULL%1,                          Allan%Just%NULL%1,                          Erwin P%Bottinger%NULL%1,                          Alexander W%Charney%NULL%1,                          Benjamin S%Glicksberg%NULL%1,                          Girish N%Nadkarni%NULL%1,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,                           Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,                           Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,                           Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,                           Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,                           Bruno%Riou%bruno.riou@aphp.fr%2,                           Bruno%Riou%bruno.riou@aphp.fr%0,                           Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                           Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                           Gilles%Hejblum%gilles.hejblum@inserm.fr%2,                           Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,                           Peiyun%Li%NULL%1,                           Liang%Ma%NULL%1,                           Hang%Liang%NULL%1,                           Jie%Lei%NULL%0,                           Wenqiang%Li%NULL%1,                           Kun%Wang%NULL%0,                           Yu%Song%NULL%1,                           Shuai%Li%NULL%1,                           Wei%Yang%NULL%1,                           Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,                            C.% Hong%null%1,                            J.% Meng%null%1,                            Z.% Wu%null%1,                            P.% Zhou%null%1,                            C.% Ye%null%1,                            B.% Sun%null%1,                            L. M.% Kucirka%null%1,                            A. S.% Azman%null%1,                            T.% Wang%null%0,                            J.% Chen%null%1,                            Z.% Wang%null%1,                            L.% Liu%null%0,                            J.% Lessler%null%1,                            J. K.% Edwards%null%1,                            T.% Ma%null%1,                            G. % Zhang%null%1,        Q.%Bi%null%1,        C.% Hong%null%1,        J.% Meng%null%1,        Z.% Wu%null%1,        P.% Zhou%null%0,        C.% Ye%null%1,        B.% Sun%null%1,        L. M.% Kucirka%null%1,        A. S.% Azman%null%1,        T.% Wang%null%0,        J.% Chen%null%1,        Z.% Wang%null%1,        L.% Liu%null%0,        J.% Lessler%null%1,        J. K.% Edwards%null%1,        T.% Ma%null%1,        G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                           Ting%Yu%NULL%0,                           Ronghui%Du%NULL%0,                           Guohui%Fan%NULL%0,                           Ying%Liu%NULL%0,                           Zhibo%Liu%NULL%0,                           Jie%Xiang%NULL%0,                           Yeming%Wang%NULL%0,                           Bin%Song%NULL%0,                           Xiaoying%Gu%NULL%0,                           Lulu%Guan%NULL%0,                           Yuan%Wei%NULL%0,                           Hui%Li%NULL%0,                           Xudong%Wu%NULL%0,                           Jiuyang%Xu%NULL%0,                           Shengjin%Tu%NULL%0,                           Yi%Zhang%NULL%0,                           Hua%Chen%NULL%0,                           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,                           Zhiheng%Xu%NULL%1,                           Xuesong%Liu%NULL%1,                           Lihua%Cai%NULL%1,                           Haichong%Zheng%NULL%1,                           Yongbo%Huang%NULL%1,                           Lixin%Zhou%NULL%1,                           Linxi%Huang%NULL%1,                           Yun%Ling%NULL%0,                           Liehua%Deng%NULL%1,                           Jianwei%Li%NULL%0,                           Sibei%Chen%NULL%1,                           Dongdong%Liu%NULL%1,                           Zhimin%Lin%NULL%1,                           Liang%Zhou%NULL%1,                           Weiqun%He%NULL%1,                           Nanshan%Zhong%NULL%0,                           Xiaoqing%Liu%NULL%3,                           Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,                           Li-jun%Sun%NULL%1,                           Mi%Xu%NULL%1,                           Jian%Pan%NULL%1,                           Yun-tao%Zhang%NULL%1,                           Xue-ling%Fang%NULL%1,                           Qiang%Fang%NULL%1,                           Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                           Li-Min%Liu%NULL%2,                           Wen%Yin%NULL%0,                           Wen%Wang%NULL%0,                           Lu-Lu%Guan%NULL%2,                           Ming-Li%Yuan%NULL%0,                           Yu-Lei%Li%NULL%2,                           Yi%Hu%NULL%0,                           Xu-Yan%Li%NULL%0,                           Bing%Sun%NULL%2,                           Peng%Peng%NULL%0,                           Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                           Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                           Wenlin%Cheng%NULL%0,                           Lei%Yu%NULL%0,                           Ya-Kun%Liu%NULL%0,                           Xiaoyong%Hu%NULL%0,                           Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                           Zheng-yi%Ni%NULL%0,                           Zheng-yi%Ni%NULL%0,                           Yu%Hu%NULL%0,                           Wen-hua%Liang%NULL%0,                           Chun-quan%Ou%NULL%0,                           Jian-xing%He%NULL%0,                           Lei%Liu%NULL%0,                           Hong%Shan%NULL%0,                           Chun-liang%Lei%NULL%0,                           David S.C.%Hui%NULL%0,                           Bin%Du%NULL%0,                           Lan-juan%Li%NULL%0,                           Guang%Zeng%NULL%0,                           Kwok-Yung%Yuen%NULL%0,                           Ru-chong%Chen%NULL%0,                           Chun-li%Tang%NULL%0,                           Tao%Wang%NULL%0,                           Ping-yan%Chen%NULL%0,                           Jie%Xiang%NULL%0,                           Shi-yue%Li%NULL%0,                           Jin-lin%Wang%NULL%0,                           Zi-jing%Liang%NULL%0,                           Yi-xiang%Peng%NULL%0,                           Li%Wei%NULL%0,                           Yong%Liu%NULL%0,                           Ya-hua%Hu%NULL%0,                           Peng%Peng%NULL%0,                           Jian-ming%Wang%NULL%0,                           Ji-yang%Liu%NULL%0,                           Zhong%Chen%NULL%0,                           Gang%Li%NULL%0,                           Zhi-jian%Zheng%NULL%0,                           Shao-qin%Qiu%NULL%0,                           Jie%Luo%NULL%0,                           Chang-jiang%Ye%NULL%0,                           Shao-yong%Zhu%NULL%0,                           Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                           Fang%Jiang%NULL%0,                           Wating%Su%NULL%2,                           Chang%Chen%NULL%2,                           Jingli%Chen%NULL%2,                           Wei%Mei%NULL%2,                           Li-Ying%Zhan%NULL%2,                           Yifan%Jia%NULL%2,                           Liangqing%Zhang%NULL%2,                           Danyong%Liu%NULL%2,                           Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,                           Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                           Yuan%Yu%NULL%0,                           Jiqian%Xu%NULL%0,                           Huaqing%Shu%NULL%0,                           Jia'an%Xia%NULL%0,                           Hong%Liu%NULL%0,                           Yongran%Wu%NULL%0,                           Lu%Zhang%NULL%0,                           Zhui%Yu%NULL%0,                           Minghao%Fang%NULL%0,                           Ting%Yu%NULL%0,                           Yaxin%Wang%NULL%0,                           Shangwen%Pan%NULL%0,                           Xiaojing%Zou%NULL%0,                           Shiying%Yuan%NULL%0,                           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                           Yeming%Wang%NULL%0,                           Xingwang%Li%NULL%0,                           Lili%Ren%NULL%0,                           Jianping%Zhao%NULL%0,                           Yi%Hu%NULL%0,                           Li%Zhang%NULL%0,                           Guohui%Fan%NULL%0,                           Jiuyang%Xu%NULL%0,                           Xiaoying%Gu%NULL%0,                           Zhenshun%Cheng%NULL%0,                           Ting%Yu%NULL%0,                           Jiaan%Xia%NULL%0,                           Yuan%Wei%NULL%0,                           Wenjuan%Wu%NULL%0,                           Xuelei%Xie%NULL%0,                           Wen%Yin%NULL%0,                           Hui%Li%NULL%0,                           Min%Liu%NULL%0,                           Yan%Xiao%NULL%0,                           Hong%Gao%NULL%0,                           Li%Guo%NULL%0,                           Jungang%Xie%NULL%0,                           Guangfa%Wang%NULL%0,                           Rongmeng%Jiang%NULL%0,                           Zhancheng%Gao%NULL%0,                           Qi%Jin%NULL%0,                           Jianwei%Wang%wangjw28@163.com%0,                           Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,                           Xiaofan%Lu%NULL%1,                           Yongsheng%Li%NULL%2,                           Yongsheng%Li%NULL%0,                           Hui%Chen%NULL%3,                           Taige%Chen%NULL%1,                           Nan%Su%NULL%1,                           Fang%Huang%NULL%1,                           Jing%Zhou%NULL%1,                           Bing%Zhang%NULL%1,                           Fangrong%Yan%NULL%2,                           Fangrong%Yan%NULL%0,                           Jun%Wang%NULL%2,                           Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                         Cabrini%Luca%coreGivesNoEmail%0,                         Castelli%Antonio%coreGivesNoEmail%0,                         Cecconi%Maurizio%coreGivesNoEmail%0,                         Cereda%Danilo%coreGivesNoEmail%0,                         Coluccello%Antonio%coreGivesNoEmail%0,                         Foti%Giuseppe%coreGivesNoEmail%0,                         Fumagalli%Roberto%coreGivesNoEmail%0,                         Grasselli%Giacomo%coreGivesNoEmail%0,                         Iotti%Giorgio%coreGivesNoEmail%0,                         Latronico%Nicola%coreGivesNoEmail%0,                         Lorini%Luca%coreGivesNoEmail%0,                         Merler%Stefano%coreGivesNoEmail%0,                         Natalini%Giuseppe%coreGivesNoEmail%0,                         Pesenti%Antonio%coreGivesNoEmail%0,                         Piatti%Alessandra%coreGivesNoEmail%0,                         Ranieri%Marco Vito%coreGivesNoEmail%0,                         Scandroglio%Anna Mara%coreGivesNoEmail%0,                         Storti%Enrico%coreGivesNoEmail%0,                         Zanella%Alberto%coreGivesNoEmail%0,                         Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                           Mikael%Chetboun%NULL%1,                           Julien%Poissy%NULL%1,                           Violeta%Raverdy%NULL%1,                           Jerome%Noulette%NULL%2,                           Jerome%Noulette%NULL%0,                           Alain%Duhamel%NULL%0,                           Julien%Labreuche%NULL%0,                           Daniel%Mathieu%NULL%2,                           Francois%Pattou%francois.pattou@univ-lille.fr%1,                           Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,                           Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                           Robert%Caizzo%NULL%2,                           Robert%Caizzo%NULL%0,                           Morgan%Caplan%NULL%1,                           Nicolas%Cousin%NULL%1,                           Thibault%Duburcq%NULL%1,                           Arthur%Durand%NULL%1,                           Ahmed%El kalioubie%NULL%1,                           Raphael%Favory%NULL%1,                           Bruno%Garcia%NULL%1,                           Patrick%Girardie%NULL%1,                           Julien%Goutay%NULL%1,                           Marion%Houard%NULL%1,                           Emmanuelle%Jaillette%NULL%1,                           Nicolas%Kostuj%NULL%1,                           Geoffrey%Ledoux%NULL%1,                           Daniel%Mathieu%NULL%0,                           Anne Sophie%Moreau%NULL%1,                           Christopher%Niles%NULL%1,                           Saad%Nseir%NULL%1,                           Thierry%Onimus%NULL%1,                           Erika%Parmentier%NULL%1,                           Sebastien%Préau%NULL%1,                           Laurent%Robriquet%NULL%1,                           Anahita%Rouze%NULL%1,                           Sophie%Six%NULL%1,                           Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                           Samuel L%Bruce%NULL%1,                           Cody L%Slater%NULL%1,                           Jonathan R%Tiao%NULL%1,                           Matthew R%Baldwin%NULL%2,                           R Graham%Barr%NULL%1,                           Bernard P%Chang%NULL%1,                           Katherine H%Chau%NULL%1,                           Justin J%Choi%NULL%1,                           Nicholas%Gavin%NULL%1,                           Parag%Goyal%NULL%1,                           Angela M%Mills%NULL%1,                           Ashmi A%Patel%NULL%1,                           Marie-Laure S%Romney%NULL%1,                           Monika M%Safford%NULL%1,                           Neil W%Schluger%NULL%1,                           Soumitra%Sengupta%NULL%1,                           Magdalena E%Sobieszczyk%NULL%1,                           Jason E%Zucker%NULL%1,                           Paul A%Asadourian%NULL%1,                           Fletcher M%Bell%NULL%1,                           Rebekah%Boyd%NULL%1,                           Matthew F%Cohen%NULL%1,                           MacAlistair I%Colquhoun%NULL%1,                           Lucy A%Colville%NULL%1,                           Joseph H%de Jonge%NULL%1,                           Lyle B%Dershowitz%NULL%1,                           Shirin A%Dey%NULL%1,                           Katherine A%Eiseman%NULL%1,                           Zachary P%Girvin%NULL%1,                           Daniella T%Goni%NULL%1,                           Amro A%Harb%NULL%1,                           Nicholas%Herzik%NULL%1,                           Sarah%Householder%NULL%1,                           Lara E%Karaaslan%NULL%1,                           Heather%Lee%NULL%1,                           Evan%Lieberman%NULL%1,                           Andrew%Ling%NULL%1,                           Ree%Lu%NULL%1,                           Arthur Y%Shou%NULL%1,                           Alexander C%Sisti%NULL%1,                           Zachary E%Snow%NULL%1,                           Colin P%Sperring%NULL%1,                           Yuqing%Xiong%NULL%1,                           Henry W%Zhou%NULL%1,                           Karthik%Natarajan%NULL%1,                           George%Hripcsak%NULL%1,                           Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                           Mark%Caridi-Scheible%NULL%0,                           James M.%Blum%NULL%0,                           Chad%Robichaux%NULL%0,                           Colleen%Kraft%NULL%0,                           Jesse T.%Jacob%NULL%0,                           Craig S.%Jabaley%NULL%0,                           David%Carpenter%NULL%0,                           Roberta%Kaplow%NULL%0,                           Alfonso C.%Hernandez-Romieu%NULL%0,                           Max W.%Adelman%NULL%0,                           Greg S.%Martin%NULL%0,                           Craig M.%Coopersmith%NULL%0,                           David J.%Murphy%NULL%0,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                           Bijan J.%Ghassemieh%NULL%0,                           Michelle%Nichols%NULL%0,                           Richard%Kim%NULL%0,                           Keith R.%Jerome%NULL%0,                           Arun K.%Nalla%NULL%0,                           Alexander L.%Greninger%NULL%0,                           Sudhakar%Pipavath%NULL%0,                           Mark M.%Wurfel%NULL%0,                           Laura%Evans%NULL%0,                           Patricia A.%Kritek%NULL%0,                           T. Eoin%West%NULL%0,                           Andrew%Luks%NULL%0,                           Anthony%Gerbino%NULL%0,                           Chris R.%Dale%NULL%0,                           Jason D.%Goldman%NULL%0,                           Shane%O’Mahony%NULL%0,                           Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                         Becker%L.B.%coreGivesNoEmail%0,                         Chelico%J.D.%coreGivesNoEmail%0,                         Cohen%S.L.%coreGivesNoEmail%0,                         Cookingham%J.%coreGivesNoEmail%0,                         Coppa%K.%coreGivesNoEmail%0,                         Crawford%J.M.%coreGivesNoEmail%0,                         Davidson%K.W.%coreGivesNoEmail%0,                         Diefenbach%M.A.%coreGivesNoEmail%0,                         Dominello%A.J.%coreGivesNoEmail%0,                         Duer-Hefele%J.%coreGivesNoEmail%0,                         Falzon%L.%coreGivesNoEmail%0,                         Gitlin%J.%coreGivesNoEmail%0,                         Hajizadeh%N.%coreGivesNoEmail%0,                         Harvin%T.G.%coreGivesNoEmail%0,                         Hirsch%J.S.%coreGivesNoEmail%0,                         Hirschwerk%D.A.%coreGivesNoEmail%0,                         Kim%E.J.%coreGivesNoEmail%0,                         Kozel%Z.M.%coreGivesNoEmail%0,                         Marrast%L.M.%coreGivesNoEmail%0,                         McGinn%T.%coreGivesNoEmail%0,                         Mogavero%J.N.%coreGivesNoEmail%0,                         Narasimhan%M.%coreGivesNoEmail%0,                         Osorio%G.A.%coreGivesNoEmail%0,                         Qiu%M.%coreGivesNoEmail%0,                         Richardson%S.%coreGivesNoEmail%0,                         Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,                           Jehan%Alladina%NULL%2,                           Jehan%Alladina%NULL%0,                           Camille R.%Petri%NULL%2,                           Camille R.%Petri%NULL%0,                           Jason H.%Maley%NULL%2,                           Jason H.%Maley%NULL%0,                           Ari%Moskowitz%NULL%1,                           Benjamin D.%Medoff%NULL%1,                           Kathryn A.%Hibbert%NULL%2,                           Kathryn A.%Hibbert%NULL%0,                           B. Taylor%Thompson%NULL%1,                           C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,                           Adam J%Russak%NULL%2,                           Adam J%Russak%NULL%0,                           Jessica K%De Freitas%NULL%1,                           Anuradha%Lala%NULL%1,                           Riccardo%Miotto%NULL%1,                           Akhil%Vaid%NULL%1,                           Kipp W%Johnson%NULL%1,                           Matteo%Danieletto%NULL%1,                           Eddye%Golden%NULL%1,                           Dara%Meyer%NULL%1,                           Manbir%Singh%NULL%1,                           Sulaiman%Somani%NULL%1,                           Arjun%Kapoor%NULL%1,                           Ross%O'Hagan%NULL%1,                           Sayan%Manna%NULL%1,                           Udit%Nangia%NULL%1,                           Suraj K%Jaladanki%NULL%1,                           Paul%O’Reilly%NULL%2,                           Paul%O’Reilly%NULL%0,                           Laura M%Huckins%NULL%1,                           Patricia%Glowe%NULL%1,                           Arash%Kia%NULL%1,                           Prem%Timsina%NULL%1,                           Robert M%Freeman%NULL%1,                           Matthew A%Levin%NULL%1,                           Jeffrey%Jhang%NULL%1,                           Adolfo%Firpo%NULL%1,                           Patricia%Kovatch%NULL%1,                           Joseph%Finkelstein%NULL%1,                           Judith A%Aberg%NULL%1,                           Emilia%Bagiella%NULL%1,                           Carol R%Horowitz%NULL%1,                           Barbara%Murphy%NULL%1,                           Zahi A%Fayad%NULL%1,                           Jagat%Narula%NULL%1,                           Eric J%Nestler%NULL%1,                           V%Fuster%NULL%1,                           Carlos%Cordon-Cardo%NULL%1,                           Dennis%Charney%NULL%1,                           David L%Reich%NULL%1,                           Allan%Just%NULL%1,                           Erwin P%Bottinger%NULL%1,                           Alexander W%Charney%NULL%1,                           Benjamin S%Glicksberg%NULL%1,                           Girish N%Nadkarni%NULL%1,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,                            Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,                            Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,                            Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,                            Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,                            Bruno%Riou%bruno.riou@aphp.fr%2,                            Bruno%Riou%bruno.riou@aphp.fr%0,                            Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                            Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                            Gilles%Hejblum%gilles.hejblum@inserm.fr%2,                            Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,                            Peiyun%Li%NULL%1,                            Liang%Ma%NULL%1,                            Hang%Liang%NULL%1,                            Jie%Lei%NULL%0,                            Wenqiang%Li%NULL%1,                            Kun%Wang%NULL%0,                            Yu%Song%NULL%1,                            Shuai%Li%NULL%1,                            Wei%Yang%NULL%1,                            Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Q.%Bi%null%1,                             C.% Hong%null%1,                             J.% Meng%null%1,                             Z.% Wu%null%1,                             P.% Zhou%null%1,                             C.% Ye%null%1,                             B.% Sun%null%1,                             L. M.% Kucirka%null%1,                             A. S.% Azman%null%1,                             T.% Wang%null%0,                             J.% Chen%null%1,                             Z.% Wang%null%1,                             L.% Liu%null%0,                             J.% Lessler%null%1,                             J. K.% Edwards%null%1,                             T.% Ma%null%1,                             G. % Zhang%null%1,         Q.%Bi%null%1,         C.% Hong%null%1,         J.% Meng%null%1,         Z.% Wu%null%1,         P.% Zhou%null%0,         C.% Ye%null%1,         B.% Sun%null%1,         L. M.% Kucirka%null%1,         A. S.% Azman%null%1,         T.% Wang%null%0,         J.% Chen%null%1,         Z.% Wang%null%1,         L.% Liu%null%0,         J.% Lessler%null%1,         J. K.% Edwards%null%1,         T.% Ma%null%1,         G. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                            Ting%Yu%NULL%0,                            Ronghui%Du%NULL%0,                            Guohui%Fan%NULL%0,                            Ying%Liu%NULL%0,                            Zhibo%Liu%NULL%0,                            Jie%Xiang%NULL%0,                            Yeming%Wang%NULL%0,                            Bin%Song%NULL%0,                            Xiaoying%Gu%NULL%0,                            Lulu%Guan%NULL%0,                            Yuan%Wei%NULL%0,                            Hui%Li%NULL%0,                            Xudong%Wu%NULL%0,                            Jiuyang%Xu%NULL%0,                            Shengjin%Tu%NULL%0,                            Yi%Zhang%NULL%0,                            Hua%Chen%NULL%0,                            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,                            Zhiheng%Xu%NULL%1,                            Xuesong%Liu%NULL%1,                            Lihua%Cai%NULL%1,                            Haichong%Zheng%NULL%1,                            Yongbo%Huang%NULL%1,                            Lixin%Zhou%NULL%1,                            Linxi%Huang%NULL%1,                            Yun%Ling%NULL%0,                            Liehua%Deng%NULL%1,                            Jianwei%Li%NULL%0,                            Sibei%Chen%NULL%1,                            Dongdong%Liu%NULL%1,                            Zhimin%Lin%NULL%1,                            Liang%Zhou%NULL%1,                            Weiqun%He%NULL%1,                            Nanshan%Zhong%NULL%0,                            Xiaoqing%Liu%NULL%3,                            Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,                            Li-jun%Sun%NULL%1,                            Mi%Xu%NULL%1,                            Jian%Pan%NULL%1,                            Yun-tao%Zhang%NULL%1,                            Xue-ling%Fang%NULL%1,                            Qiang%Fang%NULL%1,                            Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                            Li-Min%Liu%NULL%2,                            Wen%Yin%NULL%0,                            Wen%Wang%NULL%0,                            Lu-Lu%Guan%NULL%2,                            Ming-Li%Yuan%NULL%0,                            Yu-Lei%Li%NULL%2,                            Yi%Hu%NULL%0,                            Xu-Yan%Li%NULL%0,                            Bing%Sun%NULL%2,                            Peng%Peng%NULL%0,                            Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                            Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                            Wenlin%Cheng%NULL%0,                            Lei%Yu%NULL%0,                            Ya-Kun%Liu%NULL%0,                            Xiaoyong%Hu%NULL%0,                            Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                            Zheng-yi%Ni%NULL%0,                            Zheng-yi%Ni%NULL%0,                            Yu%Hu%NULL%0,                            Wen-hua%Liang%NULL%0,                            Chun-quan%Ou%NULL%0,                            Jian-xing%He%NULL%0,                            Lei%Liu%NULL%0,                            Hong%Shan%NULL%0,                            Chun-liang%Lei%NULL%0,                            David S.C.%Hui%NULL%0,                            Bin%Du%NULL%0,                            Lan-juan%Li%NULL%0,                            Guang%Zeng%NULL%0,                            Kwok-Yung%Yuen%NULL%0,                            Ru-chong%Chen%NULL%0,                            Chun-li%Tang%NULL%0,                            Tao%Wang%NULL%0,                            Ping-yan%Chen%NULL%0,                            Jie%Xiang%NULL%0,                            Shi-yue%Li%NULL%0,                            Jin-lin%Wang%NULL%0,                            Zi-jing%Liang%NULL%0,                            Yi-xiang%Peng%NULL%0,                            Li%Wei%NULL%0,                            Yong%Liu%NULL%0,                            Ya-hua%Hu%NULL%0,                            Peng%Peng%NULL%0,                            Jian-ming%Wang%NULL%0,                            Ji-yang%Liu%NULL%0,                            Zhong%Chen%NULL%0,                            Gang%Li%NULL%0,                            Zhi-jian%Zheng%NULL%0,                            Shao-qin%Qiu%NULL%0,                            Jie%Luo%NULL%0,                            Chang-jiang%Ye%NULL%0,                            Shao-yong%Zhu%NULL%0,                            Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                            Fang%Jiang%NULL%0,                            Wating%Su%NULL%2,                            Chang%Chen%NULL%2,                            Jingli%Chen%NULL%2,                            Wei%Mei%NULL%2,                            Li-Ying%Zhan%NULL%2,                            Yifan%Jia%NULL%2,                            Liangqing%Zhang%NULL%2,                            Danyong%Liu%NULL%2,                            Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,                            Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                            Yuan%Yu%NULL%0,                            Jiqian%Xu%NULL%0,                            Huaqing%Shu%NULL%0,                            Jia'an%Xia%NULL%0,                            Hong%Liu%NULL%0,                            Yongran%Wu%NULL%0,                            Lu%Zhang%NULL%0,                            Zhui%Yu%NULL%0,                            Minghao%Fang%NULL%0,                            Ting%Yu%NULL%0,                            Yaxin%Wang%NULL%0,                            Shangwen%Pan%NULL%0,                            Xiaojing%Zou%NULL%0,                            Shiying%Yuan%NULL%0,                            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                            Yeming%Wang%NULL%0,                            Xingwang%Li%NULL%0,                            Lili%Ren%NULL%0,                            Jianping%Zhao%NULL%0,                            Yi%Hu%NULL%0,                            Li%Zhang%NULL%0,                            Guohui%Fan%NULL%0,                            Jiuyang%Xu%NULL%0,                            Xiaoying%Gu%NULL%0,                            Zhenshun%Cheng%NULL%0,                            Ting%Yu%NULL%0,                            Jiaan%Xia%NULL%0,                            Yuan%Wei%NULL%0,                            Wenjuan%Wu%NULL%0,                            Xuelei%Xie%NULL%0,                            Wen%Yin%NULL%0,                            Hui%Li%NULL%0,                            Min%Liu%NULL%0,                            Yan%Xiao%NULL%0,                            Hong%Gao%NULL%0,                            Li%Guo%NULL%0,                            Jungang%Xie%NULL%0,                            Guangfa%Wang%NULL%0,                            Rongmeng%Jiang%NULL%0,                            Zhancheng%Gao%NULL%0,                            Qi%Jin%NULL%0,                            Jianwei%Wang%wangjw28@163.com%0,                            Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,                            Xiaofan%Lu%NULL%1,                            Yongsheng%Li%NULL%2,                            Yongsheng%Li%NULL%0,                            Hui%Chen%NULL%3,                            Taige%Chen%NULL%1,                            Nan%Su%NULL%1,                            Fang%Huang%NULL%1,                            Jing%Zhou%NULL%1,                            Bing%Zhang%NULL%1,                            Fangrong%Yan%NULL%2,                            Fangrong%Yan%NULL%0,                            Jun%Wang%NULL%2,                            Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                          Cabrini%Luca%coreGivesNoEmail%0,                          Castelli%Antonio%coreGivesNoEmail%0,                          Cecconi%Maurizio%coreGivesNoEmail%0,                          Cereda%Danilo%coreGivesNoEmail%0,                          Coluccello%Antonio%coreGivesNoEmail%0,                          Foti%Giuseppe%coreGivesNoEmail%0,                          Fumagalli%Roberto%coreGivesNoEmail%0,                          Grasselli%Giacomo%coreGivesNoEmail%0,                          Iotti%Giorgio%coreGivesNoEmail%0,                          Latronico%Nicola%coreGivesNoEmail%0,                          Lorini%Luca%coreGivesNoEmail%0,                          Merler%Stefano%coreGivesNoEmail%0,                          Natalini%Giuseppe%coreGivesNoEmail%0,                          Pesenti%Antonio%coreGivesNoEmail%0,                          Piatti%Alessandra%coreGivesNoEmail%0,                          Ranieri%Marco Vito%coreGivesNoEmail%0,                          Scandroglio%Anna Mara%coreGivesNoEmail%0,                          Storti%Enrico%coreGivesNoEmail%0,                          Zanella%Alberto%coreGivesNoEmail%0,                          Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                            Mikael%Chetboun%NULL%1,                            Julien%Poissy%NULL%1,                            Violeta%Raverdy%NULL%1,                            Jerome%Noulette%NULL%2,                            Jerome%Noulette%NULL%0,                            Alain%Duhamel%NULL%0,                            Julien%Labreuche%NULL%0,                            Daniel%Mathieu%NULL%2,                            Francois%Pattou%francois.pattou@univ-lille.fr%1,                            Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,                            Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                            Robert%Caizzo%NULL%2,                            Robert%Caizzo%NULL%0,                            Morgan%Caplan%NULL%1,                            Nicolas%Cousin%NULL%1,                            Thibault%Duburcq%NULL%1,                            Arthur%Durand%NULL%1,                            Ahmed%El kalioubie%NULL%1,                            Raphael%Favory%NULL%1,                            Bruno%Garcia%NULL%1,                            Patrick%Girardie%NULL%1,                            Julien%Goutay%NULL%1,                            Marion%Houard%NULL%1,                            Emmanuelle%Jaillette%NULL%1,                            Nicolas%Kostuj%NULL%1,                            Geoffrey%Ledoux%NULL%1,                            Daniel%Mathieu%NULL%0,                            Anne Sophie%Moreau%NULL%1,                            Christopher%Niles%NULL%1,                            Saad%Nseir%NULL%1,                            Thierry%Onimus%NULL%1,                            Erika%Parmentier%NULL%1,                            Sebastien%Préau%NULL%1,                            Laurent%Robriquet%NULL%1,                            Anahita%Rouze%NULL%1,                            Sophie%Six%NULL%1,                            Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                            Samuel L%Bruce%NULL%1,                            Cody L%Slater%NULL%1,                            Jonathan R%Tiao%NULL%1,                            Matthew R%Baldwin%NULL%2,                            R Graham%Barr%NULL%1,                            Bernard P%Chang%NULL%1,                            Katherine H%Chau%NULL%1,                            Justin J%Choi%NULL%1,                            Nicholas%Gavin%NULL%1,                            Parag%Goyal%NULL%1,                            Angela M%Mills%NULL%1,                            Ashmi A%Patel%NULL%1,                            Marie-Laure S%Romney%NULL%1,                            Monika M%Safford%NULL%1,                            Neil W%Schluger%NULL%1,                            Soumitra%Sengupta%NULL%1,                            Magdalena E%Sobieszczyk%NULL%1,                            Jason E%Zucker%NULL%1,                            Paul A%Asadourian%NULL%1,                            Fletcher M%Bell%NULL%1,                            Rebekah%Boyd%NULL%1,                            Matthew F%Cohen%NULL%1,                            MacAlistair I%Colquhoun%NULL%1,                            Lucy A%Colville%NULL%1,                            Joseph H%de Jonge%NULL%1,                            Lyle B%Dershowitz%NULL%1,                            Shirin A%Dey%NULL%1,                            Katherine A%Eiseman%NULL%1,                            Zachary P%Girvin%NULL%1,                            Daniella T%Goni%NULL%1,                            Amro A%Harb%NULL%1,                            Nicholas%Herzik%NULL%1,                            Sarah%Householder%NULL%1,                            Lara E%Karaaslan%NULL%1,                            Heather%Lee%NULL%1,                            Evan%Lieberman%NULL%1,                            Andrew%Ling%NULL%1,                            Ree%Lu%NULL%1,                            Arthur Y%Shou%NULL%1,                            Alexander C%Sisti%NULL%1,                            Zachary E%Snow%NULL%1,                            Colin P%Sperring%NULL%1,                            Yuqing%Xiong%NULL%1,                            Henry W%Zhou%NULL%1,                            Karthik%Natarajan%NULL%1,                            George%Hripcsak%NULL%1,                            Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                            Mark%Caridi-Scheible%NULL%0,                            James M.%Blum%NULL%0,                            Chad%Robichaux%NULL%0,                            Colleen%Kraft%NULL%0,                            Jesse T.%Jacob%NULL%0,                            Craig S.%Jabaley%NULL%0,                            David%Carpenter%NULL%0,                            Roberta%Kaplow%NULL%0,                            Alfonso C.%Hernandez-Romieu%NULL%0,                            Max W.%Adelman%NULL%0,                            Greg S.%Martin%NULL%0,                            Craig M.%Coopersmith%NULL%0,                            David J.%Murphy%NULL%0,                            NULL%NULL%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                            Bijan J.%Ghassemieh%NULL%0,                            Michelle%Nichols%NULL%0,                            Richard%Kim%NULL%0,                            Keith R.%Jerome%NULL%0,                            Arun K.%Nalla%NULL%0,                            Alexander L.%Greninger%NULL%0,                            Sudhakar%Pipavath%NULL%0,                            Mark M.%Wurfel%NULL%0,                            Laura%Evans%NULL%0,                            Patricia A.%Kritek%NULL%0,                            T. Eoin%West%NULL%0,                            Andrew%Luks%NULL%0,                            Anthony%Gerbino%NULL%0,                            Chris R.%Dale%NULL%0,                            Jason D.%Goldman%NULL%0,                            Shane%O’Mahony%NULL%0,                            Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                          Becker%L.B.%coreGivesNoEmail%0,                          Chelico%J.D.%coreGivesNoEmail%0,                          Cohen%S.L.%coreGivesNoEmail%0,                          Cookingham%J.%coreGivesNoEmail%0,                          Coppa%K.%coreGivesNoEmail%0,                          Crawford%J.M.%coreGivesNoEmail%0,                          Davidson%K.W.%coreGivesNoEmail%0,                          Diefenbach%M.A.%coreGivesNoEmail%0,                          Dominello%A.J.%coreGivesNoEmail%0,                          Duer-Hefele%J.%coreGivesNoEmail%0,                          Falzon%L.%coreGivesNoEmail%0,                          Gitlin%J.%coreGivesNoEmail%0,                          Hajizadeh%N.%coreGivesNoEmail%0,                          Harvin%T.G.%coreGivesNoEmail%0,                          Hirsch%J.S.%coreGivesNoEmail%0,                          Hirschwerk%D.A.%coreGivesNoEmail%0,                          Kim%E.J.%coreGivesNoEmail%0,                          Kozel%Z.M.%coreGivesNoEmail%0,                          Marrast%L.M.%coreGivesNoEmail%0,                          McGinn%T.%coreGivesNoEmail%0,                          Mogavero%J.N.%coreGivesNoEmail%0,                          Narasimhan%M.%coreGivesNoEmail%0,                          Osorio%G.A.%coreGivesNoEmail%0,                          Qiu%M.%coreGivesNoEmail%0,                          Richardson%S.%coreGivesNoEmail%0,                          Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,                            Jehan%Alladina%NULL%2,                            Jehan%Alladina%NULL%0,                            Camille R.%Petri%NULL%2,                            Camille R.%Petri%NULL%0,                            Jason H.%Maley%NULL%2,                            Jason H.%Maley%NULL%0,                            Ari%Moskowitz%NULL%1,                            Benjamin D.%Medoff%NULL%1,                            Kathryn A.%Hibbert%NULL%2,                            Kathryn A.%Hibbert%NULL%0,                            B. Taylor%Thompson%NULL%1,                            C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,                            Adam J%Russak%NULL%2,                            Adam J%Russak%NULL%0,                            Jessica K%De Freitas%NULL%1,                            Anuradha%Lala%NULL%1,                            Riccardo%Miotto%NULL%1,                            Akhil%Vaid%NULL%1,                            Kipp W%Johnson%NULL%1,                            Matteo%Danieletto%NULL%1,                            Eddye%Golden%NULL%1,                            Dara%Meyer%NULL%1,                            Manbir%Singh%NULL%1,                            Sulaiman%Somani%NULL%1,                            Arjun%Kapoor%NULL%1,                            Ross%O'Hagan%NULL%1,                            Sayan%Manna%NULL%1,                            Udit%Nangia%NULL%1,                            Suraj K%Jaladanki%NULL%1,                            Paul%O’Reilly%NULL%2,                            Paul%O’Reilly%NULL%0,                            Laura M%Huckins%NULL%1,                            Patricia%Glowe%NULL%1,                            Arash%Kia%NULL%1,                            Prem%Timsina%NULL%1,                            Robert M%Freeman%NULL%1,                            Matthew A%Levin%NULL%1,                            Jeffrey%Jhang%NULL%1,                            Adolfo%Firpo%NULL%1,                            Patricia%Kovatch%NULL%1,                            Joseph%Finkelstein%NULL%1,                            Judith A%Aberg%NULL%1,                            Emilia%Bagiella%NULL%1,                            Carol R%Horowitz%NULL%1,                            Barbara%Murphy%NULL%1,                            Zahi A%Fayad%NULL%1,                            Jagat%Narula%NULL%1,                            Eric J%Nestler%NULL%1,                            V%Fuster%NULL%1,                            Carlos%Cordon-Cardo%NULL%1,                            Dennis%Charney%NULL%1,                            David L%Reich%NULL%1,                            Allan%Just%NULL%1,                            Erwin P%Bottinger%NULL%1,                            Alexander W%Charney%NULL%1,                            Benjamin S%Glicksberg%NULL%1,                            Girish N%Nadkarni%NULL%1,                            NULL%NULL%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2813,7 +2939,7 @@
         <v>382</v>
       </c>
       <c r="E2" t="s">
-        <v>684</v>
+        <v>726</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -2845,7 +2971,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>685</v>
+        <v>727</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -2877,7 +3003,7 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>686</v>
+        <v>728</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -2909,7 +3035,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>687</v>
+        <v>729</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -2941,7 +3067,7 @@
         <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -2973,7 +3099,7 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -3005,7 +3131,7 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>690</v>
+        <v>732</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -3037,7 +3163,7 @@
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>691</v>
+        <v>733</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -3069,7 +3195,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>692</v>
+        <v>734</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -3101,7 +3227,7 @@
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>693</v>
+        <v>735</v>
       </c>
       <c r="F11" t="s">
         <v>90</v>
@@ -3133,7 +3259,7 @@
         <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>694</v>
+        <v>736</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -3165,7 +3291,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>695</v>
+        <v>737</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -3197,7 +3323,7 @@
         <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>696</v>
+        <v>738</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -3229,7 +3355,7 @@
         <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>697</v>
+        <v>739</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -3261,7 +3387,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>698</v>
+        <v>740</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -3293,7 +3419,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -3325,7 +3451,7 @@
         <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>699</v>
+        <v>741</v>
       </c>
       <c r="F18" t="s">
         <v>112</v>
@@ -3357,7 +3483,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>700</v>
+        <v>742</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -3389,7 +3515,7 @@
         <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>701</v>
+        <v>743</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
@@ -3421,7 +3547,7 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
@@ -3453,7 +3579,7 @@
         <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>702</v>
+        <v>744</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -3485,7 +3611,7 @@
         <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>703</v>
+        <v>745</v>
       </c>
       <c r="F23" t="s">
         <v>124</v>
@@ -3517,7 +3643,7 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>704</v>
+        <v>746</v>
       </c>
       <c r="F24" t="s">
         <v>128</v>
